--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F90B0E7-3EF0-F34E-9339-8EE4657F48F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3749DD-D1BD-4D48-BC7E-A4EC20FB1277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -15779,7 +15779,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (</t>
+          <t>(</t>
         </r>
         <r>
           <rPr>
@@ -28142,7 +28142,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -28371,36 +28371,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -29602,9 +29572,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T712"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B712" sqref="B712"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M714" sqref="M714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -69166,7 +69136,7 @@
     </row>
     <row r="707" spans="1:20" ht="17" customHeight="1">
       <c r="A707" s="14">
-        <f>N(A706)+1</f>
+        <f t="shared" ref="A707:A712" si="11">N(A706)+1</f>
         <v>706</v>
       </c>
       <c r="B707" s="15">
@@ -69220,7 +69190,7 @@
     </row>
     <row r="708" spans="1:20" ht="17" customHeight="1">
       <c r="A708" s="14">
-        <f>N(A707)+1</f>
+        <f t="shared" si="11"/>
         <v>707</v>
       </c>
       <c r="B708" s="15">
@@ -69274,7 +69244,7 @@
     </row>
     <row r="709" spans="1:20" ht="17" customHeight="1">
       <c r="A709" s="14">
-        <f>N(A708)+1</f>
+        <f t="shared" si="11"/>
         <v>708</v>
       </c>
       <c r="B709" s="15">
@@ -69328,7 +69298,7 @@
     </row>
     <row r="710" spans="1:20" ht="17" customHeight="1">
       <c r="A710" s="43">
-        <f>N(A709)+1</f>
+        <f t="shared" si="11"/>
         <v>709</v>
       </c>
       <c r="B710" s="44">
@@ -69382,7 +69352,7 @@
     </row>
     <row r="711" spans="1:20" ht="17" customHeight="1">
       <c r="A711" s="69">
-        <f>N(A710)+1</f>
+        <f t="shared" si="11"/>
         <v>710</v>
       </c>
       <c r="B711" s="70">
@@ -69435,53 +69405,53 @@
       </c>
     </row>
     <row r="712" spans="1:20" ht="17" customHeight="1">
-      <c r="A712" s="77">
-        <f>N(A711)+1</f>
+      <c r="A712" s="69">
+        <f t="shared" si="11"/>
         <v>711</v>
       </c>
-      <c r="B712" s="78">
+      <c r="B712" s="70">
         <v>45849</v>
       </c>
-      <c r="C712" s="79">
+      <c r="C712" s="71">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D712" s="80" t="s">
+      <c r="D712" s="69" t="s">
         <v>1050</v>
       </c>
-      <c r="E712" s="80" t="s">
+      <c r="E712" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="F712" s="80" t="s">
+      <c r="F712" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G712" s="81" t="s">
+      <c r="G712" s="72" t="s">
         <v>3997</v>
       </c>
-      <c r="H712" s="80" t="s">
+      <c r="H712" s="69" t="s">
         <v>824</v>
       </c>
-      <c r="I712" s="82" t="s">
+      <c r="I712" s="73" t="s">
         <v>3998</v>
       </c>
-      <c r="J712" s="86">
+      <c r="J712" s="42">
         <v>0</v>
       </c>
-      <c r="K712" s="83" t="s">
+      <c r="K712" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="L712" s="84" t="s">
+      <c r="L712" s="75" t="s">
         <v>3999</v>
       </c>
-      <c r="M712" s="84" t="s">
+      <c r="M712" s="75" t="s">
         <v>4000</v>
       </c>
-      <c r="N712" s="84" t="s">
+      <c r="N712" s="75" t="s">
         <v>4001</v>
       </c>
-      <c r="O712" s="84" t="s">
-        <v>16</v>
-      </c>
-      <c r="P712" s="85" t="s">
+      <c r="O712" s="75" t="s">
+        <v>16</v>
+      </c>
+      <c r="P712" s="76" t="s">
         <v>16</v>
       </c>
       <c r="Q712" s="41" t="s">

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D3749DD-D1BD-4D48-BC7E-A4EC20FB1277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3306EF-B2B7-A949-AD9B-A3F4F8CDD9CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -15403,14 +15403,139 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>지나: 최연우
-빅토르 투르게네프: 조성윤
-이반 투르게네프: 한상훈</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>지나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최연우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>빅토르</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>투르게네프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>조성윤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이반</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>투르게네프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>한상훈</t>
         </r>
       </text>
     </comment>
@@ -15870,7 +15995,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9260" uniqueCount="4002">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9260" uniqueCount="4003">
   <si>
     <t>시즌</t>
   </si>
@@ -27876,6 +28001,9 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.cgmgd27v0xmt</t>
+  </si>
+  <si>
+    <t>라센 19</t>
   </si>
 </sst>
 </file>
@@ -29572,9 +29700,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T712"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A693" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M714" sqref="M714"/>
+    <sheetView tabSelected="1" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A227" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E233" sqref="E233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -63437,7 +63565,7 @@
         <v>16</v>
       </c>
       <c r="E605" s="14" t="s">
-        <v>95</v>
+        <v>1145</v>
       </c>
       <c r="F605" s="14" t="s">
         <v>7</v>
@@ -63549,7 +63677,7 @@
         <v>16</v>
       </c>
       <c r="E607" s="14" t="s">
-        <v>48</v>
+        <v>1145</v>
       </c>
       <c r="F607" s="14" t="s">
         <v>7</v>
@@ -64613,7 +64741,7 @@
         <v>16</v>
       </c>
       <c r="E626" s="14" t="s">
-        <v>48</v>
+        <v>4002</v>
       </c>
       <c r="F626" s="14" t="s">
         <v>124</v>
@@ -64781,7 +64909,7 @@
         <v>16</v>
       </c>
       <c r="E629" s="14" t="s">
-        <v>95</v>
+        <v>1145</v>
       </c>
       <c r="F629" s="14" t="s">
         <v>7</v>
@@ -64893,7 +65021,7 @@
         <v>16</v>
       </c>
       <c r="E631" s="14" t="s">
-        <v>28</v>
+        <v>1145</v>
       </c>
       <c r="F631" s="14" t="s">
         <v>7</v>
@@ -65005,7 +65133,7 @@
         <v>16</v>
       </c>
       <c r="E633" s="14" t="s">
-        <v>28</v>
+        <v>1145</v>
       </c>
       <c r="F633" s="14" t="s">
         <v>7</v>
@@ -65229,7 +65357,7 @@
         <v>16</v>
       </c>
       <c r="E637" s="14" t="s">
-        <v>28</v>
+        <v>1145</v>
       </c>
       <c r="F637" s="14" t="s">
         <v>7</v>
@@ -65285,7 +65413,7 @@
         <v>16</v>
       </c>
       <c r="E638" s="14" t="s">
-        <v>28</v>
+        <v>1145</v>
       </c>
       <c r="F638" s="14" t="s">
         <v>7</v>
@@ -65341,7 +65469,7 @@
         <v>16</v>
       </c>
       <c r="E639" s="14" t="s">
-        <v>28</v>
+        <v>1145</v>
       </c>
       <c r="F639" s="14" t="s">
         <v>7</v>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D71945-A510-174B-9BB8-8F15B771EBD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57800781-9F36-ED41-B0AF-7BEEDC795ABC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -17010,16 +17010,195 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>니진스키: 박준휘
-디아길레프: 조성윤
-스트라빈스키: 박선영
-로몰라: 이다경
-한스 / 분신: 이지명</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>니진스키</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박준휘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>디아길레프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>조성윤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스트라빈스키</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박선영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로몰라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이다경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>한스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> / </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>분신</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이지명</t>
         </r>
       </text>
     </comment>
@@ -17246,15 +17425,140 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>차미호: 이재림
-차미: 정우연
-김고대: 정욱진
-오진혁: 김준영</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>차미호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이재림</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>차미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정우연</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김고대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정욱진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>오진혁</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김준영</t>
         </r>
       </text>
     </comment>
@@ -17689,6 +17993,74 @@
             <family val="2"/>
           </rPr>
           <t>조환지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I713" authorId="0" shapeId="0" xr:uid="{8000F52A-7545-D44F-9448-9D5B11E0ABF1}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박민성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>괴물</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>문태유</t>
         </r>
       </text>
     </comment>
@@ -17697,7 +18069,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9260" uniqueCount="4003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9273" uniqueCount="4008">
   <si>
     <t>시즌</t>
   </si>
@@ -29706,6 +30078,21 @@
   </si>
   <si>
     <t>(AU 중계) 자첫</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 박민성 문태유 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n36TKtF6oEtKfgfoW4FDsmvxHcQ1rRvj/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/223932431167</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.na98cd1atuwu</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/260001</t>
   </si>
 </sst>
 </file>
@@ -29972,7 +30359,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30201,6 +30588,36 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -31073,7 +31490,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:Q712" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:Q713" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -31400,11 +31817,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T712"/>
+  <dimension ref="A1:T713"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A687" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I719" sqref="I719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -71288,6 +71705,60 @@
         <v>3956</v>
       </c>
     </row>
+    <row r="713" spans="1:20" ht="17" customHeight="1">
+      <c r="A713" s="77">
+        <f>N(A712)+1</f>
+        <v>712</v>
+      </c>
+      <c r="B713" s="78">
+        <v>45851</v>
+      </c>
+      <c r="C713" s="79">
+        <v>0.875</v>
+      </c>
+      <c r="D713" s="80" t="s">
+        <v>1044</v>
+      </c>
+      <c r="E713" s="80" t="s">
+        <v>13</v>
+      </c>
+      <c r="F713" s="80" t="s">
+        <v>42</v>
+      </c>
+      <c r="G713" s="81" t="s">
+        <v>3991</v>
+      </c>
+      <c r="H713" s="80" t="s">
+        <v>821</v>
+      </c>
+      <c r="I713" s="82" t="s">
+        <v>4003</v>
+      </c>
+      <c r="J713" s="86">
+        <v>0</v>
+      </c>
+      <c r="K713" s="83" t="s">
+        <v>16</v>
+      </c>
+      <c r="L713" s="84" t="s">
+        <v>4004</v>
+      </c>
+      <c r="M713" s="84" t="s">
+        <v>4005</v>
+      </c>
+      <c r="N713" s="84" t="s">
+        <v>4006</v>
+      </c>
+      <c r="O713" s="84" t="s">
+        <v>4007</v>
+      </c>
+      <c r="P713" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q713" s="41" t="s">
+        <v>3958</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D1CB2A5-1A62-3248-94F4-0186F6A7587F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB8DFEE-C476-204E-8CF0-31169FD2A398}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -17313,16 +17313,204 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>서정인: 홍나현
-윤석영: 홍승안
-강재호: 김석환
-김만중: 김지훈
-이복자: 이선주(그)</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>서정인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>홍나현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤석영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>홍승안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>강재호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김석환</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김만중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김지훈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이복자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이선주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -31659,9 +31847,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:T713"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A678" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A712" sqref="A712"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A638" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K643" sqref="K643"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0C99A8B-D5C6-1345-BCCA-F34D699DF55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18545F15-159C-F542-9318-C80D3D141503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <author>System</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{7645766E-AB2D-5241-A443-365DE7D13D54}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{460F3F2D-EB43-CB47-975A-F6338DCE78F2}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{CB1CCEA0-7672-4D4A-A0E5-EA17026950DD}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{ECB50FA6-4DE1-BF42-A751-F35AC71984D5}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{C3283E5E-A960-8247-A261-CDE2AADDBE9C}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{9C4DF355-CBA7-324E-8FBA-872716769E44}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{09B42B1F-E020-0145-BE62-0AA930450972}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{D8ADEAF4-73DB-5A42-906E-9BA0B7683249}">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{F78645AD-8950-A646-B522-F0593D8F1D95}">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{659E6105-201F-0643-BCA5-7C04687D22E5}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{C79CCCC6-EFBA-7345-AF81-4B678A92166D}">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{CB451BEA-2457-214E-8A1C-9575E433EBFD}">
       <text>
         <r>
           <rPr>
@@ -234,848 +234,37 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{F878FDDE-0816-4441-8457-471998A0A627}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>지킬</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>&amp;</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>하이드</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>전동석</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>루시</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>해나</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>엠마</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이정화</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>댄버스</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>경</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이희정</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>어터슨</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>김도형</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>새비지</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>풀</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>강상범</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>비컨스필드</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>기네비어</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>홍금단</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>글로솝</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이창완</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>주교</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이상훈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>스트라이드</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>/</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>스파이더</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이용진</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>프룹스</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>김이삭</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>앙상블</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이재현</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>신재희</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>장은희</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>맹원태</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이호진</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>김도현</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>김준희</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>남궁혜윤</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>허윤혜</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>김도하</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>(</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>김지훈</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">) </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이다경</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>정귀희</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>스윙</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: 
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>유환</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>권오현</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>윤나영</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{800D2B57-3D27-4B49-85B8-638561B529F8}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{8A1A729C-9549-014C-A245-A434F78812FB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>지킬&amp;하이드: 전동석
+루시: 해나
+엠마: 이정화
+댄버스 경: 이희정
+어터슨: 김도형
+새비지/풀: 강상범
+비컨스필드/기네비어: 홍금단
+글로솝: 이창완
+주교: 이상훈
+스트라이드/스파이더: 이용진
+프룹스: 김이삭
+앙상블: 
+이재현 신재희 장은희 맹원태 
+이호진 김도현 김준희 남궁혜윤 
+허윤혜 김도하(김지훈) 이다경 정귀희
+스윙: 
+유환 권오현 윤나영</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{8204010E-A0C4-4C4C-A0C5-FBC8A53FE927}">
       <text>
         <r>
           <rPr>
@@ -1106,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{F9D033A6-9CCB-2F42-82F9-5B16D5EECF29}">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{C0D9509F-B22F-EE41-A8B4-45EB30DA5CAB}">
       <text>
         <r>
           <rPr>
@@ -1137,38 +326,831 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{09FAE043-D14C-D747-8871-ECEACA983DC8}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>아더: ㅅㅂ
-귀네비어: 간미연
-랜슬롯: 임병근
-모르간: 최수진
-멜레아강: 강홍석
-멀린: 지혜근
-케이: 김지욱
-레이아: 정다영
-늑대: 이기흥
-사슴: 이영호
-가웨인: 이종찬
-앙상블: 
-주홍균 최민준 이재범 권기중 
-노해영 오홍학 임동섭 이승현 
-김정민 이보슬 남궁민희 황보주성 
-고샛별 우미나 홍윤영 김재희 임상희
-스윙: 
-전성혜 하웅환 이윤환</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{F1A58132-C48A-CD44-85CD-F6EF4EA5FCF5}">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{461B64DA-BAB5-9B49-A603-DFFC0DCD4421}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>아더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>ㅅㅂ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>귀네비어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>간미연</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>랜슬롯</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임병근</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>모르간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최수진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>멜레아강</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>강홍석</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>멀린</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>지혜근</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>케이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김지욱</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>레이아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정다영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>늑대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이기흥</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>사슴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이영호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>가웨인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이종찬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>앙상블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>주홍균</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최민준</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이재범</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>권기중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>노해영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>오홍학</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임동섭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이승현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김정민</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이보슬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>남궁민희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>황보주성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>고샛별</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>우미나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>홍윤영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김재희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임상희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스윙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>전성혜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>하웅환</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이윤환</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{FF6344CF-D5C2-3B48-9E66-EF191ED9EFF5}">
       <text>
         <r>
           <rPr>
@@ -1199,7 +1181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{59E1D9AC-5473-F14B-878B-93C16DF76BFD}">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{38A4F7A2-8A8E-924C-856E-A7ABF4BC73A7}">
       <text>
         <r>
           <rPr>
@@ -1229,7 +1211,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{91B231A8-5F0B-B14B-932C-5F77B8B8EF0E}">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{256B202B-3D5D-B847-9B25-B0942B261783}">
       <text>
         <r>
           <rPr>
@@ -1260,7 +1242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{8F5C1498-F264-5947-92E6-955E62519870}">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{905E1DAF-A526-B94B-A512-1F9E84DA76CF}">
       <text>
         <r>
           <rPr>
@@ -1291,7 +1273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{52B6BC6A-40D4-7147-A848-83D8C285DE48}">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{13633543-A38F-7044-B6AB-E6AC37CFB9D1}">
       <text>
         <r>
           <rPr>
@@ -1322,7 +1304,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{03BE42AA-FA5F-0E4D-913C-F6B7E78BAF0E}">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{8828F141-7836-C646-A2EF-1FBD2805A4FB}">
       <text>
         <r>
           <rPr>
@@ -1353,7 +1335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{4EED151A-AC17-B348-B713-5F79EE9FA51B}">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{8F75AE6C-8300-6647-A680-C35EFDC1ADE7}">
       <text>
         <r>
           <rPr>
@@ -1384,7 +1366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{8736F98F-B95B-E541-A32D-854A6887AA0E}">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{CC61B51F-D896-C644-80FC-E13C949A0389}">
       <text>
         <r>
           <rPr>
@@ -1415,7 +1397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{ACA326A2-1A2A-594D-98E8-6568F014DD2D}">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{7E351F39-5548-0648-BE06-1AE94E51A78C}">
       <text>
         <r>
           <rPr>
@@ -1433,7 +1415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{43547C98-8F44-574E-996B-75792F14FB50}">
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{83311E74-19F8-9F4E-B1F4-DEC7BAB90D9C}">
       <text>
         <r>
           <rPr>
@@ -1451,7 +1433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{DB2C36B7-BFA3-994B-885B-F9205F16BDEE}">
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{8C4A258E-0E29-DD48-BA54-645F241B1CF5}">
       <text>
         <r>
           <rPr>
@@ -1468,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{B3B1C63D-1A74-ED4E-93A7-F55EA4433987}">
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{F4AA6911-E529-124E-8AE2-0B60BD20D86E}">
       <text>
         <r>
           <rPr>
@@ -1485,7 +1467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{110CA087-8BCA-E947-A3FE-8B9B12421639}">
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{1DC9A6F5-F76E-5C41-9167-FF3E6AE12892}">
       <text>
         <r>
           <rPr>
@@ -1501,7 +1483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{5565CD20-FCF9-954F-89F4-27A933FE3DEB}">
+    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{1F7D619F-3EEC-854A-8D54-40CC12389F17}">
       <text>
         <r>
           <rPr>
@@ -1525,7 +1507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{40DA6377-C462-1049-A446-EDF2919D3FB1}">
+    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{04361738-0291-8F40-9A84-0CC10130E404}">
       <text>
         <r>
           <rPr>
@@ -1543,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{98BA35E7-4331-2D4F-9539-A7C426FDAC2E}">
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{D4427CCA-56E0-9248-B073-DD49DFA7EFA3}">
       <text>
         <r>
           <rPr>
@@ -1559,7 +1541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{00F5A71E-E4A0-F144-874F-07EC51785813}">
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{83599B2E-8564-BC4C-810E-1A0258201E18}">
       <text>
         <r>
           <rPr>
@@ -1588,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{0F5CDACB-B04B-4F49-B508-B5F9247FA39E}">
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{E6B91E01-EE5B-C147-A52A-192B3518DF8F}">
       <text>
         <r>
           <rPr>
@@ -1604,7 +1586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{64684187-CEFE-E644-AFF2-6031A015250F}">
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{4D49DEA9-C371-3149-AEE0-6E01902DF2CF}">
       <text>
         <r>
           <rPr>
@@ -1633,7 +1615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{73926A8E-D7B9-974F-B970-D29D6E762AB5}">
+    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{C1599747-9E4C-314C-A0A8-11EF8CD21CC6}">
       <text>
         <r>
           <rPr>
@@ -1662,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{92F16B21-42EE-234E-B169-7BDD8C54B6CE}">
+    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{1C20A8A7-4FE7-AA47-8729-69473DC92E45}">
       <text>
         <r>
           <rPr>
@@ -1686,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{4A5FCC8C-558E-B24C-9C48-DCC5DB4F2339}">
+    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{214123EA-2669-0A40-B3F0-CB0FADF23193}">
       <text>
         <r>
           <rPr>
@@ -1702,7 +1684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{2669CEBC-BDB8-B64B-A5DB-F0865F7A95A3}">
+    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{A16C095E-87BE-F04E-9935-20B6F30B3CCA}">
       <text>
         <r>
           <rPr>
@@ -1731,7 +1713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I35" authorId="0" shapeId="0" xr:uid="{B482E7DF-48A6-6A4A-83EE-AF9D496BBFFD}">
+    <comment ref="I35" authorId="0" shapeId="0" xr:uid="{51327C67-4B00-9346-B732-1BB02CF98FAB}">
       <text>
         <r>
           <rPr>
@@ -1748,7 +1730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="0" shapeId="0" xr:uid="{7D2B2AE6-9E8C-CB4E-A852-ABF257FFFE90}">
+    <comment ref="I36" authorId="0" shapeId="0" xr:uid="{FA61E881-70FD-CC45-B5E5-81E314AE552F}">
       <text>
         <r>
           <rPr>
@@ -1777,7 +1759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0" shapeId="0" xr:uid="{A19F03EB-63FF-1B4C-90B8-991082269763}">
+    <comment ref="I37" authorId="0" shapeId="0" xr:uid="{DBE6FA2F-DC4F-2741-818D-532541EBECD9}">
       <text>
         <r>
           <rPr>
@@ -1793,7 +1775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="0" shapeId="0" xr:uid="{7C7C007D-4E41-0A49-B78D-FDCAAB6B03AE}">
+    <comment ref="I38" authorId="0" shapeId="0" xr:uid="{EF782619-414C-4A4F-A773-5B907A0FE6C8}">
       <text>
         <r>
           <rPr>
@@ -1819,7 +1801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{4C38D39F-6650-0245-BED3-B58D333688B5}">
+    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{E1C68464-3487-6347-82FD-FC0A7817DD19}">
       <text>
         <r>
           <rPr>
@@ -1835,7 +1817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0" shapeId="0" xr:uid="{FDD0AC99-B07F-FD47-859A-2841A791A7E7}">
+    <comment ref="I40" authorId="0" shapeId="0" xr:uid="{9A4CDF53-9C57-7844-ACBE-93B5FB4A5327}">
       <text>
         <r>
           <rPr>
@@ -1851,7 +1833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="0" shapeId="0" xr:uid="{AAA1F4FF-4EE1-5341-854D-C4430924DB53}">
+    <comment ref="I41" authorId="0" shapeId="0" xr:uid="{F0D3BE95-C537-4E4F-82FD-09C9003E2D2A}">
       <text>
         <r>
           <rPr>
@@ -1868,7 +1850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I42" authorId="0" shapeId="0" xr:uid="{8A5AF1B0-C263-4C4F-8E9B-3F7000CFC536}">
+    <comment ref="I42" authorId="0" shapeId="0" xr:uid="{FDAC2880-FEAB-D343-B90E-D7D1A61EC53B}">
       <text>
         <r>
           <rPr>
@@ -1884,7 +1866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="0" shapeId="0" xr:uid="{3BB66BFB-9ADF-9E44-B5EF-7A4C5763259B}">
+    <comment ref="I43" authorId="0" shapeId="0" xr:uid="{04996C8B-1909-3045-9C7D-06614FF4D734}">
       <text>
         <r>
           <rPr>
@@ -1900,7 +1882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{5B1C6EEC-83D5-7E4C-A579-B8E9E54F4B5C}">
+    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{1DBCD289-2829-784B-92D6-5D3B8D2C4BAC}">
       <text>
         <r>
           <rPr>
@@ -1916,7 +1898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I45" authorId="0" shapeId="0" xr:uid="{41C1C5DB-F4D9-F649-9EBA-AF2CACED95EF}">
+    <comment ref="I45" authorId="0" shapeId="0" xr:uid="{75CD6127-7629-434B-918C-02C2FDEB4669}">
       <text>
         <r>
           <rPr>
@@ -1943,7 +1925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{914CBF20-DBD7-AD4A-8805-37B150E1A463}">
+    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{3580701E-A828-8E4C-9D3D-ACC681DA9A2D}">
       <text>
         <r>
           <rPr>
@@ -1972,7 +1954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0" shapeId="0" xr:uid="{CE9C7519-137D-B84A-B9BA-4AA8AE1D7E11}">
+    <comment ref="I47" authorId="0" shapeId="0" xr:uid="{92186EA3-4477-1043-8EC2-81FF5033F415}">
       <text>
         <r>
           <rPr>
@@ -1988,7 +1970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{716418B9-DBF0-CF4B-BD8B-316ACC549DC7}">
+    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{2425C2FB-0D4A-C54A-B831-F7B3A2C5CA5D}">
       <text>
         <r>
           <rPr>
@@ -2004,7 +1986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I49" authorId="0" shapeId="0" xr:uid="{55467E1F-9B0F-BC40-BA29-B63D0CB049C9}">
+    <comment ref="I49" authorId="0" shapeId="0" xr:uid="{9D5CFF4A-91D4-4949-ACFE-90D8C0EC162B}">
       <text>
         <r>
           <rPr>
@@ -2019,7 +2001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="0" shapeId="0" xr:uid="{B9238E1B-58BB-7840-98F5-9041A6BA7808}">
+    <comment ref="I50" authorId="0" shapeId="0" xr:uid="{38780565-CE60-2440-B44F-AB09C05E4EED}">
       <text>
         <r>
           <rPr>
@@ -2046,7 +2028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I51" authorId="0" shapeId="0" xr:uid="{F0EFC47F-A14E-5D49-B5E9-136819DC9D49}">
+    <comment ref="I51" authorId="0" shapeId="0" xr:uid="{43952985-143A-0442-AD49-264AC67FC150}">
       <text>
         <r>
           <rPr>
@@ -2062,7 +2044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I52" authorId="0" shapeId="0" xr:uid="{99354AE8-1984-B240-B6F2-0E566A590B5D}">
+    <comment ref="I52" authorId="0" shapeId="0" xr:uid="{C5AF780E-C6D8-3242-A236-D077AEF5412D}">
       <text>
         <r>
           <rPr>
@@ -2078,7 +2060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I53" authorId="0" shapeId="0" xr:uid="{2E740372-F8B1-D042-8371-603FD813EAAD}">
+    <comment ref="I53" authorId="0" shapeId="0" xr:uid="{7575C1E7-92E5-BD4E-B23D-ECE250AD5759}">
       <text>
         <r>
           <rPr>
@@ -2102,7 +2084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I54" authorId="0" shapeId="0" xr:uid="{9DB3F075-DBDA-DF4C-B6DB-08C725B09015}">
+    <comment ref="I54" authorId="0" shapeId="0" xr:uid="{9468B9F6-E722-6E4B-B039-5E946BF44613}">
       <text>
         <r>
           <rPr>
@@ -2118,7 +2100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I55" authorId="0" shapeId="0" xr:uid="{97C34529-E211-5342-AB32-8AF30E9B5EDD}">
+    <comment ref="I55" authorId="0" shapeId="0" xr:uid="{D7B61588-A70C-9E48-B81A-951D829A8662}">
       <text>
         <r>
           <rPr>
@@ -2134,7 +2116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I56" authorId="0" shapeId="0" xr:uid="{6AD38408-18EA-1D40-8E95-8747BD2C7D8F}">
+    <comment ref="I56" authorId="0" shapeId="0" xr:uid="{9651C009-F0BD-DF47-8060-264F5249A727}">
       <text>
         <r>
           <rPr>
@@ -2159,7 +2141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{DAC5CFD2-8B4B-A54C-88FF-81F45A43C872}">
+    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{F8713443-9922-464D-8831-3F644F5721CA}">
       <text>
         <r>
           <rPr>
@@ -2184,7 +2166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I58" authorId="0" shapeId="0" xr:uid="{439EFC5E-3BD0-9248-9AF7-659DD4BF7B82}">
+    <comment ref="I58" authorId="0" shapeId="0" xr:uid="{DD83742F-E828-5546-9600-307B85C9FC73}">
       <text>
         <r>
           <rPr>
@@ -2204,7 +2186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I59" authorId="0" shapeId="0" xr:uid="{0D7CD4D1-5FD5-7744-8B44-A0A985EB22E4}">
+    <comment ref="I59" authorId="0" shapeId="0" xr:uid="{D62E662F-1A31-D044-8E4F-DB44BACFCD52}">
       <text>
         <r>
           <rPr>
@@ -2219,7 +2201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I60" authorId="0" shapeId="0" xr:uid="{94135054-B5EF-9D44-9D43-580C78C48677}">
+    <comment ref="I60" authorId="0" shapeId="0" xr:uid="{E91ED7F3-6605-7649-AADB-1BB98EB88D5D}">
       <text>
         <r>
           <rPr>
@@ -2239,7 +2221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="0" shapeId="0" xr:uid="{54436076-F4A3-8142-A577-344526971180}">
+    <comment ref="I61" authorId="0" shapeId="0" xr:uid="{654F2A79-991B-6F4E-8A50-B88537D4C22F}">
       <text>
         <r>
           <rPr>
@@ -2255,7 +2237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I62" authorId="0" shapeId="0" xr:uid="{1AF53896-3890-DB45-BA8B-E7EDA549DBC4}">
+    <comment ref="I62" authorId="0" shapeId="0" xr:uid="{9F1D376C-91A3-0A45-A09D-798424035468}">
       <text>
         <r>
           <rPr>
@@ -2271,7 +2253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I63" authorId="0" shapeId="0" xr:uid="{C615BF40-0465-8443-A023-CFDEDCA4244C}">
+    <comment ref="I63" authorId="0" shapeId="0" xr:uid="{68086134-1286-484F-880F-D5C119FFB9D1}">
       <text>
         <r>
           <rPr>
@@ -2286,7 +2268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="0" shapeId="0" xr:uid="{A5CAC654-1914-5B4F-A282-A3D14EB2CD12}">
+    <comment ref="I64" authorId="0" shapeId="0" xr:uid="{4866171D-F84D-D04C-B228-73F75BB47816}">
       <text>
         <r>
           <rPr>
@@ -2302,7 +2284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I65" authorId="0" shapeId="0" xr:uid="{A2B33EB3-D523-374D-8142-98B9E6DD300E}">
+    <comment ref="I65" authorId="0" shapeId="0" xr:uid="{35A227AC-339F-3441-AD70-F980303B3967}">
       <text>
         <r>
           <rPr>
@@ -2331,7 +2313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="0" shapeId="0" xr:uid="{109F475B-0C26-AF41-B68B-EE652DA8420F}">
+    <comment ref="I66" authorId="0" shapeId="0" xr:uid="{A14E8C55-A25C-DC46-98E9-C469307CAD7B}">
       <text>
         <r>
           <rPr>
@@ -2346,7 +2328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="0" shapeId="0" xr:uid="{AC697FDE-3B90-934F-B4AD-BB388B271D3C}">
+    <comment ref="I67" authorId="0" shapeId="0" xr:uid="{97355D13-72F5-CA45-8CCD-A5B1925A86B7}">
       <text>
         <r>
           <rPr>
@@ -2366,7 +2348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="0" shapeId="0" xr:uid="{DF8FC08E-B772-6B4A-98FC-311CE18366A8}">
+    <comment ref="I68" authorId="0" shapeId="0" xr:uid="{33FB3FBB-F835-5544-89BD-8D0452245FD6}">
       <text>
         <r>
           <rPr>
@@ -2386,7 +2368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="0" shapeId="0" xr:uid="{6C6FE4A3-57FE-A542-8094-7FE88F956580}">
+    <comment ref="I69" authorId="0" shapeId="0" xr:uid="{E13E0C9D-2107-E545-A4A9-058B4000CAC9}">
       <text>
         <r>
           <rPr>
@@ -2406,7 +2388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="0" shapeId="0" xr:uid="{28249756-77BF-3D4B-98C1-235D9C3802AB}">
+    <comment ref="I70" authorId="0" shapeId="0" xr:uid="{4003918B-49A2-7D4B-97B0-4D05DF600A05}">
       <text>
         <r>
           <rPr>
@@ -2429,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="0" shapeId="0" xr:uid="{30203EAC-65A4-D94F-8FDC-2C87EEBF08C2}">
+    <comment ref="I71" authorId="0" shapeId="0" xr:uid="{0EABBE50-27A9-954A-B917-D201F86D0AD9}">
       <text>
         <r>
           <rPr>
@@ -2446,7 +2428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="0" shapeId="0" xr:uid="{C084F541-8032-5B45-9C02-FFE53BEB511D}">
+    <comment ref="I72" authorId="0" shapeId="0" xr:uid="{6399BAEC-3DF1-4B4F-8B37-E7925518E6EF}">
       <text>
         <r>
           <rPr>
@@ -2475,7 +2457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I73" authorId="0" shapeId="0" xr:uid="{9C5584E3-7384-6141-9FC5-45D3FE3E9E07}">
+    <comment ref="I73" authorId="0" shapeId="0" xr:uid="{EC0BC903-D5C7-E741-A5C4-16D2D4864605}">
       <text>
         <r>
           <rPr>
@@ -2490,7 +2472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I74" authorId="0" shapeId="0" xr:uid="{C01EBD63-22E5-7945-9914-F32CC4F03F5D}">
+    <comment ref="I74" authorId="0" shapeId="0" xr:uid="{FCFB807F-CDC8-334E-97D2-8BC611D1E67D}">
       <text>
         <r>
           <rPr>
@@ -2510,7 +2492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I75" authorId="0" shapeId="0" xr:uid="{174B7908-8F81-A845-9E0B-E0F30BA3CF28}">
+    <comment ref="I75" authorId="0" shapeId="0" xr:uid="{3F7FBB80-5F58-204E-BC29-B7CEF4A0E232}">
       <text>
         <r>
           <rPr>
@@ -2530,7 +2512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I76" authorId="0" shapeId="0" xr:uid="{E1DEAC30-6982-0C44-B952-59E3105A5C7B}">
+    <comment ref="I76" authorId="0" shapeId="0" xr:uid="{849A8691-FAF4-A74E-AAA3-DBC3F57169E5}">
       <text>
         <r>
           <rPr>
@@ -2550,7 +2532,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I77" authorId="0" shapeId="0" xr:uid="{B3456161-63F1-1D41-9EA0-D8B59AD5D342}">
+    <comment ref="I77" authorId="0" shapeId="0" xr:uid="{F704DF6B-A762-3D4B-A3BF-8ABF34E11EF7}">
       <text>
         <r>
           <rPr>
@@ -2570,7 +2552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I78" authorId="0" shapeId="0" xr:uid="{EE8D28A6-4F82-2D43-A797-89D4328D9D97}">
+    <comment ref="I78" authorId="0" shapeId="0" xr:uid="{CA170E79-6AE1-3747-BD60-BFB3D3ADDC70}">
       <text>
         <r>
           <rPr>
@@ -2586,7 +2568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I79" authorId="0" shapeId="0" xr:uid="{E525C117-8AB3-2D47-9C74-6BF33DBAF03B}">
+    <comment ref="I79" authorId="0" shapeId="0" xr:uid="{920A576A-FAE0-BD4F-A098-81C2E90B8121}">
       <text>
         <r>
           <rPr>
@@ -2601,7 +2583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I80" authorId="0" shapeId="0" xr:uid="{F465E288-7929-CF4F-AA00-9DB0A0A33F8E}">
+    <comment ref="I80" authorId="0" shapeId="0" xr:uid="{04684EF8-AD79-D844-993C-E52F9EE3C13E}">
       <text>
         <r>
           <rPr>
@@ -2621,7 +2603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I81" authorId="0" shapeId="0" xr:uid="{51DE4309-35F2-2A46-A900-F247D1AF198D}">
+    <comment ref="I81" authorId="0" shapeId="0" xr:uid="{0B7E54BA-875D-9E42-A666-9166178A92D0}">
       <text>
         <r>
           <rPr>
@@ -2641,7 +2623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I82" authorId="0" shapeId="0" xr:uid="{D2C9FFD1-04E3-F540-9328-3AA1EE1C07DF}">
+    <comment ref="I82" authorId="0" shapeId="0" xr:uid="{9331EEC2-BEE8-9141-99E3-9E9ED6886845}">
       <text>
         <r>
           <rPr>
@@ -2668,7 +2650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I83" authorId="0" shapeId="0" xr:uid="{1AD45546-E498-924C-A297-F4D0AF9A7EA4}">
+    <comment ref="I83" authorId="0" shapeId="0" xr:uid="{78D4D38B-8CD7-964A-B31A-F90DB5014AFD}">
       <text>
         <r>
           <rPr>
@@ -2686,7 +2668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I84" authorId="0" shapeId="0" xr:uid="{B426403D-BA85-894D-84BB-8193C879EC94}">
+    <comment ref="I84" authorId="0" shapeId="0" xr:uid="{D2E6C6FB-15BA-9643-8477-8A6482AD4439}">
       <text>
         <r>
           <rPr>
@@ -2715,7 +2697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I85" authorId="0" shapeId="0" xr:uid="{61700BDD-2053-C94C-9D03-040BE4E6A85D}">
+    <comment ref="I85" authorId="0" shapeId="0" xr:uid="{966A47EF-4DD6-6D42-9A2C-E377B21A08F5}">
       <text>
         <r>
           <rPr>
@@ -2735,7 +2717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I86" authorId="0" shapeId="0" xr:uid="{E45D4244-A24B-604B-9271-612842D1580D}">
+    <comment ref="I86" authorId="0" shapeId="0" xr:uid="{EC23BCE1-8F42-344F-AAD4-B0F447A26C2A}">
       <text>
         <r>
           <rPr>
@@ -2750,7 +2732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="0" shapeId="0" xr:uid="{CA98A94D-0BA1-E144-B2E3-3AA4000F8662}">
+    <comment ref="I87" authorId="0" shapeId="0" xr:uid="{1D67C331-99AF-9D41-9D6B-1BC31ED9C2CA}">
       <text>
         <r>
           <rPr>
@@ -2767,7 +2749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I88" authorId="0" shapeId="0" xr:uid="{E003F9C6-3DFA-2449-B36B-5001C29A2FB4}">
+    <comment ref="I88" authorId="0" shapeId="0" xr:uid="{07C10CEB-D123-CD49-B52D-1B9D7D5256CE}">
       <text>
         <r>
           <rPr>
@@ -2785,7 +2767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I89" authorId="0" shapeId="0" xr:uid="{FC52C962-4E63-FD4C-85C9-59DD2095C48F}">
+    <comment ref="I89" authorId="0" shapeId="0" xr:uid="{499E1FE7-8328-834E-B10C-A2ABFF9FF055}">
       <text>
         <r>
           <rPr>
@@ -2804,7 +2786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I90" authorId="0" shapeId="0" xr:uid="{70917DCA-EBB3-D04B-B0B6-BE0EC8EAEA51}">
+    <comment ref="I90" authorId="0" shapeId="0" xr:uid="{F8976714-8289-6C4E-A405-7DD93D963ADA}">
       <text>
         <r>
           <rPr>
@@ -2824,7 +2806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I91" authorId="0" shapeId="0" xr:uid="{D4A3B963-0944-CF41-A2C0-B447BAB80603}">
+    <comment ref="I91" authorId="0" shapeId="0" xr:uid="{741A09BE-1923-D046-BB91-254BBA8F75C1}">
       <text>
         <r>
           <rPr>
@@ -2852,7 +2834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I92" authorId="0" shapeId="0" xr:uid="{673905E4-11EA-8143-B35C-FF9DEC5BB36B}">
+    <comment ref="I92" authorId="0" shapeId="0" xr:uid="{1EAF8233-2E35-AB4C-A456-373A0A90ABA6}">
       <text>
         <r>
           <rPr>
@@ -2867,7 +2849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I93" authorId="0" shapeId="0" xr:uid="{5EC9B4F6-F193-1A40-8B5D-B76B81F0EB3B}">
+    <comment ref="I93" authorId="0" shapeId="0" xr:uid="{78F1957A-9FD3-E544-860F-0E00653BAC46}">
       <text>
         <r>
           <rPr>
@@ -2882,7 +2864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I94" authorId="0" shapeId="0" xr:uid="{F03FD496-A986-3043-8986-EFD851B0DBD1}">
+    <comment ref="I94" authorId="0" shapeId="0" xr:uid="{5CC906AB-AEB1-0B4C-AB58-D7E8E998190A}">
       <text>
         <r>
           <rPr>
@@ -2898,7 +2880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I95" authorId="0" shapeId="0" xr:uid="{0610B801-1E01-0344-9140-245EB81CE2EC}">
+    <comment ref="I95" authorId="0" shapeId="0" xr:uid="{2F7E3EB6-63DF-DF45-86A6-A61DD156AB34}">
       <text>
         <r>
           <rPr>
@@ -2927,7 +2909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I96" authorId="0" shapeId="0" xr:uid="{4E468371-2AA1-F94B-9895-0BCC4ABDA372}">
+    <comment ref="I96" authorId="0" shapeId="0" xr:uid="{3DDE7417-5AE4-0D4B-943E-A240DFFDCB9B}">
       <text>
         <r>
           <rPr>
@@ -2947,7 +2929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I97" authorId="0" shapeId="0" xr:uid="{9F0D7B30-788E-6A41-8E0A-EE3C9558ACDD}">
+    <comment ref="I97" authorId="0" shapeId="0" xr:uid="{11302F17-7580-3C42-B9B4-9AD008D889BD}">
       <text>
         <r>
           <rPr>
@@ -2966,7 +2948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I98" authorId="0" shapeId="0" xr:uid="{72045701-FDC7-F144-AF8E-2AFD195B6830}">
+    <comment ref="I98" authorId="0" shapeId="0" xr:uid="{94C34C87-AF30-7040-9E10-62EC10184F5F}">
       <text>
         <r>
           <rPr>
@@ -2986,7 +2968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I99" authorId="0" shapeId="0" xr:uid="{F587E4C9-0E32-7342-91D9-8BF5F63833F4}">
+    <comment ref="I99" authorId="0" shapeId="0" xr:uid="{8CCA34CE-FBA3-084C-A756-9BD22E23CC5A}">
       <text>
         <r>
           <rPr>
@@ -3006,7 +2988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I100" authorId="0" shapeId="0" xr:uid="{615DB5C4-4DAD-D745-9A2E-104761706EDF}">
+    <comment ref="I100" authorId="0" shapeId="0" xr:uid="{6E755EC8-BDF1-4F4E-8808-86EADA7DCB30}">
       <text>
         <r>
           <rPr>
@@ -3021,7 +3003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I101" authorId="0" shapeId="0" xr:uid="{097C2238-D3E4-B44D-8B21-76C3F625FC91}">
+    <comment ref="I101" authorId="0" shapeId="0" xr:uid="{5356E566-0BFA-9745-BCBB-1DAEF9E963F0}">
       <text>
         <r>
           <rPr>
@@ -3050,7 +3032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="0" shapeId="0" xr:uid="{A52AB665-D256-324D-962B-429BDAF94AD7}">
+    <comment ref="I102" authorId="0" shapeId="0" xr:uid="{8264D815-5CC4-9A43-B9AE-B573D6B264F1}">
       <text>
         <r>
           <rPr>
@@ -3068,7 +3050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I103" authorId="0" shapeId="0" xr:uid="{BBF61D90-0175-6849-A0AC-1FF8D714B118}">
+    <comment ref="I103" authorId="0" shapeId="0" xr:uid="{A5FB6B9E-85B7-9241-A884-0A5753E08E5B}">
       <text>
         <r>
           <rPr>
@@ -3088,7 +3070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I104" authorId="0" shapeId="0" xr:uid="{22768DC4-88FB-5A4F-83A1-6F03CE3D6136}">
+    <comment ref="I104" authorId="0" shapeId="0" xr:uid="{54B8BDA4-450B-3B47-B494-2A5BC6DF5ABD}">
       <text>
         <r>
           <rPr>
@@ -3106,7 +3088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I105" authorId="0" shapeId="0" xr:uid="{2A810C2F-A6C4-A049-98FC-1D05151B6E71}">
+    <comment ref="I105" authorId="0" shapeId="0" xr:uid="{7548F4F9-BEB2-614A-9F50-D91F84488B0C}">
       <text>
         <r>
           <rPr>
@@ -3124,7 +3106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I106" authorId="0" shapeId="0" xr:uid="{DB7307C1-BDBB-6D42-8035-6347468F0F48}">
+    <comment ref="I106" authorId="0" shapeId="0" xr:uid="{C583AB3E-88A5-A346-ACB8-4E58E421FF6E}">
       <text>
         <r>
           <rPr>
@@ -3144,7 +3126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I107" authorId="0" shapeId="0" xr:uid="{7A67891D-F9F1-FF48-BA72-7F30642CF5EE}">
+    <comment ref="I107" authorId="0" shapeId="0" xr:uid="{7AFFB68D-3BA8-E340-9230-267E190A4061}">
       <text>
         <r>
           <rPr>
@@ -3159,7 +3141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I108" authorId="0" shapeId="0" xr:uid="{9B347F4A-0245-5446-8A97-FA70360E0A61}">
+    <comment ref="I108" authorId="0" shapeId="0" xr:uid="{DDDEAE83-13E1-A34B-BFCD-3B92CE7EB176}">
       <text>
         <r>
           <rPr>
@@ -3182,7 +3164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I109" authorId="0" shapeId="0" xr:uid="{38F3F965-84CF-F945-AEBC-739F9443AF96}">
+    <comment ref="I109" authorId="0" shapeId="0" xr:uid="{24CEAB86-322E-F44A-B69D-C6065D8B2183}">
       <text>
         <r>
           <rPr>
@@ -3197,7 +3179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I110" authorId="0" shapeId="0" xr:uid="{4398889D-C3EF-2044-90FF-AA3F3F69A617}">
+    <comment ref="I110" authorId="0" shapeId="0" xr:uid="{EBF62AED-3EC5-D34A-818E-6E139600A6F6}">
       <text>
         <r>
           <rPr>
@@ -3212,7 +3194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I111" authorId="0" shapeId="0" xr:uid="{2F6A7B9D-C08F-8E4E-B6FF-387E61C0532C}">
+    <comment ref="I111" authorId="0" shapeId="0" xr:uid="{59F48F7B-AD2A-714D-AAE6-1C09E81230C6}">
       <text>
         <r>
           <rPr>
@@ -3227,7 +3209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I112" authorId="0" shapeId="0" xr:uid="{31F1DD18-5909-8947-A05C-B1B947AA1CE2}">
+    <comment ref="I112" authorId="0" shapeId="0" xr:uid="{FF727BD4-E853-774A-AAD1-E10817546683}">
       <text>
         <r>
           <rPr>
@@ -3248,7 +3230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I113" authorId="0" shapeId="0" xr:uid="{C8859DB5-FC01-C445-AE9A-4952C7BAB057}">
+    <comment ref="I113" authorId="0" shapeId="0" xr:uid="{3A760294-8672-3D43-B570-6BA0586DC1D0}">
       <text>
         <r>
           <rPr>
@@ -3265,7 +3247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I114" authorId="0" shapeId="0" xr:uid="{BA382D76-21EA-DF43-BF80-2957DFBDBC70}">
+    <comment ref="I114" authorId="0" shapeId="0" xr:uid="{7B0FBE16-AFC6-2B45-9113-1804B0A982F9}">
       <text>
         <r>
           <rPr>
@@ -3280,7 +3262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I115" authorId="0" shapeId="0" xr:uid="{EF682D55-9728-8A41-99A5-6DC8577E8F20}">
+    <comment ref="I115" authorId="0" shapeId="0" xr:uid="{C652AEA0-FFEE-2446-9DB1-493B674F44FA}">
       <text>
         <r>
           <rPr>
@@ -3299,7 +3281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I116" authorId="0" shapeId="0" xr:uid="{E3D38583-6591-0340-BF78-BA20661A2BBF}">
+    <comment ref="I116" authorId="0" shapeId="0" xr:uid="{BC6C0DE1-4CFE-8347-A68B-76CA061CE244}">
       <text>
         <r>
           <rPr>
@@ -3316,7 +3298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I117" authorId="0" shapeId="0" xr:uid="{4604C187-EE92-6F45-AFC8-42B87299F152}">
+    <comment ref="I117" authorId="0" shapeId="0" xr:uid="{E9A4909A-A640-AE40-904C-4372550BF5D9}">
       <text>
         <r>
           <rPr>
@@ -3342,7 +3324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I118" authorId="0" shapeId="0" xr:uid="{75D8A406-209C-FA47-A9E2-3B5F8265A003}">
+    <comment ref="I118" authorId="0" shapeId="0" xr:uid="{14C52A6B-CB92-294A-9068-3184C78A1046}">
       <text>
         <r>
           <rPr>
@@ -3359,7 +3341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I119" authorId="0" shapeId="0" xr:uid="{E6434B55-40BF-A747-8B17-3DBB8F120FDB}">
+    <comment ref="I119" authorId="0" shapeId="0" xr:uid="{9DFBC27D-86AD-B441-920F-1BC92070FB34}">
       <text>
         <r>
           <rPr>
@@ -3387,7 +3369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I120" authorId="0" shapeId="0" xr:uid="{92978BDF-4133-6444-B9A4-B8838166DD9F}">
+    <comment ref="I120" authorId="0" shapeId="0" xr:uid="{B54DBBBC-A432-F74A-BF03-A914CA43A73D}">
       <text>
         <r>
           <rPr>
@@ -3403,7 +3385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I121" authorId="0" shapeId="0" xr:uid="{ADA15534-CC99-C444-8953-CC5F9E9E2118}">
+    <comment ref="I121" authorId="0" shapeId="0" xr:uid="{F5662628-6DC8-464B-8A85-B9FF01DE22DA}">
       <text>
         <r>
           <rPr>
@@ -3420,7 +3402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I122" authorId="0" shapeId="0" xr:uid="{2647C6EB-6068-7641-9EE0-CEE4EB14EA80}">
+    <comment ref="I122" authorId="0" shapeId="0" xr:uid="{6495FC48-DA6A-7046-8550-DE069B5DC715}">
       <text>
         <r>
           <rPr>
@@ -3436,7 +3418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I123" authorId="0" shapeId="0" xr:uid="{C189C6C6-08C8-E24B-9530-CB6C0316CA82}">
+    <comment ref="I123" authorId="0" shapeId="0" xr:uid="{B7049ECB-57F6-3C48-9CCF-76C059CFD3C3}">
       <text>
         <r>
           <rPr>
@@ -3453,7 +3435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I124" authorId="0" shapeId="0" xr:uid="{85726D73-F835-5A44-A3AB-9E6637ECF7F5}">
+    <comment ref="I124" authorId="0" shapeId="0" xr:uid="{65503F38-2DF4-B645-9866-98CB1CEB84CA}">
       <text>
         <r>
           <rPr>
@@ -3485,7 +3467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I125" authorId="0" shapeId="0" xr:uid="{0CA7DD2B-EB02-B341-9038-DA207411D29B}">
+    <comment ref="I125" authorId="0" shapeId="0" xr:uid="{5CA60B30-01B4-AE44-84D6-3ECAF65902B0}">
       <text>
         <r>
           <rPr>
@@ -3504,7 +3486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I126" authorId="0" shapeId="0" xr:uid="{1EAD3FFC-868E-D945-BE56-87FAD5B60B73}">
+    <comment ref="I126" authorId="0" shapeId="0" xr:uid="{F701BBC7-AB21-CE4E-ABD1-0DEEA5C76670}">
       <text>
         <r>
           <rPr>
@@ -3522,7 +3504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I127" authorId="0" shapeId="0" xr:uid="{249EEA11-96D1-B641-9F00-FE2154195CEB}">
+    <comment ref="I127" authorId="0" shapeId="0" xr:uid="{EF914561-5426-FE44-A0FA-17920A8AB606}">
       <text>
         <r>
           <rPr>
@@ -3537,7 +3519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I128" authorId="0" shapeId="0" xr:uid="{7A956C41-A383-A44D-A8A4-A6C5F80BD67C}">
+    <comment ref="I128" authorId="0" shapeId="0" xr:uid="{91C1D44F-441B-7F4D-9CF9-07B0E0769457}">
       <text>
         <r>
           <rPr>
@@ -3554,7 +3536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I129" authorId="0" shapeId="0" xr:uid="{64911E04-2AE7-EB44-82C4-D188A5567C97}">
+    <comment ref="I129" authorId="0" shapeId="0" xr:uid="{3D8FE1D3-D01C-6244-94DF-569EF6ED8311}">
       <text>
         <r>
           <rPr>
@@ -3571,7 +3553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I130" authorId="0" shapeId="0" xr:uid="{D955A3CA-83C5-B640-A060-FAAD97CD1748}">
+    <comment ref="I130" authorId="0" shapeId="0" xr:uid="{DF6B48AE-BDA3-674D-912B-1399323887F7}">
       <text>
         <r>
           <rPr>
@@ -3586,7 +3568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I131" authorId="0" shapeId="0" xr:uid="{3F86EBF9-22C3-1A49-AE6B-85F7E7E1E66B}">
+    <comment ref="I131" authorId="0" shapeId="0" xr:uid="{F880317F-5B86-F74F-93E8-E8415F6D4EBE}">
       <text>
         <r>
           <rPr>
@@ -3605,7 +3587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I132" authorId="0" shapeId="0" xr:uid="{B246CFA3-C6F8-EC44-8847-096200D201B0}">
+    <comment ref="I132" authorId="0" shapeId="0" xr:uid="{493E7837-94E9-A44F-8647-283F6A2B98DA}">
       <text>
         <r>
           <rPr>
@@ -3624,7 +3606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I133" authorId="0" shapeId="0" xr:uid="{B0DF27FD-7451-0348-9C41-3DFC930FE27E}">
+    <comment ref="I133" authorId="0" shapeId="0" xr:uid="{D1071853-E8A3-0842-BCC2-C486C01EDD9B}">
       <text>
         <r>
           <rPr>
@@ -3641,7 +3623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I134" authorId="0" shapeId="0" xr:uid="{33B21875-5861-904A-84BD-18EAC4890446}">
+    <comment ref="I134" authorId="0" shapeId="0" xr:uid="{519B843D-DA61-E142-BBB5-AA5A07CF28EA}">
       <text>
         <r>
           <rPr>
@@ -3656,7 +3638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I135" authorId="0" shapeId="0" xr:uid="{F6D36448-1A4A-EE44-BC23-BA63DAC5298D}">
+    <comment ref="I135" authorId="0" shapeId="0" xr:uid="{47414A7C-0683-2043-BF22-973FD1D4CF0A}">
       <text>
         <r>
           <rPr>
@@ -3672,7 +3654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I136" authorId="0" shapeId="0" xr:uid="{2B9F2FCA-B066-4842-8A7A-7BF3165EFFE5}">
+    <comment ref="I136" authorId="0" shapeId="0" xr:uid="{4D759F87-F0C8-1E40-B9F2-DC2FF24C2D8A}">
       <text>
         <r>
           <rPr>
@@ -3689,7 +3671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I137" authorId="0" shapeId="0" xr:uid="{C15C580C-C1D6-BD4E-BD0E-2F0F535F5B1E}">
+    <comment ref="I137" authorId="0" shapeId="0" xr:uid="{7811ECD6-B277-8D44-8595-4C3BF169A529}">
       <text>
         <r>
           <rPr>
@@ -3717,7 +3699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I138" authorId="0" shapeId="0" xr:uid="{E6948E10-C46A-E74B-8CB5-3A6F41B8D796}">
+    <comment ref="I138" authorId="0" shapeId="0" xr:uid="{4DB9CED9-9E0B-B545-BF82-E8B323698AA9}">
       <text>
         <r>
           <rPr>
@@ -3734,7 +3716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I139" authorId="0" shapeId="0" xr:uid="{1ABF8A8F-1125-744E-BB28-26F0D43AD107}">
+    <comment ref="I139" authorId="0" shapeId="0" xr:uid="{AC59BCCB-BB2D-EC4C-A94E-9CC8EA308531}">
       <text>
         <r>
           <rPr>
@@ -3750,7 +3732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I140" authorId="0" shapeId="0" xr:uid="{04C7D04F-7372-2C44-8C19-ABD16F5802EA}">
+    <comment ref="I140" authorId="0" shapeId="0" xr:uid="{CE63758C-84E4-4E47-BB00-D9B076356CE5}">
       <text>
         <r>
           <rPr>
@@ -3766,7 +3748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I141" authorId="0" shapeId="0" xr:uid="{F56284FB-29E6-9744-A308-0E7F9B0BEE61}">
+    <comment ref="I141" authorId="0" shapeId="0" xr:uid="{38692C25-637E-E346-A36E-4CA19737653F}">
       <text>
         <r>
           <rPr>
@@ -3784,7 +3766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I142" authorId="0" shapeId="0" xr:uid="{D35F6B3B-C544-5347-A94E-0A937A9CB1AB}">
+    <comment ref="I142" authorId="0" shapeId="0" xr:uid="{9850ED4E-2D2F-2542-92F0-5B9A5E02D0B8}">
       <text>
         <r>
           <rPr>
@@ -3802,7 +3784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I143" authorId="0" shapeId="0" xr:uid="{CA0FF288-0E44-2147-B094-86E1E838AE7D}">
+    <comment ref="I143" authorId="0" shapeId="0" xr:uid="{39C90F3B-A230-E747-A988-75CC21C29320}">
       <text>
         <r>
           <rPr>
@@ -3818,7 +3800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I144" authorId="0" shapeId="0" xr:uid="{DA573E60-8002-1F43-B15A-4291946BBE49}">
+    <comment ref="I144" authorId="0" shapeId="0" xr:uid="{F67D0B66-99AA-9449-B20F-B283AAF1B898}">
       <text>
         <r>
           <rPr>
@@ -3835,7 +3817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I145" authorId="0" shapeId="0" xr:uid="{0253C904-AB04-C842-A887-69491515E248}">
+    <comment ref="I145" authorId="0" shapeId="0" xr:uid="{AE1FAEEA-E489-474E-9DE1-E207D49CA806}">
       <text>
         <r>
           <rPr>
@@ -3851,7 +3833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I146" authorId="0" shapeId="0" xr:uid="{E5945073-5888-D34C-A7C8-B4BACD277E15}">
+    <comment ref="I146" authorId="0" shapeId="0" xr:uid="{B0310BAE-886E-7847-9F39-66FDD0771919}">
       <text>
         <r>
           <rPr>
@@ -3868,7 +3850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I147" authorId="0" shapeId="0" xr:uid="{60709A3C-469B-D648-AA6F-8FB56B851DEF}">
+    <comment ref="I147" authorId="0" shapeId="0" xr:uid="{1936E766-078B-7248-8741-F1D92A647A49}">
       <text>
         <r>
           <rPr>
@@ -3888,7 +3870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I148" authorId="0" shapeId="0" xr:uid="{D5B17A97-D624-5E49-AE6E-456937E778F3}">
+    <comment ref="I148" authorId="0" shapeId="0" xr:uid="{C855565E-1E9C-944A-9ECD-B8DBB7D2E7A9}">
       <text>
         <r>
           <rPr>
@@ -3923,7 +3905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I149" authorId="0" shapeId="0" xr:uid="{B716685E-0E4E-0849-A3F0-4327B2E6AA50}">
+    <comment ref="I149" authorId="0" shapeId="0" xr:uid="{DAB73C71-AE8F-E943-9386-F5CBEDB93635}">
       <text>
         <r>
           <rPr>
@@ -3939,7 +3921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I150" authorId="0" shapeId="0" xr:uid="{92D9F902-E6DD-6548-BD98-97FF46FFFB41}">
+    <comment ref="I150" authorId="0" shapeId="0" xr:uid="{4C32666E-F567-D04B-B59D-A4EA46315AD4}">
       <text>
         <r>
           <rPr>
@@ -3961,7 +3943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I151" authorId="0" shapeId="0" xr:uid="{C0FF4BB0-1720-6D4F-A255-015AC4651B65}">
+    <comment ref="I151" authorId="0" shapeId="0" xr:uid="{8A87C4C6-ABFA-C94F-99D7-946BAD598D72}">
       <text>
         <r>
           <rPr>
@@ -3985,7 +3967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I152" authorId="0" shapeId="0" xr:uid="{CBB72599-FF6F-6B48-AE6A-33A95E63782A}">
+    <comment ref="I152" authorId="0" shapeId="0" xr:uid="{4A4EFF28-1C25-C944-BC6B-BEFBE439A814}">
       <text>
         <r>
           <rPr>
@@ -4003,7 +3985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I153" authorId="0" shapeId="0" xr:uid="{63384D70-BE81-2B4B-B659-6DCB1EE168B1}">
+    <comment ref="I153" authorId="0" shapeId="0" xr:uid="{26139456-40DC-8E46-B908-718B72D737AC}">
       <text>
         <r>
           <rPr>
@@ -4019,7 +4001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I154" authorId="0" shapeId="0" xr:uid="{433ECEED-E2BA-B345-A005-E0D772385FAE}">
+    <comment ref="I154" authorId="0" shapeId="0" xr:uid="{C4E5BBE5-70E1-5947-8739-C37EC50977CE}">
       <text>
         <r>
           <rPr>
@@ -4043,7 +4025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I155" authorId="0" shapeId="0" xr:uid="{D6BB4B44-F0D6-C04D-B5C7-080FFD153E30}">
+    <comment ref="I155" authorId="0" shapeId="0" xr:uid="{7388B7CD-8198-F44B-94CD-DFA6730647FC}">
       <text>
         <r>
           <rPr>
@@ -4062,7 +4044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I156" authorId="0" shapeId="0" xr:uid="{3EB2F09F-EB87-2C45-A538-D6367CA4BD5E}">
+    <comment ref="I156" authorId="0" shapeId="0" xr:uid="{69C870E4-90F7-9B49-8554-97802C8EA9A9}">
       <text>
         <r>
           <rPr>
@@ -4082,7 +4064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I157" authorId="0" shapeId="0" xr:uid="{73C8FDD9-53C7-4846-9B07-79B34DB28597}">
+    <comment ref="I157" authorId="0" shapeId="0" xr:uid="{838E58A8-8FBD-AA4A-90A2-9FD7704364F5}">
       <text>
         <r>
           <rPr>
@@ -4102,7 +4084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I158" authorId="0" shapeId="0" xr:uid="{4973DF32-E22B-EC4B-AC0B-610974AA342B}">
+    <comment ref="I158" authorId="0" shapeId="0" xr:uid="{522F2A66-E8A4-E64E-B10B-C716362782CB}">
       <text>
         <r>
           <rPr>
@@ -4122,7 +4104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I159" authorId="0" shapeId="0" xr:uid="{88AE3658-2E05-654F-AAA7-B408403C1F42}">
+    <comment ref="I159" authorId="0" shapeId="0" xr:uid="{84981677-8B5B-A442-9507-9DCBE3084616}">
       <text>
         <r>
           <rPr>
@@ -4138,7 +4120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I160" authorId="0" shapeId="0" xr:uid="{BD9B3E56-A93B-8443-AD05-F33AFE785864}">
+    <comment ref="I160" authorId="0" shapeId="0" xr:uid="{689B5455-D7D1-D64E-9255-0EF9F57026FC}">
       <text>
         <r>
           <rPr>
@@ -4162,7 +4144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I161" authorId="0" shapeId="0" xr:uid="{F7207DBA-074B-4846-8EF3-99E9C3320DC3}">
+    <comment ref="I161" authorId="0" shapeId="0" xr:uid="{20E6F344-F1B0-C448-99B1-0286E58D9D9B}">
       <text>
         <r>
           <rPr>
@@ -4186,7 +4168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I162" authorId="0" shapeId="0" xr:uid="{8BEAF1CE-4C2E-C94E-86D4-1E6972135A08}">
+    <comment ref="I162" authorId="0" shapeId="0" xr:uid="{6E327424-8D59-5844-9111-3400EDEE9B67}">
       <text>
         <r>
           <rPr>
@@ -4210,7 +4192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I163" authorId="0" shapeId="0" xr:uid="{8353BBAD-4950-794D-B928-B19A055AF806}">
+    <comment ref="I163" authorId="0" shapeId="0" xr:uid="{9F45C6B3-CB93-1D49-9647-CD7E5B76FF95}">
       <text>
         <r>
           <rPr>
@@ -4228,7 +4210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I164" authorId="0" shapeId="0" xr:uid="{BBCD0A7C-B455-2F41-A7F2-C3C451F74E78}">
+    <comment ref="I164" authorId="0" shapeId="0" xr:uid="{312351D8-0BE6-7C43-8FF3-F6669E0EDA82}">
       <text>
         <r>
           <rPr>
@@ -4250,7 +4232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I165" authorId="0" shapeId="0" xr:uid="{2999FDC9-DD2A-B74B-9546-369FCE4D1E79}">
+    <comment ref="I165" authorId="0" shapeId="0" xr:uid="{CF605AC8-3B9C-8D4F-909D-4B6E34EF4F8F}">
       <text>
         <r>
           <rPr>
@@ -4268,7 +4250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I166" authorId="0" shapeId="0" xr:uid="{ABE16D7D-A5D6-FC44-9CCC-770AE592A2BE}">
+    <comment ref="I166" authorId="0" shapeId="0" xr:uid="{885A5C78-45E5-F942-8DF4-552F854B27F7}">
       <text>
         <r>
           <rPr>
@@ -4284,7 +4266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I167" authorId="0" shapeId="0" xr:uid="{261CE5E1-6617-3D45-B5DB-5A78CCAE9724}">
+    <comment ref="I167" authorId="0" shapeId="0" xr:uid="{44CC4167-E8DE-6A46-A933-409B1B6D0A04}">
       <text>
         <r>
           <rPr>
@@ -4311,7 +4293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I168" authorId="0" shapeId="0" xr:uid="{B846ED32-CE27-BF42-AB71-FBF648D720DF}">
+    <comment ref="I168" authorId="0" shapeId="0" xr:uid="{33FC0CEB-CB42-634B-A5D7-8F8B55A06B48}">
       <text>
         <r>
           <rPr>
@@ -4332,7 +4314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I169" authorId="0" shapeId="0" xr:uid="{B3971F31-0FB8-0440-9807-DC75021EA1E5}">
+    <comment ref="I169" authorId="0" shapeId="0" xr:uid="{D6302CB1-FC2D-C34B-9EE1-D84419D580B9}">
       <text>
         <r>
           <rPr>
@@ -4356,7 +4338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I170" authorId="0" shapeId="0" xr:uid="{3E16127E-02D8-6D42-9159-2C947CBFADE1}">
+    <comment ref="I170" authorId="0" shapeId="0" xr:uid="{A9B12347-57CE-F24F-8ADB-C9E9DF57E2D1}">
       <text>
         <r>
           <rPr>
@@ -4376,7 +4358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I171" authorId="0" shapeId="0" xr:uid="{3B9AE855-0D71-B64B-A1BD-73A1A4669AD1}">
+    <comment ref="I171" authorId="0" shapeId="0" xr:uid="{70C30004-F682-D847-BF8A-6E0C33E1EBE6}">
       <text>
         <r>
           <rPr>
@@ -4391,7 +4373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I172" authorId="0" shapeId="0" xr:uid="{232465CE-377D-F743-954C-A9E3CFF20FE7}">
+    <comment ref="I172" authorId="0" shapeId="0" xr:uid="{883C807E-66F1-154B-AD8C-06C56F129F45}">
       <text>
         <r>
           <rPr>
@@ -4406,7 +4388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I173" authorId="0" shapeId="0" xr:uid="{FF88D8AA-549F-3849-8108-B187E4FF34BE}">
+    <comment ref="I173" authorId="0" shapeId="0" xr:uid="{0D7A3BBE-E9EA-094F-BD5D-D2A283AECCC3}">
       <text>
         <r>
           <rPr>
@@ -4422,7 +4404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I174" authorId="0" shapeId="0" xr:uid="{2D22F300-BE0F-C542-B527-3ED904313D9E}">
+    <comment ref="I174" authorId="0" shapeId="0" xr:uid="{58769E2B-7262-9B43-9FE6-F57F114ECA63}">
       <text>
         <r>
           <rPr>
@@ -4441,7 +4423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I175" authorId="0" shapeId="0" xr:uid="{DF263182-BBCC-654A-A1C0-498DF8F89140}">
+    <comment ref="I175" authorId="0" shapeId="0" xr:uid="{AF7C9478-F7FD-4A4D-90E3-81D8BBBB131C}">
       <text>
         <r>
           <rPr>
@@ -4465,7 +4447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I176" authorId="0" shapeId="0" xr:uid="{65419922-D5BD-9F4E-BF65-CA871017FA6F}">
+    <comment ref="I176" authorId="0" shapeId="0" xr:uid="{B91ABE87-9D25-044F-A70B-E02187C76450}">
       <text>
         <r>
           <rPr>
@@ -4483,7 +4465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I177" authorId="0" shapeId="0" xr:uid="{6CCD1969-01E7-C449-A7B5-3827AC237671}">
+    <comment ref="I177" authorId="0" shapeId="0" xr:uid="{1779D41B-DA69-CC42-8CC1-328EC3E5F35C}">
       <text>
         <r>
           <rPr>
@@ -4501,7 +4483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I178" authorId="0" shapeId="0" xr:uid="{A0413BBC-A454-094E-B167-F11D90E5DEB7}">
+    <comment ref="I178" authorId="0" shapeId="0" xr:uid="{7F787D26-D111-7B4E-80AA-99BC1072B261}">
       <text>
         <r>
           <rPr>
@@ -4518,7 +4500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I179" authorId="0" shapeId="0" xr:uid="{83362054-9A04-C045-BCCF-B25052CCE42D}">
+    <comment ref="I179" authorId="0" shapeId="0" xr:uid="{E9D28AE4-9922-C040-8544-90E18A7FE942}">
       <text>
         <r>
           <rPr>
@@ -4537,7 +4519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I180" authorId="0" shapeId="0" xr:uid="{DE932BE7-5F1D-A744-AE63-A8A71368FDE8}">
+    <comment ref="I180" authorId="0" shapeId="0" xr:uid="{C9F9C495-2F52-3F48-A4B3-A4100DBBB19B}">
       <text>
         <r>
           <rPr>
@@ -4561,7 +4543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I181" authorId="0" shapeId="0" xr:uid="{4D4B49C7-8524-B94F-BD66-BD70FD26D80E}">
+    <comment ref="I181" authorId="0" shapeId="0" xr:uid="{2FEC8568-D4C6-964B-AD01-6D7D44EB78C0}">
       <text>
         <r>
           <rPr>
@@ -4596,7 +4578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I182" authorId="0" shapeId="0" xr:uid="{81D946F0-4379-0944-8733-84AA90A83794}">
+    <comment ref="I182" authorId="0" shapeId="0" xr:uid="{BC8A9F30-F515-2D41-ADD5-CB6C2AA2B44E}">
       <text>
         <r>
           <rPr>
@@ -4611,7 +4593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I183" authorId="0" shapeId="0" xr:uid="{13415686-F5CD-A04E-BA63-E5C1914C232D}">
+    <comment ref="I183" authorId="0" shapeId="0" xr:uid="{13940E24-4A1A-E547-8E9B-4251B0E32280}">
       <text>
         <r>
           <rPr>
@@ -4626,7 +4608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I184" authorId="0" shapeId="0" xr:uid="{69FA0432-D3B2-1945-85A8-3706BF3C532A}">
+    <comment ref="I184" authorId="0" shapeId="0" xr:uid="{59F7151F-BC2F-DD4F-B38E-24B4D906356E}">
       <text>
         <r>
           <rPr>
@@ -4641,7 +4623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I185" authorId="0" shapeId="0" xr:uid="{6ECF2D29-D732-D848-B7AA-113F0514C110}">
+    <comment ref="I185" authorId="0" shapeId="0" xr:uid="{528B8047-AC72-B440-ADD4-3C1064551774}">
       <text>
         <r>
           <rPr>
@@ -4656,7 +4638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I186" authorId="0" shapeId="0" xr:uid="{18C89D0C-67E9-5049-8373-894B82A9B3A8}">
+    <comment ref="I186" authorId="0" shapeId="0" xr:uid="{829A9D8D-ABE8-F34D-A6C5-F19101BA52A7}">
       <text>
         <r>
           <rPr>
@@ -4676,7 +4658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I187" authorId="0" shapeId="0" xr:uid="{A7A2F970-FEA7-134F-9C61-FC8B4A339D14}">
+    <comment ref="I187" authorId="0" shapeId="0" xr:uid="{97A99A8F-9A65-8D4C-93A4-1ABAEB94D007}">
       <text>
         <r>
           <rPr>
@@ -4696,7 +4678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I188" authorId="0" shapeId="0" xr:uid="{F9BA9B2B-9685-CF41-99EA-5708F7743C8B}">
+    <comment ref="I188" authorId="0" shapeId="0" xr:uid="{714F9859-D733-D74C-88CD-2B1C08313DED}">
       <text>
         <r>
           <rPr>
@@ -4729,7 +4711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I189" authorId="0" shapeId="0" xr:uid="{A05BEB09-7722-8F4D-B096-AE081E894141}">
+    <comment ref="I189" authorId="0" shapeId="0" xr:uid="{9F9742FA-DED4-8845-8979-F90C0F75EE06}">
       <text>
         <r>
           <rPr>
@@ -4745,7 +4727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I190" authorId="0" shapeId="0" xr:uid="{63E2895E-7AA3-9C4B-94A5-A510FE5E1157}">
+    <comment ref="I190" authorId="0" shapeId="0" xr:uid="{182A374C-4E50-FB4D-B744-4BA396F8E64B}">
       <text>
         <r>
           <rPr>
@@ -4760,7 +4742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I191" authorId="0" shapeId="0" xr:uid="{D6DB4847-9D60-C04C-8C4D-E8988FE28E9A}">
+    <comment ref="I191" authorId="0" shapeId="0" xr:uid="{8A2D775F-E854-274F-8445-7FF60D915787}">
       <text>
         <r>
           <rPr>
@@ -4775,7 +4757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I192" authorId="0" shapeId="0" xr:uid="{BC880B27-073D-1E4C-852B-54527F63C7C7}">
+    <comment ref="I192" authorId="0" shapeId="0" xr:uid="{A3253C9B-F7C4-DD4C-BD03-99B24E7DC1D8}">
       <text>
         <r>
           <rPr>
@@ -4790,7 +4772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I193" authorId="0" shapeId="0" xr:uid="{68C3F582-BF47-FA4A-A42A-1175042741DC}">
+    <comment ref="I193" authorId="0" shapeId="0" xr:uid="{4E4E208F-977B-7F4A-8600-00F577B0FD42}">
       <text>
         <r>
           <rPr>
@@ -4806,7 +4788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I194" authorId="0" shapeId="0" xr:uid="{C5209811-DC04-B74B-9F71-14860CFDF75E}">
+    <comment ref="I194" authorId="0" shapeId="0" xr:uid="{CDE5A706-B28B-FB46-99A2-961F93B47ECE}">
       <text>
         <r>
           <rPr>
@@ -4821,7 +4803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I195" authorId="0" shapeId="0" xr:uid="{D1638653-702B-EE4A-8002-667462F1969F}">
+    <comment ref="I195" authorId="0" shapeId="0" xr:uid="{F6236F5B-DCE2-6F43-8587-6B8577F33249}">
       <text>
         <r>
           <rPr>
@@ -4837,7 +4819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I196" authorId="0" shapeId="0" xr:uid="{B073B6DB-1716-3D40-9A88-012E9C762DF2}">
+    <comment ref="I196" authorId="0" shapeId="0" xr:uid="{379B41BF-61A9-5D47-B604-F1BB889BF7A9}">
       <text>
         <r>
           <rPr>
@@ -4858,7 +4840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I197" authorId="0" shapeId="0" xr:uid="{09C736C4-154E-7047-8D27-D5745B29B6B5}">
+    <comment ref="I197" authorId="0" shapeId="0" xr:uid="{CC187935-9F2F-3842-B4BF-3504D9C73CAC}">
       <text>
         <r>
           <rPr>
@@ -4876,7 +4858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I198" authorId="0" shapeId="0" xr:uid="{A60D1525-BD72-D043-989D-0086173627B7}">
+    <comment ref="I198" authorId="0" shapeId="0" xr:uid="{553FFD35-9907-344C-886D-F293FDE68D8D}">
       <text>
         <r>
           <rPr>
@@ -4894,7 +4876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I199" authorId="0" shapeId="0" xr:uid="{895CFCCF-6E41-7146-90EF-6EA59EE997AF}">
+    <comment ref="I199" authorId="0" shapeId="0" xr:uid="{9C02F69F-6751-184B-964B-A33FB7A65056}">
       <text>
         <r>
           <rPr>
@@ -4915,7 +4897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I200" authorId="0" shapeId="0" xr:uid="{14BD0A6E-8A1F-2341-BD3E-F170852C3CD5}">
+    <comment ref="I200" authorId="0" shapeId="0" xr:uid="{17E33BA5-CE57-1E40-A4D0-385880ED6F18}">
       <text>
         <r>
           <rPr>
@@ -4930,7 +4912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I201" authorId="0" shapeId="0" xr:uid="{4CDE968D-9B78-F44A-8C31-42FA894C727C}">
+    <comment ref="I201" authorId="0" shapeId="0" xr:uid="{9534917B-D0FF-B543-8E47-05D757530042}">
       <text>
         <r>
           <rPr>
@@ -4958,7 +4940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I202" authorId="0" shapeId="0" xr:uid="{9E316030-F29F-334D-8C9A-1143D30A4CEC}">
+    <comment ref="I202" authorId="0" shapeId="0" xr:uid="{84206370-8F27-0247-BB95-95B9E96ED009}">
       <text>
         <r>
           <rPr>
@@ -4975,7 +4957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I203" authorId="0" shapeId="0" xr:uid="{A5AEB398-634E-A443-A80B-753B287C833C}">
+    <comment ref="I203" authorId="0" shapeId="0" xr:uid="{FA6E279D-A47F-174C-88D8-B038F3BC5621}">
       <text>
         <r>
           <rPr>
@@ -4995,7 +4977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I204" authorId="0" shapeId="0" xr:uid="{1CF9BA9F-3901-6349-A47C-F8BDA496235E}">
+    <comment ref="I204" authorId="0" shapeId="0" xr:uid="{9EA58E29-5698-DA4E-B29D-F67DDD9F75A0}">
       <text>
         <r>
           <rPr>
@@ -5011,7 +4993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I205" authorId="0" shapeId="0" xr:uid="{EC390B2E-AAB3-9741-8CA6-8F9664A79E25}">
+    <comment ref="I205" authorId="0" shapeId="0" xr:uid="{ED257E9D-1D2D-EA41-831A-5ED449680E85}">
       <text>
         <r>
           <rPr>
@@ -5027,7 +5009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I206" authorId="0" shapeId="0" xr:uid="{69F2FE85-6229-5543-95BD-BBB3A40852A6}">
+    <comment ref="I206" authorId="0" shapeId="0" xr:uid="{567E9064-680C-DD41-BE2D-F7A35187CEC5}">
       <text>
         <r>
           <rPr>
@@ -5052,7 +5034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I207" authorId="0" shapeId="0" xr:uid="{61DC04B8-A1C1-5B46-8081-EBC3EFDDEE01}">
+    <comment ref="I207" authorId="0" shapeId="0" xr:uid="{89F81AAB-1877-354E-B29D-6E9F2887B9CA}">
       <text>
         <r>
           <rPr>
@@ -5071,7 +5053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I208" authorId="0" shapeId="0" xr:uid="{A78EB7FE-F9B0-A14C-93C3-6E91EADB88EE}">
+    <comment ref="I208" authorId="0" shapeId="0" xr:uid="{7346D4BA-9505-8340-8F83-EFD3E39C54C2}">
       <text>
         <r>
           <rPr>
@@ -5090,7 +5072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I209" authorId="0" shapeId="0" xr:uid="{182288AC-5377-B541-AC23-41933858E288}">
+    <comment ref="I209" authorId="0" shapeId="0" xr:uid="{CC0E182F-8613-9F48-8F46-54718141B240}">
       <text>
         <r>
           <rPr>
@@ -5107,7 +5089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I210" authorId="0" shapeId="0" xr:uid="{DEF8D8E2-7070-C345-ACEF-5F744D6972E4}">
+    <comment ref="I210" authorId="0" shapeId="0" xr:uid="{6280A053-05C7-3040-9815-BAE99FA4A1AE}">
       <text>
         <r>
           <rPr>
@@ -5127,7 +5109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I211" authorId="0" shapeId="0" xr:uid="{91C9DB79-21CD-5C43-8421-CE1E3954380C}">
+    <comment ref="I211" authorId="0" shapeId="0" xr:uid="{04EE2343-9D9C-BA40-AD4E-52C4CCAF8FEC}">
       <text>
         <r>
           <rPr>
@@ -5149,7 +5131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I212" authorId="0" shapeId="0" xr:uid="{379F9CBB-FD78-E243-9596-D6C1DA41B58A}">
+    <comment ref="I212" authorId="0" shapeId="0" xr:uid="{8AB68728-CAAC-A741-BECD-65A8D83929C4}">
       <text>
         <r>
           <rPr>
@@ -5165,7 +5147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I213" authorId="0" shapeId="0" xr:uid="{DBAEAF6E-0C53-4041-8CDC-FFF90E8044B9}">
+    <comment ref="I213" authorId="0" shapeId="0" xr:uid="{3838D5D6-4F02-1843-BA47-13FBA21B65B9}">
       <text>
         <r>
           <rPr>
@@ -5181,7 +5163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I214" authorId="0" shapeId="0" xr:uid="{1DB4CB85-9FD4-E04A-9AAE-5516303D362D}">
+    <comment ref="I214" authorId="0" shapeId="0" xr:uid="{9D37DE81-078E-9C4D-9613-938B27BCA017}">
       <text>
         <r>
           <rPr>
@@ -5204,7 +5186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I215" authorId="0" shapeId="0" xr:uid="{72D05113-3914-4147-8E41-1D60684A08CD}">
+    <comment ref="I215" authorId="0" shapeId="0" xr:uid="{D4DC108E-450D-1D4E-9216-A773FE9DA353}">
       <text>
         <r>
           <rPr>
@@ -5224,7 +5206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I216" authorId="0" shapeId="0" xr:uid="{1CA55AC7-92A0-B548-B9A5-2908A0FD0A80}">
+    <comment ref="I216" authorId="0" shapeId="0" xr:uid="{A2DCA399-6577-5A4F-869B-882820E52E9E}">
       <text>
         <r>
           <rPr>
@@ -5240,7 +5222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I217" authorId="0" shapeId="0" xr:uid="{6061432D-ABFF-3942-B535-674EC9F9D211}">
+    <comment ref="I217" authorId="0" shapeId="0" xr:uid="{F4CDBA0C-8AAE-E54E-81F5-3FB547E539D2}">
       <text>
         <r>
           <rPr>
@@ -5257,7 +5239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I218" authorId="0" shapeId="0" xr:uid="{E87DF2A9-14EE-F841-833F-695EBC07B83D}">
+    <comment ref="I218" authorId="0" shapeId="0" xr:uid="{8DA3814E-8406-2949-94B2-164B87FA270E}">
       <text>
         <r>
           <rPr>
@@ -5278,7 +5260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I219" authorId="0" shapeId="0" xr:uid="{8A695E55-374F-2F4A-99EA-0A2206F061EF}">
+    <comment ref="I219" authorId="0" shapeId="0" xr:uid="{0D6AC6CF-CCE5-FD4B-8138-5DBA3DEC727F}">
       <text>
         <r>
           <rPr>
@@ -5293,7 +5275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I220" authorId="0" shapeId="0" xr:uid="{2DD59921-9B35-B04E-BBDD-58455073500F}">
+    <comment ref="I220" authorId="0" shapeId="0" xr:uid="{378A835D-DD04-0745-AB9A-29D9421C4000}">
       <text>
         <r>
           <rPr>
@@ -5317,7 +5299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I221" authorId="0" shapeId="0" xr:uid="{04CE6FAC-B5FB-C54A-9FA4-730EF36C6EB8}">
+    <comment ref="I221" authorId="0" shapeId="0" xr:uid="{793428FF-220F-C64E-A82F-A1AE5CF7C2AD}">
       <text>
         <r>
           <rPr>
@@ -5341,7 +5323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I222" authorId="0" shapeId="0" xr:uid="{E043F0D5-7379-F54B-9B35-5D117EC105A3}">
+    <comment ref="I222" authorId="0" shapeId="0" xr:uid="{F6256BE6-B088-8245-97C8-336C0096CD66}">
       <text>
         <r>
           <rPr>
@@ -5374,7 +5356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I223" authorId="0" shapeId="0" xr:uid="{B9A611C7-2A83-E14A-8306-2A3008D28574}">
+    <comment ref="I223" authorId="0" shapeId="0" xr:uid="{79D03F96-8A8A-1E45-8F49-49FAD4BCDFBC}">
       <text>
         <r>
           <rPr>
@@ -5404,7 +5386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I224" authorId="0" shapeId="0" xr:uid="{6A3622B2-18A8-1A43-B3A9-EC5AB5095AB0}">
+    <comment ref="I224" authorId="0" shapeId="0" xr:uid="{D5D107F3-EF3B-384E-844F-6AAA9666ACA3}">
       <text>
         <r>
           <rPr>
@@ -5419,7 +5401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I225" authorId="0" shapeId="0" xr:uid="{CF057C5E-4FE1-0947-8580-ADB0F2568574}">
+    <comment ref="I225" authorId="0" shapeId="0" xr:uid="{74A1006C-0AB0-9C4B-BC84-CBB379B59003}">
       <text>
         <r>
           <rPr>
@@ -5438,7 +5420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I226" authorId="0" shapeId="0" xr:uid="{5BC7AF59-B6F9-B64F-9EB1-44E76ED2F085}">
+    <comment ref="I226" authorId="0" shapeId="0" xr:uid="{B5C2E5BC-1F21-0B4B-9195-EF4D7AB1888A}">
       <text>
         <r>
           <rPr>
@@ -5456,7 +5438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I227" authorId="0" shapeId="0" xr:uid="{D8949EC6-AA27-0441-9C10-ECC5717E658B}">
+    <comment ref="I227" authorId="0" shapeId="0" xr:uid="{BC0AF973-6828-9145-8D1F-99214C7EA1DD}">
       <text>
         <r>
           <rPr>
@@ -5482,7 +5464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I228" authorId="0" shapeId="0" xr:uid="{89D11ABA-A2DB-0C46-B867-FE8540DABB1D}">
+    <comment ref="I228" authorId="0" shapeId="0" xr:uid="{D003A1FD-8D98-1C4B-94CE-F3ED09444D02}">
       <text>
         <r>
           <rPr>
@@ -5497,7 +5479,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I229" authorId="0" shapeId="0" xr:uid="{E2E4171A-C2E0-C541-9257-0F2119602602}">
+    <comment ref="I229" authorId="0" shapeId="0" xr:uid="{6FD6273D-8860-3D4C-B5AD-0E7A23F658D1}">
       <text>
         <r>
           <rPr>
@@ -5516,7 +5498,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I230" authorId="0" shapeId="0" xr:uid="{239ABFCF-BD0F-D24E-A8D1-126FC4B2EDEC}">
+    <comment ref="I230" authorId="0" shapeId="0" xr:uid="{B11846A9-B0A0-A147-964C-A7D7AEF535DF}">
       <text>
         <r>
           <rPr>
@@ -5532,7 +5514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I231" authorId="0" shapeId="0" xr:uid="{CCF56BBA-0EA1-EB47-AFD7-DC43D4A9D68A}">
+    <comment ref="I231" authorId="0" shapeId="0" xr:uid="{0E5EBC58-0E2D-914E-A867-05C3BF3E69A3}">
       <text>
         <r>
           <rPr>
@@ -5560,7 +5542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I232" authorId="0" shapeId="0" xr:uid="{2C2F93CF-57CA-754D-808A-0E6511898D2D}">
+    <comment ref="I232" authorId="0" shapeId="0" xr:uid="{328254A8-446C-F844-A60E-3254F7CFEF5F}">
       <text>
         <r>
           <rPr>
@@ -5580,7 +5562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I233" authorId="0" shapeId="0" xr:uid="{BB27E0F0-8952-2B46-A403-4947C27E35D1}">
+    <comment ref="I233" authorId="0" shapeId="0" xr:uid="{B8D1F622-97E2-C642-8697-DDF5603DB052}">
       <text>
         <r>
           <rPr>
@@ -5605,7 +5587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I234" authorId="0" shapeId="0" xr:uid="{75789E9A-53FA-8F42-BBE6-3E4C771E20FA}">
+    <comment ref="I234" authorId="0" shapeId="0" xr:uid="{B8B7BA65-4A24-8E44-97B8-FF1B5A8A0930}">
       <text>
         <r>
           <rPr>
@@ -5621,7 +5603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I235" authorId="0" shapeId="0" xr:uid="{A070C415-D33B-2742-8D4B-B79924482F70}">
+    <comment ref="I235" authorId="0" shapeId="0" xr:uid="{3079E5E5-2315-654D-9EDF-50B3B00C1BCA}">
       <text>
         <r>
           <rPr>
@@ -5637,7 +5619,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I236" authorId="0" shapeId="0" xr:uid="{54B8C4E0-D735-7C48-80B8-263A7DA5107B}">
+    <comment ref="I236" authorId="0" shapeId="0" xr:uid="{6ED87583-4DE2-C445-BD6A-3C1AEC7493A0}">
       <text>
         <r>
           <rPr>
@@ -5653,7 +5635,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I237" authorId="0" shapeId="0" xr:uid="{A7F2A5B8-EADA-F446-A413-35020A2F3C77}">
+    <comment ref="I237" authorId="0" shapeId="0" xr:uid="{1C5F87D4-97F2-3442-8067-7C8356F7BE87}">
       <text>
         <r>
           <rPr>
@@ -5672,7 +5654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I238" authorId="0" shapeId="0" xr:uid="{118D7D5B-FF6B-D647-9873-759B1F08972D}">
+    <comment ref="I238" authorId="0" shapeId="0" xr:uid="{77745DC9-7F50-B649-AC1E-97CAE3518345}">
       <text>
         <r>
           <rPr>
@@ -5687,7 +5669,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I239" authorId="0" shapeId="0" xr:uid="{691D3B6C-D8C1-D041-8E3F-8F66F3441521}">
+    <comment ref="I239" authorId="0" shapeId="0" xr:uid="{F1575EC3-13B7-8C42-97F4-A2BA80759EF5}">
       <text>
         <r>
           <rPr>
@@ -5709,7 +5691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I240" authorId="0" shapeId="0" xr:uid="{630CE088-AC30-254A-83F7-F58246695031}">
+    <comment ref="I240" authorId="0" shapeId="0" xr:uid="{13A3E4AC-075E-2744-A398-15A0A085BC8A}">
       <text>
         <r>
           <rPr>
@@ -5725,7 +5707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I241" authorId="0" shapeId="0" xr:uid="{579EC743-E675-DD4A-9032-097A11454E01}">
+    <comment ref="I241" authorId="0" shapeId="0" xr:uid="{8452FD88-2F33-9A49-896E-85D6B40A6383}">
       <text>
         <r>
           <rPr>
@@ -5743,7 +5725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I242" authorId="0" shapeId="0" xr:uid="{6917CCCE-64BB-FE40-B319-F9A405B6E563}">
+    <comment ref="I242" authorId="0" shapeId="0" xr:uid="{42B9EAAE-4FD5-5D49-95CB-DEDF1B3D0261}">
       <text>
         <r>
           <rPr>
@@ -5759,7 +5741,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I243" authorId="0" shapeId="0" xr:uid="{B159FD33-156B-254C-8DEA-415083A512DE}">
+    <comment ref="I243" authorId="0" shapeId="0" xr:uid="{69D642F8-7D4D-884E-B6F9-08AB1592D9E5}">
       <text>
         <r>
           <rPr>
@@ -5775,7 +5757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I244" authorId="0" shapeId="0" xr:uid="{E280C8FD-376D-0F4C-82D1-AFE77F95CB4E}">
+    <comment ref="I244" authorId="0" shapeId="0" xr:uid="{6831BBBB-7744-6348-ABBD-412008CD5A18}">
       <text>
         <r>
           <rPr>
@@ -5791,7 +5773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I245" authorId="0" shapeId="0" xr:uid="{FD556F9B-065E-6F40-844E-15EB4B0071A1}">
+    <comment ref="I245" authorId="0" shapeId="0" xr:uid="{9DF0979B-18B4-F441-8795-5E0BDF0E5BFD}">
       <text>
         <r>
           <rPr>
@@ -5807,7 +5789,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I246" authorId="0" shapeId="0" xr:uid="{865103D8-BDEB-534E-B99F-DF31809FC721}">
+    <comment ref="I246" authorId="0" shapeId="0" xr:uid="{DED70678-83F6-6E41-98F5-70AE3AAD42B6}">
       <text>
         <r>
           <rPr>
@@ -5822,7 +5804,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I247" authorId="0" shapeId="0" xr:uid="{291BB87F-8E09-5C43-93E7-5F45524CFF9E}">
+    <comment ref="I247" authorId="0" shapeId="0" xr:uid="{BF6ACA70-0752-BF47-BB99-16A180423368}">
       <text>
         <r>
           <rPr>
@@ -5838,7 +5820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I248" authorId="0" shapeId="0" xr:uid="{FF5D70A0-451D-5841-87EE-1872FF4907E2}">
+    <comment ref="I248" authorId="0" shapeId="0" xr:uid="{605ED932-D051-B64A-A4BE-3B5A1EAEDF67}">
       <text>
         <r>
           <rPr>
@@ -5853,7 +5835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I249" authorId="0" shapeId="0" xr:uid="{6ED0FAB4-317D-F247-8183-8D83C03F7DA1}">
+    <comment ref="I249" authorId="0" shapeId="0" xr:uid="{EEA277B6-0D92-014C-ABFB-40505324614A}">
       <text>
         <r>
           <rPr>
@@ -5872,7 +5854,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I250" authorId="0" shapeId="0" xr:uid="{AB7E25B7-266D-8C46-BFBD-EEF612429B6A}">
+    <comment ref="I250" authorId="0" shapeId="0" xr:uid="{4EE8FCEE-6888-4C45-9660-11DD061F5563}">
       <text>
         <r>
           <rPr>
@@ -5888,7 +5870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I251" authorId="0" shapeId="0" xr:uid="{C3F152D2-043B-084D-8590-81B389BAD714}">
+    <comment ref="I251" authorId="0" shapeId="0" xr:uid="{D0BC3E87-D915-3A48-8D3D-42AC914C0D95}">
       <text>
         <r>
           <rPr>
@@ -5907,7 +5889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I252" authorId="0" shapeId="0" xr:uid="{F42447AC-58CE-7746-AF34-14E45E5C6FA2}">
+    <comment ref="I252" authorId="0" shapeId="0" xr:uid="{329B3401-B38D-134F-96B0-29638C08E2C7}">
       <text>
         <r>
           <rPr>
@@ -5935,7 +5917,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I253" authorId="0" shapeId="0" xr:uid="{891341D7-65F7-624A-B1EA-B53044652154}">
+    <comment ref="I253" authorId="0" shapeId="0" xr:uid="{C5DEED6C-391E-D141-9A93-15F176A3B036}">
       <text>
         <r>
           <rPr>
@@ -5951,7 +5933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I254" authorId="0" shapeId="0" xr:uid="{C66EB34D-D2F1-FE42-AC4F-375F254239D7}">
+    <comment ref="I254" authorId="0" shapeId="0" xr:uid="{92FD119F-F923-744C-9406-56AC3AE76BF6}">
       <text>
         <r>
           <rPr>
@@ -5978,7 +5960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I255" authorId="0" shapeId="0" xr:uid="{2BE60594-E837-1841-A35C-B69FC7E538DD}">
+    <comment ref="I255" authorId="0" shapeId="0" xr:uid="{79752D3C-18EA-8942-BFEF-788C5D72458E}">
       <text>
         <r>
           <rPr>
@@ -5994,7 +5976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I256" authorId="0" shapeId="0" xr:uid="{DDEEDAF8-2F3D-AE45-AF73-D00C7A789FC1}">
+    <comment ref="I256" authorId="0" shapeId="0" xr:uid="{71D4723D-581E-4A40-9682-EF67BC92C9E2}">
       <text>
         <r>
           <rPr>
@@ -6009,7 +5991,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I257" authorId="0" shapeId="0" xr:uid="{8003E0CA-E801-3047-BFD3-702AF937F7DE}">
+    <comment ref="I257" authorId="0" shapeId="0" xr:uid="{110E32F8-03F1-0042-886D-CDC3240D2ACC}">
       <text>
         <r>
           <rPr>
@@ -6025,7 +6007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I258" authorId="0" shapeId="0" xr:uid="{06EC06D4-B5FC-B34D-98FC-521087B7A631}">
+    <comment ref="I258" authorId="0" shapeId="0" xr:uid="{88390028-E15E-B14C-8111-71B76DD399A2}">
       <text>
         <r>
           <rPr>
@@ -6044,7 +6026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I259" authorId="0" shapeId="0" xr:uid="{3ADE6F17-F1C0-E848-A654-DDBCD56CF446}">
+    <comment ref="I259" authorId="0" shapeId="0" xr:uid="{2040501C-F54D-AE40-92C6-A1CA34B04010}">
       <text>
         <r>
           <rPr>
@@ -6059,7 +6041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I260" authorId="0" shapeId="0" xr:uid="{F872D42F-F71B-0143-803D-1C32B56AACA4}">
+    <comment ref="I260" authorId="0" shapeId="0" xr:uid="{A8B6D106-1834-E248-A693-818179358666}">
       <text>
         <r>
           <rPr>
@@ -6075,7 +6057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I261" authorId="0" shapeId="0" xr:uid="{37C68DBF-A668-E847-88BE-AE556AF56902}">
+    <comment ref="I261" authorId="0" shapeId="0" xr:uid="{A372A198-257E-3C42-BDFB-53708F577FCF}">
       <text>
         <r>
           <rPr>
@@ -6093,7 +6075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I262" authorId="0" shapeId="0" xr:uid="{9250892F-9D82-644E-8547-36D6FC081B80}">
+    <comment ref="I262" authorId="0" shapeId="0" xr:uid="{EE7F1CFF-9178-C845-BF69-9BFB8478ECE3}">
       <text>
         <r>
           <rPr>
@@ -6109,7 +6091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I263" authorId="0" shapeId="0" xr:uid="{188E3699-2AD4-7F4E-B4A5-8E614AAA487B}">
+    <comment ref="I263" authorId="0" shapeId="0" xr:uid="{DCD63CF9-52A5-B44D-8EFC-ABDD7FE0A12F}">
       <text>
         <r>
           <rPr>
@@ -6128,7 +6110,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I264" authorId="0" shapeId="0" xr:uid="{877F1BA0-0587-EC47-8891-84E2EEBBEA3B}">
+    <comment ref="I264" authorId="0" shapeId="0" xr:uid="{8C84B224-EA2F-B844-B72F-1987D58BC421}">
       <text>
         <r>
           <rPr>
@@ -6144,7 +6126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I265" authorId="0" shapeId="0" xr:uid="{18CA70A5-22BF-1F4A-B3FE-6B2B57DFDB9A}">
+    <comment ref="I265" authorId="0" shapeId="0" xr:uid="{88AB09EB-7007-2B44-886B-E987CD09AFBA}">
       <text>
         <r>
           <rPr>
@@ -6162,7 +6144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I266" authorId="0" shapeId="0" xr:uid="{CD90ECFF-F748-C843-9B09-7C0B8E9B4184}">
+    <comment ref="I266" authorId="0" shapeId="0" xr:uid="{D221982A-E1E3-5B4B-8115-53A145B32464}">
       <text>
         <r>
           <rPr>
@@ -6180,7 +6162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I267" authorId="0" shapeId="0" xr:uid="{233C92F0-5DE1-E940-B85F-AA8EA666E2FD}">
+    <comment ref="I267" authorId="0" shapeId="0" xr:uid="{5D59AE6B-467E-F341-BECE-3885813E3F28}">
       <text>
         <r>
           <rPr>
@@ -6198,7 +6180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I268" authorId="0" shapeId="0" xr:uid="{4A35672A-5A01-5844-9C47-05D7ED939C7A}">
+    <comment ref="I268" authorId="0" shapeId="0" xr:uid="{4BCF1341-994D-AC48-87B6-68ADA658DF1E}">
       <text>
         <r>
           <rPr>
@@ -6213,7 +6195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I269" authorId="0" shapeId="0" xr:uid="{6BCA1B96-2E38-E74C-BCBC-0A2D6881D5D7}">
+    <comment ref="I269" authorId="0" shapeId="0" xr:uid="{E1C54506-913C-D74F-AA5A-9E8A9E0AF0FC}">
       <text>
         <r>
           <rPr>
@@ -6232,7 +6214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I270" authorId="0" shapeId="0" xr:uid="{E8AED8DA-9A8C-3944-BC25-4F0242E08932}">
+    <comment ref="I270" authorId="0" shapeId="0" xr:uid="{0F2368D8-3553-C347-982E-5BC798BF81E1}">
       <text>
         <r>
           <rPr>
@@ -6248,7 +6230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I271" authorId="0" shapeId="0" xr:uid="{399D86D1-3130-8840-9C2F-368A7371A0C6}">
+    <comment ref="I271" authorId="0" shapeId="0" xr:uid="{F1277318-4B0D-094C-8115-FBCB78DB39CC}">
       <text>
         <r>
           <rPr>
@@ -6266,7 +6248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I272" authorId="0" shapeId="0" xr:uid="{B7F4CD6C-2BF9-1D46-8FF7-774D4E6A622D}">
+    <comment ref="I272" authorId="0" shapeId="0" xr:uid="{CCEAC269-EC11-8149-81BF-B00750588F74}">
       <text>
         <r>
           <rPr>
@@ -6282,7 +6264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I273" authorId="0" shapeId="0" xr:uid="{7902A144-57E2-6D42-8B59-1569F2435B71}">
+    <comment ref="I273" authorId="0" shapeId="0" xr:uid="{EE9C93F0-11A8-FD4C-AE75-90F9B788BB04}">
       <text>
         <r>
           <rPr>
@@ -6301,7 +6283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I274" authorId="0" shapeId="0" xr:uid="{FBB0B10E-A236-DF44-86C0-3543F4826581}">
+    <comment ref="I274" authorId="0" shapeId="0" xr:uid="{10F887A5-528C-AE4C-87EF-E49936BAF99A}">
       <text>
         <r>
           <rPr>
@@ -6317,7 +6299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I275" authorId="0" shapeId="0" xr:uid="{5E2F7379-26CE-C241-A7FB-2D7ECEF76CE1}">
+    <comment ref="I275" authorId="0" shapeId="0" xr:uid="{4227C0AA-EC82-0443-ABFB-A1169D8AB3A6}">
       <text>
         <r>
           <rPr>
@@ -6333,7 +6315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I276" authorId="0" shapeId="0" xr:uid="{B8A6A86A-2685-D040-BEEB-982DFF0B1D91}">
+    <comment ref="I276" authorId="0" shapeId="0" xr:uid="{765947C5-7C40-A940-A4F7-1F019ADA8857}">
       <text>
         <r>
           <rPr>
@@ -6351,7 +6333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I277" authorId="0" shapeId="0" xr:uid="{D5C1815B-A2F0-7D4F-9DB9-D90334CA63D1}">
+    <comment ref="I277" authorId="0" shapeId="0" xr:uid="{55DC7C0E-DCA6-994F-A415-911234BA6853}">
       <text>
         <r>
           <rPr>
@@ -6367,7 +6349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I278" authorId="0" shapeId="0" xr:uid="{04195DCB-B6D0-C645-828A-E2E0C1ADE2D4}">
+    <comment ref="I278" authorId="0" shapeId="0" xr:uid="{FD75DA1B-B843-C844-9B50-DCA01D2FF33D}">
       <text>
         <r>
           <rPr>
@@ -6383,7 +6365,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I279" authorId="0" shapeId="0" xr:uid="{08AC2DC4-F1C3-6C4E-9173-C28B805D2469}">
+    <comment ref="I279" authorId="0" shapeId="0" xr:uid="{69D4E7CB-4545-6840-B72C-6C5469A042D4}">
       <text>
         <r>
           <rPr>
@@ -6399,7 +6381,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I280" authorId="0" shapeId="0" xr:uid="{3B934D95-5843-B64C-953E-B83D7384301F}">
+    <comment ref="I280" authorId="0" shapeId="0" xr:uid="{C4C81906-10A9-D440-8495-80F7EAFD386C}">
       <text>
         <r>
           <rPr>
@@ -6419,7 +6401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I281" authorId="0" shapeId="0" xr:uid="{B74BAC60-49FE-764D-8673-6C78D70FBDAE}">
+    <comment ref="I281" authorId="0" shapeId="0" xr:uid="{27DFCEF1-037C-C046-9E5A-39363866E468}">
       <text>
         <r>
           <rPr>
@@ -6437,7 +6419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I282" authorId="0" shapeId="0" xr:uid="{28D4B172-918B-6F4A-A3DF-458D751543A7}">
+    <comment ref="I282" authorId="0" shapeId="0" xr:uid="{584DCEBA-1259-674B-A6F0-20700C8B3DE3}">
       <text>
         <r>
           <rPr>
@@ -6465,7 +6447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I283" authorId="0" shapeId="0" xr:uid="{F9CC9F3D-C2BA-F74D-BCD3-C2EC2BD318DD}">
+    <comment ref="I283" authorId="0" shapeId="0" xr:uid="{CA76658E-37F5-CE43-9178-81C19635D922}">
       <text>
         <r>
           <rPr>
@@ -6494,7 +6476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I284" authorId="0" shapeId="0" xr:uid="{AF32EBBB-94C8-F04A-B2D1-C5D7B1E4A26F}">
+    <comment ref="I284" authorId="0" shapeId="0" xr:uid="{2B8E1A9D-6231-0942-9B58-11579DFD37D1}">
       <text>
         <r>
           <rPr>
@@ -6511,7 +6493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I285" authorId="0" shapeId="0" xr:uid="{BADD161C-661C-2548-BCA4-44D79E3ED615}">
+    <comment ref="I285" authorId="0" shapeId="0" xr:uid="{AB1DFFB9-1638-0144-A23D-FFAE8070A205}">
       <text>
         <r>
           <rPr>
@@ -6540,7 +6522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I286" authorId="0" shapeId="0" xr:uid="{6678DF11-1763-B043-9E9F-249E8C5573D5}">
+    <comment ref="I286" authorId="0" shapeId="0" xr:uid="{E900CBD8-350A-BF45-AEC6-782EB2EB81ED}">
       <text>
         <r>
           <rPr>
@@ -6569,7 +6551,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I287" authorId="0" shapeId="0" xr:uid="{D222F751-DA82-0246-8EF4-0FD4270E7216}">
+    <comment ref="I287" authorId="0" shapeId="0" xr:uid="{E27ADD87-7C77-6345-A9B2-58CA9D6FEBC7}">
       <text>
         <r>
           <rPr>
@@ -6584,7 +6566,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I288" authorId="0" shapeId="0" xr:uid="{19C97128-4D8A-FC4B-8F54-C10491479586}">
+    <comment ref="I288" authorId="0" shapeId="0" xr:uid="{A9E38794-402A-7143-8D08-68F8E46B4393}">
       <text>
         <r>
           <rPr>
@@ -6602,7 +6584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I289" authorId="0" shapeId="0" xr:uid="{2970B023-D9EF-5E4E-82EF-5485E3E3DC0A}">
+    <comment ref="I289" authorId="0" shapeId="0" xr:uid="{9D50842F-7F6F-C640-BBD9-B8109B4D7BF2}">
       <text>
         <r>
           <rPr>
@@ -6622,7 +6604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I290" authorId="0" shapeId="0" xr:uid="{3C31F0D1-1EA3-A149-90BA-40F781921474}">
+    <comment ref="I290" authorId="0" shapeId="0" xr:uid="{1C73372F-563B-ED47-A6DA-B04DB22908D2}">
       <text>
         <r>
           <rPr>
@@ -6641,7 +6623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I291" authorId="0" shapeId="0" xr:uid="{CBB17379-3A72-EB43-AF0D-905BB4826C30}">
+    <comment ref="I291" authorId="0" shapeId="0" xr:uid="{9A5CD3C2-04AA-AA46-AA3F-0CBE86845847}">
       <text>
         <r>
           <rPr>
@@ -6660,7 +6642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I292" authorId="0" shapeId="0" xr:uid="{965840C1-DDF2-6A41-A7C2-ADC7557A4114}">
+    <comment ref="I292" authorId="0" shapeId="0" xr:uid="{C5094E60-133A-0D46-851D-45CD090897C9}">
       <text>
         <r>
           <rPr>
@@ -6680,7 +6662,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I293" authorId="0" shapeId="0" xr:uid="{DD4E265D-4AB7-6F47-A205-2A7A1FDDE447}">
+    <comment ref="I293" authorId="0" shapeId="0" xr:uid="{761E7E7F-E652-E243-80CD-A0CFD1F398BD}">
       <text>
         <r>
           <rPr>
@@ -6709,7 +6691,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I294" authorId="0" shapeId="0" xr:uid="{648650BD-D1BA-B943-81A8-CD71AE1317D9}">
+    <comment ref="I294" authorId="0" shapeId="0" xr:uid="{45304AE4-2E82-BC40-8C62-3621B7417BA0}">
       <text>
         <r>
           <rPr>
@@ -6730,7 +6712,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I295" authorId="0" shapeId="0" xr:uid="{6CBDFEBF-996C-BD49-9DC7-75BF28C27460}">
+    <comment ref="I295" authorId="0" shapeId="0" xr:uid="{CD5C02A3-A904-534A-8020-F25805427BF1}">
       <text>
         <r>
           <rPr>
@@ -6745,7 +6727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I296" authorId="0" shapeId="0" xr:uid="{C7A15632-486B-5047-AEAA-39D70B0833A4}">
+    <comment ref="I296" authorId="0" shapeId="0" xr:uid="{27E72EEE-E023-3D48-8C5F-AB7F7A0AD9AA}">
       <text>
         <r>
           <rPr>
@@ -6765,7 +6747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I297" authorId="0" shapeId="0" xr:uid="{646BEC59-DCF4-9344-B2B7-10EB46934C9E}">
+    <comment ref="I297" authorId="0" shapeId="0" xr:uid="{84A75318-A042-DF44-B7C0-A2B8CADB9C2D}">
       <text>
         <r>
           <rPr>
@@ -6784,7 +6766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I298" authorId="0" shapeId="0" xr:uid="{3F1D0B56-514E-684F-AF06-CB747EBDA1AB}">
+    <comment ref="I298" authorId="0" shapeId="0" xr:uid="{555F72B0-A51E-A743-A854-0AD32EAA1352}">
       <text>
         <r>
           <rPr>
@@ -6804,7 +6786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I299" authorId="0" shapeId="0" xr:uid="{26A8DF2E-2901-FE4D-88AB-6D6F76699FCC}">
+    <comment ref="I299" authorId="0" shapeId="0" xr:uid="{B43B384F-B3BB-6849-9D2D-9111A1FE3E0F}">
       <text>
         <r>
           <rPr>
@@ -6828,7 +6810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I300" authorId="0" shapeId="0" xr:uid="{16A4BE8D-3F34-0745-8B0D-3EAE24EFAED5}">
+    <comment ref="I300" authorId="0" shapeId="0" xr:uid="{21935807-A7E4-AA4E-BCE3-B5DE4C37287E}">
       <text>
         <r>
           <rPr>
@@ -6843,7 +6825,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I301" authorId="0" shapeId="0" xr:uid="{58D0A737-6366-6E47-A095-5B5C56BD204C}">
+    <comment ref="I301" authorId="0" shapeId="0" xr:uid="{D32D5CEA-2B82-024C-9ACA-AF292BA07B5F}">
       <text>
         <r>
           <rPr>
@@ -6859,7 +6841,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I302" authorId="0" shapeId="0" xr:uid="{AF953E8A-17E1-7941-BE66-683D8A899F2F}">
+    <comment ref="I302" authorId="0" shapeId="0" xr:uid="{7613699F-8384-B043-9E3B-1836418BC0EF}">
       <text>
         <r>
           <rPr>
@@ -6875,7 +6857,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I303" authorId="0" shapeId="0" xr:uid="{79F622F0-3AC5-4443-97AB-FE5D6C0EECBB}">
+    <comment ref="I303" authorId="0" shapeId="0" xr:uid="{19EFDD72-2AF0-4947-8EC0-42C43EC015A5}">
       <text>
         <r>
           <rPr>
@@ -6893,7 +6875,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I304" authorId="0" shapeId="0" xr:uid="{03A88FEB-6238-BB4C-85E2-216191E22995}">
+    <comment ref="I304" authorId="0" shapeId="0" xr:uid="{E39AA3FC-1F7B-D54F-8687-C5EF2D3BBE03}">
       <text>
         <r>
           <rPr>
@@ -6910,7 +6892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I305" authorId="0" shapeId="0" xr:uid="{74774CC4-D31C-B24A-95D2-E5ADF63B2487}">
+    <comment ref="I305" authorId="0" shapeId="0" xr:uid="{8CF6533D-CB2B-6E45-9878-0B0B8D793ADF}">
       <text>
         <r>
           <rPr>
@@ -6926,7 +6908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I306" authorId="0" shapeId="0" xr:uid="{E45C1FA7-0C92-9448-9EE5-B1F76E61C294}">
+    <comment ref="I306" authorId="0" shapeId="0" xr:uid="{7AEA9F4D-19D3-5842-9987-9FEBA51ED63A}">
       <text>
         <r>
           <rPr>
@@ -6942,7 +6924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I307" authorId="0" shapeId="0" xr:uid="{C8E37B9C-DE36-B947-B810-E365AAB73FC6}">
+    <comment ref="I307" authorId="0" shapeId="0" xr:uid="{1BB887C0-E58B-A041-90D3-70FDF3E65A03}">
       <text>
         <r>
           <rPr>
@@ -6964,7 +6946,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I308" authorId="0" shapeId="0" xr:uid="{92FC2CC2-EFDB-064C-98DD-21D073FA3640}">
+    <comment ref="I308" authorId="0" shapeId="0" xr:uid="{F327B400-9EDC-6E4D-90D1-630C36260348}">
       <text>
         <r>
           <rPr>
@@ -6980,7 +6962,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I309" authorId="0" shapeId="0" xr:uid="{3E0EEF43-BD2C-1F4F-9B3A-AE1E8A349691}">
+    <comment ref="I309" authorId="0" shapeId="0" xr:uid="{695AA3EC-1D64-4042-A480-40D1F30A3C9B}">
       <text>
         <r>
           <rPr>
@@ -6996,7 +6978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I310" authorId="0" shapeId="0" xr:uid="{C7BE9005-8EF2-4A4F-8C75-30E8CA0CDD47}">
+    <comment ref="I310" authorId="0" shapeId="0" xr:uid="{B9AFBC74-0FEA-C848-B244-537D4EA0DD6A}">
       <text>
         <r>
           <rPr>
@@ -7016,7 +6998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I311" authorId="0" shapeId="0" xr:uid="{B43B6CF8-2CFD-324A-BBD6-DC5EF3FB1BBF}">
+    <comment ref="I311" authorId="0" shapeId="0" xr:uid="{2EDBD3F7-0465-9547-9671-801E3C935EC2}">
       <text>
         <r>
           <rPr>
@@ -7040,7 +7022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I312" authorId="0" shapeId="0" xr:uid="{423D7C5E-F16B-B747-AFEC-03FB7DB232E5}">
+    <comment ref="I312" authorId="0" shapeId="0" xr:uid="{D49197CB-B0BB-D348-A64B-23AAB8E7B187}">
       <text>
         <r>
           <rPr>
@@ -7062,7 +7044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I313" authorId="0" shapeId="0" xr:uid="{CC5F9B7D-D11F-F54D-8FA5-0ABE8B9AEC15}">
+    <comment ref="I313" authorId="0" shapeId="0" xr:uid="{38BE8BF5-EA5D-C940-9473-5A404DB13ECC}">
       <text>
         <r>
           <rPr>
@@ -7084,7 +7066,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I314" authorId="0" shapeId="0" xr:uid="{E3CC3C0A-33AD-514B-A714-B414FFF16466}">
+    <comment ref="I314" authorId="0" shapeId="0" xr:uid="{0A01EB09-C895-4645-9B48-7025F2F7DF98}">
       <text>
         <r>
           <rPr>
@@ -7112,7 +7094,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I315" authorId="0" shapeId="0" xr:uid="{466B81B0-8877-CF46-A755-47B126DD19EF}">
+    <comment ref="I315" authorId="0" shapeId="0" xr:uid="{DEDD8FB7-2F1A-8644-8974-042C78C5EBA3}">
       <text>
         <r>
           <rPr>
@@ -7131,7 +7113,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I316" authorId="0" shapeId="0" xr:uid="{D8195EC9-5909-524A-B444-C61B095864F6}">
+    <comment ref="I316" authorId="0" shapeId="0" xr:uid="{14ADD2F6-8EED-8A4F-A79A-6D92661BD6C3}">
       <text>
         <r>
           <rPr>
@@ -7151,7 +7133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I317" authorId="0" shapeId="0" xr:uid="{C7EC5F22-1F44-1F40-96BC-00AF1B3B0C32}">
+    <comment ref="I317" authorId="0" shapeId="0" xr:uid="{7DED94BD-5908-AF41-A4A3-0618C5E223A4}">
       <text>
         <r>
           <rPr>
@@ -7169,7 +7151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I318" authorId="0" shapeId="0" xr:uid="{65DE3BDC-44FD-8944-AD7C-3DE6AF831363}">
+    <comment ref="I318" authorId="0" shapeId="0" xr:uid="{19D59198-3E45-F34A-930F-8FDA084255DF}">
       <text>
         <r>
           <rPr>
@@ -7184,7 +7166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I319" authorId="0" shapeId="0" xr:uid="{A6510EDE-8F2D-EB42-92AD-D0338B1AD0BD}">
+    <comment ref="I319" authorId="0" shapeId="0" xr:uid="{17C36762-CFE0-FB45-94D2-6EC7C0EE1C79}">
       <text>
         <r>
           <rPr>
@@ -7208,7 +7190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I320" authorId="0" shapeId="0" xr:uid="{7B6D2510-C44D-0B45-B73D-F28A42000F9E}">
+    <comment ref="I320" authorId="0" shapeId="0" xr:uid="{88917E40-93B1-7643-82FA-01E3A1FFF3D0}">
       <text>
         <r>
           <rPr>
@@ -7227,7 +7209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I321" authorId="0" shapeId="0" xr:uid="{792D3087-DE7D-704E-86F4-8A37F3F13D76}">
+    <comment ref="I321" authorId="0" shapeId="0" xr:uid="{93BE9473-CD7C-DF48-B2AE-F474F8471D96}">
       <text>
         <r>
           <rPr>
@@ -7243,7 +7225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I322" authorId="0" shapeId="0" xr:uid="{43845B27-7234-3046-B8DD-B8AAEC9F204A}">
+    <comment ref="I322" authorId="0" shapeId="0" xr:uid="{4520D689-E9CF-0A43-BBBA-259B62A93C9F}">
       <text>
         <r>
           <rPr>
@@ -7261,7 +7243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I323" authorId="0" shapeId="0" xr:uid="{0AB39DDA-4807-F740-A7D7-2848043251F7}">
+    <comment ref="I323" authorId="0" shapeId="0" xr:uid="{D32366D6-FE05-3846-A973-5C10C8495D15}">
       <text>
         <r>
           <rPr>
@@ -7276,7 +7258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I324" authorId="0" shapeId="0" xr:uid="{3191A848-27DE-5548-8631-D2AA5F8E92BD}">
+    <comment ref="I324" authorId="0" shapeId="0" xr:uid="{FA940F0D-AB3B-F04A-9A5B-294A305F2434}">
       <text>
         <r>
           <rPr>
@@ -7295,7 +7277,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I325" authorId="0" shapeId="0" xr:uid="{B49447D6-5F11-0142-8EE8-2CC97FCF209B}">
+    <comment ref="I325" authorId="0" shapeId="0" xr:uid="{0D60DD65-46B9-184C-996F-6A9E7FC64C8A}">
       <text>
         <r>
           <rPr>
@@ -7324,7 +7306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I326" authorId="0" shapeId="0" xr:uid="{C46FD845-D70C-F047-A2C5-920FF165CA10}">
+    <comment ref="I326" authorId="0" shapeId="0" xr:uid="{0C3F73A4-5457-2D4F-8B38-8102502D1277}">
       <text>
         <r>
           <rPr>
@@ -7342,7 +7324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I327" authorId="0" shapeId="0" xr:uid="{51F5011B-1ED6-054B-8180-5B8DAB93C87A}">
+    <comment ref="I327" authorId="0" shapeId="0" xr:uid="{471D73E2-340C-AF4A-8632-5206973C6E7B}">
       <text>
         <r>
           <rPr>
@@ -7371,7 +7353,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I328" authorId="0" shapeId="0" xr:uid="{9849A907-98E2-794C-86FA-5702A1BF4D90}">
+    <comment ref="I328" authorId="0" shapeId="0" xr:uid="{60B2B75D-550E-364A-B1AB-165D9CB94E9C}">
       <text>
         <r>
           <rPr>
@@ -7388,7 +7370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I329" authorId="0" shapeId="0" xr:uid="{EA213BC3-3609-3B42-80D0-A055CAE52D49}">
+    <comment ref="I329" authorId="0" shapeId="0" xr:uid="{316C0B2C-D979-4140-B80F-F54FCDFC100F}">
       <text>
         <r>
           <rPr>
@@ -7404,7 +7386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I330" authorId="0" shapeId="0" xr:uid="{0D2218E7-CF56-4E43-85E1-59E315788DAD}">
+    <comment ref="I330" authorId="0" shapeId="0" xr:uid="{4BC50273-2609-4F49-B6EE-5A2E2A0B97C1}">
       <text>
         <r>
           <rPr>
@@ -7433,7 +7415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I331" authorId="0" shapeId="0" xr:uid="{6843181F-2A17-584D-8CA7-D5E3876F304B}">
+    <comment ref="I331" authorId="0" shapeId="0" xr:uid="{F5B6834A-78E3-8642-873F-9DBE53FE57E1}">
       <text>
         <r>
           <rPr>
@@ -7458,7 +7440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I332" authorId="0" shapeId="0" xr:uid="{860BFE30-0927-3545-B4AC-B04A85ADD705}">
+    <comment ref="I332" authorId="0" shapeId="0" xr:uid="{6CD7ECE3-22BB-DD4F-A218-2213B237B168}">
       <text>
         <r>
           <rPr>
@@ -7483,7 +7465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I333" authorId="0" shapeId="0" xr:uid="{C5600580-EE92-4C4C-AA9C-5365B8E340EC}">
+    <comment ref="I333" authorId="0" shapeId="0" xr:uid="{4DB55596-38AC-DD46-B8EE-1ED55E231F06}">
       <text>
         <r>
           <rPr>
@@ -7507,7 +7489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I334" authorId="0" shapeId="0" xr:uid="{D0558031-348D-1E4C-822D-FA58BE07EB31}">
+    <comment ref="I334" authorId="0" shapeId="0" xr:uid="{B72BCA32-FA77-AC42-BE85-BFF4BE4FFFFC}">
       <text>
         <r>
           <rPr>
@@ -7526,7 +7508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I335" authorId="0" shapeId="0" xr:uid="{2B9ED1EA-E082-FB43-8323-01842DE7C6DF}">
+    <comment ref="I335" authorId="0" shapeId="0" xr:uid="{8E9EE7EF-5967-6940-8074-F86ACD36A7D2}">
       <text>
         <r>
           <rPr>
@@ -7551,7 +7533,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I336" authorId="0" shapeId="0" xr:uid="{B887D478-9AAA-A348-BB51-C52C6C7F4A29}">
+    <comment ref="I336" authorId="0" shapeId="0" xr:uid="{2C7A2165-1428-C143-B8ED-C366468BB074}">
       <text>
         <r>
           <rPr>
@@ -7576,7 +7558,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I337" authorId="0" shapeId="0" xr:uid="{AD5C90BD-9F5C-9A4F-AE6D-2F18E10EE63C}">
+    <comment ref="I337" authorId="0" shapeId="0" xr:uid="{3E1819F9-B229-B547-8FA0-F5D0FA02B629}">
       <text>
         <r>
           <rPr>
@@ -7604,7 +7586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I338" authorId="0" shapeId="0" xr:uid="{C84E4CDF-C4A0-8247-BE13-9D7A630D0B9D}">
+    <comment ref="I338" authorId="0" shapeId="0" xr:uid="{8908816C-D983-FA44-9526-017AEEF13A21}">
       <text>
         <r>
           <rPr>
@@ -7629,7 +7611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I339" authorId="0" shapeId="0" xr:uid="{1357824D-B581-C647-9C22-AD3A2B287180}">
+    <comment ref="I339" authorId="0" shapeId="0" xr:uid="{620B420E-46F0-A248-BFA2-DC46B32D54A3}">
       <text>
         <r>
           <rPr>
@@ -7659,7 +7641,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I340" authorId="0" shapeId="0" xr:uid="{6D038179-3E71-2742-BD12-098EDD20D8C5}">
+    <comment ref="I340" authorId="0" shapeId="0" xr:uid="{CAB8BC58-7427-4B49-A2E9-E1181EFAC10E}">
       <text>
         <r>
           <rPr>
@@ -7684,7 +7666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I341" authorId="0" shapeId="0" xr:uid="{D41E5F83-BFFA-BD4D-9C85-D859CDACB47B}">
+    <comment ref="I341" authorId="0" shapeId="0" xr:uid="{AD6A40B6-C97D-E047-A42C-A5F173606AA4}">
       <text>
         <r>
           <rPr>
@@ -7700,7 +7682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I342" authorId="0" shapeId="0" xr:uid="{BE7F169A-3F99-4E40-94C1-6CD9D21BD475}">
+    <comment ref="I342" authorId="0" shapeId="0" xr:uid="{45275282-8168-B748-BF56-43EE99CE2C60}">
       <text>
         <r>
           <rPr>
@@ -7725,7 +7707,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I343" authorId="0" shapeId="0" xr:uid="{10D5DEC3-FC04-8848-8520-2BB4A7AE2BBD}">
+    <comment ref="I343" authorId="0" shapeId="0" xr:uid="{F36B6F67-AFE0-D84E-8AE5-52BCDD15701E}">
       <text>
         <r>
           <rPr>
@@ -7754,7 +7736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I344" authorId="0" shapeId="0" xr:uid="{4BE24F67-8B4B-854A-ABA3-B04FBF7451A9}">
+    <comment ref="I344" authorId="0" shapeId="0" xr:uid="{44DF40D1-5FE2-2040-A090-2B7677E274B0}">
       <text>
         <r>
           <rPr>
@@ -7779,7 +7761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I345" authorId="0" shapeId="0" xr:uid="{C3DD976A-9ED6-1A4B-8B0B-962FA9CFEE15}">
+    <comment ref="I345" authorId="0" shapeId="0" xr:uid="{58E5542A-038A-2746-9536-EC6E497F98CC}">
       <text>
         <r>
           <rPr>
@@ -7795,7 +7777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I346" authorId="0" shapeId="0" xr:uid="{7C279D41-0F2E-9348-B54A-2328C8B36BD7}">
+    <comment ref="I346" authorId="0" shapeId="0" xr:uid="{656849FD-7590-9B48-BF2C-FD8759DBE8AF}">
       <text>
         <r>
           <rPr>
@@ -7820,7 +7802,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I347" authorId="0" shapeId="0" xr:uid="{BBB13350-3DF2-B14B-B109-A96E5035C3EE}">
+    <comment ref="I347" authorId="0" shapeId="0" xr:uid="{4A632D0D-30E5-754E-92E6-42A0E9CAC6DE}">
       <text>
         <r>
           <rPr>
@@ -7849,7 +7831,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I348" authorId="0" shapeId="0" xr:uid="{F8E3FA47-35B3-2B4D-B925-C8FB07740A78}">
+    <comment ref="I348" authorId="0" shapeId="0" xr:uid="{A4D50169-046B-9649-B405-EC5A018AC807}">
       <text>
         <r>
           <rPr>
@@ -7865,7 +7847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I349" authorId="0" shapeId="0" xr:uid="{0085FF4C-3464-B64B-A16B-E8700ADD1E83}">
+    <comment ref="I349" authorId="0" shapeId="0" xr:uid="{6DBA4990-19D9-7947-B969-BE6CC0A12D50}">
       <text>
         <r>
           <rPr>
@@ -7880,7 +7862,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I350" authorId="0" shapeId="0" xr:uid="{3C4E36A1-BBB3-4D49-B19C-5A8E1B19EA55}">
+    <comment ref="I350" authorId="0" shapeId="0" xr:uid="{E5E19D81-D573-9248-B93F-72476FF73AE5}">
       <text>
         <r>
           <rPr>
@@ -7899,7 +7881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I351" authorId="0" shapeId="0" xr:uid="{C9D4E402-2F04-7E48-9AAD-14B6EB1C4C98}">
+    <comment ref="I351" authorId="0" shapeId="0" xr:uid="{7B50ADDD-FF74-1044-9B13-7A72E792B8F8}">
       <text>
         <r>
           <rPr>
@@ -7918,7 +7900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I352" authorId="0" shapeId="0" xr:uid="{950F8FE6-F3AA-4249-A862-B5005658C655}">
+    <comment ref="I352" authorId="0" shapeId="0" xr:uid="{3A8618E7-6111-3F43-9463-170205C3BEEF}">
       <text>
         <r>
           <rPr>
@@ -7939,7 +7921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I353" authorId="0" shapeId="0" xr:uid="{BFD8DD6E-8D47-F340-AF75-6A359A1AC07C}">
+    <comment ref="I353" authorId="0" shapeId="0" xr:uid="{E996C981-B497-F54E-8B2B-0449C0453539}">
       <text>
         <r>
           <rPr>
@@ -7954,7 +7936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I354" authorId="0" shapeId="0" xr:uid="{CF27B69F-5FD8-8942-9586-D12D9711B57A}">
+    <comment ref="I354" authorId="0" shapeId="0" xr:uid="{C0EC54D9-29DA-2942-A272-67F0E64E9149}">
       <text>
         <r>
           <rPr>
@@ -7970,7 +7952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I355" authorId="0" shapeId="0" xr:uid="{DD2501D7-0C97-DB42-9097-0B2A2793C614}">
+    <comment ref="I355" authorId="0" shapeId="0" xr:uid="{48F87287-69A4-E449-B516-978B4234176B}">
       <text>
         <r>
           <rPr>
@@ -7987,7 +7969,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I356" authorId="0" shapeId="0" xr:uid="{DEECDDB9-86C7-6E48-808F-84C4EFBB95C0}">
+    <comment ref="I356" authorId="0" shapeId="0" xr:uid="{47466B1F-BF1E-9541-A113-BA8C4710B155}">
       <text>
         <r>
           <rPr>
@@ -8003,7 +7985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I357" authorId="0" shapeId="0" xr:uid="{5566B57D-5738-2143-8A8D-9297480ECE17}">
+    <comment ref="I357" authorId="0" shapeId="0" xr:uid="{5A014338-629C-DA4A-B9ED-A1FCCC4BC977}">
       <text>
         <r>
           <rPr>
@@ -8022,7 +8004,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I358" authorId="0" shapeId="0" xr:uid="{DF0141AD-0B63-F04D-B8B9-AC2B11B201F5}">
+    <comment ref="I358" authorId="0" shapeId="0" xr:uid="{F9E4B5DA-063E-504D-B9CE-FE844AEFA77C}">
       <text>
         <r>
           <rPr>
@@ -8039,7 +8021,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I359" authorId="0" shapeId="0" xr:uid="{4BF77C55-5F43-2241-8E9F-3611D4956D3C}">
+    <comment ref="I359" authorId="0" shapeId="0" xr:uid="{82424396-8F10-2F45-BB79-1AAD81A5B9DE}">
       <text>
         <r>
           <rPr>
@@ -8058,7 +8040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I360" authorId="0" shapeId="0" xr:uid="{76B5AF39-387A-DD46-8F8D-F8CF46F09955}">
+    <comment ref="I360" authorId="0" shapeId="0" xr:uid="{A30EC641-8C74-C241-BE43-69FD8214DEB2}">
       <text>
         <r>
           <rPr>
@@ -8075,7 +8057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I361" authorId="0" shapeId="0" xr:uid="{14A92104-45F4-4948-AEC5-F42F93BADB6F}">
+    <comment ref="I361" authorId="0" shapeId="0" xr:uid="{2A5F963A-BD3B-D44C-BC37-7FFB986BBDD8}">
       <text>
         <r>
           <rPr>
@@ -8092,7 +8074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I362" authorId="0" shapeId="0" xr:uid="{A0E95232-B972-0245-BF9D-F715AA8E3D7F}">
+    <comment ref="I362" authorId="0" shapeId="0" xr:uid="{E2128792-08C7-AE42-939E-BE9D13D1B3A4}">
       <text>
         <r>
           <rPr>
@@ -8109,7 +8091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I363" authorId="0" shapeId="0" xr:uid="{63631311-3371-A543-AD8B-4D8C5AB326E2}">
+    <comment ref="I363" authorId="0" shapeId="0" xr:uid="{09AB2680-D81E-8749-B15C-F389DA095A15}">
       <text>
         <r>
           <rPr>
@@ -8134,7 +8116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I364" authorId="0" shapeId="0" xr:uid="{CB260D92-C848-754E-BAAA-0ACE8E06D4BD}">
+    <comment ref="I364" authorId="0" shapeId="0" xr:uid="{842ABA00-EBC2-7344-9F76-F4F6006765BA}">
       <text>
         <r>
           <rPr>
@@ -8151,7 +8133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I365" authorId="0" shapeId="0" xr:uid="{9EB33F80-2487-894D-9D41-B24EBF9F55AB}">
+    <comment ref="I365" authorId="0" shapeId="0" xr:uid="{2A9C1798-3E18-BC41-B9F5-8A74689E01C3}">
       <text>
         <r>
           <rPr>
@@ -8168,7 +8150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I366" authorId="0" shapeId="0" xr:uid="{174B15D6-D374-054F-9278-1CA6ABCEC3C5}">
+    <comment ref="I366" authorId="0" shapeId="0" xr:uid="{2CA1FF88-94C9-4842-89AE-88AEFA243FDC}">
       <text>
         <r>
           <rPr>
@@ -8185,7 +8167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I367" authorId="0" shapeId="0" xr:uid="{10577BA6-08A5-3A49-935F-AD752F936EA4}">
+    <comment ref="I367" authorId="0" shapeId="0" xr:uid="{E873ED6C-27FF-A745-B31D-70A2E171124A}">
       <text>
         <r>
           <rPr>
@@ -8202,7 +8184,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I368" authorId="0" shapeId="0" xr:uid="{2EC03037-4590-884D-A0E0-9D70374A6479}">
+    <comment ref="I368" authorId="0" shapeId="0" xr:uid="{E961CEE4-846C-BF47-8940-2D0DBCBAB267}">
       <text>
         <r>
           <rPr>
@@ -8219,7 +8201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I369" authorId="0" shapeId="0" xr:uid="{DCDE02B8-DAA6-D542-B466-7209D0C5BACF}">
+    <comment ref="I369" authorId="0" shapeId="0" xr:uid="{C67CDC04-D885-C146-8819-9817710F326D}">
       <text>
         <r>
           <rPr>
@@ -8237,7 +8219,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I370" authorId="0" shapeId="0" xr:uid="{8E570806-E6FA-EC4A-BBC7-E837F241231F}">
+    <comment ref="I370" authorId="0" shapeId="0" xr:uid="{4989A8B5-48BE-6B41-B6E2-F6B393C1E7DA}">
       <text>
         <r>
           <rPr>
@@ -8254,7 +8236,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I371" authorId="0" shapeId="0" xr:uid="{A1AEC7BF-ED18-E54F-B8E5-9D31CCB00360}">
+    <comment ref="I371" authorId="0" shapeId="0" xr:uid="{3A02EC85-E627-E24E-9B3B-4E8F546E4FD1}">
       <text>
         <r>
           <rPr>
@@ -8272,7 +8254,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I372" authorId="0" shapeId="0" xr:uid="{8D8F2002-D0E3-4042-BEB0-7E6DCBF2D9E9}">
+    <comment ref="I372" authorId="0" shapeId="0" xr:uid="{3397628D-ECAF-3643-82B1-FF165EF59903}">
       <text>
         <r>
           <rPr>
@@ -8296,7 +8278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I373" authorId="0" shapeId="0" xr:uid="{0AA39088-30DE-1C45-9CD5-40AB706EFB54}">
+    <comment ref="I373" authorId="0" shapeId="0" xr:uid="{0BC7B56D-2344-CC47-B4BA-393C91EC08D1}">
       <text>
         <r>
           <rPr>
@@ -8315,7 +8297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I374" authorId="0" shapeId="0" xr:uid="{B457FC67-6980-7447-B090-7662F80EBFD7}">
+    <comment ref="I374" authorId="0" shapeId="0" xr:uid="{01152F3F-42F1-2248-B405-2A820AC9A2A8}">
       <text>
         <r>
           <rPr>
@@ -8333,7 +8315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I375" authorId="0" shapeId="0" xr:uid="{6D8AC949-B283-5140-9921-2E095E5939A8}">
+    <comment ref="I375" authorId="0" shapeId="0" xr:uid="{EB763CD4-B43A-0E4C-8EBB-DB616BEA1A31}">
       <text>
         <r>
           <rPr>
@@ -8350,7 +8332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I376" authorId="0" shapeId="0" xr:uid="{9A2DC9BA-A682-DC48-B614-A566BADE0E3A}">
+    <comment ref="I376" authorId="0" shapeId="0" xr:uid="{59A3D361-201D-424F-86A3-1A074E08B854}">
       <text>
         <r>
           <rPr>
@@ -8367,7 +8349,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I377" authorId="0" shapeId="0" xr:uid="{69FB5A94-1867-A64D-98EF-B96204C05E50}">
+    <comment ref="I377" authorId="0" shapeId="0" xr:uid="{470E64D0-C311-3943-A547-A44FA4052BB6}">
       <text>
         <r>
           <rPr>
@@ -8384,7 +8366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I378" authorId="0" shapeId="0" xr:uid="{E9DA7967-D9AA-9044-9C3B-70E8D440F8CA}">
+    <comment ref="I378" authorId="0" shapeId="0" xr:uid="{74753984-C00A-F947-A978-FA64820982F6}">
       <text>
         <r>
           <rPr>
@@ -8404,7 +8386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I379" authorId="0" shapeId="0" xr:uid="{EC2B6B83-AEDA-5941-9383-A71FBCE13ACC}">
+    <comment ref="I379" authorId="0" shapeId="0" xr:uid="{EBA92C65-BEAC-9649-B550-8C26F1823F93}">
       <text>
         <r>
           <rPr>
@@ -8421,7 +8403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I380" authorId="0" shapeId="0" xr:uid="{90FB75A3-5313-3B46-9774-3D153E5A57A2}">
+    <comment ref="I380" authorId="0" shapeId="0" xr:uid="{648328D2-9896-DC42-A356-71DFBF4056BE}">
       <text>
         <r>
           <rPr>
@@ -8438,7 +8420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I381" authorId="0" shapeId="0" xr:uid="{4013A4C5-8331-0B43-A426-9BBC19C37978}">
+    <comment ref="I381" authorId="0" shapeId="0" xr:uid="{C29FA14E-8F88-5348-B078-7FB392929B1F}">
       <text>
         <r>
           <rPr>
@@ -8455,7 +8437,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I382" authorId="0" shapeId="0" xr:uid="{23AB289C-AFB2-D046-8FF1-EE50CE40AFD6}">
+    <comment ref="I382" authorId="0" shapeId="0" xr:uid="{2754E002-0116-2543-A4EF-00242ACA771F}">
       <text>
         <r>
           <rPr>
@@ -8472,7 +8454,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I383" authorId="0" shapeId="0" xr:uid="{94471AD9-792A-134D-856C-BE505087B630}">
+    <comment ref="I383" authorId="0" shapeId="0" xr:uid="{9CE7DD67-2916-3342-AEBB-864ADDA08829}">
       <text>
         <r>
           <rPr>
@@ -8489,7 +8471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I384" authorId="0" shapeId="0" xr:uid="{845638A4-ED8C-7247-AF0C-4A28EA446CC0}">
+    <comment ref="I384" authorId="0" shapeId="0" xr:uid="{1004CE40-8559-9147-A296-0D21E57A0B2B}">
       <text>
         <r>
           <rPr>
@@ -8506,7 +8488,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I385" authorId="0" shapeId="0" xr:uid="{38FF26EF-38D9-7F44-85D4-EF0AF09308FE}">
+    <comment ref="I385" authorId="0" shapeId="0" xr:uid="{BBF35B8D-6707-2441-A6D4-F4DA6178129E}">
       <text>
         <r>
           <rPr>
@@ -8539,7 +8521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I386" authorId="0" shapeId="0" xr:uid="{B8F15B86-2393-9F4F-A149-18ED145FF246}">
+    <comment ref="I386" authorId="0" shapeId="0" xr:uid="{0235C237-CE47-C240-B6B3-AB6A8A36BE1C}">
       <text>
         <r>
           <rPr>
@@ -8554,7 +8536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I387" authorId="0" shapeId="0" xr:uid="{C53ACCF3-ECB8-834C-89BA-219DD2A38B4D}">
+    <comment ref="I387" authorId="0" shapeId="0" xr:uid="{CAB30733-CCBE-6541-80D3-093769073F87}">
       <text>
         <r>
           <rPr>
@@ -8574,7 +8556,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I388" authorId="0" shapeId="0" xr:uid="{0255DAF5-6DC7-4D40-BB92-B0C46806474E}">
+    <comment ref="I388" authorId="0" shapeId="0" xr:uid="{DAD4FBDF-3A79-ED4C-8A43-823530EC1229}">
       <text>
         <r>
           <rPr>
@@ -8594,7 +8576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I389" authorId="0" shapeId="0" xr:uid="{1AE734CB-3187-2D48-928E-544A48916D57}">
+    <comment ref="I389" authorId="0" shapeId="0" xr:uid="{CAB78FDC-F65D-3C40-818F-8B19BD2B3119}">
       <text>
         <r>
           <rPr>
@@ -8612,7 +8594,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I390" authorId="0" shapeId="0" xr:uid="{466DFF39-8A9E-C040-BC8C-DA568785439A}">
+    <comment ref="I390" authorId="0" shapeId="0" xr:uid="{B26DDABC-19D0-874A-98F2-3CA237FAF333}">
       <text>
         <r>
           <rPr>
@@ -8630,7 +8612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I391" authorId="0" shapeId="0" xr:uid="{463E3D19-F996-8842-BD98-0E02D20DF586}">
+    <comment ref="I391" authorId="0" shapeId="0" xr:uid="{EAB51BB3-0164-9C42-AFAD-D3FE9F1A738D}">
       <text>
         <r>
           <rPr>
@@ -8647,7 +8629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I392" authorId="0" shapeId="0" xr:uid="{C8FF09CA-CD1F-3E4B-A67C-4B2881F86AD8}">
+    <comment ref="I392" authorId="0" shapeId="0" xr:uid="{DB991016-E4ED-504D-9046-246855FB14B6}">
       <text>
         <r>
           <rPr>
@@ -8664,7 +8646,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I393" authorId="0" shapeId="0" xr:uid="{811F9D13-627D-4F42-83BA-A8AE4F5E805A}">
+    <comment ref="I393" authorId="0" shapeId="0" xr:uid="{746B869B-C69A-A745-9D74-3C53E15A6554}">
       <text>
         <r>
           <rPr>
@@ -8693,7 +8675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I394" authorId="0" shapeId="0" xr:uid="{51F9FC36-E5B2-C840-BA2D-A5BE799DA9E0}">
+    <comment ref="I394" authorId="0" shapeId="0" xr:uid="{1863F16D-6196-4941-A084-33D810572B36}">
       <text>
         <r>
           <rPr>
@@ -8715,7 +8697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I395" authorId="0" shapeId="0" xr:uid="{34897D0F-6698-4445-89FD-43292BE01937}">
+    <comment ref="I395" authorId="0" shapeId="0" xr:uid="{BFEB7416-B841-E847-ADDF-E8C1AB00BA1A}">
       <text>
         <r>
           <rPr>
@@ -8731,7 +8713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I396" authorId="0" shapeId="0" xr:uid="{863FC0A9-DBE9-7344-96BF-285B4E8BDDB6}">
+    <comment ref="I396" authorId="0" shapeId="0" xr:uid="{A636B14F-5E22-5C4A-B7D2-D3BC95376FE6}">
       <text>
         <r>
           <rPr>
@@ -8750,7 +8732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I397" authorId="0" shapeId="0" xr:uid="{5CE0B6FE-9B25-8848-87BE-D9E27B121592}">
+    <comment ref="I397" authorId="0" shapeId="0" xr:uid="{D31ACB78-EFC2-4040-BB32-CD09FE552349}">
       <text>
         <r>
           <rPr>
@@ -8772,7 +8754,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I398" authorId="0" shapeId="0" xr:uid="{D169D455-ED91-E14B-9339-43338BBBD7C9}">
+    <comment ref="I398" authorId="0" shapeId="0" xr:uid="{EB88E9A6-64A3-B141-9981-0A08B27125E2}">
       <text>
         <r>
           <rPr>
@@ -8790,7 +8772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I399" authorId="0" shapeId="0" xr:uid="{1F848121-7B3C-FD4C-9B3F-17BFA8DF24BF}">
+    <comment ref="I399" authorId="0" shapeId="0" xr:uid="{71AB23E1-D8AF-1B46-BD64-0AB24163F700}">
       <text>
         <r>
           <rPr>
@@ -8808,7 +8790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I400" authorId="0" shapeId="0" xr:uid="{1815409F-E707-F74C-9DC1-287E0512C786}">
+    <comment ref="I400" authorId="0" shapeId="0" xr:uid="{7DC00E2F-1F28-9541-9A23-C3459C4AE15D}">
       <text>
         <r>
           <rPr>
@@ -8824,7 +8806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I401" authorId="0" shapeId="0" xr:uid="{BD12F5DB-1879-0742-BA74-F35957CA2B90}">
+    <comment ref="I401" authorId="0" shapeId="0" xr:uid="{77D4FF24-CE87-8347-86AD-455E440C58F9}">
       <text>
         <r>
           <rPr>
@@ -8847,7 +8829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I402" authorId="0" shapeId="0" xr:uid="{D7A8EF46-1983-544D-9503-CFE9AEC94CF4}">
+    <comment ref="I402" authorId="0" shapeId="0" xr:uid="{86E74323-5E78-6248-B376-673DDAFBB24F}">
       <text>
         <r>
           <rPr>
@@ -8865,7 +8847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I403" authorId="0" shapeId="0" xr:uid="{019D5662-2E73-B349-A925-84459AA997FF}">
+    <comment ref="I403" authorId="0" shapeId="0" xr:uid="{D5952C76-F852-9D4A-A2B2-B5517CE65590}">
       <text>
         <r>
           <rPr>
@@ -8883,7 +8865,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I404" authorId="0" shapeId="0" xr:uid="{E8348A10-5B4A-3F41-ACD6-6C6FF4DB8542}">
+    <comment ref="I404" authorId="0" shapeId="0" xr:uid="{F43EEC4A-805A-C645-B50A-801D87D6E8DF}">
       <text>
         <r>
           <rPr>
@@ -8901,7 +8883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I405" authorId="0" shapeId="0" xr:uid="{1D88C33C-DE75-B046-92A8-A0BC6634162E}">
+    <comment ref="I405" authorId="0" shapeId="0" xr:uid="{A4039C6C-AB9E-9146-B158-3C81A5F7312E}">
       <text>
         <r>
           <rPr>
@@ -8924,7 +8906,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I406" authorId="0" shapeId="0" xr:uid="{77F4FA1B-3F2A-7846-B651-DA8F50B7A825}">
+    <comment ref="I406" authorId="0" shapeId="0" xr:uid="{3E3FED63-6EA7-F047-A875-C3CB5C401100}">
       <text>
         <r>
           <rPr>
@@ -8942,7 +8924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I407" authorId="0" shapeId="0" xr:uid="{8DD91CF3-4F08-9049-8942-E63E993EA8AE}">
+    <comment ref="I407" authorId="0" shapeId="0" xr:uid="{A93338DD-E6F6-FE41-BFC2-59195A251A31}">
       <text>
         <r>
           <rPr>
@@ -8965,7 +8947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I408" authorId="0" shapeId="0" xr:uid="{5C08C178-F386-0744-A4BF-1DFC85EED83C}">
+    <comment ref="I408" authorId="0" shapeId="0" xr:uid="{C43760D3-42F3-244C-B75E-F37EA01AC0B3}">
       <text>
         <r>
           <rPr>
@@ -8983,7 +8965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I409" authorId="0" shapeId="0" xr:uid="{05CDA635-A888-A64C-9AEF-99B2AA67105C}">
+    <comment ref="I409" authorId="0" shapeId="0" xr:uid="{09EAF6FB-DAC3-5F45-BC7F-98E170228C3A}">
       <text>
         <r>
           <rPr>
@@ -9001,7 +8983,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I410" authorId="0" shapeId="0" xr:uid="{53D577E6-96DE-394D-9D73-D95037C188B2}">
+    <comment ref="I410" authorId="0" shapeId="0" xr:uid="{CA0E40C4-AF16-BE43-8443-FFF81BDF8315}">
       <text>
         <r>
           <rPr>
@@ -9020,7 +9002,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I411" authorId="0" shapeId="0" xr:uid="{57AD787B-6C4F-BD45-ACAE-846DA21373DF}">
+    <comment ref="I411" authorId="0" shapeId="0" xr:uid="{B3169827-38C0-4A47-A79C-CB6443277965}">
       <text>
         <r>
           <rPr>
@@ -9043,7 +9025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I412" authorId="0" shapeId="0" xr:uid="{CCD59280-50E2-DB4B-9753-60B3853150CE}">
+    <comment ref="I412" authorId="0" shapeId="0" xr:uid="{5C164BE5-2DDC-684C-9C96-E8F32C3B61F8}">
       <text>
         <r>
           <rPr>
@@ -9061,7 +9043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I413" authorId="0" shapeId="0" xr:uid="{6FED3E7B-47C9-C24E-A06B-391156B5FAC5}">
+    <comment ref="I413" authorId="0" shapeId="0" xr:uid="{007CEAB6-42C1-DF46-80C2-EE5A2AAE9355}">
       <text>
         <r>
           <rPr>
@@ -9077,7 +9059,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I414" authorId="0" shapeId="0" xr:uid="{36B33BAD-1740-DA4E-A122-27F0EE53CD50}">
+    <comment ref="I414" authorId="0" shapeId="0" xr:uid="{DBB2A4C4-9800-1641-BDFB-34B0DDED6670}">
       <text>
         <r>
           <rPr>
@@ -9100,7 +9082,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I415" authorId="0" shapeId="0" xr:uid="{DBE349D0-F502-5A4C-97C2-78EFCE1AC6DC}">
+    <comment ref="I415" authorId="0" shapeId="0" xr:uid="{F508A7CF-3635-734D-834D-935B435BF4E7}">
       <text>
         <r>
           <rPr>
@@ -9118,7 +9100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I416" authorId="0" shapeId="0" xr:uid="{1FE59A5C-D635-AB47-9936-3E4BD72A6E52}">
+    <comment ref="I416" authorId="0" shapeId="0" xr:uid="{F365E4A6-30A1-E04C-910B-7DE258514B0D}">
       <text>
         <r>
           <rPr>
@@ -9133,7 +9115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I417" authorId="0" shapeId="0" xr:uid="{210A3422-3785-5442-8584-CEC98103EC0E}">
+    <comment ref="I417" authorId="0" shapeId="0" xr:uid="{0BF02351-3D50-9A4A-AC60-6D1AA2B392FB}">
       <text>
         <r>
           <rPr>
@@ -9156,7 +9138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I418" authorId="0" shapeId="0" xr:uid="{896AC2DA-50DF-0543-95FC-012504CADC2E}">
+    <comment ref="I418" authorId="0" shapeId="0" xr:uid="{93A7FF55-1DDB-864C-8140-13067C12D5D6}">
       <text>
         <r>
           <rPr>
@@ -9175,7 +9157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I419" authorId="0" shapeId="0" xr:uid="{42E595FB-E947-3743-BC9B-02D7E849A2ED}">
+    <comment ref="I419" authorId="0" shapeId="0" xr:uid="{079CA573-57CA-7049-867A-A494307DA3E9}">
       <text>
         <r>
           <rPr>
@@ -9198,7 +9180,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I420" authorId="0" shapeId="0" xr:uid="{63C5A8A3-FF5C-4947-8DD8-39E8E9CD4751}">
+    <comment ref="I420" authorId="0" shapeId="0" xr:uid="{778F8955-F7DC-C240-8489-53CEEFCC15FA}">
       <text>
         <r>
           <rPr>
@@ -9216,7 +9198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I421" authorId="0" shapeId="0" xr:uid="{F6E46ADA-ED44-A144-BD31-2DB3C6ECFACA}">
+    <comment ref="I421" authorId="0" shapeId="0" xr:uid="{23607204-CC62-9243-BC4A-B3DA3F97019D}">
       <text>
         <r>
           <rPr>
@@ -9239,7 +9221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I422" authorId="0" shapeId="0" xr:uid="{AA682405-2D23-E64A-8EF8-5D06090F30A7}">
+    <comment ref="I422" authorId="0" shapeId="0" xr:uid="{D1D90908-80CA-FB4D-B1FC-6A1918B6A1F5}">
       <text>
         <r>
           <rPr>
@@ -9262,7 +9244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I423" authorId="0" shapeId="0" xr:uid="{A195FAD2-684E-AB46-9EF6-5C9A8E1AC59A}">
+    <comment ref="I423" authorId="0" shapeId="0" xr:uid="{B6D1C3A3-E099-4647-A0E0-6FD3A2675BC8}">
       <text>
         <r>
           <rPr>
@@ -9285,7 +9267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I424" authorId="0" shapeId="0" xr:uid="{A6289D42-4905-9148-9027-EF7991EC5E6F}">
+    <comment ref="I424" authorId="0" shapeId="0" xr:uid="{56236EF2-5053-9846-9768-F02C4991201F}">
       <text>
         <r>
           <rPr>
@@ -9308,7 +9290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I425" authorId="0" shapeId="0" xr:uid="{43760664-1365-3640-958C-3BA7C6B4ECC4}">
+    <comment ref="I425" authorId="0" shapeId="0" xr:uid="{252B5512-291F-7748-B62B-E007933E9974}">
       <text>
         <r>
           <rPr>
@@ -9326,7 +9308,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I426" authorId="0" shapeId="0" xr:uid="{D4EADE50-77BA-854D-B8F6-249AB3DBD5F8}">
+    <comment ref="I426" authorId="0" shapeId="0" xr:uid="{61BA032E-8AB9-7347-873E-5951B9E271D2}">
       <text>
         <r>
           <rPr>
@@ -9349,7 +9331,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I427" authorId="0" shapeId="0" xr:uid="{F7084178-C65B-434A-91AC-D2F59033D2E3}">
+    <comment ref="I427" authorId="0" shapeId="0" xr:uid="{56E8D36C-F6D2-4142-9DA8-8A59DFCDD904}">
       <text>
         <r>
           <rPr>
@@ -9372,7 +9354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I428" authorId="0" shapeId="0" xr:uid="{93DA32F7-B6C8-A347-B2C0-E668C54383C9}">
+    <comment ref="I428" authorId="0" shapeId="0" xr:uid="{413952A8-2377-C643-B18F-9A2516A4ED14}">
       <text>
         <r>
           <rPr>
@@ -9395,7 +9377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I429" authorId="0" shapeId="0" xr:uid="{0416BE21-9C7A-4F40-88FE-3274560B660F}">
+    <comment ref="I429" authorId="0" shapeId="0" xr:uid="{E39D339D-B09E-924F-986A-348FF9422EFC}">
       <text>
         <r>
           <rPr>
@@ -9418,7 +9400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I430" authorId="0" shapeId="0" xr:uid="{350424C3-3B49-754A-BBD5-6F4FE0E2DFD8}">
+    <comment ref="I430" authorId="0" shapeId="0" xr:uid="{D976A031-C7ED-634F-BA3F-616C13103E48}">
       <text>
         <r>
           <rPr>
@@ -9441,7 +9423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I431" authorId="0" shapeId="0" xr:uid="{3037B4F9-1547-444C-8716-C73EB68613B5}">
+    <comment ref="I431" authorId="0" shapeId="0" xr:uid="{073073EE-09FB-C949-ACD7-FB9BC81F6A9C}">
       <text>
         <r>
           <rPr>
@@ -9464,7 +9446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I432" authorId="0" shapeId="0" xr:uid="{2AA757BE-F17B-BA44-AF90-27D2EFB352AE}">
+    <comment ref="I432" authorId="0" shapeId="0" xr:uid="{1C53AB0F-C8A9-4043-B73A-53278E3CE6E6}">
       <text>
         <r>
           <rPr>
@@ -9479,7 +9461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I433" authorId="0" shapeId="0" xr:uid="{E7BCE6C0-7689-D345-A267-0A9643E1C4C4}">
+    <comment ref="I433" authorId="0" shapeId="0" xr:uid="{C6B71CC6-23D8-1647-BA8D-D8DDC35B5E02}">
       <text>
         <r>
           <rPr>
@@ -9509,7 +9491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I434" authorId="0" shapeId="0" xr:uid="{7408F187-6236-3849-8F7B-8D1AF052D449}">
+    <comment ref="I434" authorId="0" shapeId="0" xr:uid="{B7AB79E7-AD4F-8D4C-A52F-4CF30CD7198C}">
       <text>
         <r>
           <rPr>
@@ -9538,7 +9520,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I435" authorId="0" shapeId="0" xr:uid="{EEFED8A7-5DC0-594E-9834-ADD39D176452}">
+    <comment ref="I435" authorId="0" shapeId="0" xr:uid="{E6FCB722-F39F-7D45-86D5-569BF9F2C08A}">
       <text>
         <r>
           <rPr>
@@ -9554,7 +9536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I436" authorId="0" shapeId="0" xr:uid="{2B3C26AA-6969-D34E-AD91-51686DDCF54C}">
+    <comment ref="I436" authorId="0" shapeId="0" xr:uid="{5D36DA69-B763-FF46-8830-26E3055227E7}">
       <text>
         <r>
           <rPr>
@@ -9573,7 +9555,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I437" authorId="0" shapeId="0" xr:uid="{09728E9E-C69A-8442-BE24-C63645421049}">
+    <comment ref="I437" authorId="0" shapeId="0" xr:uid="{A08F4C1C-CA15-F44B-A2D8-18B8CBD5C1FC}">
       <text>
         <r>
           <rPr>
@@ -9593,7 +9575,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I438" authorId="0" shapeId="0" xr:uid="{AFBCE8C7-CFB2-9443-ADC2-8DE190A832A8}">
+    <comment ref="I438" authorId="0" shapeId="0" xr:uid="{577508A5-FB75-A046-9660-AB61323D540E}">
       <text>
         <r>
           <rPr>
@@ -9613,7 +9595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I439" authorId="0" shapeId="0" xr:uid="{C8AC356E-95B9-354F-B143-A7BC8BB1555B}">
+    <comment ref="I439" authorId="0" shapeId="0" xr:uid="{926BA9D6-D10D-A94A-BD74-5C4A5F1770F3}">
       <text>
         <r>
           <rPr>
@@ -9629,7 +9611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I440" authorId="0" shapeId="0" xr:uid="{4BDE7314-2702-C04B-8D0B-1D5EDA7E6F9D}">
+    <comment ref="I440" authorId="0" shapeId="0" xr:uid="{FD69E1CB-E867-034A-B89E-3D3EA0F078F3}">
       <text>
         <r>
           <rPr>
@@ -9649,7 +9631,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I441" authorId="0" shapeId="0" xr:uid="{4947015E-4058-0F45-AB12-5ED9B6B2D203}">
+    <comment ref="I441" authorId="0" shapeId="0" xr:uid="{B2FE815A-A613-C243-B954-1CC690D968F6}">
       <text>
         <r>
           <rPr>
@@ -9668,7 +9650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I442" authorId="0" shapeId="0" xr:uid="{321FE1E5-FCA6-3E4C-9FD2-45C6B17E2B67}">
+    <comment ref="I442" authorId="0" shapeId="0" xr:uid="{FD811D92-C0EF-B446-8D44-9D4A39CDA6EA}">
       <text>
         <r>
           <rPr>
@@ -9688,7 +9670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I443" authorId="0" shapeId="0" xr:uid="{2A005662-EDE0-6A4D-BEDE-9FC395E678E7}">
+    <comment ref="I443" authorId="0" shapeId="0" xr:uid="{FFCF2118-7A88-2F4D-9588-8DD7AEB07BF3}">
       <text>
         <r>
           <rPr>
@@ -9708,7 +9690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I444" authorId="0" shapeId="0" xr:uid="{97FE3B93-181D-6543-943E-5060854E5E9E}">
+    <comment ref="I444" authorId="0" shapeId="0" xr:uid="{A6498965-C782-9941-A647-908F82DC0C34}">
       <text>
         <r>
           <rPr>
@@ -9727,7 +9709,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I445" authorId="0" shapeId="0" xr:uid="{CE846A5A-E3E8-F443-994D-69D2AAF346CE}">
+    <comment ref="I445" authorId="0" shapeId="0" xr:uid="{A84DDA4F-8369-F840-AA14-E27B7B04E43E}">
       <text>
         <r>
           <rPr>
@@ -9753,7 +9735,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I446" authorId="0" shapeId="0" xr:uid="{7E4D7DBE-768A-AA49-8B1D-75FE6926FCEA}">
+    <comment ref="I446" authorId="0" shapeId="0" xr:uid="{7DC5AD39-AC00-BB4C-9641-5A46CB833DE6}">
       <text>
         <r>
           <rPr>
@@ -9779,7 +9761,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I447" authorId="0" shapeId="0" xr:uid="{7AFA7D66-2210-0D40-859B-E48FBC575BFB}">
+    <comment ref="I447" authorId="0" shapeId="0" xr:uid="{E4A81442-C666-6840-B320-400569767097}">
       <text>
         <r>
           <rPr>
@@ -9805,7 +9787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I448" authorId="0" shapeId="0" xr:uid="{AEA683BE-EE0F-C741-9D0A-BD14266FF0B5}">
+    <comment ref="I448" authorId="0" shapeId="0" xr:uid="{E70572BC-7BCD-1B45-A49B-98C214167CB4}">
       <text>
         <r>
           <rPr>
@@ -9825,7 +9807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I449" authorId="0" shapeId="0" xr:uid="{C6506F9F-AFB7-AE4D-912E-79110F97ACF3}">
+    <comment ref="I449" authorId="0" shapeId="0" xr:uid="{F5675B0C-1374-A645-BB20-3585CDA622D8}">
       <text>
         <r>
           <rPr>
@@ -9848,7 +9830,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I450" authorId="0" shapeId="0" xr:uid="{A879000B-3C3B-9C4B-BB3A-44585F14625E}">
+    <comment ref="I450" authorId="0" shapeId="0" xr:uid="{A4681F26-FD7F-5A45-8615-091C79365578}">
       <text>
         <r>
           <rPr>
@@ -9874,7 +9856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I451" authorId="0" shapeId="0" xr:uid="{7180D9F8-F079-D94E-A625-EF72C5434AEE}">
+    <comment ref="I451" authorId="0" shapeId="0" xr:uid="{AEC730DD-FAF1-714D-A9B5-FE4FC75ADA8B}">
       <text>
         <r>
           <rPr>
@@ -9894,7 +9876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I452" authorId="0" shapeId="0" xr:uid="{DAC0DA2F-B80B-9649-96FB-CC60CEB170F8}">
+    <comment ref="I452" authorId="0" shapeId="0" xr:uid="{696A61C6-6E57-0B48-8D5F-F5229275853C}">
       <text>
         <r>
           <rPr>
@@ -9920,7 +9902,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I453" authorId="0" shapeId="0" xr:uid="{BBAC668B-140F-ED43-B28B-B74CF4E7A9DC}">
+    <comment ref="I453" authorId="0" shapeId="0" xr:uid="{6CC64A0E-F98B-BB4B-992E-DFF4B5F0D5CF}">
       <text>
         <r>
           <rPr>
@@ -9946,7 +9928,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I454" authorId="0" shapeId="0" xr:uid="{45072A62-0120-EA4C-8E2C-B588A0B4AD2D}">
+    <comment ref="I454" authorId="0" shapeId="0" xr:uid="{B872B2F4-C97D-FE45-9307-4583F1DDAB18}">
       <text>
         <r>
           <rPr>
@@ -9966,7 +9948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I455" authorId="0" shapeId="0" xr:uid="{5DDEDC18-4A39-F644-8B96-A058E394C027}">
+    <comment ref="I455" authorId="0" shapeId="0" xr:uid="{A75B78F1-4DE1-194F-8A5A-D590200E5D88}">
       <text>
         <r>
           <rPr>
@@ -9989,7 +9971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I456" authorId="0" shapeId="0" xr:uid="{042787F4-8903-C34E-A6A5-8C1864D39DB5}">
+    <comment ref="I456" authorId="0" shapeId="0" xr:uid="{3D281B29-7DB2-9449-9A3A-44E53FF4C6FC}">
       <text>
         <r>
           <rPr>
@@ -10012,7 +9994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I457" authorId="0" shapeId="0" xr:uid="{1F27A957-326A-DD40-AF39-B3F0092B6EB6}">
+    <comment ref="I457" authorId="0" shapeId="0" xr:uid="{F92B58EC-5304-434B-B773-D2D0306598F6}">
       <text>
         <r>
           <rPr>
@@ -10032,7 +10014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I458" authorId="0" shapeId="0" xr:uid="{D4BF88F6-4A13-CC4E-BD74-532233CCCC08}">
+    <comment ref="I458" authorId="0" shapeId="0" xr:uid="{C1315B9E-ABCF-DF45-B4BC-AF323E3B2D22}">
       <text>
         <r>
           <rPr>
@@ -10058,7 +10040,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I459" authorId="0" shapeId="0" xr:uid="{9580655F-CA72-0749-9F91-D5EB0992C06C}">
+    <comment ref="I459" authorId="0" shapeId="0" xr:uid="{47BEA84E-2D8A-274B-9D9E-643D54BD90C9}">
       <text>
         <r>
           <rPr>
@@ -10078,7 +10060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I460" authorId="0" shapeId="0" xr:uid="{BF2BDE72-1672-C24B-A69D-0DEB71595D85}">
+    <comment ref="I460" authorId="0" shapeId="0" xr:uid="{8A02B4C3-4509-D24C-841C-7F613B9FE752}">
       <text>
         <r>
           <rPr>
@@ -10098,7 +10080,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I461" authorId="0" shapeId="0" xr:uid="{828F630C-BB09-C949-A7EF-2FD6EF4F17CB}">
+    <comment ref="I461" authorId="0" shapeId="0" xr:uid="{A322F44A-FAC2-B840-B10B-A6A739196272}">
       <text>
         <r>
           <rPr>
@@ -10124,7 +10106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I462" authorId="0" shapeId="0" xr:uid="{02146451-AE0D-7743-A277-9F7CF7A2C04D}">
+    <comment ref="I462" authorId="0" shapeId="0" xr:uid="{EE0CBED0-C6DC-9040-9F12-B2B33958E16F}">
       <text>
         <r>
           <rPr>
@@ -10144,7 +10126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I463" authorId="0" shapeId="0" xr:uid="{7A9E1191-9CC2-1044-A686-2B552F1F2E0B}">
+    <comment ref="I463" authorId="0" shapeId="0" xr:uid="{BD0B9ABC-C78D-9341-9250-4956FF438892}">
       <text>
         <r>
           <rPr>
@@ -10170,7 +10152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I464" authorId="0" shapeId="0" xr:uid="{45733557-9372-F245-AD9E-637D58AA20E8}">
+    <comment ref="I464" authorId="0" shapeId="0" xr:uid="{1684E372-0F91-FB4A-A9F1-7ED71ABDB903}">
       <text>
         <r>
           <rPr>
@@ -10196,7 +10178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I465" authorId="0" shapeId="0" xr:uid="{18E6B5E2-7F6B-FE48-826E-711A49AEE0FD}">
+    <comment ref="I465" authorId="0" shapeId="0" xr:uid="{B90E48BD-57BC-D442-B0E6-5693E768F810}">
       <text>
         <r>
           <rPr>
@@ -10216,7 +10198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I466" authorId="0" shapeId="0" xr:uid="{87498EA1-3719-9A4C-89EA-69E14792D99B}">
+    <comment ref="I466" authorId="0" shapeId="0" xr:uid="{43B1AD74-5626-D843-AFD9-919AA2AC9DB3}">
       <text>
         <r>
           <rPr>
@@ -10236,7 +10218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I467" authorId="0" shapeId="0" xr:uid="{FA44305C-C1CC-C540-B733-922A8234091C}">
+    <comment ref="I467" authorId="0" shapeId="0" xr:uid="{1F82DB64-19F7-D146-8572-59CE804B01B2}">
       <text>
         <r>
           <rPr>
@@ -10262,7 +10244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I468" authorId="0" shapeId="0" xr:uid="{22923C92-6B47-9740-8084-B065096A9613}">
+    <comment ref="I468" authorId="0" shapeId="0" xr:uid="{95EE94C5-84F8-9047-A94E-DAA60D2EB798}">
       <text>
         <r>
           <rPr>
@@ -10282,7 +10264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I469" authorId="0" shapeId="0" xr:uid="{2A5C4687-A49F-D840-ADB5-BF4DCF7E5F54}">
+    <comment ref="I469" authorId="0" shapeId="0" xr:uid="{C2335C4D-DD1B-FE4E-87DA-236DBC3B9042}">
       <text>
         <r>
           <rPr>
@@ -10308,7 +10290,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I470" authorId="0" shapeId="0" xr:uid="{A0BA12F5-AAD0-B04F-B0B6-D5C3D79AB9F1}">
+    <comment ref="I470" authorId="0" shapeId="0" xr:uid="{38BFD046-AC9F-CD46-917B-BEE3A8D813FB}">
       <text>
         <r>
           <rPr>
@@ -10334,7 +10316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I471" authorId="0" shapeId="0" xr:uid="{46C4DA3D-ED03-3B44-BAEF-69B059B7E51B}">
+    <comment ref="I471" authorId="0" shapeId="0" xr:uid="{DB30C425-F8B9-CC49-B6BA-1C6554A8CEBF}">
       <text>
         <r>
           <rPr>
@@ -10354,7 +10336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I472" authorId="0" shapeId="0" xr:uid="{73D8157B-3096-F54B-95B1-F190CC0BF499}">
+    <comment ref="I472" authorId="0" shapeId="0" xr:uid="{F7D8AF03-D2DE-FE4F-B614-4BDEDCA19188}">
       <text>
         <r>
           <rPr>
@@ -10372,7 +10354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I473" authorId="0" shapeId="0" xr:uid="{D81CDC01-8FA7-EA43-A83B-F75F7F9AE66B}">
+    <comment ref="I473" authorId="0" shapeId="0" xr:uid="{B74CCE50-E031-C447-A762-AD161BEEBDF4}">
       <text>
         <r>
           <rPr>
@@ -10401,7 +10383,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I474" authorId="0" shapeId="0" xr:uid="{ACE69C16-A832-5C4C-BDB4-4B49C2B58C88}">
+    <comment ref="I474" authorId="0" shapeId="0" xr:uid="{7C9206CC-97C0-F14A-84F3-C283C7E36B73}">
       <text>
         <r>
           <rPr>
@@ -10417,7 +10399,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I475" authorId="0" shapeId="0" xr:uid="{227AF628-F7BF-C74C-B88E-74129958F712}">
+    <comment ref="I475" authorId="0" shapeId="0" xr:uid="{F0A5A44E-A72A-834E-81AC-ABD7EF53831B}">
       <text>
         <r>
           <rPr>
@@ -10433,7 +10415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I476" authorId="0" shapeId="0" xr:uid="{CC789221-69B0-584C-A76E-02D7A2A60A32}">
+    <comment ref="I476" authorId="0" shapeId="0" xr:uid="{F5DBB5AE-5EDF-1047-A167-7BAA1E4E2A8A}">
       <text>
         <r>
           <rPr>
@@ -10453,7 +10435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I477" authorId="0" shapeId="0" xr:uid="{2917357B-2B5F-CC45-AB18-6158265F02FF}">
+    <comment ref="I477" authorId="0" shapeId="0" xr:uid="{FCB8EE36-ECA7-DD44-A76B-B4A5AB525B2F}">
       <text>
         <r>
           <rPr>
@@ -10479,7 +10461,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I478" authorId="0" shapeId="0" xr:uid="{B8130944-0E07-5E4B-A7F9-D887FC6A6897}">
+    <comment ref="I478" authorId="0" shapeId="0" xr:uid="{4BE41F5F-90E3-4348-BC4D-BE5E84C63B12}">
       <text>
         <r>
           <rPr>
@@ -10495,7 +10477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I479" authorId="0" shapeId="0" xr:uid="{AD64AD2E-F06A-F946-9FCE-46433F7B5584}">
+    <comment ref="I479" authorId="0" shapeId="0" xr:uid="{6AC49AEB-8809-3E41-B1FA-F3BFBB836850}">
       <text>
         <r>
           <rPr>
@@ -10515,7 +10497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I480" authorId="0" shapeId="0" xr:uid="{26793139-D732-1441-A489-EC828D3CE5A8}">
+    <comment ref="I480" authorId="0" shapeId="0" xr:uid="{10F24461-D42D-E046-B98C-0CDD0D29B6E6}">
       <text>
         <r>
           <rPr>
@@ -10531,7 +10513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I481" authorId="0" shapeId="0" xr:uid="{303AEB7C-7216-8246-9BC1-E79B2D8B7CD0}">
+    <comment ref="I481" authorId="0" shapeId="0" xr:uid="{223DF9FB-A35E-4F42-9A77-6956C4310B92}">
       <text>
         <r>
           <rPr>
@@ -10557,7 +10539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I482" authorId="0" shapeId="0" xr:uid="{9836F4F9-2522-3643-BDA7-9548F5731AE4}">
+    <comment ref="I482" authorId="0" shapeId="0" xr:uid="{EBFB48E7-EF5F-454C-9D3E-A05FA3CE4E6F}">
       <text>
         <r>
           <rPr>
@@ -10580,7 +10562,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I483" authorId="0" shapeId="0" xr:uid="{D9E0DBB4-89EE-A040-BAC8-6AAC0A02DCBE}">
+    <comment ref="I483" authorId="0" shapeId="0" xr:uid="{3C625AD0-15A3-ED46-95BE-82621B00C200}">
       <text>
         <r>
           <rPr>
@@ -10600,7 +10582,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I484" authorId="0" shapeId="0" xr:uid="{2C2960D2-9B97-1B4B-93F2-F66D798C2BB8}">
+    <comment ref="I484" authorId="0" shapeId="0" xr:uid="{03E325FD-E822-2E4E-99C4-2A880CD2C515}">
       <text>
         <r>
           <rPr>
@@ -10616,7 +10598,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I485" authorId="0" shapeId="0" xr:uid="{C4EE7B51-B155-394B-BA1D-FECFF5F58A91}">
+    <comment ref="I485" authorId="0" shapeId="0" xr:uid="{AC6D3D8C-B0BD-2546-A62A-01A43C0C604B}">
       <text>
         <r>
           <rPr>
@@ -10642,7 +10624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I486" authorId="0" shapeId="0" xr:uid="{8AAF944A-AD0B-3F40-B96D-0ECB5CA395D9}">
+    <comment ref="I486" authorId="0" shapeId="0" xr:uid="{B51D4E10-BFD6-504F-86DD-98E3EBA8D88D}">
       <text>
         <r>
           <rPr>
@@ -10658,7 +10640,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I487" authorId="0" shapeId="0" xr:uid="{13A5A96F-7A16-AA45-A324-EC3D2814C073}">
+    <comment ref="I487" authorId="0" shapeId="0" xr:uid="{01C9B6A5-CDB1-7042-8A45-18B51D66F67F}">
       <text>
         <r>
           <rPr>
@@ -10678,7 +10660,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I488" authorId="0" shapeId="0" xr:uid="{2E1E6F88-F220-1944-A23D-D405EC8D0337}">
+    <comment ref="I488" authorId="0" shapeId="0" xr:uid="{0BE43990-5D6C-2441-B702-F771611692BE}">
       <text>
         <r>
           <rPr>
@@ -10698,7 +10680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I489" authorId="0" shapeId="0" xr:uid="{C0C88548-DA09-D94C-8552-9496FA0BD8D4}">
+    <comment ref="I489" authorId="0" shapeId="0" xr:uid="{247469E9-7A26-8040-945F-678EC1A22891}">
       <text>
         <r>
           <rPr>
@@ -10718,7 +10700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I490" authorId="0" shapeId="0" xr:uid="{4336BFAC-F4CE-3147-941E-29ADB4433060}">
+    <comment ref="I490" authorId="0" shapeId="0" xr:uid="{36F4A36C-9EC6-BA4A-8D1D-C38E32E3DF75}">
       <text>
         <r>
           <rPr>
@@ -10738,7 +10720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I491" authorId="0" shapeId="0" xr:uid="{A21AB500-9658-454A-8A78-3D3469C2E981}">
+    <comment ref="I491" authorId="0" shapeId="0" xr:uid="{BC5018A8-8586-1C45-92AD-07B69EF24F1E}">
       <text>
         <r>
           <rPr>
@@ -10764,7 +10746,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I492" authorId="0" shapeId="0" xr:uid="{4126223D-2258-AF4B-8ADF-F75F0A1CAF3B}">
+    <comment ref="I492" authorId="0" shapeId="0" xr:uid="{7B011907-F7C4-CC42-BC3C-03BA1541BADE}">
       <text>
         <r>
           <rPr>
@@ -10787,7 +10769,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I493" authorId="0" shapeId="0" xr:uid="{432F338D-62C2-3149-A3F3-61E5D278933C}">
+    <comment ref="I493" authorId="0" shapeId="0" xr:uid="{3D9F7BCB-5771-F54D-ADD6-5859224145C5}">
       <text>
         <r>
           <rPr>
@@ -10813,7 +10795,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I494" authorId="0" shapeId="0" xr:uid="{5F2F9F6D-6E31-EF4F-AD46-3B2FBFEB3F1D}">
+    <comment ref="I494" authorId="0" shapeId="0" xr:uid="{F5B6422D-739A-4D4A-BACF-A1A6D5C17D31}">
       <text>
         <r>
           <rPr>
@@ -10833,7 +10815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I495" authorId="0" shapeId="0" xr:uid="{D19B1A06-A5A3-334A-A9C0-C5B53A243D7F}">
+    <comment ref="I495" authorId="0" shapeId="0" xr:uid="{40E22F57-02E5-5A4A-925C-8AF01CDEB9B2}">
       <text>
         <r>
           <rPr>
@@ -10853,7 +10835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I496" authorId="0" shapeId="0" xr:uid="{CA42DF66-883D-1C49-8D76-2D52D15251D9}">
+    <comment ref="I496" authorId="0" shapeId="0" xr:uid="{038A2EC7-EBAD-2F4D-9121-5A416FDFD4AC}">
       <text>
         <r>
           <rPr>
@@ -10873,7 +10855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I497" authorId="0" shapeId="0" xr:uid="{0B9E3667-0A85-CC42-9974-7D5EB3AB32D3}">
+    <comment ref="I497" authorId="0" shapeId="0" xr:uid="{2D575A53-D296-7942-A0D6-3B65DB771DB1}">
       <text>
         <r>
           <rPr>
@@ -10893,7 +10875,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I498" authorId="0" shapeId="0" xr:uid="{93285944-C035-5C4E-8889-054626B50BA9}">
+    <comment ref="I498" authorId="0" shapeId="0" xr:uid="{080935F1-83AE-0249-BD49-110167B741D8}">
       <text>
         <r>
           <rPr>
@@ -10913,7 +10895,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I499" authorId="0" shapeId="0" xr:uid="{38DF0AB4-C1B1-EA4E-BB9C-013E4F75733C}">
+    <comment ref="I499" authorId="0" shapeId="0" xr:uid="{7F4C1E04-4B60-2C41-B109-AF77DB087299}">
       <text>
         <r>
           <rPr>
@@ -10934,7 +10916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I500" authorId="0" shapeId="0" xr:uid="{36952929-DB9C-0F4F-AC72-B467187DFCF2}">
+    <comment ref="I500" authorId="0" shapeId="0" xr:uid="{2CBEBD3D-D10C-9248-A589-7C6FA0C9D7B8}">
       <text>
         <r>
           <rPr>
@@ -10954,7 +10936,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I501" authorId="0" shapeId="0" xr:uid="{D8087CC8-90D1-7445-8A48-6D14576EB35A}">
+    <comment ref="I501" authorId="0" shapeId="0" xr:uid="{770A1319-4963-3940-8EC3-2EC21598ABEE}">
       <text>
         <r>
           <rPr>
@@ -10972,7 +10954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I502" authorId="0" shapeId="0" xr:uid="{8684E4A6-88B3-9B46-8E95-6866D62709D1}">
+    <comment ref="I502" authorId="0" shapeId="0" xr:uid="{7A99A8C5-86A9-6141-8C6E-7AF9FAC6D961}">
       <text>
         <r>
           <rPr>
@@ -10992,7 +10974,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I503" authorId="0" shapeId="0" xr:uid="{0D1DAFBE-1B5B-564D-A88B-F8DA5310477C}">
+    <comment ref="I503" authorId="0" shapeId="0" xr:uid="{49F3BB61-46E3-504C-A196-113E35B3E816}">
       <text>
         <r>
           <rPr>
@@ -11007,7 +10989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I504" authorId="0" shapeId="0" xr:uid="{83E4A96E-E68B-A04A-ADD7-A72130C76979}">
+    <comment ref="I504" authorId="0" shapeId="0" xr:uid="{AA72E0A1-AE9E-6447-A61C-A2187F78DA02}">
       <text>
         <r>
           <rPr>
@@ -11027,7 +11009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I505" authorId="0" shapeId="0" xr:uid="{C5149A3D-D18B-8A42-9FBD-04A6F80A540D}">
+    <comment ref="I505" authorId="0" shapeId="0" xr:uid="{5B5E551B-6DB4-B54E-8415-5161C7DC564A}">
       <text>
         <r>
           <rPr>
@@ -11047,7 +11029,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I506" authorId="0" shapeId="0" xr:uid="{E2B17C63-EA6C-4541-81F7-BDEB30AC442C}">
+    <comment ref="I506" authorId="0" shapeId="0" xr:uid="{2A823BF4-4C13-E947-9DD1-3108D8AC980D}">
       <text>
         <r>
           <rPr>
@@ -11067,7 +11049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I507" authorId="0" shapeId="0" xr:uid="{070D6E4E-78AA-A04F-8D55-B90B65BF2AB9}">
+    <comment ref="I507" authorId="0" shapeId="0" xr:uid="{F1217247-7817-814D-B1D3-811AABE6E082}">
       <text>
         <r>
           <rPr>
@@ -11087,7 +11069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I508" authorId="0" shapeId="0" xr:uid="{295773FD-6CB0-4B4A-A609-B465120C3225}">
+    <comment ref="I508" authorId="0" shapeId="0" xr:uid="{31CEE194-23D2-AA47-B364-5A5649D41AC9}">
       <text>
         <r>
           <rPr>
@@ -11104,7 +11086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I509" authorId="0" shapeId="0" xr:uid="{1D03544F-3013-DD46-9361-6078DE8E43AF}">
+    <comment ref="I509" authorId="0" shapeId="0" xr:uid="{56F016C1-90FC-2C4C-8499-168A62B850A2}">
       <text>
         <r>
           <rPr>
@@ -11124,7 +11106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I510" authorId="0" shapeId="0" xr:uid="{071C46B4-5C82-974B-96E8-8CDA93339879}">
+    <comment ref="I510" authorId="0" shapeId="0" xr:uid="{768A0646-A760-894C-8E86-DE4D46D97AD6}">
       <text>
         <r>
           <rPr>
@@ -11144,7 +11126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I511" authorId="0" shapeId="0" xr:uid="{CB2ECD02-667C-1A46-8DFE-B9B1972B3485}">
+    <comment ref="I511" authorId="0" shapeId="0" xr:uid="{4F89103B-DD5E-3548-B7D6-919F8430E3C8}">
       <text>
         <r>
           <rPr>
@@ -11162,7 +11144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I512" authorId="0" shapeId="0" xr:uid="{67155555-777C-D249-B7E9-614AE698FF64}">
+    <comment ref="I512" authorId="0" shapeId="0" xr:uid="{3369BE88-19C3-5447-90E9-536651D10916}">
       <text>
         <r>
           <rPr>
@@ -11185,7 +11167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I513" authorId="0" shapeId="0" xr:uid="{BAE42143-0DD3-E54E-B091-BE1D7C778F5D}">
+    <comment ref="I513" authorId="0" shapeId="0" xr:uid="{98E91216-DFEC-8842-A970-F1933D7B8B07}">
       <text>
         <r>
           <rPr>
@@ -11201,7 +11183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I514" authorId="0" shapeId="0" xr:uid="{DFC5F518-A972-2C45-975D-760EB0CA2CBD}">
+    <comment ref="I514" authorId="0" shapeId="0" xr:uid="{DD8F4F2B-9462-454B-9AB3-E03244E256D0}">
       <text>
         <r>
           <rPr>
@@ -11227,7 +11209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I515" authorId="0" shapeId="0" xr:uid="{3CA3DC0D-F0F0-F84C-BF57-6610DF20BB03}">
+    <comment ref="I515" authorId="0" shapeId="0" xr:uid="{C23DCEC7-CBB5-FE4C-8467-A030FDE5B54F}">
       <text>
         <r>
           <rPr>
@@ -11253,7 +11235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I516" authorId="0" shapeId="0" xr:uid="{683B85DE-2E10-8543-B086-087B60DF8F1A}">
+    <comment ref="I516" authorId="0" shapeId="0" xr:uid="{546BF69C-C36F-B844-A952-F1258E0AA471}">
       <text>
         <r>
           <rPr>
@@ -11269,7 +11251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I517" authorId="0" shapeId="0" xr:uid="{6B65F86D-72BB-CF48-B583-E986C90F16DD}">
+    <comment ref="I517" authorId="0" shapeId="0" xr:uid="{EC0AF19D-846F-5E4D-93FC-690657395F14}">
       <text>
         <r>
           <rPr>
@@ -11285,7 +11267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I518" authorId="0" shapeId="0" xr:uid="{53B1A1D4-9E19-784B-82CB-3E0A23C0F253}">
+    <comment ref="I518" authorId="0" shapeId="0" xr:uid="{4FE4ACFE-0450-E449-952D-34472451F6F1}">
       <text>
         <r>
           <rPr>
@@ -11301,7 +11283,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I519" authorId="0" shapeId="0" xr:uid="{514392F0-5CA0-A147-8B98-EE21D83BE908}">
+    <comment ref="I519" authorId="0" shapeId="0" xr:uid="{E4CDC4CB-93C1-3049-8563-DAB761ABE25C}">
       <text>
         <r>
           <rPr>
@@ -11318,7 +11300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I520" authorId="0" shapeId="0" xr:uid="{91180162-74FC-7344-A5F3-B2C464026B55}">
+    <comment ref="I520" authorId="0" shapeId="0" xr:uid="{4E982E27-5FBD-504C-B055-07B9FD0E6CD9}">
       <text>
         <r>
           <rPr>
@@ -11335,7 +11317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I521" authorId="0" shapeId="0" xr:uid="{1D294A6F-AE91-2F4E-AF1E-3FC4DAF227A3}">
+    <comment ref="I521" authorId="0" shapeId="0" xr:uid="{4ED45E8D-DA5E-FD4E-B34E-C7932829EB98}">
       <text>
         <r>
           <rPr>
@@ -11354,7 +11336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I522" authorId="0" shapeId="0" xr:uid="{93FC41D9-FD05-FC45-8587-ADED5B80972B}">
+    <comment ref="I522" authorId="0" shapeId="0" xr:uid="{A929B66B-F444-7347-93DD-3E54A8198130}">
       <text>
         <r>
           <rPr>
@@ -11374,7 +11356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I523" authorId="0" shapeId="0" xr:uid="{46537547-2CD6-6A40-8A8A-A1B51B6F8924}">
+    <comment ref="I523" authorId="0" shapeId="0" xr:uid="{F4915D40-F59E-D341-8E5A-9D7DB7D6CBA4}">
       <text>
         <r>
           <rPr>
@@ -11390,7 +11372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I524" authorId="0" shapeId="0" xr:uid="{3E7E2079-8A39-2A4C-AC6A-05AC160BE739}">
+    <comment ref="I524" authorId="0" shapeId="0" xr:uid="{DA1333DC-2F45-C048-8AFA-F69AC17428BA}">
       <text>
         <r>
           <rPr>
@@ -11406,7 +11388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I525" authorId="0" shapeId="0" xr:uid="{CAC44F30-9F6F-E34A-A4D3-67052F8D0C71}">
+    <comment ref="I525" authorId="0" shapeId="0" xr:uid="{DCAAA117-4B7B-384D-8F81-2EFC4B3E9633}">
       <text>
         <r>
           <rPr>
@@ -11423,7 +11405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I526" authorId="0" shapeId="0" xr:uid="{16F5F423-6598-E54E-BEE1-BE58E385BC1A}">
+    <comment ref="I526" authorId="0" shapeId="0" xr:uid="{1E506643-E004-D549-96F3-3277BA753788}">
       <text>
         <r>
           <rPr>
@@ -11439,7 +11421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I527" authorId="0" shapeId="0" xr:uid="{516DEAD6-BF35-1542-B27F-21A27BBE2B6D}">
+    <comment ref="I527" authorId="0" shapeId="0" xr:uid="{6FE87D39-329E-5A4C-B631-1B71719920F5}">
       <text>
         <r>
           <rPr>
@@ -11457,7 +11439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I528" authorId="0" shapeId="0" xr:uid="{BBCD977C-803F-9342-90A6-58BFE5EEE195}">
+    <comment ref="I528" authorId="0" shapeId="0" xr:uid="{7573BB72-C811-2644-A87F-AF8DECE0ABB4}">
       <text>
         <r>
           <rPr>
@@ -11477,7 +11459,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I529" authorId="0" shapeId="0" xr:uid="{8E7583F3-DE9B-F84A-8DD1-97370BC4A4F4}">
+    <comment ref="I529" authorId="0" shapeId="0" xr:uid="{E5A0FD56-36DF-CC43-B7C3-E77B554EB095}">
       <text>
         <r>
           <rPr>
@@ -11493,7 +11475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I530" authorId="0" shapeId="0" xr:uid="{A801A1EC-949B-7141-8C2A-87AD518F247C}">
+    <comment ref="I530" authorId="0" shapeId="0" xr:uid="{9850FAA3-24CD-6C42-8395-08EA25279D34}">
       <text>
         <r>
           <rPr>
@@ -11509,7 +11491,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I531" authorId="0" shapeId="0" xr:uid="{8D479EB7-F143-604E-8B8F-9ECB9206F05D}">
+    <comment ref="I531" authorId="0" shapeId="0" xr:uid="{16AF8B7F-1D3F-094E-B7C8-DA64AC60528A}">
       <text>
         <r>
           <rPr>
@@ -11526,7 +11508,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I532" authorId="0" shapeId="0" xr:uid="{D4D0923A-3A67-7042-AA10-25641C23C98F}">
+    <comment ref="I532" authorId="0" shapeId="0" xr:uid="{5EC0E388-929E-414C-BC12-E50455C14D1A}">
       <text>
         <r>
           <rPr>
@@ -11542,7 +11524,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I533" authorId="0" shapeId="0" xr:uid="{964A4E1D-36F7-3241-ABA0-69488203EBED}">
+    <comment ref="I533" authorId="0" shapeId="0" xr:uid="{19AC3A8F-9C23-F94E-A976-84286AFA0CA8}">
       <text>
         <r>
           <rPr>
@@ -11561,7 +11543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I534" authorId="0" shapeId="0" xr:uid="{0AC864E6-A477-1E47-ADB5-5B7E95B6DB1B}">
+    <comment ref="I534" authorId="0" shapeId="0" xr:uid="{A55CB0A3-ABD1-D343-AD54-89C34761A888}">
       <text>
         <r>
           <rPr>
@@ -11578,7 +11560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I535" authorId="0" shapeId="0" xr:uid="{69440591-23A9-CE40-A31E-30886DE5F27A}">
+    <comment ref="I535" authorId="0" shapeId="0" xr:uid="{71ACE992-7041-1742-9261-7799D22B3BB4}">
       <text>
         <r>
           <rPr>
@@ -11594,7 +11576,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I536" authorId="0" shapeId="0" xr:uid="{4E6E2EE4-D61F-CA41-9A54-5C097B6281A0}">
+    <comment ref="I536" authorId="0" shapeId="0" xr:uid="{B6925B05-855E-904E-8D7A-957527A13382}">
       <text>
         <r>
           <rPr>
@@ -11610,7 +11592,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I537" authorId="0" shapeId="0" xr:uid="{9CD299F8-C30B-8949-B9EA-0AF3CD63EF3F}">
+    <comment ref="I537" authorId="0" shapeId="0" xr:uid="{F0CF3B69-0C15-9B4B-A8CB-0A6A451A8AE5}">
       <text>
         <r>
           <rPr>
@@ -11626,7 +11608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I538" authorId="0" shapeId="0" xr:uid="{49D291E5-CF52-114B-8724-5C78B50BC214}">
+    <comment ref="I538" authorId="0" shapeId="0" xr:uid="{6568B775-6C8B-6C4D-A4DA-B772F026DA1E}">
       <text>
         <r>
           <rPr>
@@ -11645,7 +11627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I539" authorId="0" shapeId="0" xr:uid="{949C34F5-4F7C-DD4A-AD52-66ACC8EA42A1}">
+    <comment ref="I539" authorId="0" shapeId="0" xr:uid="{87EE217E-B7A4-9741-B737-2415043940CD}">
       <text>
         <r>
           <rPr>
@@ -11661,7 +11643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I540" authorId="0" shapeId="0" xr:uid="{E8365F42-6BC6-0148-9AAF-6CCD9DC392D6}">
+    <comment ref="I540" authorId="0" shapeId="0" xr:uid="{B883AB7C-CBF4-B54F-A8E5-75A700A5C741}">
       <text>
         <r>
           <rPr>
@@ -11676,7 +11658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I541" authorId="0" shapeId="0" xr:uid="{0069314F-84E5-DC48-8A7E-97C050552607}">
+    <comment ref="I541" authorId="0" shapeId="0" xr:uid="{9BEB6FBF-B6DA-A140-8465-FF5526737E0C}">
       <text>
         <r>
           <rPr>
@@ -11700,7 +11682,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I542" authorId="0" shapeId="0" xr:uid="{D5BD711C-554A-A844-8BC1-4D3ADD9314DB}">
+    <comment ref="I542" authorId="0" shapeId="0" xr:uid="{65C58BE7-8A5D-104A-A08A-06786B40530D}">
       <text>
         <r>
           <rPr>
@@ -11716,7 +11698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I543" authorId="0" shapeId="0" xr:uid="{1D81362B-F739-7C44-948F-BF778427D331}">
+    <comment ref="I543" authorId="0" shapeId="0" xr:uid="{FCD4B671-4C42-304C-A20B-46CDBEB5FCDB}">
       <text>
         <r>
           <rPr>
@@ -11733,7 +11715,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I544" authorId="0" shapeId="0" xr:uid="{FD1C5523-2233-164A-BA56-FA65A0D3184A}">
+    <comment ref="I544" authorId="0" shapeId="0" xr:uid="{31EE437A-7413-954D-ABF0-B8B859DAB4B2}">
       <text>
         <r>
           <rPr>
@@ -11749,7 +11731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I545" authorId="0" shapeId="0" xr:uid="{3BD09213-5403-E94B-AA82-DEB48D2A9D5C}">
+    <comment ref="I545" authorId="0" shapeId="0" xr:uid="{09CDFA9F-5292-7645-A16E-3759A75A5F3A}">
       <text>
         <r>
           <rPr>
@@ -11765,7 +11747,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I546" authorId="0" shapeId="0" xr:uid="{DAF982A4-9BFD-2345-BDDD-562715A7E68D}">
+    <comment ref="I546" authorId="0" shapeId="0" xr:uid="{A6D965D4-A4AD-9D4F-8C00-326766AF7401}">
       <text>
         <r>
           <rPr>
@@ -11781,7 +11763,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I547" authorId="0" shapeId="0" xr:uid="{BE8B5762-C262-A443-8CAE-7AAD033A26FA}">
+    <comment ref="I547" authorId="0" shapeId="0" xr:uid="{171E7CA0-CF09-F14F-90A1-DF23BA755B7A}">
       <text>
         <r>
           <rPr>
@@ -11795,7 +11777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I548" authorId="0" shapeId="0" xr:uid="{1DAF7CAE-7697-CC41-A69E-8276B80C2FE9}">
+    <comment ref="I548" authorId="0" shapeId="0" xr:uid="{E304DE07-712B-E046-8BD6-AAB0189ED6BB}">
       <text>
         <r>
           <rPr>
@@ -11811,7 +11793,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I549" authorId="0" shapeId="0" xr:uid="{6A2E0682-900B-8146-8C4F-922DFF624CEE}">
+    <comment ref="I549" authorId="0" shapeId="0" xr:uid="{802AD4EE-DB91-DB40-B093-373EDA1481F4}">
       <text>
         <r>
           <rPr>
@@ -11826,7 +11808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I550" authorId="0" shapeId="0" xr:uid="{C2B97BFC-E746-234D-8F05-4B4D9FDA5F33}">
+    <comment ref="I550" authorId="0" shapeId="0" xr:uid="{E20E2046-E0FC-9442-99D1-2C60BC69DB30}">
       <text>
         <r>
           <rPr>
@@ -11842,7 +11824,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I551" authorId="0" shapeId="0" xr:uid="{22650EFC-1B5B-B345-89A4-B7F68340DB9E}">
+    <comment ref="I551" authorId="0" shapeId="0" xr:uid="{F01FA60B-F166-8946-88AA-492564F09F92}">
       <text>
         <r>
           <rPr>
@@ -11858,7 +11840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I552" authorId="0" shapeId="0" xr:uid="{D77DB5CE-579E-9A4A-B907-0E3CC0DEC739}">
+    <comment ref="I552" authorId="0" shapeId="0" xr:uid="{E3C058CF-C3CA-A345-9F7F-DF056475430A}">
       <text>
         <r>
           <rPr>
@@ -11887,7 +11869,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I553" authorId="0" shapeId="0" xr:uid="{846EE073-C8DD-1746-85AE-9A3FDA9DD73D}">
+    <comment ref="I553" authorId="0" shapeId="0" xr:uid="{C86D0854-2FD3-1D42-8F07-251D88ED6508}">
       <text>
         <r>
           <rPr>
@@ -11902,7 +11884,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I554" authorId="0" shapeId="0" xr:uid="{815B8145-D07F-EA4A-AAF8-48143F015D57}">
+    <comment ref="I554" authorId="0" shapeId="0" xr:uid="{3ACC8565-5BEA-1E48-B31E-08903761C4E8}">
       <text>
         <r>
           <rPr>
@@ -11917,7 +11899,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I555" authorId="0" shapeId="0" xr:uid="{804E3A50-4F83-5B45-A3A4-04D3F595C85C}">
+    <comment ref="I555" authorId="0" shapeId="0" xr:uid="{DE196073-CF09-8A4A-B227-1EE4873F82D4}">
       <text>
         <r>
           <rPr>
@@ -11934,7 +11916,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I556" authorId="0" shapeId="0" xr:uid="{4C05DC08-DF5F-B24C-9694-8301761667ED}">
+    <comment ref="I556" authorId="0" shapeId="0" xr:uid="{69FF3297-AC4D-9944-9CD6-761CE806B829}">
       <text>
         <r>
           <rPr>
@@ -11953,7 +11935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I557" authorId="0" shapeId="0" xr:uid="{F86E7532-0C10-1440-87F7-380479E2C967}">
+    <comment ref="I557" authorId="0" shapeId="0" xr:uid="{7B73EA09-6D4B-574F-91A7-4CB0C712AFC7}">
       <text>
         <r>
           <rPr>
@@ -11972,7 +11954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I558" authorId="0" shapeId="0" xr:uid="{8A28A8D8-EADE-3A41-83B0-8A90C17D16AC}">
+    <comment ref="I558" authorId="0" shapeId="0" xr:uid="{1E9F2324-FDE5-4E41-92DA-621EF68075BB}">
       <text>
         <r>
           <rPr>
@@ -11991,7 +11973,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I559" authorId="0" shapeId="0" xr:uid="{32872512-3676-9240-8B3B-0143CCAC310F}">
+    <comment ref="I559" authorId="0" shapeId="0" xr:uid="{384322C3-C40F-9045-8A13-E87F7C04A480}">
       <text>
         <r>
           <rPr>
@@ -12010,7 +11992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I560" authorId="0" shapeId="0" xr:uid="{C758A9BF-54B2-7347-BA76-26C08236A169}">
+    <comment ref="I560" authorId="0" shapeId="0" xr:uid="{B4209872-F182-B84D-8A19-956539705A43}">
       <text>
         <r>
           <rPr>
@@ -12029,7 +12011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I561" authorId="0" shapeId="0" xr:uid="{E6E61E4F-61EB-834E-8137-F1FF80E74144}">
+    <comment ref="I561" authorId="0" shapeId="0" xr:uid="{F6C997DA-BCF9-9641-AF64-110C78FC81F3}">
       <text>
         <r>
           <rPr>
@@ -12044,7 +12026,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I562" authorId="0" shapeId="0" xr:uid="{05822A9A-6A8E-F543-9DF7-5F7F2B5B23AD}">
+    <comment ref="I562" authorId="0" shapeId="0" xr:uid="{71194423-932B-D241-982C-831254A2146E}">
       <text>
         <r>
           <rPr>
@@ -12063,7 +12045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I563" authorId="0" shapeId="0" xr:uid="{D208D892-4930-D346-BE53-FBA9FE9889AE}">
+    <comment ref="I563" authorId="0" shapeId="0" xr:uid="{98CCC8FD-FC5E-5146-8ED0-AAF18F509507}">
       <text>
         <r>
           <rPr>
@@ -12080,7 +12062,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I564" authorId="0" shapeId="0" xr:uid="{1BF9ABD2-BE1D-DC47-A994-9ABB9BEE4459}">
+    <comment ref="I564" authorId="0" shapeId="0" xr:uid="{203CC29C-F660-E243-9815-9A4A9F41136C}">
       <text>
         <r>
           <rPr>
@@ -12099,7 +12081,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I565" authorId="0" shapeId="0" xr:uid="{4B68D3D1-F5DD-1549-BB54-2944B2547DEE}">
+    <comment ref="I565" authorId="0" shapeId="0" xr:uid="{2FFF4DA0-2A82-1042-9D01-C51A59F28EF0}">
       <text>
         <r>
           <rPr>
@@ -12118,7 +12100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I566" authorId="0" shapeId="0" xr:uid="{77BDF174-F5B8-0140-9713-DE3F912FD7ED}">
+    <comment ref="I566" authorId="0" shapeId="0" xr:uid="{3552F4D0-A707-5F42-AD13-6B8FF68AC1D1}">
       <text>
         <r>
           <rPr>
@@ -12136,7 +12118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I567" authorId="0" shapeId="0" xr:uid="{F31DE8F8-4EA0-2D40-A769-E7FEFAF313A0}">
+    <comment ref="I567" authorId="0" shapeId="0" xr:uid="{4B7FC7D3-5581-BF4C-B61D-43F61611CBAF}">
       <text>
         <r>
           <rPr>
@@ -12166,7 +12148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I568" authorId="0" shapeId="0" xr:uid="{80F1A87E-BFDD-D148-9B59-D7CDE4265DE3}">
+    <comment ref="I568" authorId="0" shapeId="0" xr:uid="{B00895DF-D1E0-444C-B57E-D6A74FD14039}">
       <text>
         <r>
           <rPr>
@@ -12185,7 +12167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I569" authorId="0" shapeId="0" xr:uid="{5B49B5E7-9E6F-0044-8C26-37763F481E25}">
+    <comment ref="I569" authorId="0" shapeId="0" xr:uid="{7328BFB4-9B4A-D748-AF31-751BD80B4057}">
       <text>
         <r>
           <rPr>
@@ -12204,7 +12186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I570" authorId="0" shapeId="0" xr:uid="{E1166882-0C8A-3E40-A243-182C70DC8D73}">
+    <comment ref="I570" authorId="0" shapeId="0" xr:uid="{C718D41F-E897-5644-A016-846F1B301DB1}">
       <text>
         <r>
           <rPr>
@@ -12223,7 +12205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I571" authorId="0" shapeId="0" xr:uid="{7198E564-BB25-2540-B1BB-45706514F03F}">
+    <comment ref="I571" authorId="0" shapeId="0" xr:uid="{8B307498-E4BC-D34C-A9CE-DAA027515201}">
       <text>
         <r>
           <rPr>
@@ -12253,7 +12235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I572" authorId="0" shapeId="0" xr:uid="{2E7C6EC0-B269-1B42-BB69-8C87CC2FE056}">
+    <comment ref="I572" authorId="0" shapeId="0" xr:uid="{B340347E-8857-2B4E-A07F-9635F691B35F}">
       <text>
         <r>
           <rPr>
@@ -12269,7 +12251,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I573" authorId="0" shapeId="0" xr:uid="{F7491B47-7F81-A745-AA74-AB0BA19318DD}">
+    <comment ref="I573" authorId="0" shapeId="0" xr:uid="{08BBCCF8-2562-E84E-B67D-1025BDD14C9E}">
       <text>
         <r>
           <rPr>
@@ -12288,7 +12270,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I574" authorId="0" shapeId="0" xr:uid="{BC5AE9AD-2ACD-7746-8090-72439C678D3E}">
+    <comment ref="I574" authorId="0" shapeId="0" xr:uid="{D7D7F598-2AD8-254C-A3D1-25A8472D3521}">
       <text>
         <r>
           <rPr>
@@ -12318,7 +12300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I575" authorId="0" shapeId="0" xr:uid="{2D828353-7943-7B4D-87F1-1E20DF6BD31E}">
+    <comment ref="I575" authorId="0" shapeId="0" xr:uid="{5558C790-5E00-3E4A-B119-4E407FF369BD}">
       <text>
         <r>
           <rPr>
@@ -12337,7 +12319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I576" authorId="0" shapeId="0" xr:uid="{D0A475BD-D4AD-344F-B9AA-A66DA4C3F51A}">
+    <comment ref="I576" authorId="0" shapeId="0" xr:uid="{AD8EAC6D-2910-6741-B388-8CB0EEB8A8FA}">
       <text>
         <r>
           <rPr>
@@ -12353,7 +12335,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I577" authorId="0" shapeId="0" xr:uid="{2EAF29EB-6DCA-EC49-BDF8-0648BEEF08EB}">
+    <comment ref="I577" authorId="0" shapeId="0" xr:uid="{57B35661-287A-AF45-858E-0E9E82097DE1}">
       <text>
         <r>
           <rPr>
@@ -12372,7 +12354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I578" authorId="0" shapeId="0" xr:uid="{29C16BDF-23C8-0446-8D9F-06A93A86E572}">
+    <comment ref="I578" authorId="0" shapeId="0" xr:uid="{D9223D3D-7EC6-3041-AFA8-97A14DEE9B18}">
       <text>
         <r>
           <rPr>
@@ -12402,7 +12384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I579" authorId="0" shapeId="0" xr:uid="{17068CC9-3C19-B047-A3BB-52CA7DF93BF5}">
+    <comment ref="I579" authorId="0" shapeId="0" xr:uid="{6388B51B-BC57-1741-9C30-40C388DE2AF3}">
       <text>
         <r>
           <rPr>
@@ -12421,7 +12403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I580" authorId="0" shapeId="0" xr:uid="{7178CD26-07D3-9A4E-AB48-D3251A9D9831}">
+    <comment ref="I580" authorId="0" shapeId="0" xr:uid="{F079CF0D-C200-B74A-8519-8C9D3FF9A9BD}">
       <text>
         <r>
           <rPr>
@@ -12440,7 +12422,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I581" authorId="0" shapeId="0" xr:uid="{96145AE5-9AA8-B34E-87A7-6723F87F6119}">
+    <comment ref="I581" authorId="0" shapeId="0" xr:uid="{18663F81-A622-4440-8E39-8871CFC9A13D}">
       <text>
         <r>
           <rPr>
@@ -12459,7 +12441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I582" authorId="0" shapeId="0" xr:uid="{22499276-106A-6B40-AAA8-5AD1EC1B35A0}">
+    <comment ref="I582" authorId="0" shapeId="0" xr:uid="{6D27BDBF-1510-D947-B184-F55684768AE4}">
       <text>
         <r>
           <rPr>
@@ -12478,7 +12460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I583" authorId="0" shapeId="0" xr:uid="{9C516B39-3BCA-3F4F-BF2D-7677E8DE70AE}">
+    <comment ref="I583" authorId="0" shapeId="0" xr:uid="{CB5DD903-E99E-5D48-8FDE-DA9CEB7C643F}">
       <text>
         <r>
           <rPr>
@@ -12510,7 +12492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I584" authorId="0" shapeId="0" xr:uid="{DADA8371-8CD7-0349-AD0E-893407CF7E55}">
+    <comment ref="I584" authorId="0" shapeId="0" xr:uid="{AFC56B02-5B4D-5C4A-9F8C-F105E5EE5807}">
       <text>
         <r>
           <rPr>
@@ -12527,7 +12509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I585" authorId="0" shapeId="0" xr:uid="{2ECF6E86-25CC-6548-A67A-FB37AB466AC7}">
+    <comment ref="I585" authorId="0" shapeId="0" xr:uid="{D5EC6996-46F8-574E-83E1-9418AA2D2AB3}">
       <text>
         <r>
           <rPr>
@@ -12557,7 +12539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I586" authorId="0" shapeId="0" xr:uid="{B53F1D68-DCB9-774C-9E4D-BE2BB692E78A}">
+    <comment ref="I586" authorId="0" shapeId="0" xr:uid="{ACE9762D-0548-B245-81F6-CC7456E469EC}">
       <text>
         <r>
           <rPr>
@@ -12585,7 +12567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I587" authorId="0" shapeId="0" xr:uid="{60E73F39-4362-D148-9E94-2E3AC2D112E4}">
+    <comment ref="I587" authorId="0" shapeId="0" xr:uid="{8A23303D-34D9-7A41-8D03-8807291D56D7}">
       <text>
         <r>
           <rPr>
@@ -12606,7 +12588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I588" authorId="0" shapeId="0" xr:uid="{910F4BA6-B1E9-A84E-A800-161EF766CC76}">
+    <comment ref="I588" authorId="0" shapeId="0" xr:uid="{FD5D6EF3-79E4-D04D-9DB7-DBB4323A7CF9}">
       <text>
         <r>
           <rPr>
@@ -12634,7 +12616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I589" authorId="0" shapeId="0" xr:uid="{7E4F12E1-02C6-134F-B9AB-43B249318B4D}">
+    <comment ref="I589" authorId="0" shapeId="0" xr:uid="{4683EE23-8FFB-9E45-BF09-62CD38B5BFB9}">
       <text>
         <r>
           <rPr>
@@ -12651,7 +12633,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I590" authorId="0" shapeId="0" xr:uid="{8708266A-20E6-9B49-BE00-08E0A75D3CBC}">
+    <comment ref="I590" authorId="0" shapeId="0" xr:uid="{02A22757-A2AF-C141-B635-3B74FEFC41AD}">
       <text>
         <r>
           <rPr>
@@ -12671,7 +12653,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I591" authorId="0" shapeId="0" xr:uid="{7DD8D0D8-FAC4-B947-B3BF-214EA3D7DF0B}">
+    <comment ref="I591" authorId="0" shapeId="0" xr:uid="{D4077370-2A66-9D43-9C23-218A33B01207}">
       <text>
         <r>
           <rPr>
@@ -12693,7 +12675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I592" authorId="0" shapeId="0" xr:uid="{1B8D0ABD-0B4D-704D-9EEA-BA827FEA9DC6}">
+    <comment ref="I592" authorId="0" shapeId="0" xr:uid="{32A33D5B-0BFB-9045-BF84-F1A364A85378}">
       <text>
         <r>
           <rPr>
@@ -12710,7 +12692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I593" authorId="0" shapeId="0" xr:uid="{A9BD780C-7EFC-3A45-927E-D947B9405A86}">
+    <comment ref="I593" authorId="0" shapeId="0" xr:uid="{81386A1B-F6FD-8848-AE1F-467158D995BA}">
       <text>
         <r>
           <rPr>
@@ -12726,7 +12708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I594" authorId="0" shapeId="0" xr:uid="{9E82B0CC-5649-514A-9DA6-D02267725C5D}">
+    <comment ref="I594" authorId="0" shapeId="0" xr:uid="{0AFFEFB2-99D9-6241-A5E8-60EE4C4EB1AE}">
       <text>
         <r>
           <rPr>
@@ -12749,7 +12731,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I595" authorId="0" shapeId="0" xr:uid="{F8557E71-2A9F-E143-850A-F0BEA9AFF246}">
+    <comment ref="I595" authorId="0" shapeId="0" xr:uid="{6E34CC29-9473-6440-BACE-65AAD7D8A3F4}">
       <text>
         <r>
           <rPr>
@@ -12780,7 +12762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I596" authorId="0" shapeId="0" xr:uid="{869B504A-9097-C743-B6F3-3D7D426FE6EA}">
+    <comment ref="I596" authorId="0" shapeId="0" xr:uid="{11DD6A95-A4A2-AC44-85BC-AB2913427A1D}">
       <text>
         <r>
           <rPr>
@@ -12821,7 +12803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I597" authorId="0" shapeId="0" xr:uid="{50585086-89B7-E845-AE10-0BFF8BB88499}">
+    <comment ref="I597" authorId="0" shapeId="0" xr:uid="{3496B102-A847-F84C-8A7A-AAECA8C527A0}">
       <text>
         <r>
           <rPr>
@@ -12841,7 +12823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I598" authorId="0" shapeId="0" xr:uid="{9AE05036-690E-5047-9A59-5BBE33146A97}">
+    <comment ref="I598" authorId="0" shapeId="0" xr:uid="{1CC58547-ED7B-AF41-8ED9-39522F87C873}">
       <text>
         <r>
           <rPr>
@@ -12881,7 +12863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I599" authorId="0" shapeId="0" xr:uid="{DBA9E9A3-A92D-F342-8926-B6ED4CDC0CAA}">
+    <comment ref="I599" authorId="0" shapeId="0" xr:uid="{D017885F-6521-2D4D-8EC9-CB4911D25068}">
       <text>
         <r>
           <rPr>
@@ -12921,7 +12903,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I600" authorId="0" shapeId="0" xr:uid="{8120A765-A5BA-C34E-9079-33AB819930E4}">
+    <comment ref="I600" authorId="0" shapeId="0" xr:uid="{2EE05282-885F-0444-BA45-8B977036D7A5}">
       <text>
         <r>
           <rPr>
@@ -12948,7 +12930,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I601" authorId="0" shapeId="0" xr:uid="{F2224EFC-EFCE-B54E-A18D-EC2FBC892007}">
+    <comment ref="I601" authorId="0" shapeId="0" xr:uid="{FF3ED6EF-4A0A-824F-9FDD-6DCAA08F5999}">
       <text>
         <r>
           <rPr>
@@ -12977,7 +12959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I602" authorId="0" shapeId="0" xr:uid="{587ACC4F-E15D-2B41-8209-EFD66BCA34E3}">
+    <comment ref="I602" authorId="0" shapeId="0" xr:uid="{40B6382D-2C1C-6B49-B385-353DFAD9FA4C}">
       <text>
         <r>
           <rPr>
@@ -12993,7 +12975,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I603" authorId="0" shapeId="0" xr:uid="{15E11A41-DCB6-9145-937F-A31219C38776}">
+    <comment ref="I603" authorId="0" shapeId="0" xr:uid="{F6BD7508-92AF-8A4C-996E-75520B832D3B}">
       <text>
         <r>
           <rPr>
@@ -13016,7 +12998,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I604" authorId="0" shapeId="0" xr:uid="{2F427B51-0AA2-EF4C-B45B-EF5E321990FE}">
+    <comment ref="I604" authorId="0" shapeId="0" xr:uid="{2D4BDFF4-7C48-C243-BE28-C4C39FE0B526}">
       <text>
         <r>
           <rPr>
@@ -13041,7 +13023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I605" authorId="0" shapeId="0" xr:uid="{74E3F320-9413-DB48-931F-488644A5A62F}">
+    <comment ref="I605" authorId="0" shapeId="0" xr:uid="{B039C914-FD9F-0249-A4DA-616498A7396C}">
       <text>
         <r>
           <rPr>
@@ -13073,7 +13055,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I606" authorId="0" shapeId="0" xr:uid="{B7FC580B-9E9E-9A4E-A13D-775213FBFEEE}">
+    <comment ref="I606" authorId="0" shapeId="0" xr:uid="{FFAEF8E7-403E-7A40-A3A1-75E4B9029C55}">
       <text>
         <r>
           <rPr>
@@ -13108,7 +13090,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I607" authorId="0" shapeId="0" xr:uid="{32738683-C822-484E-8481-49799EBF6751}">
+    <comment ref="I607" authorId="0" shapeId="0" xr:uid="{DACB4F6A-E52D-9548-A83F-ABF031AFF621}">
       <text>
         <r>
           <rPr>
@@ -13130,7 +13112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I608" authorId="0" shapeId="0" xr:uid="{09DC1772-3E1E-214B-8357-41AD076DE5EB}">
+    <comment ref="I608" authorId="0" shapeId="0" xr:uid="{D5195D89-ED4B-C048-88CC-F8517A6BE41E}">
       <text>
         <r>
           <rPr>
@@ -13152,7 +13134,7 @@
 Shop Owner : DAVID WRIGHT JR.
 Razoul : MARK DICONZO
 Henchman : AARON J. ALBANO, JAMIE KASEY PATTERSON
-Prince Abdullah : BOBBY PESTKA Ensemble: 
+Prince Abdullah : BOBBY PESTKA (Ensemble) 
 Attendants : NICOLE ATHILL, KEISHA GILLES, APRIL HOLLOWAY (New)
 Fortune Teller : KEISHA GILLES
 Ensemble: 
@@ -13160,7 +13142,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I609" authorId="0" shapeId="0" xr:uid="{C7B53786-FAB5-714D-BDC1-11A0082B4BFE}">
+    <comment ref="I609" authorId="0" shapeId="0" xr:uid="{3F4282CE-07A6-8E44-A87A-490AF3884D1B}">
       <text>
         <r>
           <rPr>
@@ -13175,7 +13157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I610" authorId="0" shapeId="0" xr:uid="{D2FBFA50-3FC0-5B4A-8C87-563ED633181E}">
+    <comment ref="I610" authorId="0" shapeId="0" xr:uid="{A226241D-2C1D-BA46-8350-6D741B4A6E6D}">
       <text>
         <r>
           <rPr>
@@ -13203,7 +13185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I611" authorId="0" shapeId="0" xr:uid="{EC03B8C5-EB55-B44F-9334-45C1893C65AC}">
+    <comment ref="I611" authorId="0" shapeId="0" xr:uid="{4D789B11-C6FA-C048-8332-CD3CA6BBB512}">
       <text>
         <r>
           <rPr>
@@ -13218,13 +13200,14 @@
 Hermes : LILLIAS WHITE
 Hades : PHILLIP BOYKIN
 Persephone : BRIT WEST (Understudy)
-Fates : LINDSEY HAILES, BELÉN MOYANO, EMILY AFTON (Understudy)
+Fates :
+LINDSEY HAILES, BELÉN MOYANO, EMILY AFTON (Understudy)
 Workers Chorus: 
 MALCOLM ARMWOOD, CHIBUEZE IHUOMA, ALEX PUETTE, GRACE YOO, BRANDON CAMERON (Swing), ALEX LUGO (Swing)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I612" authorId="0" shapeId="0" xr:uid="{E26832B8-0E55-914D-9162-B59E7907E5F5}">
+    <comment ref="I612" authorId="0" shapeId="0" xr:uid="{721B0218-9CEC-FB4C-8F6F-809BBDAC3ABD}">
       <text>
         <r>
           <rPr>
@@ -13265,7 +13248,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I613" authorId="0" shapeId="0" xr:uid="{BDD75F31-575A-E941-B245-82C1F9EFE443}">
+    <comment ref="I613" authorId="0" shapeId="0" xr:uid="{FF85A56E-F47B-EC4C-AD66-916A326D4D03}">
       <text>
         <r>
           <rPr>
@@ -13306,7 +13289,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I614" authorId="0" shapeId="0" xr:uid="{8BA4DCF6-3191-974C-892A-C734532E77D4}">
+    <comment ref="I614" authorId="0" shapeId="0" xr:uid="{AE21D29C-7115-1748-8468-2AE907D6A5D1}">
       <text>
         <r>
           <rPr>
@@ -13338,7 +13321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I615" authorId="0" shapeId="0" xr:uid="{1754999E-BD97-3141-BE9D-0FECD93F4C83}">
+    <comment ref="I615" authorId="0" shapeId="0" xr:uid="{6F4BC671-D3A2-B645-89FF-E34DD8F8D96C}">
       <text>
         <r>
           <rPr>
@@ -13357,7 +13340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I616" authorId="0" shapeId="0" xr:uid="{72BA88D2-CC29-184B-A0A4-B14B3CDC20D0}">
+    <comment ref="I616" authorId="0" shapeId="0" xr:uid="{F219F230-7981-6344-B5AA-1BCD6CD2C6AE}">
       <text>
         <r>
           <rPr>
@@ -13373,7 +13356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I617" authorId="0" shapeId="0" xr:uid="{9F09F064-8EC4-3843-A0F7-FD94B9A6F36E}">
+    <comment ref="I617" authorId="0" shapeId="0" xr:uid="{AFA8E7C1-8390-7844-87CC-D5633F21A866}">
       <text>
         <r>
           <rPr>
@@ -13392,7 +13375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I618" authorId="0" shapeId="0" xr:uid="{9D58077E-BA9D-6F45-AA1A-552CA2A08E51}">
+    <comment ref="I618" authorId="0" shapeId="0" xr:uid="{AE377C7C-44D1-9346-B0D2-A6526798333A}">
       <text>
         <r>
           <rPr>
@@ -13431,7 +13414,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I619" authorId="0" shapeId="0" xr:uid="{E5B9C619-FE66-9D43-AC43-B867AF74F0F8}">
+    <comment ref="I619" authorId="0" shapeId="0" xr:uid="{FAE2AF65-F764-6F43-836D-1C061F568136}">
       <text>
         <r>
           <rPr>
@@ -13458,7 +13441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I620" authorId="0" shapeId="0" xr:uid="{56317081-7055-4D43-8D3C-797709C9F2D3}">
+    <comment ref="I620" authorId="0" shapeId="0" xr:uid="{87589D08-A32A-D243-BB3C-D01A8D6795EC}">
       <text>
         <r>
           <rPr>
@@ -13487,7 +13470,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I621" authorId="0" shapeId="0" xr:uid="{7C49E07E-87A2-CA4F-AE8B-34C23EA9834B}">
+    <comment ref="I621" authorId="0" shapeId="0" xr:uid="{D3F818A3-038A-B74F-9F8F-EAF740FCA71A}">
       <text>
         <r>
           <rPr>
@@ -13526,7 +13509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I622" authorId="0" shapeId="0" xr:uid="{6B573D4C-2C30-434A-9E9E-8BDA8B8F354E}">
+    <comment ref="I622" authorId="0" shapeId="0" xr:uid="{AEF10B02-DC51-7C4C-89F1-3A7B9F68C164}">
       <text>
         <r>
           <rPr>
@@ -13553,7 +13536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I623" authorId="0" shapeId="0" xr:uid="{90907335-0480-3D4B-A137-29E42FF85AC9}">
+    <comment ref="I623" authorId="0" shapeId="0" xr:uid="{B2632343-CC5E-BD4B-9A9D-5A3AA743D596}">
       <text>
         <r>
           <rPr>
@@ -13580,7 +13563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I624" authorId="0" shapeId="0" xr:uid="{85C7AF22-AE3E-3E40-AFB8-EF0D3B08B881}">
+    <comment ref="I624" authorId="0" shapeId="0" xr:uid="{5761CAC7-5AA6-7D4C-AF03-8AE565D0AD19}">
       <text>
         <r>
           <rPr>
@@ -13621,7 +13604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I625" authorId="0" shapeId="0" xr:uid="{6086236F-2D65-764B-91DF-2D6ED9FCF786}">
+    <comment ref="I625" authorId="0" shapeId="0" xr:uid="{3578EB32-66B6-EC49-A882-6A48B22B07AC}">
       <text>
         <r>
           <rPr>
@@ -13662,7 +13645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I626" authorId="0" shapeId="0" xr:uid="{E97BE0C8-F74C-3847-8BFB-FB9CDC714012}">
+    <comment ref="I626" authorId="0" shapeId="0" xr:uid="{B0C003B5-614C-5F46-AC9C-E390BD2D1FD9}">
       <text>
         <r>
           <rPr>
@@ -13685,7 +13668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I627" authorId="0" shapeId="0" xr:uid="{ACF5DCE8-410A-824D-9BE5-C921E7E7E0C1}">
+    <comment ref="I627" authorId="0" shapeId="0" xr:uid="{BCDBAA7C-242A-5445-BB8E-8F88CD2AE8A7}">
       <text>
         <r>
           <rPr>
@@ -13712,7 +13695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I628" authorId="0" shapeId="0" xr:uid="{EC910CC2-246C-7747-8C47-52E6FADDC244}">
+    <comment ref="I628" authorId="0" shapeId="0" xr:uid="{ABDD8109-8945-E34D-8F81-480669D79208}">
       <text>
         <r>
           <rPr>
@@ -13739,7 +13722,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I629" authorId="0" shapeId="0" xr:uid="{747DAF17-B9E5-2945-AEDB-FC7B92FB94AA}">
+    <comment ref="I629" authorId="0" shapeId="0" xr:uid="{8103199F-0486-0742-A3DE-0818DE7261C5}">
       <text>
         <r>
           <rPr>
@@ -13772,7 +13755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I630" authorId="0" shapeId="0" xr:uid="{22904547-B498-7944-A86E-58408A7B8C18}">
+    <comment ref="I630" authorId="0" shapeId="0" xr:uid="{9C6A2878-4CF3-9C4D-8BAB-24DBF85378CB}">
       <text>
         <r>
           <rPr>
@@ -13791,7 +13774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I631" authorId="0" shapeId="0" xr:uid="{69154FF3-E5CA-1746-B23D-AD1A0680FA04}">
+    <comment ref="I631" authorId="0" shapeId="0" xr:uid="{4CFF7CBD-363B-514E-9B51-B06392A2EDB0}">
       <text>
         <r>
           <rPr>
@@ -13827,7 +13810,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I632" authorId="0" shapeId="0" xr:uid="{35E48C57-EBBC-8344-B3D3-BAEAC4DBC435}">
+    <comment ref="I632" authorId="0" shapeId="0" xr:uid="{5C571C31-18C7-CF4A-879A-E433CCEE84F1}">
       <text>
         <r>
           <rPr>
@@ -13868,7 +13851,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I633" authorId="0" shapeId="0" xr:uid="{2CA26E30-8C06-BA42-AB01-AE0436EAEB34}">
+    <comment ref="I633" authorId="0" shapeId="0" xr:uid="{9D68D4C0-F685-524A-8ABB-AA5B9B9CA7A0}">
       <text>
         <r>
           <rPr>
@@ -13900,7 +13883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I634" authorId="0" shapeId="0" xr:uid="{52C03D11-8928-C74A-BCAE-FB594AF3BAD4}">
+    <comment ref="I634" authorId="0" shapeId="0" xr:uid="{FE57089D-62E9-2141-AC86-0DF6C1FB90FF}">
       <text>
         <r>
           <rPr>
@@ -13941,7 +13924,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I635" authorId="0" shapeId="0" xr:uid="{678329E3-6AED-F946-9F96-09F178184E47}">
+    <comment ref="I635" authorId="0" shapeId="0" xr:uid="{6EBC5F41-C5F0-5E49-8517-6DF898862DFA}">
       <text>
         <r>
           <rPr>
@@ -13982,7 +13965,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I636" authorId="0" shapeId="0" xr:uid="{50BF39B2-9653-E842-929D-1E1E2CD28093}">
+    <comment ref="I636" authorId="0" shapeId="0" xr:uid="{F5F81FEF-C20B-AE44-A3F5-B92BBF4CFC54}">
       <text>
         <r>
           <rPr>
@@ -14023,7 +14006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I637" authorId="0" shapeId="0" xr:uid="{1C8FCFCC-B788-D14D-A08F-D384D9F9C068}">
+    <comment ref="I637" authorId="0" shapeId="0" xr:uid="{8EE3C672-3E6A-734A-9C9E-FA4E85D3E283}">
       <text>
         <r>
           <rPr>
@@ -14055,7 +14038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I638" authorId="0" shapeId="0" xr:uid="{4E799E0E-609A-9842-B57C-5DB3C45CBEB8}">
+    <comment ref="I638" authorId="0" shapeId="0" xr:uid="{3BCAF96F-3A80-3749-830F-DDFF06EB1081}">
       <text>
         <r>
           <rPr>
@@ -14081,7 +14064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I639" authorId="0" shapeId="0" xr:uid="{506B9E3C-E50B-884F-9C11-EF16725B2E4C}">
+    <comment ref="I639" authorId="0" shapeId="0" xr:uid="{64B2505F-2BAC-E34C-8E10-39C340100FEB}">
       <text>
         <r>
           <rPr>
@@ -14114,7 +14097,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I640" authorId="0" shapeId="0" xr:uid="{A04FF480-9CF0-034B-96AA-F66B21404B35}">
+    <comment ref="I640" authorId="0" shapeId="0" xr:uid="{E6C7E832-C3A5-4E44-9E79-D7948BA0054E}">
       <text>
         <r>
           <rPr>
@@ -14155,7 +14138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I641" authorId="0" shapeId="0" xr:uid="{0BC3FDB0-49FA-3B4D-8041-4C03BE4DB6A8}">
+    <comment ref="I641" authorId="0" shapeId="0" xr:uid="{A3EF0ACB-47A0-BB42-B06A-02632F9CA51B}">
       <text>
         <r>
           <rPr>
@@ -14172,7 +14155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I642" authorId="0" shapeId="0" xr:uid="{AD91F55D-F555-BA40-BBBF-19D92ECFB1F4}">
+    <comment ref="I642" authorId="0" shapeId="0" xr:uid="{414D0F64-C5C9-5C46-B372-FED8302BA5BD}">
       <text>
         <r>
           <rPr>
@@ -14202,7 +14185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I643" authorId="0" shapeId="0" xr:uid="{A7405047-3371-2D4C-8838-BD027ACF66EE}">
+    <comment ref="I643" authorId="0" shapeId="0" xr:uid="{291752F1-46F4-C849-BA81-F9FD3C895712}">
       <text>
         <r>
           <rPr>
@@ -14218,7 +14201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I644" authorId="0" shapeId="0" xr:uid="{03EDE0E1-37CE-DB4D-9994-E36716085C5F}">
+    <comment ref="I644" authorId="0" shapeId="0" xr:uid="{06B80986-7530-F34A-BB10-E4F19EF0F1D8}">
       <text>
         <r>
           <rPr>
@@ -14239,7 +14222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I645" authorId="0" shapeId="0" xr:uid="{63B44CEB-7FA4-6142-9F59-45C4AF546D51}">
+    <comment ref="I645" authorId="0" shapeId="0" xr:uid="{37DACABE-660D-A242-AB5F-475827DC44BB}">
       <text>
         <r>
           <rPr>
@@ -14256,7 +14239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I646" authorId="0" shapeId="0" xr:uid="{CA00C564-F7AE-7644-AD58-B678D1ABCE84}">
+    <comment ref="I646" authorId="0" shapeId="0" xr:uid="{D5DA0B2C-A3D3-7142-A23E-9D3C0D0D78BD}">
       <text>
         <r>
           <rPr>
@@ -14284,7 +14267,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I647" authorId="0" shapeId="0" xr:uid="{2EF1570E-DE65-D544-9F5B-BD71DA5D61CE}">
+    <comment ref="I647" authorId="0" shapeId="0" xr:uid="{A9205964-BDA6-1242-A726-DF44054F7C37}">
       <text>
         <r>
           <rPr>
@@ -14312,7 +14295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I648" authorId="0" shapeId="0" xr:uid="{FE8E15F5-AE2F-1845-88F4-3C0D575A1DAD}">
+    <comment ref="I648" authorId="0" shapeId="0" xr:uid="{557F38CD-8B60-CE47-B6A6-8E9AAB2EE98C}">
       <text>
         <r>
           <rPr>
@@ -14329,7 +14312,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I649" authorId="0" shapeId="0" xr:uid="{10103A7D-13E6-3844-9081-FF4EC2F261E9}">
+    <comment ref="I649" authorId="0" shapeId="0" xr:uid="{2923FAA5-EA55-4745-88E2-FC4AA843E661}">
       <text>
         <r>
           <rPr>
@@ -14344,7 +14327,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I650" authorId="0" shapeId="0" xr:uid="{F7BCCF6E-A32C-7343-8702-C97D58F104D1}">
+    <comment ref="I650" authorId="0" shapeId="0" xr:uid="{0636C53E-0473-634F-9326-2DD0FDF24123}">
       <text>
         <r>
           <rPr>
@@ -14364,7 +14347,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I651" authorId="0" shapeId="0" xr:uid="{52423266-4C47-C740-AE2B-0158B2A67041}">
+    <comment ref="I651" authorId="0" shapeId="0" xr:uid="{6C11C970-ECA1-9B49-87A7-ABD728404F9B}">
       <text>
         <r>
           <rPr>
@@ -14386,7 +14369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I652" authorId="0" shapeId="0" xr:uid="{1F870B90-A213-774D-981C-ABEA16299009}">
+    <comment ref="I652" authorId="0" shapeId="0" xr:uid="{B53D6CCC-620B-8146-83E5-7B533C91D5E3}">
       <text>
         <r>
           <rPr>
@@ -14408,7 +14391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I653" authorId="0" shapeId="0" xr:uid="{0C7F8AB2-0141-5543-B64B-EDCF707BE7EF}">
+    <comment ref="I653" authorId="0" shapeId="0" xr:uid="{F319EF51-CE80-7B43-8695-D0156548C4AF}">
       <text>
         <r>
           <rPr>
@@ -14424,7 +14407,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I654" authorId="0" shapeId="0" xr:uid="{07269D1E-15D5-7648-998A-3E97C9522B11}">
+    <comment ref="I654" authorId="0" shapeId="0" xr:uid="{730AC4D7-F890-3544-A3BC-F5418FAEB534}">
       <text>
         <r>
           <rPr>
@@ -14440,7 +14423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I655" authorId="0" shapeId="0" xr:uid="{154D209F-CE60-F04C-A2F4-5E432C28440D}">
+    <comment ref="I655" authorId="0" shapeId="0" xr:uid="{C066E901-A389-0940-8CBC-DBF43E026E4D}">
       <text>
         <r>
           <rPr>
@@ -14458,7 +14441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I656" authorId="0" shapeId="0" xr:uid="{3B91EB45-3B6B-F84B-A812-8B6C81DE0649}">
+    <comment ref="I656" authorId="0" shapeId="0" xr:uid="{546AD13D-3688-734F-A2DB-7B963CF3BC28}">
       <text>
         <r>
           <rPr>
@@ -14474,7 +14457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I657" authorId="0" shapeId="0" xr:uid="{E8394A7A-3598-8D41-8031-F8E574EA6305}">
+    <comment ref="I657" authorId="0" shapeId="0" xr:uid="{143CBAD1-38FA-3E40-A4EC-1F5EBFDC0D19}">
       <text>
         <r>
           <rPr>
@@ -14492,7 +14475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I658" authorId="0" shapeId="0" xr:uid="{E2F05BB0-E675-DD4E-9044-58A9B5FB8AC7}">
+    <comment ref="I658" authorId="0" shapeId="0" xr:uid="{F85B045C-5A41-4D46-B178-5FE599E03BB1}">
       <text>
         <r>
           <rPr>
@@ -14514,7 +14497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I659" authorId="0" shapeId="0" xr:uid="{1F25AE7C-BC9B-3742-9A30-97E2EE3D55B9}">
+    <comment ref="I659" authorId="0" shapeId="0" xr:uid="{95A52B7C-C9B7-5D4E-804B-8418DC13F9D6}">
       <text>
         <r>
           <rPr>
@@ -14538,7 +14521,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I660" authorId="0" shapeId="0" xr:uid="{B4C7BF5F-F077-5A41-AE14-AC46DF5DDE7C}">
+    <comment ref="I660" authorId="0" shapeId="0" xr:uid="{47FEF760-0913-3945-AF94-5822FBF6F229}">
       <text>
         <r>
           <rPr>
@@ -14556,7 +14539,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I661" authorId="0" shapeId="0" xr:uid="{6841E3A5-27D7-5542-8AD7-280DCC21F20F}">
+    <comment ref="I661" authorId="0" shapeId="0" xr:uid="{F452A3A9-CB3D-B14A-B7E7-6C05759CAC67}">
       <text>
         <r>
           <rPr>
@@ -14580,7 +14563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I662" authorId="0" shapeId="0" xr:uid="{85CECB59-C147-F64A-B8F8-C342E35ED39F}">
+    <comment ref="I662" authorId="0" shapeId="0" xr:uid="{4B0DDDB1-4B68-2D42-86A7-5868B9671C62}">
       <text>
         <r>
           <rPr>
@@ -14596,7 +14579,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I663" authorId="0" shapeId="0" xr:uid="{447B813B-7EC6-2E4C-94BE-3F8B8E44F615}">
+    <comment ref="I663" authorId="0" shapeId="0" xr:uid="{B769865C-7F05-B141-87F6-513B0040E4DC}">
       <text>
         <r>
           <rPr>
@@ -14612,7 +14595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I664" authorId="0" shapeId="0" xr:uid="{8E714F1C-CACA-C746-85A8-0770D685739D}">
+    <comment ref="I664" authorId="0" shapeId="0" xr:uid="{C31B9683-5DD2-CC4B-AE88-0927DA2AC13A}">
       <text>
         <r>
           <rPr>
@@ -14628,7 +14611,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I665" authorId="0" shapeId="0" xr:uid="{144393CC-906E-E846-BDB0-2FC2B7715F91}">
+    <comment ref="I665" authorId="0" shapeId="0" xr:uid="{79ECAD18-DA07-A846-B31E-37E34ED36B3D}">
       <text>
         <r>
           <rPr>
@@ -14644,7 +14627,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I666" authorId="0" shapeId="0" xr:uid="{58EA3523-A5B3-D040-ACA0-27FBDC6467BC}">
+    <comment ref="I666" authorId="0" shapeId="0" xr:uid="{36BB8C72-E805-1F47-81EF-7ACC371DD120}">
       <text>
         <r>
           <rPr>
@@ -14673,7 +14656,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I667" authorId="0" shapeId="0" xr:uid="{9300CBD9-0AAF-CB41-A9ED-6A6471B8C139}">
+    <comment ref="I667" authorId="0" shapeId="0" xr:uid="{D2548088-09D9-7542-9E79-975C81C68CF2}">
       <text>
         <r>
           <rPr>
@@ -14690,7 +14673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I668" authorId="0" shapeId="0" xr:uid="{89E6E7B3-9DC2-C740-AC16-3F322EC6FD33}">
+    <comment ref="I668" authorId="0" shapeId="0" xr:uid="{8A4F436A-46F9-CA4C-A96B-0BFBEAD7D8B3}">
       <text>
         <r>
           <rPr>
@@ -14705,7 +14688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I669" authorId="0" shapeId="0" xr:uid="{58D00004-FC64-314D-9C55-118C4786A22F}">
+    <comment ref="I669" authorId="0" shapeId="0" xr:uid="{B305A05D-D139-C445-A638-AC7835DABFFE}">
       <text>
         <r>
           <rPr>
@@ -14720,7 +14703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I670" authorId="0" shapeId="0" xr:uid="{8FE50DAE-62CF-1A43-B44C-ECF50B07EC7F}">
+    <comment ref="I670" authorId="0" shapeId="0" xr:uid="{5EA26611-0699-C44A-973F-D66D0ACBEE9B}">
       <text>
         <r>
           <rPr>
@@ -14736,7 +14719,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I671" authorId="0" shapeId="0" xr:uid="{6EE48C42-C37C-6345-A22C-123633465CB9}">
+    <comment ref="I671" authorId="0" shapeId="0" xr:uid="{350E8A11-B711-DC4C-96F7-0CA8CF26C5F7}">
       <text>
         <r>
           <rPr>
@@ -14765,7 +14748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I672" authorId="0" shapeId="0" xr:uid="{1830B0BA-9251-D64B-B451-F70AE8589DC4}">
+    <comment ref="I672" authorId="0" shapeId="0" xr:uid="{ADED3F31-9C6B-D243-ACF9-8D1B35DDFFC6}">
       <text>
         <r>
           <rPr>
@@ -14794,7 +14777,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I673" authorId="0" shapeId="0" xr:uid="{CE405238-3D10-2140-90ED-6CDB873A3196}">
+    <comment ref="I673" authorId="0" shapeId="0" xr:uid="{C8AD17EC-55B7-CD45-B2B5-38189204C99D}">
       <text>
         <r>
           <rPr>
@@ -14818,7 +14801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I674" authorId="0" shapeId="0" xr:uid="{BFE76C62-1C5E-6342-877E-DB8CE3E065E8}">
+    <comment ref="I674" authorId="0" shapeId="0" xr:uid="{E4F28085-D343-664A-BEE6-1F896F22A731}">
       <text>
         <r>
           <rPr>
@@ -14835,7 +14818,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I675" authorId="0" shapeId="0" xr:uid="{C0F9D514-A86B-854E-A276-CD3FEAB5FE9E}">
+    <comment ref="I675" authorId="0" shapeId="0" xr:uid="{0C9E431E-C59D-6D4D-81AE-CF284AF22BC7}">
       <text>
         <r>
           <rPr>
@@ -14864,7 +14847,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I676" authorId="0" shapeId="0" xr:uid="{F77EA7CA-0E5A-A343-89C7-59DEF9C50A87}">
+    <comment ref="I676" authorId="0" shapeId="0" xr:uid="{9843FF34-62FC-6D4F-B2F9-447F0EC7E3FE}">
       <text>
         <r>
           <rPr>
@@ -14900,7 +14883,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I677" authorId="0" shapeId="0" xr:uid="{0081A247-AAA5-3C4F-85FE-A095997CED69}">
+    <comment ref="I677" authorId="0" shapeId="0" xr:uid="{838E934C-0D53-3A40-A065-72B219F63EBF}">
       <text>
         <r>
           <rPr>
@@ -14935,7 +14918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I678" authorId="0" shapeId="0" xr:uid="{BAF450A8-3FD0-F648-8E8D-6AB3087D89F2}">
+    <comment ref="I678" authorId="0" shapeId="0" xr:uid="{03737D75-6F80-F349-8234-760C2FEF4EEF}">
       <text>
         <r>
           <rPr>
@@ -14950,7 +14933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I679" authorId="0" shapeId="0" xr:uid="{818A2BE4-F24A-F245-9DA2-CFA6F33EE0BE}">
+    <comment ref="I679" authorId="0" shapeId="0" xr:uid="{FED34CD3-947D-F64E-AD4C-169717C33A99}">
       <text>
         <r>
           <rPr>
@@ -14968,7 +14951,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I680" authorId="0" shapeId="0" xr:uid="{D7235DDE-A664-6B4F-8921-BEF5C20F28DF}">
+    <comment ref="I680" authorId="0" shapeId="0" xr:uid="{AA82FD6B-D770-A341-A361-0E5B50F5A95F}">
       <text>
         <r>
           <rPr>
@@ -14983,7 +14966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I681" authorId="0" shapeId="0" xr:uid="{FA434DD8-59E5-4245-AED4-0D272C0CC9D4}">
+    <comment ref="I681" authorId="0" shapeId="0" xr:uid="{6482A0E2-6A7D-6C46-9FA7-8F7FB3F05086}">
       <text>
         <r>
           <rPr>
@@ -15001,7 +14984,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I682" authorId="0" shapeId="0" xr:uid="{6FC8BBE2-9524-A843-A34F-360916AF7882}">
+    <comment ref="I682" authorId="0" shapeId="0" xr:uid="{0A129D41-48B8-CB4F-B660-B55F20B2CFCF}">
       <text>
         <r>
           <rPr>
@@ -15018,7 +15001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I683" authorId="0" shapeId="0" xr:uid="{E8117E05-A8B6-5D44-81B5-5CC578D0C049}">
+    <comment ref="I683" authorId="0" shapeId="0" xr:uid="{016B294D-6178-C045-8902-D53EEAD0BF4D}">
       <text>
         <r>
           <rPr>
@@ -15034,7 +15017,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I684" authorId="0" shapeId="0" xr:uid="{30AA60C5-D59B-2C45-8062-A191C0E6F28B}">
+    <comment ref="I684" authorId="0" shapeId="0" xr:uid="{C7792E1B-AFD4-F347-96DC-0088CF8A4ABA}">
       <text>
         <r>
           <rPr>
@@ -15050,7 +15033,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I685" authorId="0" shapeId="0" xr:uid="{5A498220-ACC2-2841-ADAC-3144010B590E}">
+    <comment ref="I685" authorId="0" shapeId="0" xr:uid="{BABD8F82-1ED1-A640-AEB3-4A3E052FEB2B}">
       <text>
         <r>
           <rPr>
@@ -15066,7 +15049,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I686" authorId="0" shapeId="0" xr:uid="{58773663-9EC0-9345-9A8A-C422783E920D}">
+    <comment ref="I686" authorId="0" shapeId="0" xr:uid="{283E89C1-547D-ED48-B055-3E981C8DDC46}">
       <text>
         <r>
           <rPr>
@@ -15086,7 +15069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I687" authorId="0" shapeId="0" xr:uid="{8B6A61D4-7470-F54A-AAC5-CA202AE7A05F}">
+    <comment ref="I687" authorId="0" shapeId="0" xr:uid="{C00D5A53-5FB3-DE4A-B3FF-9DA8AE43EB9A}">
       <text>
         <r>
           <rPr>
@@ -15104,7 +15087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I688" authorId="0" shapeId="0" xr:uid="{1919F24C-9DC8-2E4A-8EBE-3115F25EC48B}">
+    <comment ref="I688" authorId="0" shapeId="0" xr:uid="{B106B073-808B-764D-A408-5DEF5449B74E}">
       <text>
         <r>
           <rPr>
@@ -15121,7 +15104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I689" authorId="0" shapeId="0" xr:uid="{3511B3B1-DC2E-D842-8E82-6928B83F9411}">
+    <comment ref="I689" authorId="0" shapeId="0" xr:uid="{F850178C-A3D4-054C-9ACB-88B922A97844}">
       <text>
         <r>
           <rPr>
@@ -15135,7 +15118,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I690" authorId="0" shapeId="0" xr:uid="{0A69CEA9-5242-4142-9C5D-74D9F0411B7E}">
+    <comment ref="I690" authorId="0" shapeId="0" xr:uid="{733FA868-41F0-D94A-BE8A-5444BDEBB9BA}">
       <text>
         <r>
           <rPr>
@@ -15153,7 +15136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I691" authorId="0" shapeId="0" xr:uid="{D17CB467-5458-A145-A186-E287E1D4EBF5}">
+    <comment ref="I691" authorId="0" shapeId="0" xr:uid="{ED02B433-9699-E14C-9FBA-3D2960AB88DB}">
       <text>
         <r>
           <rPr>
@@ -15171,7 +15154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I692" authorId="0" shapeId="0" xr:uid="{4A8BC6AC-90FC-8841-B487-741E265E3E3F}">
+    <comment ref="I692" authorId="0" shapeId="0" xr:uid="{E9E7414B-C996-3044-A1CF-3EA29AE2FF7C}">
       <text>
         <r>
           <rPr>
@@ -15189,7 +15172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I693" authorId="0" shapeId="0" xr:uid="{26A6CF2D-F89D-514F-A71A-6E7B5D08EB48}">
+    <comment ref="I693" authorId="0" shapeId="0" xr:uid="{28356116-F2D9-2745-99BF-7C13E8C17199}">
       <text>
         <r>
           <rPr>
@@ -15209,7 +15192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I694" authorId="0" shapeId="0" xr:uid="{231BE39E-B42C-7746-B812-0D6F01E990B8}">
+    <comment ref="I694" authorId="0" shapeId="0" xr:uid="{1FD8387B-0880-984B-A5F7-C64F4339C65D}">
       <text>
         <r>
           <rPr>
@@ -15226,7 +15209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I695" authorId="0" shapeId="0" xr:uid="{8955433E-B162-3D4D-B307-2441AF9B94C8}">
+    <comment ref="I695" authorId="0" shapeId="0" xr:uid="{93CD373A-C16F-044B-A0F8-B420A146FB2E}">
       <text>
         <r>
           <rPr>
@@ -15243,7 +15226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I696" authorId="0" shapeId="0" xr:uid="{019EA1F0-14A9-6B41-8868-F0D26C01EDFA}">
+    <comment ref="I696" authorId="0" shapeId="0" xr:uid="{6F35ADEA-DA1B-B94D-82E7-37F76253DC5F}">
       <text>
         <r>
           <rPr>
@@ -15260,7 +15243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I697" authorId="0" shapeId="0" xr:uid="{9E063984-2156-E54B-B32C-798EB22CFDFC}">
+    <comment ref="I697" authorId="0" shapeId="0" xr:uid="{E014ABA8-0B4B-4F46-A2B2-188D999CA573}">
       <text>
         <r>
           <rPr>
@@ -15280,7 +15263,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I698" authorId="0" shapeId="0" xr:uid="{735165D9-D541-CC49-85BE-CB7EC61DD9E0}">
+    <comment ref="I698" authorId="0" shapeId="0" xr:uid="{D7F18EF2-A56D-C945-9DA3-159E410189CC}">
       <text>
         <r>
           <rPr>
@@ -15298,7 +15281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I699" authorId="0" shapeId="0" xr:uid="{EE85E7E6-9E4F-9444-9469-322CB54104CA}">
+    <comment ref="I699" authorId="0" shapeId="0" xr:uid="{8A5A9FD5-D5BF-EC44-83D6-D403569B619F}">
       <text>
         <r>
           <rPr>
@@ -15314,7 +15297,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I700" authorId="0" shapeId="0" xr:uid="{25DDC63B-85CE-C543-8CAE-030C57833E36}">
+    <comment ref="I700" authorId="0" shapeId="0" xr:uid="{234328FD-8C06-8846-AD7F-1E2EE1FC3E1D}">
       <text>
         <r>
           <rPr>
@@ -15332,7 +15315,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I701" authorId="0" shapeId="0" xr:uid="{8E315757-F379-EB4B-9F6B-FA2A3C62A9DC}">
+    <comment ref="I701" authorId="0" shapeId="0" xr:uid="{761D69AC-B138-5A48-A6E8-8AA150A62DB5}">
       <text>
         <r>
           <rPr>
@@ -15351,7 +15334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I702" authorId="0" shapeId="0" xr:uid="{F87C0B7C-A5BB-B14A-8785-0E9DA5354761}">
+    <comment ref="I702" authorId="0" shapeId="0" xr:uid="{5E82571D-B482-E34B-AB57-0E18EE71A5FA}">
       <text>
         <r>
           <rPr>
@@ -15366,204 +15349,25 @@
         </r>
       </text>
     </comment>
-    <comment ref="I703" authorId="0" shapeId="0" xr:uid="{D541079A-3E36-D641-82E6-4A3522E1942C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>니진스키</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>박준휘</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>디아길레프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>조성윤</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>스트라빈스키</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>박선영</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>로몰라</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이다경</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>한스</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> / </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>분신</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이지명</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I704" authorId="0" shapeId="0" xr:uid="{B539F5EF-D754-F14E-B072-396B5B9D1D96}">
+    <comment ref="I703" authorId="0" shapeId="0" xr:uid="{69772BCF-F06C-E64F-AAC3-D2DEB97E514B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>니진스키: 박준휘
+디아길레프: 조성윤
+스트라빈스키: 박선영
+로몰라: 이다경
+한스 / 분신: 이지명</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I704" authorId="0" shapeId="0" xr:uid="{CCEE4081-05F4-6248-9DAC-799E43D52317}">
       <text>
         <r>
           <rPr>
@@ -15590,148 +15394,23 @@
         </r>
       </text>
     </comment>
-    <comment ref="I705" authorId="0" shapeId="0" xr:uid="{40B390C6-AEE5-8344-A4BF-9D3AF0D38977}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>지나</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이서영</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>빅토르</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>투르게네프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>조성윤</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이반</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>투르게네프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이한솔</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I706" authorId="0" shapeId="0" xr:uid="{CA511613-595A-5C4F-BAF9-39B1B2018752}">
+    <comment ref="I705" authorId="0" shapeId="0" xr:uid="{B39A3D24-6592-9C4C-B4DD-5CC739906426}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>지나: 이서영
+빅토르 투르게네프: 조성윤
+이반 투르게네프: 이한솔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I706" authorId="0" shapeId="0" xr:uid="{B60BF554-7D0C-F94C-AC9F-CE2308D786EB}">
       <text>
         <r>
           <rPr>
@@ -15747,7 +15426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I707" authorId="0" shapeId="0" xr:uid="{976C795C-64A7-8C44-A4A7-288D0398F167}">
+    <comment ref="I707" authorId="0" shapeId="0" xr:uid="{2A77274E-424A-8E4D-8547-E71B4E865AA0}">
       <text>
         <r>
           <rPr>
@@ -15765,7 +15444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I708" authorId="0" shapeId="0" xr:uid="{4573FC92-3791-5647-A07E-8A50BC80C1CC}">
+    <comment ref="I708" authorId="0" shapeId="0" xr:uid="{0C4EFDBA-5E1E-0A4C-BE17-259FB1790C5B}">
       <text>
         <r>
           <rPr>
@@ -15781,7 +15460,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I709" authorId="0" shapeId="0" xr:uid="{E4CFDD7B-68F9-5244-9392-899302E5E3C3}">
+    <comment ref="I709" authorId="0" shapeId="0" xr:uid="{C839511F-8F4B-F94B-9C59-FF2086D08778}">
       <text>
         <r>
           <rPr>
@@ -15798,7 +15477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I710" authorId="0" shapeId="0" xr:uid="{DC6CF105-4EA7-E74A-8A10-FC8038EDBB16}">
+    <comment ref="I710" authorId="0" shapeId="0" xr:uid="{518A1D8D-B9D9-AB46-B15C-FD608E480AFF}">
       <text>
         <r>
           <rPr>
@@ -15814,7 +15493,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I711" authorId="0" shapeId="0" xr:uid="{7E5E5234-B987-D04C-9DF1-7281D214D4CE}">
+    <comment ref="I711" authorId="0" shapeId="0" xr:uid="{87BB9488-5F11-ED4B-B2FF-B8FAD19E1157}">
       <text>
         <r>
           <rPr>
@@ -15832,7 +15511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I712" authorId="0" shapeId="0" xr:uid="{82721C35-088E-6749-94CF-02C118802EFF}">
+    <comment ref="I712" authorId="0" shapeId="0" xr:uid="{C1F2A305-A2F8-B24C-847B-765A4DEE393B}">
       <text>
         <r>
           <rPr>
@@ -15847,7 +15526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I713" authorId="0" shapeId="0" xr:uid="{C7694FDF-35BE-DE4E-9084-ACFE671F2777}">
+    <comment ref="I713" authorId="0" shapeId="0" xr:uid="{30CFEA8F-7CE3-FB4E-B682-4A1276A42E22}">
       <text>
         <r>
           <rPr>
@@ -15859,6 +15538,22 @@
           </rPr>
           <t>박사: 박민성
 괴물: 문태유</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I714" authorId="0" shapeId="0" xr:uid="{C81D8316-13D0-3646-B28C-B11CF2DE6876}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>더그 사이먼: 장지후
+버드 대븐포트: 선한국
+피아니스트 (한스): 김병준</t>
         </r>
       </text>
     </comment>
@@ -15867,7 +15562,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9273" uniqueCount="4008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9286" uniqueCount="4013">
   <si>
     <t>시즌</t>
   </si>
@@ -27891,6 +27586,21 @@
   </si>
   <si>
     <t>라센 25</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 장지후 선한국 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18oYn3ceZD5-XezGT889bHIjmEQtuJziH/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.j72oq0yupa6f</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/260640</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/223939006137</t>
   </si>
 </sst>
 </file>
@@ -29258,7 +28968,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:Q713" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:Q714" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:P706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -29583,11 +29293,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:T713"/>
+  <dimension ref="A1:T714"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A683" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I713" sqref="I713"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A701" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I714" sqref="I714"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -68813,6 +68523,59 @@
         <v>3957</v>
       </c>
     </row>
+    <row r="714" spans="1:20" ht="17" customHeight="1">
+      <c r="A714" s="69">
+        <v>713</v>
+      </c>
+      <c r="B714" s="70">
+        <v>45856</v>
+      </c>
+      <c r="C714" s="71">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D714" s="69" t="s">
+        <v>88</v>
+      </c>
+      <c r="E714" s="69" t="s">
+        <v>116</v>
+      </c>
+      <c r="F714" s="69" t="s">
+        <v>7</v>
+      </c>
+      <c r="G714" s="72" t="s">
+        <v>1034</v>
+      </c>
+      <c r="H714" s="69" t="s">
+        <v>820</v>
+      </c>
+      <c r="I714" s="73" t="s">
+        <v>4008</v>
+      </c>
+      <c r="J714" s="42">
+        <v>22000</v>
+      </c>
+      <c r="K714" s="74" t="s">
+        <v>457</v>
+      </c>
+      <c r="L714" s="75" t="s">
+        <v>4009</v>
+      </c>
+      <c r="M714" s="75" t="s">
+        <v>4012</v>
+      </c>
+      <c r="N714" s="75" t="s">
+        <v>4010</v>
+      </c>
+      <c r="O714" s="75" t="s">
+        <v>4011</v>
+      </c>
+      <c r="P714" s="76" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q714" s="41" t="s">
+        <v>3955</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD49CAF5-DC13-BF4E-957D-B80DBB54666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4AC7F89-4295-A948-9186-3B598F813B2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -44,7 +44,7 @@
     <author>System</author>
   </authors>
   <commentList>
-    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{35906430-B467-7842-89CC-A5BE06629D9E}">
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{7DE7B0F8-08DF-F246-AE38-EDBEFF628596}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{0DBB3BB3-A565-DA48-97FE-F46CCA7FAACE}">
+    <comment ref="I3" authorId="0" shapeId="0" xr:uid="{14FBE766-DD6D-1C40-9D33-6F95442A11A4}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{7805EA3B-89A0-A74B-805B-BA1D8DC4A8E1}">
+    <comment ref="I4" authorId="0" shapeId="0" xr:uid="{45A22D2F-0E60-024C-AC98-C117229FEEC5}">
       <text>
         <r>
           <rPr>
@@ -136,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{EE88DCE0-D36A-6145-9600-D739AC208B7B}">
+    <comment ref="I5" authorId="0" shapeId="0" xr:uid="{5773020D-5FD8-4841-A2DC-88D186F08EAC}">
       <text>
         <r>
           <rPr>
@@ -170,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{708613BF-4680-8A47-A3F3-BDC6EBFFF8E0}">
+    <comment ref="I6" authorId="0" shapeId="0" xr:uid="{F84077BB-AD3D-E84A-A5CE-C98D6391400B}">
       <text>
         <r>
           <rPr>
@@ -204,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{7EA7D0BE-DA7A-B14A-A570-7E941D208321}">
+    <comment ref="I7" authorId="0" shapeId="0" xr:uid="{797E861A-3653-8847-B310-6BBE3E175B5F}">
       <text>
         <r>
           <rPr>
@@ -234,7 +234,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{FCB0E5DC-33AB-6A41-BDD3-314F169A52E3}">
+    <comment ref="I8" authorId="0" shapeId="0" xr:uid="{82E8C8F7-E135-D346-B026-6D5A78C876CB}">
       <text>
         <r>
           <rPr>
@@ -264,7 +264,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{BD7D2393-9997-6149-85AD-984A4042347A}">
+    <comment ref="I9" authorId="0" shapeId="0" xr:uid="{651792E3-D7B8-C049-8C8D-FE19B6275CBA}">
       <text>
         <r>
           <rPr>
@@ -295,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{BD6AC822-A7B6-5E40-8A73-507215024DA1}">
+    <comment ref="I10" authorId="0" shapeId="0" xr:uid="{00693964-3D31-0749-8DA1-B2EE2A9A846A}">
       <text>
         <r>
           <rPr>
@@ -326,7 +326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{57B10798-C372-524F-A07F-549692B2594C}">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{DA01D082-1CD4-1F42-9B36-BD078D6F4B89}">
       <text>
         <r>
           <rPr>
@@ -357,7 +357,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{E8A3DE78-0899-DE40-A665-64D51C02889F}">
+    <comment ref="I12" authorId="0" shapeId="0" xr:uid="{2FF6E808-0DA8-674C-817B-1558C6F7DD49}">
       <text>
         <r>
           <rPr>
@@ -388,7 +388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{0E939764-CAAC-7946-8B96-061F4FB0D296}">
+    <comment ref="I13" authorId="0" shapeId="0" xr:uid="{223978EF-3466-684D-B9C9-4D7360E4168F}">
       <text>
         <r>
           <rPr>
@@ -418,7 +418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{F85B3D34-A182-F74E-B1DC-E5F536CE6E5B}">
+    <comment ref="I14" authorId="0" shapeId="0" xr:uid="{97B2E309-992D-4A4B-9EF6-35FA7118068D}">
       <text>
         <r>
           <rPr>
@@ -449,7 +449,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{71E843CD-E9A0-734B-9DAB-A9F9831634D1}">
+    <comment ref="I15" authorId="0" shapeId="0" xr:uid="{ABC9B0FC-F5FD-7C4E-9F88-3E6E395E87D6}">
       <text>
         <r>
           <rPr>
@@ -480,7 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{78E1C07F-B4D0-564F-B3EA-3B119B40C8DC}">
+    <comment ref="I16" authorId="0" shapeId="0" xr:uid="{5EED3EFB-70B5-A749-B32B-0676415F5EFC}">
       <text>
         <r>
           <rPr>
@@ -511,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{9BAD6B6B-6B43-9F4E-842D-3A4A97DEA6E7}">
+    <comment ref="I17" authorId="0" shapeId="0" xr:uid="{CF364801-CA0A-084C-A5FD-C442639336FB}">
       <text>
         <r>
           <rPr>
@@ -542,7 +542,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{289AAD1B-3BF3-6745-8F09-ACBA7876A47C}">
+    <comment ref="I18" authorId="0" shapeId="0" xr:uid="{059D02D5-A36D-E740-875E-9FC73A53BACD}">
       <text>
         <r>
           <rPr>
@@ -573,379 +573,849 @@
         </r>
       </text>
     </comment>
-    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{5494455E-B19F-0A40-ADF0-BA614F8FB169}">
+    <comment ref="I19" authorId="0" shapeId="0" xr:uid="{412515B4-0301-FA48-9F6C-BFC633682CD9}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>아더: ㅅㅂ
-귀네비어: 임정희
-랜슬롯: 임병근
-모르간: 리사
-멜레아강: 김찬호
-멀린: 지혜근
-케이: 김지욱
-레이아: 정다영
-늑대: 이기흥
-사슴: 이영호
-가웨인: 이종찬
-앙상블: 
-주홍균 최민준 이재범 권기중 
-노해영 오홍학 임동섭 이승현 
-김정민 이보슬 남궁민희 황보주성 
-고샛별 우미나 홍윤영 김재희 임상희
-스윙: 
-전성혜 하웅환 이윤환</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>아더</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>ㅅㅂ</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>귀네비어</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임정희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>랜슬롯</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임병근</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>모르간</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>리사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>멜레아강</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김찬호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>멀린</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>지혜근</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>케이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김지욱</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>레이아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정다영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>늑대</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이기흥</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>사슴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이영호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>가웨인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이종찬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>앙상블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>주홍균</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최민준</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이재범</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>권기중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>노해영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>오홍학</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임동섭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이승현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김정민</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이보슬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>남궁민희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>황보주성</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>고샛별</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>우미나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>홍윤영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김재희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임상희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스윙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>전성혜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>하웅환</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이윤환</t>
         </r>
       </text>
     </comment>
-    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{E29A5C5A-5E1E-2C45-B27A-305C98B04323}">
+    <comment ref="I20" authorId="0" shapeId="0" xr:uid="{3CED1585-E2AD-D640-95E3-7E643739287D}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>바슬라프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>포미치</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>니진스키</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>김찬호</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>세르게이</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>파블로비치</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>디아길레프</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>김종구</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>이고르</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>표도로비치</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>스트라빈스키</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>신재범</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>로몰라</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>드</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>풀츠키</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>임소라</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>한스</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> / </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>분신</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">: </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color rgb="FF000000"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-          </rPr>
-          <t>박수현</t>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>바슬라프 포미치 니진스키: 김찬호
+세르게이 파블로비치 디아길레프: 김종구
+이고르 표도로비치 스트라빈스키: 신재범
+로몰라 드 풀츠키: 임소라
+한스 / 분신: 박수현</t>
         </r>
       </text>
     </comment>
-    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{840898F1-2492-C144-8F0A-750E360365F6}">
+    <comment ref="I21" authorId="0" shapeId="0" xr:uid="{AB99A5FD-CB3B-A248-84E4-D8BB061CF7E1}">
       <text>
         <r>
           <rPr>
@@ -963,7 +1433,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{AA4C6B8E-5931-2B45-9D90-3619697E9F72}">
+    <comment ref="I22" authorId="0" shapeId="0" xr:uid="{6123E175-2BE0-564F-A973-BDEA8C296610}">
       <text>
         <r>
           <rPr>
@@ -980,7 +1450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{C463AADD-3F81-B94F-BBBC-91E3882C9B27}">
+    <comment ref="I23" authorId="0" shapeId="0" xr:uid="{AB5DB27F-A42F-AF43-94D4-547F27CC3474}">
       <text>
         <r>
           <rPr>
@@ -997,7 +1467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{0996C636-F9D2-8741-962F-39FE341E418A}">
+    <comment ref="I24" authorId="0" shapeId="0" xr:uid="{DE4E736E-8870-0E46-9998-040ACECF60C9}">
       <text>
         <r>
           <rPr>
@@ -1013,7 +1483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{762DE65B-CA91-BF41-BF01-3A5F5B4B6529}">
+    <comment ref="I25" authorId="0" shapeId="0" xr:uid="{2E941BAA-B33B-1C42-8644-196873E6B567}">
       <text>
         <r>
           <rPr>
@@ -1037,7 +1507,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{FC80FC99-AB7E-244A-856A-B9E011653318}">
+    <comment ref="I26" authorId="0" shapeId="0" xr:uid="{77858DAF-B05E-7D4B-A5D0-04EA27B919B6}">
       <text>
         <r>
           <rPr>
@@ -1055,7 +1525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{CE0EB095-0400-9F40-9978-3F3F823AA1BD}">
+    <comment ref="I27" authorId="0" shapeId="0" xr:uid="{9061B0C6-4FCC-8140-90F1-7637A9403A77}">
       <text>
         <r>
           <rPr>
@@ -1071,7 +1541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{025C07DE-07AF-AA44-94C1-8A9ADA94718A}">
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{3883731B-088C-E342-9666-26AE38CCDE60}">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1570,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{163D6BF9-D542-D245-82FF-323F9B114A08}">
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{169E9BC6-5175-5346-9308-B23567A6614E}">
       <text>
         <r>
           <rPr>
@@ -1116,7 +1586,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{20BD8928-0006-D949-97B5-FC6331FC7C5B}">
+    <comment ref="I30" authorId="0" shapeId="0" xr:uid="{D652D9AC-B4DF-4647-A1B4-33617BAB4B86}">
       <text>
         <r>
           <rPr>
@@ -1145,7 +1615,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{76895683-B250-E246-B3C6-FE9843540332}">
+    <comment ref="I31" authorId="0" shapeId="0" xr:uid="{4CA7AE3B-5B13-F540-B54C-7AE386F5FD74}">
       <text>
         <r>
           <rPr>
@@ -1174,7 +1644,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{26B40E2C-AD23-154D-A4BC-6E6EB9B9F8D5}">
+    <comment ref="I32" authorId="0" shapeId="0" xr:uid="{3E0CB63F-E660-B44D-BFAE-8521D0E4D462}">
       <text>
         <r>
           <rPr>
@@ -1198,7 +1668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{FB2B514C-8956-7046-A013-72E3FCB69C3A}">
+    <comment ref="I33" authorId="0" shapeId="0" xr:uid="{18E7F289-0D1D-FA41-B791-81B3DB119AE5}">
       <text>
         <r>
           <rPr>
@@ -1214,7 +1684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{4B5F3C22-2274-0347-82C1-0BF14904B582}">
+    <comment ref="I34" authorId="0" shapeId="0" xr:uid="{E567A9EE-2A8C-4145-9987-DABF5305284A}">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I35" authorId="0" shapeId="0" xr:uid="{DE520EC1-EC66-4F45-8D8F-29A8B196F00E}">
+    <comment ref="I35" authorId="0" shapeId="0" xr:uid="{F0192D2B-5D12-864D-8D6E-A7D7F4B0578D}">
       <text>
         <r>
           <rPr>
@@ -1260,7 +1730,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I36" authorId="0" shapeId="0" xr:uid="{410881D7-406F-964B-98E5-EDC4E45EB4AC}">
+    <comment ref="I36" authorId="0" shapeId="0" xr:uid="{0B2D32E3-AC7B-C449-BD89-3748CC5ED8E3}">
       <text>
         <r>
           <rPr>
@@ -1289,7 +1759,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I37" authorId="0" shapeId="0" xr:uid="{1B8FAE02-6729-3746-A26B-0288585FE4D5}">
+    <comment ref="I37" authorId="0" shapeId="0" xr:uid="{4CDEA0AD-328B-9941-88D2-22DBF92FDF84}">
       <text>
         <r>
           <rPr>
@@ -1305,7 +1775,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I38" authorId="0" shapeId="0" xr:uid="{43365BF3-9C05-2043-8736-10FBBAEA543A}">
+    <comment ref="I38" authorId="0" shapeId="0" xr:uid="{4E357237-0CBB-BC43-8ED4-E5740569D5B5}">
       <text>
         <r>
           <rPr>
@@ -1331,7 +1801,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{E14AD028-B607-1C40-89E2-31795B84CE8D}">
+    <comment ref="I39" authorId="0" shapeId="0" xr:uid="{F1AFD487-5F3A-8C4C-ACE2-CD88DD0145EF}">
       <text>
         <r>
           <rPr>
@@ -1347,7 +1817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I40" authorId="0" shapeId="0" xr:uid="{3C4B1F89-4B92-8D42-B01F-5C3FD4D9A6A2}">
+    <comment ref="I40" authorId="0" shapeId="0" xr:uid="{2AD5E5EA-7CB5-BD40-B45E-B257A63ED254}">
       <text>
         <r>
           <rPr>
@@ -1363,7 +1833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I41" authorId="0" shapeId="0" xr:uid="{BBA7FB6D-814A-A142-9C88-BBFCAFC40A5B}">
+    <comment ref="I41" authorId="0" shapeId="0" xr:uid="{C06D215B-293D-874D-80CA-F6D2223244E8}">
       <text>
         <r>
           <rPr>
@@ -1380,7 +1850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I42" authorId="0" shapeId="0" xr:uid="{C653D4ED-D53C-5541-906C-1B7E058069D9}">
+    <comment ref="I42" authorId="0" shapeId="0" xr:uid="{643DEDAB-DAB2-BF48-9189-A2952A68E836}">
       <text>
         <r>
           <rPr>
@@ -1396,7 +1866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I43" authorId="0" shapeId="0" xr:uid="{1D58C79D-78D6-FE4D-AE7E-63AB41AA4CC9}">
+    <comment ref="I43" authorId="0" shapeId="0" xr:uid="{FF7902AF-98B4-F74C-A8A9-5F872671FD7B}">
       <text>
         <r>
           <rPr>
@@ -1412,7 +1882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{13E92219-B5A0-254C-A270-00B02FBB4775}">
+    <comment ref="I44" authorId="0" shapeId="0" xr:uid="{68FB9103-6E4F-6549-8AD3-CBCE666591DF}">
       <text>
         <r>
           <rPr>
@@ -1428,7 +1898,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I45" authorId="0" shapeId="0" xr:uid="{1490E123-2C15-E043-9C27-F0CDE71C49AD}">
+    <comment ref="I45" authorId="0" shapeId="0" xr:uid="{1AF6B7B9-923D-8741-81AC-31A50BD646F6}">
       <text>
         <r>
           <rPr>
@@ -1455,7 +1925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{191E71C7-23CD-5A4F-B217-27559D064D5B}">
+    <comment ref="I46" authorId="0" shapeId="0" xr:uid="{084F8F3C-082E-2649-99EE-CC8CB8517637}">
       <text>
         <r>
           <rPr>
@@ -1484,7 +1954,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I47" authorId="0" shapeId="0" xr:uid="{2FEAF834-3B47-F243-886E-B4DA922D9AE0}">
+    <comment ref="I47" authorId="0" shapeId="0" xr:uid="{4B13DF8D-E863-C344-BC9F-FC229C39E60C}">
       <text>
         <r>
           <rPr>
@@ -1500,7 +1970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{7CE54F55-4098-0B4D-B9AC-E2BAC1A69B51}">
+    <comment ref="I48" authorId="0" shapeId="0" xr:uid="{0BF9F5C8-1773-1D4C-8FE1-F8A457D6ECE3}">
       <text>
         <r>
           <rPr>
@@ -1516,7 +1986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I49" authorId="0" shapeId="0" xr:uid="{5951C9FD-66E0-5144-839A-DAE02955D23F}">
+    <comment ref="I49" authorId="0" shapeId="0" xr:uid="{A605FEC1-AE36-8F42-BF0B-EE2D186E5049}">
       <text>
         <r>
           <rPr>
@@ -1531,7 +2001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I50" authorId="0" shapeId="0" xr:uid="{46814CC4-A976-4E44-BCCE-36ADA9E4CEA8}">
+    <comment ref="I50" authorId="0" shapeId="0" xr:uid="{55F900CE-276B-D049-AE49-9FB9D720C50A}">
       <text>
         <r>
           <rPr>
@@ -1558,7 +2028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I51" authorId="0" shapeId="0" xr:uid="{C3CF03CF-26BD-284A-AAFA-1B09937F183F}">
+    <comment ref="I51" authorId="0" shapeId="0" xr:uid="{C8096767-E560-8B47-8824-74C7D4D9AFE6}">
       <text>
         <r>
           <rPr>
@@ -1574,7 +2044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I52" authorId="0" shapeId="0" xr:uid="{4F8D4BB8-BE05-A646-9449-8BA17207ABD9}">
+    <comment ref="I52" authorId="0" shapeId="0" xr:uid="{38C9CAC9-7D1E-614A-B7A4-F15F678474F0}">
       <text>
         <r>
           <rPr>
@@ -1590,7 +2060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I53" authorId="0" shapeId="0" xr:uid="{F6A72303-47CC-6441-BA66-A274C4085D05}">
+    <comment ref="I53" authorId="0" shapeId="0" xr:uid="{7C3768A9-BFA9-5B4A-B67A-77616F70F32F}">
       <text>
         <r>
           <rPr>
@@ -1614,7 +2084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I54" authorId="0" shapeId="0" xr:uid="{9C3B2211-85FA-FB49-8F75-51400CBB4E07}">
+    <comment ref="I54" authorId="0" shapeId="0" xr:uid="{BC5AC2CB-AE19-2945-84CA-30E0FB8F9B03}">
       <text>
         <r>
           <rPr>
@@ -1630,7 +2100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I55" authorId="0" shapeId="0" xr:uid="{9F973B9B-E89A-B04B-82B8-553B23813CAC}">
+    <comment ref="I55" authorId="0" shapeId="0" xr:uid="{611E3FE0-6C2E-1C4C-95FB-CAA43A2CD1E0}">
       <text>
         <r>
           <rPr>
@@ -1646,7 +2116,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I56" authorId="0" shapeId="0" xr:uid="{DA5ED2FD-291D-A74E-A470-9CC2E8DFB425}">
+    <comment ref="I56" authorId="0" shapeId="0" xr:uid="{968C82DA-708C-7940-BEA8-394CF49F73C5}">
       <text>
         <r>
           <rPr>
@@ -1671,7 +2141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{D613657D-68BD-654C-B368-7FC8EAFB628E}">
+    <comment ref="I57" authorId="0" shapeId="0" xr:uid="{30618532-13B7-CA42-86F1-DF1D7F3DC8CB}">
       <text>
         <r>
           <rPr>
@@ -1696,7 +2166,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I58" authorId="0" shapeId="0" xr:uid="{94CAAB75-C681-2C42-ADC1-77C0773BF98B}">
+    <comment ref="I58" authorId="0" shapeId="0" xr:uid="{0070A3B5-B4CC-9A4A-B592-AD07A5F6FF73}">
       <text>
         <r>
           <rPr>
@@ -1716,7 +2186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I59" authorId="0" shapeId="0" xr:uid="{32A0DBEA-50F7-CF4F-B6DA-36BD454DE276}">
+    <comment ref="I59" authorId="0" shapeId="0" xr:uid="{94BA1F9E-C9F7-5845-829E-7CB1537F4A3B}">
       <text>
         <r>
           <rPr>
@@ -1731,7 +2201,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I60" authorId="0" shapeId="0" xr:uid="{9AEAFC4E-F098-F24C-A820-E4927A5DDBFA}">
+    <comment ref="I60" authorId="0" shapeId="0" xr:uid="{A3B2F8D5-F958-F648-B484-82D516382062}">
       <text>
         <r>
           <rPr>
@@ -1751,7 +2221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I61" authorId="0" shapeId="0" xr:uid="{9FF95097-3B48-DA49-9C44-4B3ED86501AD}">
+    <comment ref="I61" authorId="0" shapeId="0" xr:uid="{0C3C3E8D-2EE4-F941-B1CF-93FD8B26B4C1}">
       <text>
         <r>
           <rPr>
@@ -1767,7 +2237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I62" authorId="0" shapeId="0" xr:uid="{ADDDF8F7-D51F-C942-BB3E-ADC2C7A36129}">
+    <comment ref="I62" authorId="0" shapeId="0" xr:uid="{51B4D966-EB27-AB42-AB9D-5E24D1BE00F5}">
       <text>
         <r>
           <rPr>
@@ -1783,7 +2253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I63" authorId="0" shapeId="0" xr:uid="{9E250208-C091-EA4C-9F9F-4C0399D60E5D}">
+    <comment ref="I63" authorId="0" shapeId="0" xr:uid="{8A93FF5A-DE02-4F41-89E6-F089742F2D1B}">
       <text>
         <r>
           <rPr>
@@ -1798,7 +2268,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I64" authorId="0" shapeId="0" xr:uid="{FAD07AF1-ADB9-474C-8D74-F1289EC06312}">
+    <comment ref="I64" authorId="0" shapeId="0" xr:uid="{BE87ABC3-9770-C740-A9B2-79A404447FAC}">
       <text>
         <r>
           <rPr>
@@ -1814,7 +2284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I65" authorId="0" shapeId="0" xr:uid="{7B38B9ED-B551-914C-981D-B4FE4D42D268}">
+    <comment ref="I65" authorId="0" shapeId="0" xr:uid="{72EB2FB9-54B7-4149-BC3A-3F082639F053}">
       <text>
         <r>
           <rPr>
@@ -1843,7 +2313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I66" authorId="0" shapeId="0" xr:uid="{65C0D02D-DAA8-6C4B-9756-3EA5E18F0BFD}">
+    <comment ref="I66" authorId="0" shapeId="0" xr:uid="{B038122C-3C3A-544E-872C-C244E1404135}">
       <text>
         <r>
           <rPr>
@@ -1858,7 +2328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I67" authorId="0" shapeId="0" xr:uid="{7BA3C2EA-C216-1E45-AECA-0A018D1AF4F3}">
+    <comment ref="I67" authorId="0" shapeId="0" xr:uid="{6D6D321A-C5B0-794B-8A13-B09F7097F9B3}">
       <text>
         <r>
           <rPr>
@@ -1878,7 +2348,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I68" authorId="0" shapeId="0" xr:uid="{FBFB1AEE-4585-DB4C-84D1-497E86268E5B}">
+    <comment ref="I68" authorId="0" shapeId="0" xr:uid="{98A0F432-6D97-4946-B517-480F77FEEE1B}">
       <text>
         <r>
           <rPr>
@@ -1898,7 +2368,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I69" authorId="0" shapeId="0" xr:uid="{CD823EF3-DB27-8D43-B89A-77CFD016D16A}">
+    <comment ref="I69" authorId="0" shapeId="0" xr:uid="{94F2F951-4A78-9A46-BCC2-6E35BA59EEE1}">
       <text>
         <r>
           <rPr>
@@ -1918,7 +2388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I70" authorId="0" shapeId="0" xr:uid="{C9FCD0C5-0BD2-D343-AED4-BBE3C205EF50}">
+    <comment ref="I70" authorId="0" shapeId="0" xr:uid="{4FA872D6-5000-8D4E-8CCD-30B025457D84}">
       <text>
         <r>
           <rPr>
@@ -1941,7 +2411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I71" authorId="0" shapeId="0" xr:uid="{B6A6B547-D38B-5848-B399-334CA7577FE3}">
+    <comment ref="I71" authorId="0" shapeId="0" xr:uid="{EBA05991-97EB-E34A-9E63-28988C45FAEF}">
       <text>
         <r>
           <rPr>
@@ -1958,7 +2428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I72" authorId="0" shapeId="0" xr:uid="{41FAA0EF-E976-4F47-93CC-2B1BB1BA6177}">
+    <comment ref="I72" authorId="0" shapeId="0" xr:uid="{F82F4BCA-C2FC-894D-BD9B-9342BF6BC7E7}">
       <text>
         <r>
           <rPr>
@@ -1987,7 +2457,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I73" authorId="0" shapeId="0" xr:uid="{8DE22F4B-2080-0247-B8F2-DB100EE4D506}">
+    <comment ref="I73" authorId="0" shapeId="0" xr:uid="{4944730F-700F-5544-A406-C27D34698248}">
       <text>
         <r>
           <rPr>
@@ -2002,7 +2472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I74" authorId="0" shapeId="0" xr:uid="{1CC34CA8-0782-1849-BD3C-C4C3BA15B3FB}">
+    <comment ref="I74" authorId="0" shapeId="0" xr:uid="{6659FFA2-7529-3F4C-AB80-A06545FE7698}">
       <text>
         <r>
           <rPr>
@@ -2022,7 +2492,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I75" authorId="0" shapeId="0" xr:uid="{63B482B0-AD3A-7842-81F9-A1F8B37F0D69}">
+    <comment ref="I75" authorId="0" shapeId="0" xr:uid="{17572D85-F7AD-1345-9AD5-9F383AFC5C2D}">
       <text>
         <r>
           <rPr>
@@ -2042,7 +2512,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I76" authorId="0" shapeId="0" xr:uid="{C7C3EBFC-B811-9F40-B1CF-26CDAE6661FE}">
+    <comment ref="I76" authorId="0" shapeId="0" xr:uid="{55D0ACBD-3465-B545-8F05-360C5C0264E5}">
       <text>
         <r>
           <rPr>
@@ -2058,11 +2528,11 @@
 제논: 김찬종
 시장: 김대호
 앙상블: 
-문경초 장두환 김담현 정지은 전성혜</t>
+문경초 장두환 김담현 정지은 전성혜(안)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I77" authorId="0" shapeId="0" xr:uid="{332B91A6-33A4-9F43-9736-F314C7374EB3}">
+    <comment ref="I77" authorId="0" shapeId="0" xr:uid="{248BD3CE-890E-A94C-9F5D-5FC298E58FA2}">
       <text>
         <r>
           <rPr>
@@ -2082,7 +2552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I78" authorId="0" shapeId="0" xr:uid="{06D840D5-0F0F-2842-9D5E-A4D5571D737E}">
+    <comment ref="I78" authorId="0" shapeId="0" xr:uid="{88AB576A-60AA-7240-B941-5EED424363DB}">
       <text>
         <r>
           <rPr>
@@ -2098,7 +2568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I79" authorId="0" shapeId="0" xr:uid="{F313AA08-7D12-7648-8687-283ED6B5A624}">
+    <comment ref="I79" authorId="0" shapeId="0" xr:uid="{4ECB8E47-0F19-8848-A59D-D6121F2671CF}">
       <text>
         <r>
           <rPr>
@@ -2113,7 +2583,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I80" authorId="0" shapeId="0" xr:uid="{34669150-D66B-A14F-9FB6-F5D308E40B7A}">
+    <comment ref="I80" authorId="0" shapeId="0" xr:uid="{EE97E666-BAF5-E34E-A1FC-CE5F92725292}">
       <text>
         <r>
           <rPr>
@@ -2129,11 +2599,11 @@
 제논: 김찬종
 시장: 김대호
 앙상블: 
-문경초 장두환 김담현 정지은 전성혜</t>
+문경초 장두환 김담현 정지은 전성혜(안)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I81" authorId="0" shapeId="0" xr:uid="{D0069656-B7C9-C044-B938-16493ED9624D}">
+    <comment ref="I81" authorId="0" shapeId="0" xr:uid="{969BBEF7-8A6E-5B48-8E0C-7DFC75B5E7AA}">
       <text>
         <r>
           <rPr>
@@ -2153,7 +2623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I82" authorId="0" shapeId="0" xr:uid="{33096407-D767-A04A-8604-567EC53A11E5}">
+    <comment ref="I82" authorId="0" shapeId="0" xr:uid="{284F55FE-1CB3-FC4C-B049-57166C8F0A6C}">
       <text>
         <r>
           <rPr>
@@ -2180,7 +2650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I83" authorId="0" shapeId="0" xr:uid="{2AC0D443-F371-E44B-98C0-0FD70C48CA9A}">
+    <comment ref="I83" authorId="0" shapeId="0" xr:uid="{650DC114-32A6-B04F-8C3C-36C4343BCC85}">
       <text>
         <r>
           <rPr>
@@ -2198,7 +2668,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I84" authorId="0" shapeId="0" xr:uid="{21E0F201-49C5-3941-8E65-5B2CCB5C262F}">
+    <comment ref="I84" authorId="0" shapeId="0" xr:uid="{A7AD8CF9-A276-7448-9A86-33E52C861F94}">
       <text>
         <r>
           <rPr>
@@ -2227,7 +2697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I85" authorId="0" shapeId="0" xr:uid="{4FF7FD15-FF0A-A84E-B867-C9E9FE008231}">
+    <comment ref="I85" authorId="0" shapeId="0" xr:uid="{DBFF507B-26CE-3B45-B0D7-FE2B3B6D7385}">
       <text>
         <r>
           <rPr>
@@ -2247,7 +2717,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I86" authorId="0" shapeId="0" xr:uid="{C0A93573-2D98-144D-B7EB-2EFF703A4376}">
+    <comment ref="I86" authorId="0" shapeId="0" xr:uid="{737C1406-41E0-0948-B9E3-37FBBA6B808E}">
       <text>
         <r>
           <rPr>
@@ -2262,7 +2732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I87" authorId="0" shapeId="0" xr:uid="{01A7026B-3116-0A46-AE63-2B8BDEA2D5EA}">
+    <comment ref="I87" authorId="0" shapeId="0" xr:uid="{38B91740-E0FA-4E42-BB27-7D5D854F75B4}">
       <text>
         <r>
           <rPr>
@@ -2279,7 +2749,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I88" authorId="0" shapeId="0" xr:uid="{F37D9765-C795-D241-9AC6-B9056594CFA3}">
+    <comment ref="I88" authorId="0" shapeId="0" xr:uid="{192D1D52-3ADE-FD4E-8AC6-DBEFB701F27D}">
       <text>
         <r>
           <rPr>
@@ -2297,7 +2767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I89" authorId="0" shapeId="0" xr:uid="{574C5B18-2C49-2043-A10E-89630A0F5176}">
+    <comment ref="I89" authorId="0" shapeId="0" xr:uid="{8E057B6E-2458-0F48-8C80-1FFBE820B331}">
       <text>
         <r>
           <rPr>
@@ -2316,7 +2786,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I90" authorId="0" shapeId="0" xr:uid="{2C91970F-5E80-DF4A-9C5C-4A3C36634DFB}">
+    <comment ref="I90" authorId="0" shapeId="0" xr:uid="{233C9294-4FFC-8C42-9BB1-761DFC396CDC}">
       <text>
         <r>
           <rPr>
@@ -2336,7 +2806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I91" authorId="0" shapeId="0" xr:uid="{0C2BFA22-599F-0748-9664-12ACBA007FBC}">
+    <comment ref="I91" authorId="0" shapeId="0" xr:uid="{C1617DF7-BB75-A74F-9815-8DAD048E0F9B}">
       <text>
         <r>
           <rPr>
@@ -2364,7 +2834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I92" authorId="0" shapeId="0" xr:uid="{E30DAA8E-F6AD-284C-8798-57AED887E944}">
+    <comment ref="I92" authorId="0" shapeId="0" xr:uid="{D923027C-C21D-674F-87AB-A5C74819910E}">
       <text>
         <r>
           <rPr>
@@ -2379,7 +2849,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I93" authorId="0" shapeId="0" xr:uid="{D91D1C6B-8EDD-304E-93FB-C6A65DDEC982}">
+    <comment ref="I93" authorId="0" shapeId="0" xr:uid="{41B328AF-F261-8E45-9888-C841BC416EEC}">
       <text>
         <r>
           <rPr>
@@ -2394,7 +2864,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I94" authorId="0" shapeId="0" xr:uid="{333CD33E-A5AF-9C4F-979C-741AFAE88ED3}">
+    <comment ref="I94" authorId="0" shapeId="0" xr:uid="{70D8737D-B864-A44E-8542-9BD640CB77AD}">
       <text>
         <r>
           <rPr>
@@ -2410,7 +2880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I95" authorId="0" shapeId="0" xr:uid="{21DF5A7F-E999-CD42-9C35-8BEE715F1708}">
+    <comment ref="I95" authorId="0" shapeId="0" xr:uid="{6E9D0808-91AF-214F-82B4-464BB866855E}">
       <text>
         <r>
           <rPr>
@@ -2439,7 +2909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I96" authorId="0" shapeId="0" xr:uid="{48D3A797-B14E-8F46-A65C-9FE3AA710EA6}">
+    <comment ref="I96" authorId="0" shapeId="0" xr:uid="{C1F6B84A-1C7D-4B42-B1FE-4C8B3062AD02}">
       <text>
         <r>
           <rPr>
@@ -2459,7 +2929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I97" authorId="0" shapeId="0" xr:uid="{523753F1-7BE3-4C4C-9813-C42CFAC59589}">
+    <comment ref="I97" authorId="0" shapeId="0" xr:uid="{700A4EA9-3FB7-D946-A907-7B610BE56463}">
       <text>
         <r>
           <rPr>
@@ -2478,7 +2948,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I98" authorId="0" shapeId="0" xr:uid="{B4D19DF8-FDFA-ED49-A49F-8A25A7D9170F}">
+    <comment ref="I98" authorId="0" shapeId="0" xr:uid="{56D480AD-9966-714F-B7BC-8221315CE40F}">
       <text>
         <r>
           <rPr>
@@ -2498,7 +2968,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I99" authorId="0" shapeId="0" xr:uid="{B18D4785-611D-084E-9713-04315C15E84E}">
+    <comment ref="I99" authorId="0" shapeId="0" xr:uid="{A484C5DD-48F3-C84D-BA2C-AE06ED15C1FD}">
       <text>
         <r>
           <rPr>
@@ -2518,7 +2988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I100" authorId="0" shapeId="0" xr:uid="{778EF59C-B55C-5C45-A0C9-555F5B723060}">
+    <comment ref="I100" authorId="0" shapeId="0" xr:uid="{3027435E-91F6-BD46-90F4-932DD62533F6}">
       <text>
         <r>
           <rPr>
@@ -2533,7 +3003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I101" authorId="0" shapeId="0" xr:uid="{D5BD4005-A039-EF49-975F-5EDA698AE058}">
+    <comment ref="I101" authorId="0" shapeId="0" xr:uid="{A5D6F8C0-6C41-2347-A1BF-D140CFE4EC6E}">
       <text>
         <r>
           <rPr>
@@ -2562,7 +3032,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I102" authorId="0" shapeId="0" xr:uid="{2853A3A8-7E9A-3F44-8B8E-8379346DB082}">
+    <comment ref="I102" authorId="0" shapeId="0" xr:uid="{D2698E60-3BF5-C040-B764-96665AE6DDB0}">
       <text>
         <r>
           <rPr>
@@ -2580,7 +3050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I103" authorId="0" shapeId="0" xr:uid="{ED380BD9-44AA-6041-9C7F-2CAE9A248F52}">
+    <comment ref="I103" authorId="0" shapeId="0" xr:uid="{BBB2807A-F067-F74C-8D46-457ACB3BA77A}">
       <text>
         <r>
           <rPr>
@@ -2600,7 +3070,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I104" authorId="0" shapeId="0" xr:uid="{92B2AC76-F79F-8447-9947-01EFF24833EF}">
+    <comment ref="I104" authorId="0" shapeId="0" xr:uid="{11E23AE6-99FB-B74E-A637-7F3BAAF2893E}">
       <text>
         <r>
           <rPr>
@@ -2618,7 +3088,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I105" authorId="0" shapeId="0" xr:uid="{99452E64-73F1-B346-A808-A1B3BFAD644C}">
+    <comment ref="I105" authorId="0" shapeId="0" xr:uid="{BE653C3B-C7E0-D84F-8451-6429740B8083}">
       <text>
         <r>
           <rPr>
@@ -2636,7 +3106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I106" authorId="0" shapeId="0" xr:uid="{1E7F38EC-1A02-7940-83B4-7984917E99EE}">
+    <comment ref="I106" authorId="0" shapeId="0" xr:uid="{30C861C3-2FE3-C64A-8340-A3509138E11A}">
       <text>
         <r>
           <rPr>
@@ -2656,7 +3126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I107" authorId="0" shapeId="0" xr:uid="{9075E8B3-4B1C-2F40-A0E8-260DE61A3914}">
+    <comment ref="I107" authorId="0" shapeId="0" xr:uid="{8DF22B24-D0D2-0842-B56A-2A95D6883F44}">
       <text>
         <r>
           <rPr>
@@ -2671,7 +3141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I108" authorId="0" shapeId="0" xr:uid="{01E5ECFA-8318-5842-847D-E0F6DB314BB8}">
+    <comment ref="I108" authorId="0" shapeId="0" xr:uid="{71519CA5-14F0-054E-95B9-E3B1EB13058C}">
       <text>
         <r>
           <rPr>
@@ -2694,7 +3164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I109" authorId="0" shapeId="0" xr:uid="{55D67FF7-3B43-3549-8342-8D534D7C60E7}">
+    <comment ref="I109" authorId="0" shapeId="0" xr:uid="{08909B2F-819B-6E4A-9B92-68367D21892D}">
       <text>
         <r>
           <rPr>
@@ -2709,7 +3179,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I110" authorId="0" shapeId="0" xr:uid="{495AE542-359F-3E42-8F8E-19D525864ACF}">
+    <comment ref="I110" authorId="0" shapeId="0" xr:uid="{1EF618C4-71BC-D841-8AF9-668EFE89B55D}">
       <text>
         <r>
           <rPr>
@@ -2724,7 +3194,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I111" authorId="0" shapeId="0" xr:uid="{5FF1C370-82D6-0D4C-8487-E5AB386A312B}">
+    <comment ref="I111" authorId="0" shapeId="0" xr:uid="{FF206D81-E2AB-9942-B25C-522781E73D62}">
       <text>
         <r>
           <rPr>
@@ -2739,7 +3209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I112" authorId="0" shapeId="0" xr:uid="{54A8D468-D215-9941-B7AE-528825277567}">
+    <comment ref="I112" authorId="0" shapeId="0" xr:uid="{E0BC9C07-ED20-1744-BF87-8F9C5C63C977}">
       <text>
         <r>
           <rPr>
@@ -2760,7 +3230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I113" authorId="0" shapeId="0" xr:uid="{6A76652D-9951-894E-825F-101EC1504B11}">
+    <comment ref="I113" authorId="0" shapeId="0" xr:uid="{55177A66-4A70-F44A-93CF-1DE1E96F2318}">
       <text>
         <r>
           <rPr>
@@ -2777,7 +3247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I114" authorId="0" shapeId="0" xr:uid="{5F145410-AB72-144F-9997-EBB1F6BFB313}">
+    <comment ref="I114" authorId="0" shapeId="0" xr:uid="{90F7F1E2-2B64-ED4E-B4E1-B9668702EF98}">
       <text>
         <r>
           <rPr>
@@ -2792,7 +3262,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I115" authorId="0" shapeId="0" xr:uid="{65013293-FAAB-FD41-B724-E7DE17DA5BA4}">
+    <comment ref="I115" authorId="0" shapeId="0" xr:uid="{DE91BA44-93CA-F64D-A45E-899D9234BB33}">
       <text>
         <r>
           <rPr>
@@ -2811,7 +3281,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I116" authorId="0" shapeId="0" xr:uid="{AEB44234-ECC1-984C-BEF2-15E04745F20B}">
+    <comment ref="I116" authorId="0" shapeId="0" xr:uid="{6E09FC53-A8F2-D34C-BD9C-567E4F4E98A6}">
       <text>
         <r>
           <rPr>
@@ -2828,7 +3298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I117" authorId="0" shapeId="0" xr:uid="{25001BE0-FBE3-6E44-B297-107CEAD1390A}">
+    <comment ref="I117" authorId="0" shapeId="0" xr:uid="{4267E644-C33B-A748-BCFC-2E9736CBD9E6}">
       <text>
         <r>
           <rPr>
@@ -2854,7 +3324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I118" authorId="0" shapeId="0" xr:uid="{DED8040C-B134-4F4C-846C-E62418C8021B}">
+    <comment ref="I118" authorId="0" shapeId="0" xr:uid="{1CB65A57-EE7E-B145-8DBD-B23CE174335F}">
       <text>
         <r>
           <rPr>
@@ -2871,7 +3341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I119" authorId="0" shapeId="0" xr:uid="{7D657270-D3A6-6145-BA5F-F29374B0CEE6}">
+    <comment ref="I119" authorId="0" shapeId="0" xr:uid="{AE021D60-DA5F-1847-8BAE-0F1514900A22}">
       <text>
         <r>
           <rPr>
@@ -2899,7 +3369,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I120" authorId="0" shapeId="0" xr:uid="{149197D8-B6DD-2045-A98E-23E9A3D19BAC}">
+    <comment ref="I120" authorId="0" shapeId="0" xr:uid="{3E3B54FD-C8A5-A349-A34F-C769D283D70D}">
       <text>
         <r>
           <rPr>
@@ -2915,7 +3385,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I121" authorId="0" shapeId="0" xr:uid="{93821C23-9607-A34C-95B5-A38733D9597C}">
+    <comment ref="I121" authorId="0" shapeId="0" xr:uid="{2017CBC4-653C-EC41-84D0-E5FA60D6B599}">
       <text>
         <r>
           <rPr>
@@ -2932,7 +3402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I122" authorId="0" shapeId="0" xr:uid="{EA2DF4BC-D13E-D74C-ACC1-BFB7BC87E691}">
+    <comment ref="I122" authorId="0" shapeId="0" xr:uid="{AF5A73DD-AE38-AA4E-BF95-C11FF6DA9A0A}">
       <text>
         <r>
           <rPr>
@@ -2948,7 +3418,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I123" authorId="0" shapeId="0" xr:uid="{64031A49-C099-2E41-A61A-A63CCDA5674C}">
+    <comment ref="I123" authorId="0" shapeId="0" xr:uid="{FF304FCE-6B88-C64B-8089-6F6D5FA9E744}">
       <text>
         <r>
           <rPr>
@@ -2965,7 +3435,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I124" authorId="0" shapeId="0" xr:uid="{150F4E31-93CA-304E-8A85-B64B9B1A04A7}">
+    <comment ref="I124" authorId="0" shapeId="0" xr:uid="{254FE48F-EC57-C94D-88D5-F03FCFF3203A}">
       <text>
         <r>
           <rPr>
@@ -2997,7 +3467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I125" authorId="0" shapeId="0" xr:uid="{9969C900-0E4F-C04A-A05F-476502DAF809}">
+    <comment ref="I125" authorId="0" shapeId="0" xr:uid="{40D5E455-B39B-004F-A6F0-03003DF66E42}">
       <text>
         <r>
           <rPr>
@@ -3016,7 +3486,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I126" authorId="0" shapeId="0" xr:uid="{BCAE9620-F63C-204D-84ED-F8F77D01BEC7}">
+    <comment ref="I126" authorId="0" shapeId="0" xr:uid="{982F6777-B3A9-4B40-82A0-DF569DD894D7}">
       <text>
         <r>
           <rPr>
@@ -3034,7 +3504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I127" authorId="0" shapeId="0" xr:uid="{89C01492-C72E-E947-99EE-BB393CEC3641}">
+    <comment ref="I127" authorId="0" shapeId="0" xr:uid="{212B2EA7-0B70-364C-99B5-D4F0AEED2F49}">
       <text>
         <r>
           <rPr>
@@ -3049,7 +3519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I128" authorId="0" shapeId="0" xr:uid="{C889440B-FC04-134E-8A65-050A11FE99C0}">
+    <comment ref="I128" authorId="0" shapeId="0" xr:uid="{578DE1DC-AC2F-D649-A995-4A09F8F8ECBB}">
       <text>
         <r>
           <rPr>
@@ -3066,7 +3536,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I129" authorId="0" shapeId="0" xr:uid="{9D66EDBB-0134-4948-987D-71828822766B}">
+    <comment ref="I129" authorId="0" shapeId="0" xr:uid="{6434C79C-E621-544B-B9DA-D8B5494EC0E3}">
       <text>
         <r>
           <rPr>
@@ -3083,7 +3553,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I130" authorId="0" shapeId="0" xr:uid="{AD3E028B-9DE8-5442-BDC1-68E80C6A8487}">
+    <comment ref="I130" authorId="0" shapeId="0" xr:uid="{13EFB9E0-8C2F-FE42-995F-0C6D836FA8AF}">
       <text>
         <r>
           <rPr>
@@ -3098,7 +3568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I131" authorId="0" shapeId="0" xr:uid="{C92438B0-225A-7444-9153-6AB3EFB0EFC7}">
+    <comment ref="I131" authorId="0" shapeId="0" xr:uid="{87ED07B5-DCF9-414E-BD27-CD3F1645F60F}">
       <text>
         <r>
           <rPr>
@@ -3117,7 +3587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I132" authorId="0" shapeId="0" xr:uid="{4A296E3A-56E8-1C40-BECB-D46F15A24566}">
+    <comment ref="I132" authorId="0" shapeId="0" xr:uid="{53556287-19ED-3D40-9B98-149503B8AC95}">
       <text>
         <r>
           <rPr>
@@ -3136,7 +3606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I133" authorId="0" shapeId="0" xr:uid="{35E76D62-3CB5-2B49-939B-768BF468F8F4}">
+    <comment ref="I133" authorId="0" shapeId="0" xr:uid="{BEF8B7B8-DA24-0F47-BE66-3B3D084DC05A}">
       <text>
         <r>
           <rPr>
@@ -3153,7 +3623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I134" authorId="0" shapeId="0" xr:uid="{573CF037-B2E5-0E4A-A7F3-171CA26DB7A3}">
+    <comment ref="I134" authorId="0" shapeId="0" xr:uid="{8224A6CF-28EF-BA4D-AEC2-2D20903983F8}">
       <text>
         <r>
           <rPr>
@@ -3168,7 +3638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I135" authorId="0" shapeId="0" xr:uid="{03F569B6-1BF8-3A46-99A6-7BA723F4BD3A}">
+    <comment ref="I135" authorId="0" shapeId="0" xr:uid="{2427E482-DEE5-E149-8A95-9CF1096C7AB6}">
       <text>
         <r>
           <rPr>
@@ -3184,7 +3654,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I136" authorId="0" shapeId="0" xr:uid="{2E0EF906-FA0C-A447-8615-22A9D85A5D79}">
+    <comment ref="I136" authorId="0" shapeId="0" xr:uid="{89F76801-41DA-F44D-B93F-001FEE32EEA0}">
       <text>
         <r>
           <rPr>
@@ -3201,7 +3671,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I137" authorId="0" shapeId="0" xr:uid="{E9067E67-0C0A-0348-A893-AFCDBE0E1A61}">
+    <comment ref="I137" authorId="0" shapeId="0" xr:uid="{76900CD2-131E-EA47-8DC7-241227F18327}">
       <text>
         <r>
           <rPr>
@@ -3229,7 +3699,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I138" authorId="0" shapeId="0" xr:uid="{9A68A66D-A599-8446-A4E4-61A78EFE93F3}">
+    <comment ref="I138" authorId="0" shapeId="0" xr:uid="{F6098C80-19BA-8D40-BE9F-BCF6F359F257}">
       <text>
         <r>
           <rPr>
@@ -3246,7 +3716,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I139" authorId="0" shapeId="0" xr:uid="{56FEEECC-29B3-C045-A37F-2E857529E478}">
+    <comment ref="I139" authorId="0" shapeId="0" xr:uid="{07CF3A42-6814-284E-B9CC-3153E46743ED}">
       <text>
         <r>
           <rPr>
@@ -3262,7 +3732,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I140" authorId="0" shapeId="0" xr:uid="{26493BA7-E214-2A42-9E07-988C2678D4CE}">
+    <comment ref="I140" authorId="0" shapeId="0" xr:uid="{EF3BB1B5-CE9B-EF4D-96E5-A48AE69FD99F}">
       <text>
         <r>
           <rPr>
@@ -3278,7 +3748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I141" authorId="0" shapeId="0" xr:uid="{FA4A4566-C62F-BB44-A990-26F4A5B90DE2}">
+    <comment ref="I141" authorId="0" shapeId="0" xr:uid="{C84BED19-D052-6548-ABA4-0B97185D7AD0}">
       <text>
         <r>
           <rPr>
@@ -3296,7 +3766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I142" authorId="0" shapeId="0" xr:uid="{B42BB4AF-256F-2542-A9E1-8199AEC54567}">
+    <comment ref="I142" authorId="0" shapeId="0" xr:uid="{B78B1C9B-73B4-D24F-BC8A-1EAF7EA2D5D3}">
       <text>
         <r>
           <rPr>
@@ -3314,7 +3784,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I143" authorId="0" shapeId="0" xr:uid="{63697420-B058-454A-9C00-4073975ABC4C}">
+    <comment ref="I143" authorId="0" shapeId="0" xr:uid="{486E6BE4-88D9-5746-A3F2-315E3BB40CCC}">
       <text>
         <r>
           <rPr>
@@ -3330,7 +3800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I144" authorId="0" shapeId="0" xr:uid="{6F45F3E8-C918-E544-9E2A-B1EB7E3FFB71}">
+    <comment ref="I144" authorId="0" shapeId="0" xr:uid="{7C6FEDB6-F445-B14D-B4E4-253A1AABD04F}">
       <text>
         <r>
           <rPr>
@@ -3347,7 +3817,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I145" authorId="0" shapeId="0" xr:uid="{4D3058E1-B3EC-7B4F-8484-0602F5BD57B0}">
+    <comment ref="I145" authorId="0" shapeId="0" xr:uid="{7E6ACD27-52E0-034A-9114-9E0A052E1E27}">
       <text>
         <r>
           <rPr>
@@ -3363,7 +3833,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I146" authorId="0" shapeId="0" xr:uid="{D24DAB0A-7F45-8848-A7A9-4BF90FB24950}">
+    <comment ref="I146" authorId="0" shapeId="0" xr:uid="{6EC2CBEE-5B98-4441-8610-820F1484745F}">
       <text>
         <r>
           <rPr>
@@ -3380,7 +3850,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I147" authorId="0" shapeId="0" xr:uid="{C7EEB66D-6A16-4C4C-9C7B-310AF792EBF3}">
+    <comment ref="I147" authorId="0" shapeId="0" xr:uid="{E9B75858-A263-0E47-A21E-BE1ED6573A28}">
       <text>
         <r>
           <rPr>
@@ -3400,7 +3870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I148" authorId="0" shapeId="0" xr:uid="{D35DDDDE-0E0B-DF48-952F-4C2B877D773C}">
+    <comment ref="I148" authorId="0" shapeId="0" xr:uid="{1BE9AC1C-1CA8-BD4F-9666-93E5D52022F2}">
       <text>
         <r>
           <rPr>
@@ -3435,7 +3905,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I149" authorId="0" shapeId="0" xr:uid="{93FFB818-A6C9-3347-A320-146D131D24B0}">
+    <comment ref="I149" authorId="0" shapeId="0" xr:uid="{B168F7DE-F6CC-EF42-895A-8F42A468E014}">
       <text>
         <r>
           <rPr>
@@ -3451,7 +3921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I150" authorId="0" shapeId="0" xr:uid="{8909634C-DA3C-0D4E-93E9-4BE494B1D344}">
+    <comment ref="I150" authorId="0" shapeId="0" xr:uid="{8DB84EAF-9637-5B46-8EF6-9EB82A759F88}">
       <text>
         <r>
           <rPr>
@@ -3473,7 +3943,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I151" authorId="0" shapeId="0" xr:uid="{E693E8DE-9658-414C-B5E1-6C8E37853F13}">
+    <comment ref="I151" authorId="0" shapeId="0" xr:uid="{EC8F4C85-ACBD-DC49-9F16-878B94CA3D0A}">
       <text>
         <r>
           <rPr>
@@ -3497,7 +3967,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I152" authorId="0" shapeId="0" xr:uid="{AD74D872-C34E-5649-9672-9C8CFB56CC9E}">
+    <comment ref="I152" authorId="0" shapeId="0" xr:uid="{F2EE1B3C-75DB-E243-90B9-F982C2B973AE}">
       <text>
         <r>
           <rPr>
@@ -3515,7 +3985,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I153" authorId="0" shapeId="0" xr:uid="{368085AC-F4F6-CB44-85D4-68119558D3FB}">
+    <comment ref="I153" authorId="0" shapeId="0" xr:uid="{8C16D919-8E69-F747-98A0-F30927EC8B6D}">
       <text>
         <r>
           <rPr>
@@ -3531,7 +4001,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I154" authorId="0" shapeId="0" xr:uid="{0E37F0E4-33B9-BA43-A446-244E5FFEBC7C}">
+    <comment ref="I154" authorId="0" shapeId="0" xr:uid="{C33D8296-A4A2-9F41-9EBD-2D3539A33F70}">
       <text>
         <r>
           <rPr>
@@ -3555,7 +4025,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I155" authorId="0" shapeId="0" xr:uid="{5E6E624D-B2E1-5C45-B720-5035AE76662C}">
+    <comment ref="I155" authorId="0" shapeId="0" xr:uid="{3A654283-F6E0-E24B-8DA3-8E51F7B4F95E}">
       <text>
         <r>
           <rPr>
@@ -3574,7 +4044,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I156" authorId="0" shapeId="0" xr:uid="{0F438CFF-D351-CA4E-95D2-81443A8D08A6}">
+    <comment ref="I156" authorId="0" shapeId="0" xr:uid="{80E02C72-97E4-B443-B36A-C566A2CC16EC}">
       <text>
         <r>
           <rPr>
@@ -3594,7 +4064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I157" authorId="0" shapeId="0" xr:uid="{6EDA3568-C6F2-E345-A8D2-8462A00CDC45}">
+    <comment ref="I157" authorId="0" shapeId="0" xr:uid="{AB7FD2D2-A4D5-2548-ACDA-0C860826CEEE}">
       <text>
         <r>
           <rPr>
@@ -3614,7 +4084,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I158" authorId="0" shapeId="0" xr:uid="{6EC8AF80-8F63-0445-A750-A5B1E49F3AE3}">
+    <comment ref="I158" authorId="0" shapeId="0" xr:uid="{FB4BD0DE-930E-4F46-8041-ABDA2C9349D7}">
       <text>
         <r>
           <rPr>
@@ -3634,7 +4104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I159" authorId="0" shapeId="0" xr:uid="{9886FAF3-85D8-1743-904A-CA180F23F50A}">
+    <comment ref="I159" authorId="0" shapeId="0" xr:uid="{840EC61A-5A62-0A47-8C18-4A4E15CD4D8E}">
       <text>
         <r>
           <rPr>
@@ -3650,7 +4120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I160" authorId="0" shapeId="0" xr:uid="{DEFB6DA2-D4B4-5842-A6FB-C8CC80CC4ACD}">
+    <comment ref="I160" authorId="0" shapeId="0" xr:uid="{784AAF4F-21FF-654D-81CC-DCE782BAF1CC}">
       <text>
         <r>
           <rPr>
@@ -3674,7 +4144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I161" authorId="0" shapeId="0" xr:uid="{75144431-0C30-4948-90B2-6B3D43A2A77C}">
+    <comment ref="I161" authorId="0" shapeId="0" xr:uid="{71C4180B-D6E6-B648-9D1F-2F6F607F3E10}">
       <text>
         <r>
           <rPr>
@@ -3698,7 +4168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I162" authorId="0" shapeId="0" xr:uid="{54136D55-DBD3-0C42-B7C2-D47118A63D21}">
+    <comment ref="I162" authorId="0" shapeId="0" xr:uid="{0411BEF6-5E7C-6546-AAF7-6D13C72A804B}">
       <text>
         <r>
           <rPr>
@@ -3722,7 +4192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I163" authorId="0" shapeId="0" xr:uid="{DEC992DA-6680-664D-A169-68DC5194FA3E}">
+    <comment ref="I163" authorId="0" shapeId="0" xr:uid="{EDF4C6A0-6F86-2343-9FDB-F4582D90833C}">
       <text>
         <r>
           <rPr>
@@ -3740,7 +4210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I164" authorId="0" shapeId="0" xr:uid="{A06213A4-E45E-0E45-A7F4-A5DF6417C3AD}">
+    <comment ref="I164" authorId="0" shapeId="0" xr:uid="{16D16E02-8F34-D44A-996C-D5241D852993}">
       <text>
         <r>
           <rPr>
@@ -3762,7 +4232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I165" authorId="0" shapeId="0" xr:uid="{59974BC1-36B4-2340-AAD7-560CE905A000}">
+    <comment ref="I165" authorId="0" shapeId="0" xr:uid="{FB3FF15C-EFDD-624D-ADBF-CDFBFEAAEBA0}">
       <text>
         <r>
           <rPr>
@@ -3780,7 +4250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I166" authorId="0" shapeId="0" xr:uid="{73842647-1A44-5D41-A6E2-12B5E6A5CC15}">
+    <comment ref="I166" authorId="0" shapeId="0" xr:uid="{DD6A5BA6-0F66-1542-AC3E-3FF1FF60FA89}">
       <text>
         <r>
           <rPr>
@@ -3796,7 +4266,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I167" authorId="0" shapeId="0" xr:uid="{545B76AA-BC95-714C-95FE-3448C8352CC5}">
+    <comment ref="I167" authorId="0" shapeId="0" xr:uid="{5461C4F1-1A3F-E141-AC61-F11B7A3F05A1}">
       <text>
         <r>
           <rPr>
@@ -3823,7 +4293,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I168" authorId="0" shapeId="0" xr:uid="{8CC6B8C2-454E-1E40-945F-CFEB63DDA9CD}">
+    <comment ref="I168" authorId="0" shapeId="0" xr:uid="{F0FDC480-BB50-9249-8E6B-C0CECF009B92}">
       <text>
         <r>
           <rPr>
@@ -3844,7 +4314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I169" authorId="0" shapeId="0" xr:uid="{2A121428-68BF-FE4E-B526-C90E45A209FB}">
+    <comment ref="I169" authorId="0" shapeId="0" xr:uid="{CB378B48-3FE6-3F4B-9B8C-F0181C236F96}">
       <text>
         <r>
           <rPr>
@@ -3868,7 +4338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I170" authorId="0" shapeId="0" xr:uid="{629FDD5C-95CD-324A-B3EA-969D319B50E8}">
+    <comment ref="I170" authorId="0" shapeId="0" xr:uid="{266A02BD-3C4D-154F-9319-C9DEA43FCC65}">
       <text>
         <r>
           <rPr>
@@ -3888,7 +4358,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I171" authorId="0" shapeId="0" xr:uid="{43A9E1FE-BBB9-A74A-B0E6-6834AF6C84E8}">
+    <comment ref="I171" authorId="0" shapeId="0" xr:uid="{A4D03CDD-5DE6-884C-997C-C2D02EB7D8BA}">
       <text>
         <r>
           <rPr>
@@ -3903,7 +4373,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I172" authorId="0" shapeId="0" xr:uid="{FE8C8196-3D34-F34F-B095-A5D4C06BEA20}">
+    <comment ref="I172" authorId="0" shapeId="0" xr:uid="{7A4C7718-A42F-7A4E-BE8C-772CFB0CCC5C}">
       <text>
         <r>
           <rPr>
@@ -3918,7 +4388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I173" authorId="0" shapeId="0" xr:uid="{79735EF1-7216-E54E-92F7-97929D5BE485}">
+    <comment ref="I173" authorId="0" shapeId="0" xr:uid="{000EB57A-472E-364B-ABDF-2D435523C06F}">
       <text>
         <r>
           <rPr>
@@ -3934,7 +4404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I174" authorId="0" shapeId="0" xr:uid="{83F7FE5C-7AA8-6B4B-85BD-279F38105623}">
+    <comment ref="I174" authorId="0" shapeId="0" xr:uid="{1EF7226B-8D12-424E-9741-DF365B428273}">
       <text>
         <r>
           <rPr>
@@ -3953,7 +4423,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I175" authorId="0" shapeId="0" xr:uid="{FBB88348-9BA1-5143-9E73-AB0FC7B2209A}">
+    <comment ref="I175" authorId="0" shapeId="0" xr:uid="{4E414434-9298-8A42-B32F-206350472880}">
       <text>
         <r>
           <rPr>
@@ -3977,7 +4447,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I176" authorId="0" shapeId="0" xr:uid="{DD93BC58-F0ED-9247-80FB-61B4462B4817}">
+    <comment ref="I176" authorId="0" shapeId="0" xr:uid="{DF31AE66-E595-2749-B22A-02150C48524B}">
       <text>
         <r>
           <rPr>
@@ -3995,7 +4465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I177" authorId="0" shapeId="0" xr:uid="{A6FCF16D-6723-A047-8B8A-F206B36D7313}">
+    <comment ref="I177" authorId="0" shapeId="0" xr:uid="{DA4FE1A0-3A92-894C-9F9A-1A350F7FB2D7}">
       <text>
         <r>
           <rPr>
@@ -4013,7 +4483,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I178" authorId="0" shapeId="0" xr:uid="{C2881F4B-2B77-F647-B7F7-4D0078820878}">
+    <comment ref="I178" authorId="0" shapeId="0" xr:uid="{8FA28428-FD18-A042-80FA-F1B490CDEA33}">
       <text>
         <r>
           <rPr>
@@ -4030,7 +4500,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I179" authorId="0" shapeId="0" xr:uid="{F462ECCF-78E1-2749-828F-1BE6A465E876}">
+    <comment ref="I179" authorId="0" shapeId="0" xr:uid="{897E7C69-DD7E-FB45-83E2-0FBD65D58076}">
       <text>
         <r>
           <rPr>
@@ -4049,7 +4519,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I180" authorId="0" shapeId="0" xr:uid="{B034D0DF-CD9D-724D-9DFD-D10E86C57A45}">
+    <comment ref="I180" authorId="0" shapeId="0" xr:uid="{3D4B9EA1-D828-714A-B1B5-45589E140BAC}">
       <text>
         <r>
           <rPr>
@@ -4073,7 +4543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I181" authorId="0" shapeId="0" xr:uid="{A7FE2A6B-6C41-A84F-BF7C-3DEE4EB41C8E}">
+    <comment ref="I181" authorId="0" shapeId="0" xr:uid="{FE3CD70A-ECFC-5E46-BDE9-47FA32E85754}">
       <text>
         <r>
           <rPr>
@@ -4108,7 +4578,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I182" authorId="0" shapeId="0" xr:uid="{B2273DBB-735C-4A4D-A766-2641C54A954C}">
+    <comment ref="I182" authorId="0" shapeId="0" xr:uid="{651A6B9E-259E-EB41-B415-D175700687F5}">
       <text>
         <r>
           <rPr>
@@ -4123,7 +4593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I183" authorId="0" shapeId="0" xr:uid="{9B106B7A-BF63-7F47-9639-5FC4CD5C0729}">
+    <comment ref="I183" authorId="0" shapeId="0" xr:uid="{A98F2133-0E71-7F4C-804D-743D14FD39CE}">
       <text>
         <r>
           <rPr>
@@ -4138,7 +4608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I184" authorId="0" shapeId="0" xr:uid="{092A1E4C-DA27-8745-B306-4F39E61A77EA}">
+    <comment ref="I184" authorId="0" shapeId="0" xr:uid="{590B8DE0-A3F2-6147-A6C9-9191D6F52E43}">
       <text>
         <r>
           <rPr>
@@ -4153,7 +4623,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I185" authorId="0" shapeId="0" xr:uid="{B3EC1578-B0FD-1F4E-9D3F-25E377FDF1B6}">
+    <comment ref="I185" authorId="0" shapeId="0" xr:uid="{30979EF0-D520-6A44-B2B1-16D3AC1D3C50}">
       <text>
         <r>
           <rPr>
@@ -4168,7 +4638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I186" authorId="0" shapeId="0" xr:uid="{5A47CBA0-D4BD-DC4A-944F-27B8EAA29958}">
+    <comment ref="I186" authorId="0" shapeId="0" xr:uid="{36CE6F0B-CAAA-7F42-B3F2-A694B763C85A}">
       <text>
         <r>
           <rPr>
@@ -4188,7 +4658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I187" authorId="0" shapeId="0" xr:uid="{DC28E610-D0BD-A64E-862B-1DE9C121D780}">
+    <comment ref="I187" authorId="0" shapeId="0" xr:uid="{211E1184-93D2-A14B-AB9C-D3A9D424E721}">
       <text>
         <r>
           <rPr>
@@ -4208,7 +4678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I188" authorId="0" shapeId="0" xr:uid="{7343DE71-5C7F-F446-8DBC-731ACD76EE03}">
+    <comment ref="I188" authorId="0" shapeId="0" xr:uid="{4F8DEDFD-BE70-AF44-B1E8-D4EEDD8CECC0}">
       <text>
         <r>
           <rPr>
@@ -4241,7 +4711,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I189" authorId="0" shapeId="0" xr:uid="{DBF6AFFC-F2D1-2A46-A790-6E34534FB646}">
+    <comment ref="I189" authorId="0" shapeId="0" xr:uid="{EEC77918-DAAA-824F-B737-2134EBD3636F}">
       <text>
         <r>
           <rPr>
@@ -4257,7 +4727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I190" authorId="0" shapeId="0" xr:uid="{9F20820B-27F9-8749-A5B4-8523BC165EDE}">
+    <comment ref="I190" authorId="0" shapeId="0" xr:uid="{842BC0B0-A7FF-DB43-8A52-D25DD9C04196}">
       <text>
         <r>
           <rPr>
@@ -4272,7 +4742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I191" authorId="0" shapeId="0" xr:uid="{8A24CC13-6537-034A-94A2-B18B424D6D73}">
+    <comment ref="I191" authorId="0" shapeId="0" xr:uid="{903B80CA-8C43-E34E-B0DA-BCE12EA14908}">
       <text>
         <r>
           <rPr>
@@ -4287,7 +4757,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I192" authorId="0" shapeId="0" xr:uid="{C5A42E12-D32E-0D48-8FFB-F0DC0F1C8BF9}">
+    <comment ref="I192" authorId="0" shapeId="0" xr:uid="{8FD483CA-4A09-FF48-B369-35D6E39D3A10}">
       <text>
         <r>
           <rPr>
@@ -4302,7 +4772,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I193" authorId="0" shapeId="0" xr:uid="{1EF27AF8-4CBA-1341-88DC-4A9625D69592}">
+    <comment ref="I193" authorId="0" shapeId="0" xr:uid="{ABCE0A88-790A-1245-862A-6AE7BF109B8A}">
       <text>
         <r>
           <rPr>
@@ -4318,7 +4788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I194" authorId="0" shapeId="0" xr:uid="{E6EC4EAF-A78A-D74F-9656-52B3A477677A}">
+    <comment ref="I194" authorId="0" shapeId="0" xr:uid="{913E9EA0-E4D8-3A43-889B-50A0B32B93D2}">
       <text>
         <r>
           <rPr>
@@ -4333,7 +4803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I195" authorId="0" shapeId="0" xr:uid="{338D523F-7152-034A-80FC-933E6D642596}">
+    <comment ref="I195" authorId="0" shapeId="0" xr:uid="{0B3E717C-0A81-7245-AF49-E5A447820D4F}">
       <text>
         <r>
           <rPr>
@@ -4349,7 +4819,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I196" authorId="0" shapeId="0" xr:uid="{1EC6ED29-0CEB-0C44-B871-1EDAB5E084D6}">
+    <comment ref="I196" authorId="0" shapeId="0" xr:uid="{E2B974A5-DB4F-AF43-A83E-A68B29FB654E}">
       <text>
         <r>
           <rPr>
@@ -4370,7 +4840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I197" authorId="0" shapeId="0" xr:uid="{127D1417-7A67-774A-BED3-221E25C2B054}">
+    <comment ref="I197" authorId="0" shapeId="0" xr:uid="{19932E87-541C-494D-947D-AD7655AAEE29}">
       <text>
         <r>
           <rPr>
@@ -4388,7 +4858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I198" authorId="0" shapeId="0" xr:uid="{A111A718-556C-E148-9AEC-1AA38CDD40BD}">
+    <comment ref="I198" authorId="0" shapeId="0" xr:uid="{0EC49C72-E9B8-0049-8266-CE08A61B84C4}">
       <text>
         <r>
           <rPr>
@@ -4406,7 +4876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I199" authorId="0" shapeId="0" xr:uid="{FDAE08CB-4535-7943-BADD-BC7FE7D60A2D}">
+    <comment ref="I199" authorId="0" shapeId="0" xr:uid="{449806E7-C012-EC46-9490-A1FC4450A46A}">
       <text>
         <r>
           <rPr>
@@ -4427,7 +4897,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I200" authorId="0" shapeId="0" xr:uid="{15D3D5A7-2943-114D-84F4-A9AF8626C866}">
+    <comment ref="I200" authorId="0" shapeId="0" xr:uid="{0059DB69-5EFD-E74E-9326-242E353DF712}">
       <text>
         <r>
           <rPr>
@@ -4442,7 +4912,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I201" authorId="0" shapeId="0" xr:uid="{A64CE757-34B5-DA47-B5DB-BC40CAC3A9DB}">
+    <comment ref="I201" authorId="0" shapeId="0" xr:uid="{59A08ACA-4733-0D4E-8144-10CC89343A74}">
       <text>
         <r>
           <rPr>
@@ -4470,7 +4940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I202" authorId="0" shapeId="0" xr:uid="{8B3FD7AC-1B06-7E49-9D62-05682DE49C63}">
+    <comment ref="I202" authorId="0" shapeId="0" xr:uid="{B8D9AD9C-A833-3D43-9FF8-EDD2AE87C09D}">
       <text>
         <r>
           <rPr>
@@ -4487,7 +4957,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I203" authorId="0" shapeId="0" xr:uid="{C08D1B0C-D0CA-544D-96EA-FE7AC507DCB0}">
+    <comment ref="I203" authorId="0" shapeId="0" xr:uid="{3152044A-4478-3041-B00A-400CDEB87EBB}">
       <text>
         <r>
           <rPr>
@@ -4507,7 +4977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I204" authorId="0" shapeId="0" xr:uid="{F67C2F40-3045-9544-9387-57DC9AA6760C}">
+    <comment ref="I204" authorId="0" shapeId="0" xr:uid="{4EC36E86-4E5E-724E-A9B1-738CEB6FB35E}">
       <text>
         <r>
           <rPr>
@@ -4523,7 +4993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I205" authorId="0" shapeId="0" xr:uid="{44D26A3F-BD39-4F4E-B0DB-D716597F1758}">
+    <comment ref="I205" authorId="0" shapeId="0" xr:uid="{2B85F88E-38E4-3347-BA44-DCEB6EBA132A}">
       <text>
         <r>
           <rPr>
@@ -4539,7 +5009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I206" authorId="0" shapeId="0" xr:uid="{84AA761F-A64B-3440-9990-D6BC2DF89F3F}">
+    <comment ref="I206" authorId="0" shapeId="0" xr:uid="{87956668-3B37-2546-A94F-3406B8578D2A}">
       <text>
         <r>
           <rPr>
@@ -4564,7 +5034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I207" authorId="0" shapeId="0" xr:uid="{56BF32BE-B933-9146-B340-5EBDC6453F81}">
+    <comment ref="I207" authorId="0" shapeId="0" xr:uid="{25EC8FDA-D097-D444-BB03-8780E257CEC3}">
       <text>
         <r>
           <rPr>
@@ -4583,7 +5053,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I208" authorId="0" shapeId="0" xr:uid="{5AAE0335-72A1-DE45-9D25-3875E2FFC242}">
+    <comment ref="I208" authorId="0" shapeId="0" xr:uid="{F10D9B0E-C23B-3D4B-8842-EAA74C11A57C}">
       <text>
         <r>
           <rPr>
@@ -4602,7 +5072,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I209" authorId="0" shapeId="0" xr:uid="{1323B269-1570-4A41-BE50-64586709078E}">
+    <comment ref="I209" authorId="0" shapeId="0" xr:uid="{393AA877-AE1E-834A-8D8A-2972029705CD}">
       <text>
         <r>
           <rPr>
@@ -4619,7 +5089,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I210" authorId="0" shapeId="0" xr:uid="{BB175DE7-EC46-2E4F-94AF-EA042670B58D}">
+    <comment ref="I210" authorId="0" shapeId="0" xr:uid="{8135D74F-EF6D-404B-84B9-8D1A7546B637}">
       <text>
         <r>
           <rPr>
@@ -4639,7 +5109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I211" authorId="0" shapeId="0" xr:uid="{A639CE4F-3D11-4642-8274-E039AE309E90}">
+    <comment ref="I211" authorId="0" shapeId="0" xr:uid="{3BA4FB3F-5415-AE4A-B80C-443F306D9DEA}">
       <text>
         <r>
           <rPr>
@@ -4661,7 +5131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I212" authorId="0" shapeId="0" xr:uid="{4B411031-DFA4-2C4C-9803-879C73668A3D}">
+    <comment ref="I212" authorId="0" shapeId="0" xr:uid="{D3240A28-0F9F-9947-806C-63BC68B9551B}">
       <text>
         <r>
           <rPr>
@@ -4677,7 +5147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I213" authorId="0" shapeId="0" xr:uid="{FA97BF4E-125B-C94E-B517-7D808E55EC38}">
+    <comment ref="I213" authorId="0" shapeId="0" xr:uid="{A43DF455-C86A-BD42-908C-F811B0CA62F4}">
       <text>
         <r>
           <rPr>
@@ -4693,7 +5163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I214" authorId="0" shapeId="0" xr:uid="{B57AEFFF-A239-E446-8BC1-23EA7B8BA03D}">
+    <comment ref="I214" authorId="0" shapeId="0" xr:uid="{780D9814-6B39-1C44-B354-61FA4934BD2D}">
       <text>
         <r>
           <rPr>
@@ -4716,7 +5186,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I215" authorId="0" shapeId="0" xr:uid="{534D66EC-F823-2640-BA6F-27CAAA14114A}">
+    <comment ref="I215" authorId="0" shapeId="0" xr:uid="{6360CB76-EC46-B347-828B-0EC6005818EF}">
       <text>
         <r>
           <rPr>
@@ -4736,7 +5206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I216" authorId="0" shapeId="0" xr:uid="{1228A633-3F5E-5641-8B2C-4897353F80D9}">
+    <comment ref="I216" authorId="0" shapeId="0" xr:uid="{0BF4F017-B9E1-9C48-BCE8-70F555400274}">
       <text>
         <r>
           <rPr>
@@ -4752,7 +5222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I217" authorId="0" shapeId="0" xr:uid="{1CC9F4A5-35F6-6143-8765-5E9F15A8056C}">
+    <comment ref="I217" authorId="0" shapeId="0" xr:uid="{B10509EA-3425-1A47-AD37-CB4EFC150D96}">
       <text>
         <r>
           <rPr>
@@ -4769,7 +5239,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I218" authorId="0" shapeId="0" xr:uid="{4BBE9B8A-DEC7-AC4B-B19E-1DD9FFAF39B2}">
+    <comment ref="I218" authorId="0" shapeId="0" xr:uid="{C915D9C9-5775-A043-BE55-3310A74A0364}">
       <text>
         <r>
           <rPr>
@@ -4790,7 +5260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I219" authorId="0" shapeId="0" xr:uid="{E04F987D-C43C-884C-A212-C8FAFBBBE9AD}">
+    <comment ref="I219" authorId="0" shapeId="0" xr:uid="{4212FE57-5BA2-9F46-BA7D-BF42035BC6F3}">
       <text>
         <r>
           <rPr>
@@ -4805,7 +5275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I220" authorId="0" shapeId="0" xr:uid="{DF676611-DD4B-2F41-BECC-EA2DBF419275}">
+    <comment ref="I220" authorId="0" shapeId="0" xr:uid="{28C2C2C4-5AAB-F742-9934-94F170E44C3F}">
       <text>
         <r>
           <rPr>
@@ -4829,7 +5299,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I221" authorId="0" shapeId="0" xr:uid="{96A0CC28-B74E-FE4E-A205-237A694C0342}">
+    <comment ref="I221" authorId="0" shapeId="0" xr:uid="{CF9292AC-4BA8-A547-9E16-64E4B177C784}">
       <text>
         <r>
           <rPr>
@@ -4853,7 +5323,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I222" authorId="0" shapeId="0" xr:uid="{EDC22135-2B0C-8C42-AB5C-525628CAB4D9}">
+    <comment ref="I222" authorId="0" shapeId="0" xr:uid="{0C7CEE50-2A62-BC4B-B1DF-48EB351A6CB5}">
       <text>
         <r>
           <rPr>
@@ -4886,7 +5356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I223" authorId="0" shapeId="0" xr:uid="{8E15A98E-8311-A143-A0FF-9AC389F66DA0}">
+    <comment ref="I223" authorId="0" shapeId="0" xr:uid="{B3E587CC-4D9A-B640-8E8C-1C89C1DD43F5}">
       <text>
         <r>
           <rPr>
@@ -4916,7 +5386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I224" authorId="0" shapeId="0" xr:uid="{A2A689B8-4546-604C-8DF2-E115997A214F}">
+    <comment ref="I224" authorId="0" shapeId="0" xr:uid="{988CD581-259B-5644-B9C4-B91FB9497142}">
       <text>
         <r>
           <rPr>
@@ -4931,7 +5401,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I225" authorId="0" shapeId="0" xr:uid="{36B8D194-2584-DD4C-A5FB-C85CD81AC816}">
+    <comment ref="I225" authorId="0" shapeId="0" xr:uid="{9B0F67B0-3136-FA4E-B5A9-2E3ED7345D6F}">
       <text>
         <r>
           <rPr>
@@ -4950,7 +5420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I226" authorId="0" shapeId="0" xr:uid="{5D7B7235-234F-0848-A462-F1C692331C5D}">
+    <comment ref="I226" authorId="0" shapeId="0" xr:uid="{28A364FD-EED2-CC47-B1B4-7D528251419E}">
       <text>
         <r>
           <rPr>
@@ -4968,7 +5438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I227" authorId="0" shapeId="0" xr:uid="{E6CF97E9-76B0-4441-827D-1A7C23EB910F}">
+    <comment ref="I227" authorId="0" shapeId="0" xr:uid="{1ECBA635-87DC-D847-B349-D4F1625D5382}">
       <text>
         <r>
           <rPr>
@@ -4986,17 +5456,16 @@
 George: ANTONY REED
 Young Charlie: CHARLIE UNDERHILL
 Young Lola: TEMBA MLISWA
-Angel:
+Angels:
 JON REYNOLDS, DANIEL DOWNING, JAK ALLEN-ANDERSON, LOUIS CLARKE-CLARE, JED BERRY, JEMAL FELIX
 Ensemble:
 GRAHAM KENT, ROBERT GROSE, HANNAH PRICE, DAVID HAYDN, OLIVIA WINTERFLOOD, KEITH HIGHAM, JONATHAN CARLTON, EMMA ODELL, ANNA STOLLI, ROSIE GLOSSOP, JORDAN FOX, ABBEY ADDAMS, TOM SCANLON
 Swing:
-MOMAR DIAGNE, BEN JENNINGS, ROBERT JONES, SUZIE MCADAM
-​</t>
+MOMAR DIAGNE, BEN JENNINGS, ROBERT JONES, SUZIE MCADAM</t>
         </r>
       </text>
     </comment>
-    <comment ref="I228" authorId="0" shapeId="0" xr:uid="{32CC713F-2969-704E-8CEB-0A87865C07E2}">
+    <comment ref="I228" authorId="0" shapeId="0" xr:uid="{509BB255-F05C-044F-9BD7-C14D2D3163B2}">
       <text>
         <r>
           <rPr>
@@ -5011,7 +5480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I229" authorId="0" shapeId="0" xr:uid="{D5F9A6C7-0B22-C24B-AF62-701A61B22576}">
+    <comment ref="I229" authorId="0" shapeId="0" xr:uid="{C2E967D5-E6AB-FE49-BA93-705EC7233EF2}">
       <text>
         <r>
           <rPr>
@@ -5030,7 +5499,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I230" authorId="0" shapeId="0" xr:uid="{F44BA940-A194-2645-B60C-EEAAB2FCFB25}">
+    <comment ref="I230" authorId="0" shapeId="0" xr:uid="{E6ADFD31-E33D-9C44-A5E1-64C613B6B959}">
       <text>
         <r>
           <rPr>
@@ -5046,7 +5515,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I231" authorId="0" shapeId="0" xr:uid="{F8EF5A17-DC65-574C-B9A5-092B240B0437}">
+    <comment ref="I231" authorId="0" shapeId="0" xr:uid="{01996EC7-9B82-784E-9783-C333DC7B7C7B}">
       <text>
         <r>
           <rPr>
@@ -5074,7 +5543,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I232" authorId="0" shapeId="0" xr:uid="{CB345611-9FC6-C540-A70B-288A6AA888F4}">
+    <comment ref="I232" authorId="0" shapeId="0" xr:uid="{29072F34-A90E-454F-A72B-BA63691663CF}">
       <text>
         <r>
           <rPr>
@@ -5094,7 +5563,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I233" authorId="0" shapeId="0" xr:uid="{350D722E-4E56-4A4E-B5F1-E28B03B74301}">
+    <comment ref="I233" authorId="0" shapeId="0" xr:uid="{C8C954F7-5184-2A4B-A86D-4CEF200EBE90}">
       <text>
         <r>
           <rPr>
@@ -5119,7 +5588,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I234" authorId="0" shapeId="0" xr:uid="{72874545-A651-AF43-9935-32A667291D36}">
+    <comment ref="I234" authorId="0" shapeId="0" xr:uid="{91079E86-32C7-8848-9398-08047FE9E7C1}">
       <text>
         <r>
           <rPr>
@@ -5135,7 +5604,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I235" authorId="0" shapeId="0" xr:uid="{A00399DF-03D8-7743-BAAA-4B00900D2A29}">
+    <comment ref="I235" authorId="0" shapeId="0" xr:uid="{BC347FE9-8DBC-6B42-90C3-B6565B7FDB87}">
       <text>
         <r>
           <rPr>
@@ -5151,7 +5620,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I236" authorId="0" shapeId="0" xr:uid="{AF3FF28A-96E5-914A-A07E-46B56F764CEE}">
+    <comment ref="I236" authorId="0" shapeId="0" xr:uid="{C38E178B-B1C8-1D47-86E5-80658D3D5E33}">
       <text>
         <r>
           <rPr>
@@ -5167,7 +5636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I237" authorId="0" shapeId="0" xr:uid="{BD62A105-3C67-3B4A-A11D-14E593A76C8F}">
+    <comment ref="I237" authorId="0" shapeId="0" xr:uid="{7DC9618E-AC14-A749-BE3B-8352E394DF03}">
       <text>
         <r>
           <rPr>
@@ -5186,7 +5655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I238" authorId="0" shapeId="0" xr:uid="{E5512A86-68BD-8042-823F-84BB93E80235}">
+    <comment ref="I238" authorId="0" shapeId="0" xr:uid="{69A7212D-10DB-7544-A896-CCE956F3EB56}">
       <text>
         <r>
           <rPr>
@@ -5201,7 +5670,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I239" authorId="0" shapeId="0" xr:uid="{41CDC94B-2EC5-9549-BE46-AC177171F4E8}">
+    <comment ref="I239" authorId="0" shapeId="0" xr:uid="{DC8EAC05-530F-6A48-A5B4-5863A0B88E14}">
       <text>
         <r>
           <rPr>
@@ -5223,7 +5692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I240" authorId="0" shapeId="0" xr:uid="{980D7171-86D1-B74E-8712-B88D7F18B909}">
+    <comment ref="I240" authorId="0" shapeId="0" xr:uid="{3311CDAF-663A-D647-89F9-919F3D58575B}">
       <text>
         <r>
           <rPr>
@@ -5239,7 +5708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I241" authorId="0" shapeId="0" xr:uid="{B324559F-B853-5E4B-8577-DD508A971B9C}">
+    <comment ref="I241" authorId="0" shapeId="0" xr:uid="{C012B660-5067-8545-B703-E5AB6EAF088C}">
       <text>
         <r>
           <rPr>
@@ -5257,7 +5726,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I242" authorId="0" shapeId="0" xr:uid="{F97B1568-F9A4-F040-A489-8F72865BBDEE}">
+    <comment ref="I242" authorId="0" shapeId="0" xr:uid="{4AD22098-0F76-4C4D-92CA-8A6AA160C293}">
       <text>
         <r>
           <rPr>
@@ -5273,7 +5742,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I243" authorId="0" shapeId="0" xr:uid="{7A8B7C49-A5C5-1D42-9F0E-B2125FB8338A}">
+    <comment ref="I243" authorId="0" shapeId="0" xr:uid="{674FF62D-9EEB-6842-AE0C-1822521A6132}">
       <text>
         <r>
           <rPr>
@@ -5289,7 +5758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I244" authorId="0" shapeId="0" xr:uid="{A47C46EB-E2E7-9D4A-9C13-FC4AE066BA57}">
+    <comment ref="I244" authorId="0" shapeId="0" xr:uid="{124AB480-8A6C-E143-9A9E-B251D1AAA150}">
       <text>
         <r>
           <rPr>
@@ -5305,7 +5774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I245" authorId="0" shapeId="0" xr:uid="{7A0AF83F-3716-DA41-96D1-35E46E90295D}">
+    <comment ref="I245" authorId="0" shapeId="0" xr:uid="{D41755C3-1769-D547-BB3A-2C2B3C5CB5AB}">
       <text>
         <r>
           <rPr>
@@ -5321,7 +5790,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I246" authorId="0" shapeId="0" xr:uid="{901F777D-C4A5-024E-A4B1-A2E2C5B156E5}">
+    <comment ref="I246" authorId="0" shapeId="0" xr:uid="{DA54435F-E365-CD44-967B-29508D1A189C}">
       <text>
         <r>
           <rPr>
@@ -5336,7 +5805,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I247" authorId="0" shapeId="0" xr:uid="{793AC6F1-AAC5-2040-AFA9-5016F440D6B1}">
+    <comment ref="I247" authorId="0" shapeId="0" xr:uid="{6E1FEB29-3F72-3F4C-B178-BBCDEBBC3081}">
       <text>
         <r>
           <rPr>
@@ -5352,7 +5821,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I248" authorId="0" shapeId="0" xr:uid="{E04A4D42-7B76-4744-B867-4DE0DB84D073}">
+    <comment ref="I248" authorId="0" shapeId="0" xr:uid="{ED292946-28D8-D546-93D6-A0A895F190A1}">
       <text>
         <r>
           <rPr>
@@ -5367,7 +5836,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I249" authorId="0" shapeId="0" xr:uid="{A9E79C7C-639B-1F41-A7D4-F6E0C2E04522}">
+    <comment ref="I249" authorId="0" shapeId="0" xr:uid="{6ADE296A-7BD2-164D-B7A4-BE5288A117EE}">
       <text>
         <r>
           <rPr>
@@ -5386,7 +5855,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I250" authorId="0" shapeId="0" xr:uid="{41582499-83BD-3949-A83A-F5E112A1B8DC}">
+    <comment ref="I250" authorId="0" shapeId="0" xr:uid="{FE41C664-A0E6-4341-A0C4-CBD17AF98326}">
       <text>
         <r>
           <rPr>
@@ -5402,7 +5871,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I251" authorId="0" shapeId="0" xr:uid="{132FAE5E-D3DB-D04D-8957-026657581558}">
+    <comment ref="I251" authorId="0" shapeId="0" xr:uid="{1A24E247-64EC-5B4F-8CD0-7FF3F524A861}">
       <text>
         <r>
           <rPr>
@@ -5421,7 +5890,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I252" authorId="0" shapeId="0" xr:uid="{8979E134-658A-4C4E-8879-C31DB13381FE}">
+    <comment ref="I252" authorId="0" shapeId="0" xr:uid="{68BB65FD-D873-1E4E-ABEF-5C8B5847E431}">
       <text>
         <r>
           <rPr>
@@ -5449,7 +5918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I253" authorId="0" shapeId="0" xr:uid="{F6AF8747-C072-1342-A6AD-536909F046E6}">
+    <comment ref="I253" authorId="0" shapeId="0" xr:uid="{215B8149-F514-5F49-8B66-E427500C8856}">
       <text>
         <r>
           <rPr>
@@ -5465,7 +5934,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I254" authorId="0" shapeId="0" xr:uid="{D9135167-E82F-4442-A6F2-8BE9A1149F32}">
+    <comment ref="I254" authorId="0" shapeId="0" xr:uid="{E064B448-52A4-2C42-8B48-791B86E15B67}">
       <text>
         <r>
           <rPr>
@@ -5492,7 +5961,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I255" authorId="0" shapeId="0" xr:uid="{82C7D7B5-1530-CE4F-9BB5-BB909D4EE7AC}">
+    <comment ref="I255" authorId="0" shapeId="0" xr:uid="{B1DD8FD4-41A9-D14B-82A5-62587AF9A5B6}">
       <text>
         <r>
           <rPr>
@@ -5508,7 +5977,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I256" authorId="0" shapeId="0" xr:uid="{6F27E97C-6D9E-CA4C-BD9B-5DAED8E1DFBC}">
+    <comment ref="I256" authorId="0" shapeId="0" xr:uid="{DD586AA2-98B9-314F-B647-191CE5E4DF76}">
       <text>
         <r>
           <rPr>
@@ -5523,7 +5992,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I257" authorId="0" shapeId="0" xr:uid="{610F190C-F9BF-3D49-9A06-E3B9E977BE43}">
+    <comment ref="I257" authorId="0" shapeId="0" xr:uid="{B659B611-8749-AC42-BE9B-4C3118D61C73}">
       <text>
         <r>
           <rPr>
@@ -5539,7 +6008,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I258" authorId="0" shapeId="0" xr:uid="{363E9E03-58A5-CE42-A414-54BDBA6183CC}">
+    <comment ref="I258" authorId="0" shapeId="0" xr:uid="{4DEF8F2B-F13A-DF49-A7B3-097DC38E2331}">
       <text>
         <r>
           <rPr>
@@ -5558,7 +6027,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I259" authorId="0" shapeId="0" xr:uid="{51E61981-3EEA-C542-AEC5-DED94E02C488}">
+    <comment ref="I259" authorId="0" shapeId="0" xr:uid="{E2E081E4-289D-5C4B-BCE2-8488764F0103}">
       <text>
         <r>
           <rPr>
@@ -5573,7 +6042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I260" authorId="0" shapeId="0" xr:uid="{20A6145A-CD0D-4743-8AFA-4D38DF218CCD}">
+    <comment ref="I260" authorId="0" shapeId="0" xr:uid="{BF36F715-02BB-9D49-9DD3-6C91BD699FCA}">
       <text>
         <r>
           <rPr>
@@ -5589,7 +6058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I261" authorId="0" shapeId="0" xr:uid="{84E333F9-CB6F-4442-9F28-606D2456B95B}">
+    <comment ref="I261" authorId="0" shapeId="0" xr:uid="{0BC8A611-DAA9-6E43-BD79-6977D6A45047}">
       <text>
         <r>
           <rPr>
@@ -5607,7 +6076,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I262" authorId="0" shapeId="0" xr:uid="{157FC658-2633-754C-9B1A-F9BCD25CAFD8}">
+    <comment ref="I262" authorId="0" shapeId="0" xr:uid="{61EA5FCB-F144-FB42-8F8B-5D4DDAA65224}">
       <text>
         <r>
           <rPr>
@@ -5623,7 +6092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I263" authorId="0" shapeId="0" xr:uid="{1707815F-56FC-9248-ACA9-A782ED77B099}">
+    <comment ref="I263" authorId="0" shapeId="0" xr:uid="{164F4BA6-7D17-BE42-A879-526EDB13A753}">
       <text>
         <r>
           <rPr>
@@ -5642,7 +6111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I264" authorId="0" shapeId="0" xr:uid="{00DF5A72-3BA3-5942-9CF6-46AC89161CA8}">
+    <comment ref="I264" authorId="0" shapeId="0" xr:uid="{EAFAA0C1-4F7E-FF49-A8DB-7E8EE5D2835B}">
       <text>
         <r>
           <rPr>
@@ -5658,7 +6127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I265" authorId="0" shapeId="0" xr:uid="{068E0300-C4CF-DC45-A706-A598954D8380}">
+    <comment ref="I265" authorId="0" shapeId="0" xr:uid="{9CCB15D4-9ABE-1F4A-B816-DECA09C1543E}">
       <text>
         <r>
           <rPr>
@@ -5676,7 +6145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I266" authorId="0" shapeId="0" xr:uid="{965897FF-AF5E-854F-954E-458288EBC3CF}">
+    <comment ref="I266" authorId="0" shapeId="0" xr:uid="{27F09FD0-4F2F-8E46-B095-FE4048DC4F18}">
       <text>
         <r>
           <rPr>
@@ -5694,7 +6163,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I267" authorId="0" shapeId="0" xr:uid="{CB806FAF-FEDC-5746-8ED6-BB9EB8F499C4}">
+    <comment ref="I267" authorId="0" shapeId="0" xr:uid="{C0E41F09-D0D3-8940-BC2D-D5A112621239}">
       <text>
         <r>
           <rPr>
@@ -5712,7 +6181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I268" authorId="0" shapeId="0" xr:uid="{C0DF2828-6544-1144-9C43-AE3102B4D526}">
+    <comment ref="I268" authorId="0" shapeId="0" xr:uid="{0F237DFB-BF8C-B048-9199-F94EBDFBAE9F}">
       <text>
         <r>
           <rPr>
@@ -5727,7 +6196,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I269" authorId="0" shapeId="0" xr:uid="{5B8630DF-5294-BA4E-A0A7-9B74A792ABFF}">
+    <comment ref="I269" authorId="0" shapeId="0" xr:uid="{09C7CEC1-C99D-6B49-8E99-B0BE870CF721}">
       <text>
         <r>
           <rPr>
@@ -5746,7 +6215,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I270" authorId="0" shapeId="0" xr:uid="{7CB3E51B-3CF4-984D-A092-4F0A6419F9C5}">
+    <comment ref="I270" authorId="0" shapeId="0" xr:uid="{4A615F91-CCBF-9F47-AA60-EC6B8E90101A}">
       <text>
         <r>
           <rPr>
@@ -5762,7 +6231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I271" authorId="0" shapeId="0" xr:uid="{94F1A328-AA96-AF4D-89EB-A953409C0671}">
+    <comment ref="I271" authorId="0" shapeId="0" xr:uid="{8F888854-CFEA-094C-BA78-BAD117BE65BD}">
       <text>
         <r>
           <rPr>
@@ -5780,7 +6249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I272" authorId="0" shapeId="0" xr:uid="{ABF45767-4984-3848-BDC2-E87AADABEE35}">
+    <comment ref="I272" authorId="0" shapeId="0" xr:uid="{0AFA82EC-D406-3047-8176-7E256240C1F8}">
       <text>
         <r>
           <rPr>
@@ -5796,7 +6265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I273" authorId="0" shapeId="0" xr:uid="{414EE4C5-3376-D548-BD8E-E5E6BF178763}">
+    <comment ref="I273" authorId="0" shapeId="0" xr:uid="{A197F343-19FA-B144-8236-DEF0A75C2447}">
       <text>
         <r>
           <rPr>
@@ -5815,7 +6284,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I274" authorId="0" shapeId="0" xr:uid="{B26FB6E9-0CF7-604B-9737-B8C11D5188CA}">
+    <comment ref="I274" authorId="0" shapeId="0" xr:uid="{06DF00B7-B268-734E-AB91-9A9430667E07}">
       <text>
         <r>
           <rPr>
@@ -5831,7 +6300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I275" authorId="0" shapeId="0" xr:uid="{7826516F-DA6A-714E-88CE-0DDE9528C1E7}">
+    <comment ref="I275" authorId="0" shapeId="0" xr:uid="{BF23DFFA-33A1-F646-8018-6BEBF60D1635}">
       <text>
         <r>
           <rPr>
@@ -5847,7 +6316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I276" authorId="0" shapeId="0" xr:uid="{90E16172-4B25-2D4A-96F0-4D028C267378}">
+    <comment ref="I276" authorId="0" shapeId="0" xr:uid="{480986FD-8C27-3A40-BE75-2E9FBBF555B9}">
       <text>
         <r>
           <rPr>
@@ -5865,7 +6334,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I277" authorId="0" shapeId="0" xr:uid="{C9633694-D6FA-DA4B-9A75-8E13603CA165}">
+    <comment ref="I277" authorId="0" shapeId="0" xr:uid="{2CCBFE82-8A2F-B043-B28D-501259F4F99E}">
       <text>
         <r>
           <rPr>
@@ -5881,7 +6350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I278" authorId="0" shapeId="0" xr:uid="{3A91B771-782A-BB47-804B-E7446E7F172B}">
+    <comment ref="I278" authorId="0" shapeId="0" xr:uid="{194B40D6-7445-BA48-A82E-DEE3D91C37DA}">
       <text>
         <r>
           <rPr>
@@ -5897,7 +6366,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I279" authorId="0" shapeId="0" xr:uid="{C8F9C22B-596B-3D42-AE84-B398970EBD76}">
+    <comment ref="I279" authorId="0" shapeId="0" xr:uid="{87F71DB9-4DBB-224B-9A41-1B5847DDF0B6}">
       <text>
         <r>
           <rPr>
@@ -5913,7 +6382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I280" authorId="0" shapeId="0" xr:uid="{AAB9894B-E195-8944-AD25-065732D9FF10}">
+    <comment ref="I280" authorId="0" shapeId="0" xr:uid="{1AD71456-B5DA-CA4E-9518-D59885548B64}">
       <text>
         <r>
           <rPr>
@@ -5933,7 +6402,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I281" authorId="0" shapeId="0" xr:uid="{FC8797AB-D720-9345-AC9D-7FDEA30F57BA}">
+    <comment ref="I281" authorId="0" shapeId="0" xr:uid="{A3BDAF6E-D098-4F43-AC7F-BF7F383C7E57}">
       <text>
         <r>
           <rPr>
@@ -5951,7 +6420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I282" authorId="0" shapeId="0" xr:uid="{B1A4DCCC-5581-9C43-B16A-CFFCB0A7C543}">
+    <comment ref="I282" authorId="0" shapeId="0" xr:uid="{57110D94-45A0-8746-BE57-5715092CD495}">
       <text>
         <r>
           <rPr>
@@ -5979,7 +6448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I283" authorId="0" shapeId="0" xr:uid="{6E9FD643-F67E-B44B-A2B2-598F0BFE75F9}">
+    <comment ref="I283" authorId="0" shapeId="0" xr:uid="{368B3025-1233-DC4C-8590-E193D0C69B37}">
       <text>
         <r>
           <rPr>
@@ -6008,7 +6477,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I284" authorId="0" shapeId="0" xr:uid="{F67D74A7-6DD5-4B46-96A0-ED0061F6A843}">
+    <comment ref="I284" authorId="0" shapeId="0" xr:uid="{E73AD160-D1FD-C647-8FCA-E4AD599D18A6}">
       <text>
         <r>
           <rPr>
@@ -6025,7 +6494,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I285" authorId="0" shapeId="0" xr:uid="{ABEFB14D-7314-D24A-83B3-EFBA0B86BF65}">
+    <comment ref="I285" authorId="0" shapeId="0" xr:uid="{A0E4A7E5-F65A-C04B-8E10-B572AED57818}">
       <text>
         <r>
           <rPr>
@@ -6054,7 +6523,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I286" authorId="0" shapeId="0" xr:uid="{8104077F-6031-9640-B94C-08E4561903D8}">
+    <comment ref="I286" authorId="0" shapeId="0" xr:uid="{82795E94-A9BC-CD41-BE36-C6CC6485EC10}">
       <text>
         <r>
           <rPr>
@@ -6083,7 +6552,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I287" authorId="0" shapeId="0" xr:uid="{46BEB1E9-E39F-4341-9925-79EB03B7FE0D}">
+    <comment ref="I287" authorId="0" shapeId="0" xr:uid="{5369D82F-4419-1D44-9026-833BAD99E751}">
       <text>
         <r>
           <rPr>
@@ -6098,7 +6567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I288" authorId="0" shapeId="0" xr:uid="{9F8A9423-8CBE-504C-A549-CD8E09D4A5B3}">
+    <comment ref="I288" authorId="0" shapeId="0" xr:uid="{33051A92-D269-7340-AE09-D54485BE3EF8}">
       <text>
         <r>
           <rPr>
@@ -6116,7 +6585,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I289" authorId="0" shapeId="0" xr:uid="{114275BA-AB16-8048-869E-9EEDEA07E2DA}">
+    <comment ref="I289" authorId="0" shapeId="0" xr:uid="{81F80DD2-040A-0247-978C-7EA7FE456378}">
       <text>
         <r>
           <rPr>
@@ -6136,7 +6605,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I290" authorId="0" shapeId="0" xr:uid="{EE74E255-C989-E548-8864-6468C3AEDA83}">
+    <comment ref="I290" authorId="0" shapeId="0" xr:uid="{17CEB281-71BC-6B46-BDD3-15AFAC7A89B8}">
       <text>
         <r>
           <rPr>
@@ -6155,7 +6624,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I291" authorId="0" shapeId="0" xr:uid="{B0E7161B-A52E-3343-BF6C-7768C7F09C42}">
+    <comment ref="I291" authorId="0" shapeId="0" xr:uid="{75BA5544-C62B-8A4D-9BEB-FB98BBAD5D22}">
       <text>
         <r>
           <rPr>
@@ -6174,7 +6643,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I292" authorId="0" shapeId="0" xr:uid="{3B994BA5-756C-F64B-A807-E03F4BC8DE35}">
+    <comment ref="I292" authorId="0" shapeId="0" xr:uid="{2F449A51-7DB4-A54F-855A-9D7DE0D88715}">
       <text>
         <r>
           <rPr>
@@ -6194,7 +6663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I293" authorId="0" shapeId="0" xr:uid="{4D297432-B321-1243-9CB5-F17F9453BDDB}">
+    <comment ref="I293" authorId="0" shapeId="0" xr:uid="{1B8BFFC7-52D3-F54C-A689-B99E27E35390}">
       <text>
         <r>
           <rPr>
@@ -6223,7 +6692,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I294" authorId="0" shapeId="0" xr:uid="{E7112923-D8EF-3040-9654-59B15F2D7158}">
+    <comment ref="I294" authorId="0" shapeId="0" xr:uid="{4FBA3BA0-8425-2E47-8675-0706E9619F64}">
       <text>
         <r>
           <rPr>
@@ -6244,7 +6713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I295" authorId="0" shapeId="0" xr:uid="{DFCCDACA-B8B1-FB4D-A555-890A68060397}">
+    <comment ref="I295" authorId="0" shapeId="0" xr:uid="{D6DA72A8-BA3F-FC45-ADAF-80CB55CBF84F}">
       <text>
         <r>
           <rPr>
@@ -6259,7 +6728,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I296" authorId="0" shapeId="0" xr:uid="{A3F93F40-6F8F-7A45-B207-E0A42AFBC7BD}">
+    <comment ref="I296" authorId="0" shapeId="0" xr:uid="{8DEC3F39-FBD6-5445-B35E-45BDEF8BA072}">
       <text>
         <r>
           <rPr>
@@ -6279,7 +6748,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I297" authorId="0" shapeId="0" xr:uid="{01035B6F-D542-844E-84A3-C53021A1FF00}">
+    <comment ref="I297" authorId="0" shapeId="0" xr:uid="{DEA4AC2B-A908-D445-84B7-CEB9E40A5A8B}">
       <text>
         <r>
           <rPr>
@@ -6298,7 +6767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I298" authorId="0" shapeId="0" xr:uid="{D830DB80-1553-FA4A-9E39-BBABA144EA3C}">
+    <comment ref="I298" authorId="0" shapeId="0" xr:uid="{142CA486-FC28-6C42-A8F2-67A4EE78A427}">
       <text>
         <r>
           <rPr>
@@ -6318,7 +6787,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I299" authorId="0" shapeId="0" xr:uid="{F8F8A1A9-4840-0145-A7CE-74D01BC95106}">
+    <comment ref="I299" authorId="0" shapeId="0" xr:uid="{38D1A8CF-322B-2D47-B41D-66A59673E759}">
       <text>
         <r>
           <rPr>
@@ -6342,7 +6811,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I300" authorId="0" shapeId="0" xr:uid="{2DCB12F5-459A-344F-8921-424E6F738E66}">
+    <comment ref="I300" authorId="0" shapeId="0" xr:uid="{8F633094-E0CF-5041-B8E8-34DE2C9A0D8A}">
       <text>
         <r>
           <rPr>
@@ -6357,7 +6826,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I301" authorId="0" shapeId="0" xr:uid="{5F650A09-2896-B44C-9D34-642A9F62B941}">
+    <comment ref="I301" authorId="0" shapeId="0" xr:uid="{57851B8B-D888-5446-AFBF-730B90E0C602}">
       <text>
         <r>
           <rPr>
@@ -6373,7 +6842,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I302" authorId="0" shapeId="0" xr:uid="{6196590C-4255-DC4B-8D82-F73DA3F16BC0}">
+    <comment ref="I302" authorId="0" shapeId="0" xr:uid="{3BB683A7-AE74-8744-98CC-A318775B1A95}">
       <text>
         <r>
           <rPr>
@@ -6389,7 +6858,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I303" authorId="0" shapeId="0" xr:uid="{277145A8-2443-C74A-B71E-F77179A564C2}">
+    <comment ref="I303" authorId="0" shapeId="0" xr:uid="{FFD2AA0A-D38C-FB44-80FD-66C42839E4E1}">
       <text>
         <r>
           <rPr>
@@ -6407,7 +6876,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I304" authorId="0" shapeId="0" xr:uid="{67962382-39CA-C145-8291-F6F4DE62EF48}">
+    <comment ref="I304" authorId="0" shapeId="0" xr:uid="{DBB3A0BD-1DAF-7844-9BE6-67E4A2C34D95}">
       <text>
         <r>
           <rPr>
@@ -6424,7 +6893,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I305" authorId="0" shapeId="0" xr:uid="{861305B0-C3E6-2F42-956F-A6696799CA47}">
+    <comment ref="I305" authorId="0" shapeId="0" xr:uid="{2CF361D5-3CA3-9E4F-B31A-356DCA5E6262}">
       <text>
         <r>
           <rPr>
@@ -6440,7 +6909,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I306" authorId="0" shapeId="0" xr:uid="{47302AB3-046B-B848-942A-035ABF6FC6FF}">
+    <comment ref="I306" authorId="0" shapeId="0" xr:uid="{E51CC10C-B31E-E84B-BBB2-7AB43411AD5A}">
       <text>
         <r>
           <rPr>
@@ -6456,7 +6925,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I307" authorId="0" shapeId="0" xr:uid="{CF868612-A13D-4543-BAAA-EEDBC6809F48}">
+    <comment ref="I307" authorId="0" shapeId="0" xr:uid="{05C26738-FDD8-A149-BBB5-29FBC180D1D5}">
       <text>
         <r>
           <rPr>
@@ -6478,7 +6947,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I308" authorId="0" shapeId="0" xr:uid="{88602FEB-5DE7-7B43-A759-C20E5CE05455}">
+    <comment ref="I308" authorId="0" shapeId="0" xr:uid="{7FFAD9A9-9351-6B4D-ABDC-CDFC9556CD32}">
       <text>
         <r>
           <rPr>
@@ -6494,7 +6963,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I309" authorId="0" shapeId="0" xr:uid="{B299CB99-F0D0-2D4A-9A40-FB0E7F372773}">
+    <comment ref="I309" authorId="0" shapeId="0" xr:uid="{4515868A-5638-5641-9591-28680DECE520}">
       <text>
         <r>
           <rPr>
@@ -6510,7 +6979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I310" authorId="0" shapeId="0" xr:uid="{91D93A80-24C8-EF43-8B28-426B48796AE0}">
+    <comment ref="I310" authorId="0" shapeId="0" xr:uid="{D5F3B462-DC33-484E-AAD0-2ECCB77561EC}">
       <text>
         <r>
           <rPr>
@@ -6530,7 +6999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I311" authorId="0" shapeId="0" xr:uid="{B6453335-42B0-8043-8F6A-007DBCA7D433}">
+    <comment ref="I311" authorId="0" shapeId="0" xr:uid="{69AD9181-7B55-CC4D-9801-018C95F58272}">
       <text>
         <r>
           <rPr>
@@ -6554,7 +7023,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I312" authorId="0" shapeId="0" xr:uid="{A89092D6-BE79-9E47-80EC-62EA8981F9AB}">
+    <comment ref="I312" authorId="0" shapeId="0" xr:uid="{140E6866-9448-F141-B6CA-AFF16698D271}">
       <text>
         <r>
           <rPr>
@@ -6576,7 +7045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I313" authorId="0" shapeId="0" xr:uid="{4E699D58-0678-424E-8192-8E0BD9BDFA71}">
+    <comment ref="I313" authorId="0" shapeId="0" xr:uid="{B09905DE-655A-1D46-915B-DEDF7E4E0B10}">
       <text>
         <r>
           <rPr>
@@ -6598,7 +7067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I314" authorId="0" shapeId="0" xr:uid="{8DB76F64-DF4D-C443-BC4C-304758A23974}">
+    <comment ref="I314" authorId="0" shapeId="0" xr:uid="{46EEE308-D00A-BA4A-A779-0720B6165899}">
       <text>
         <r>
           <rPr>
@@ -6626,7 +7095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I315" authorId="0" shapeId="0" xr:uid="{A79AC214-B38D-694B-B174-F19469D43546}">
+    <comment ref="I315" authorId="0" shapeId="0" xr:uid="{A4A6BAA5-7DDA-F340-A83B-1E50B4473DBD}">
       <text>
         <r>
           <rPr>
@@ -6645,7 +7114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I316" authorId="0" shapeId="0" xr:uid="{DE036A74-CF0C-1649-AC71-273BDEFC8130}">
+    <comment ref="I316" authorId="0" shapeId="0" xr:uid="{AD24AA13-3685-E342-A991-B1A2E4B61272}">
       <text>
         <r>
           <rPr>
@@ -6665,7 +7134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I317" authorId="0" shapeId="0" xr:uid="{C70A0F4A-B041-4348-87AA-2ED352DD0D1A}">
+    <comment ref="I317" authorId="0" shapeId="0" xr:uid="{B0BAD051-A681-934C-9CC5-AA2E2283CAE8}">
       <text>
         <r>
           <rPr>
@@ -6683,7 +7152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I318" authorId="0" shapeId="0" xr:uid="{C318437F-BFB4-2C44-806A-616DA4CD5E26}">
+    <comment ref="I318" authorId="0" shapeId="0" xr:uid="{DEFF5420-5AA3-FB4B-9C7E-1E813540DB35}">
       <text>
         <r>
           <rPr>
@@ -6698,7 +7167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I319" authorId="0" shapeId="0" xr:uid="{74C3F012-03B4-F045-81C1-12A3F18F8CD6}">
+    <comment ref="I319" authorId="0" shapeId="0" xr:uid="{51486AA9-2CF1-0948-96E4-797059B76D60}">
       <text>
         <r>
           <rPr>
@@ -6722,7 +7191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I320" authorId="0" shapeId="0" xr:uid="{BAF03C2B-913E-104B-B191-E1E25507CD99}">
+    <comment ref="I320" authorId="0" shapeId="0" xr:uid="{68BCB5C8-3596-4F4A-A44E-9DF5E98B14DD}">
       <text>
         <r>
           <rPr>
@@ -6741,7 +7210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I321" authorId="0" shapeId="0" xr:uid="{44ED8AB9-DD88-834F-BE37-003959F14839}">
+    <comment ref="I321" authorId="0" shapeId="0" xr:uid="{4E63B6C3-5557-5046-92DC-DE45942A17B5}">
       <text>
         <r>
           <rPr>
@@ -6757,7 +7226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I322" authorId="0" shapeId="0" xr:uid="{B9E98ED7-64C7-3047-A079-6865275ADE00}">
+    <comment ref="I322" authorId="0" shapeId="0" xr:uid="{4DF600FB-4FC6-1243-928C-A186FDE0A1B5}">
       <text>
         <r>
           <rPr>
@@ -6775,7 +7244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I323" authorId="0" shapeId="0" xr:uid="{EC3C7781-BD58-5A4A-88BB-049AB58E8A45}">
+    <comment ref="I323" authorId="0" shapeId="0" xr:uid="{1DE1BB89-3939-A24A-A0D9-BBE3BB547019}">
       <text>
         <r>
           <rPr>
@@ -6790,7 +7259,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I324" authorId="0" shapeId="0" xr:uid="{3449F8E7-8D55-CE4B-8784-E3D762DB2C2D}">
+    <comment ref="I324" authorId="0" shapeId="0" xr:uid="{CD300AD6-69AB-2146-BCFB-1923152A6F0D}">
       <text>
         <r>
           <rPr>
@@ -6809,7 +7278,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I325" authorId="0" shapeId="0" xr:uid="{481CAC78-F2D6-2C45-9AFB-A90CD06CA7A9}">
+    <comment ref="I325" authorId="0" shapeId="0" xr:uid="{73AAD9BB-0220-E24E-960F-6BD3D8B21E98}">
       <text>
         <r>
           <rPr>
@@ -6838,7 +7307,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I326" authorId="0" shapeId="0" xr:uid="{CF351EC8-A440-CA46-943A-6A24A38D7E31}">
+    <comment ref="I326" authorId="0" shapeId="0" xr:uid="{3AFFA43F-7A86-A049-B308-F40EA1740BE2}">
       <text>
         <r>
           <rPr>
@@ -6856,7 +7325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I327" authorId="0" shapeId="0" xr:uid="{403D2165-E289-524D-94FF-B05B029004D4}">
+    <comment ref="I327" authorId="0" shapeId="0" xr:uid="{832E6C35-1FC9-6640-9434-650FC62277EB}">
       <text>
         <r>
           <rPr>
@@ -6885,7 +7354,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I328" authorId="0" shapeId="0" xr:uid="{43D18337-8A61-1845-A665-4D09E419C1E8}">
+    <comment ref="I328" authorId="0" shapeId="0" xr:uid="{1724840C-DB11-EC4D-9D67-F1AF7D1FEEA6}">
       <text>
         <r>
           <rPr>
@@ -6902,7 +7371,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I329" authorId="0" shapeId="0" xr:uid="{032BE543-72F3-2C42-AE68-A8F495D35C7B}">
+    <comment ref="I329" authorId="0" shapeId="0" xr:uid="{523D18D5-9753-7045-8FCA-4A74AF4DA8EA}">
       <text>
         <r>
           <rPr>
@@ -6918,7 +7387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I330" authorId="0" shapeId="0" xr:uid="{1EA3B1B8-2089-014C-9FCC-BCF34E76320C}">
+    <comment ref="I330" authorId="0" shapeId="0" xr:uid="{C6EEC0C8-09EA-2648-BDF0-B62983E30A84}">
       <text>
         <r>
           <rPr>
@@ -6947,7 +7416,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I331" authorId="0" shapeId="0" xr:uid="{2E610DEC-5365-484D-8104-71C07B34C9A5}">
+    <comment ref="I331" authorId="0" shapeId="0" xr:uid="{B177ED56-2A28-5044-BB20-7DFE60BBE153}">
       <text>
         <r>
           <rPr>
@@ -6972,7 +7441,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I332" authorId="0" shapeId="0" xr:uid="{4BFBC46A-47E0-7544-9CB6-A0228A1DE722}">
+    <comment ref="I332" authorId="0" shapeId="0" xr:uid="{337DF324-E370-7744-9BA9-681855FCDA14}">
       <text>
         <r>
           <rPr>
@@ -6997,7 +7466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I333" authorId="0" shapeId="0" xr:uid="{F49C05C3-0824-5A4E-92F0-6C0C77ED64BD}">
+    <comment ref="I333" authorId="0" shapeId="0" xr:uid="{45B009C8-DF48-444D-8EC3-15C1937FEE13}">
       <text>
         <r>
           <rPr>
@@ -7021,7 +7490,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I334" authorId="0" shapeId="0" xr:uid="{71370A62-62CC-EF48-B1A1-93E24BA00014}">
+    <comment ref="I334" authorId="0" shapeId="0" xr:uid="{CC8F024C-CCE2-7649-9B80-5A8C418ACCF2}">
       <text>
         <r>
           <rPr>
@@ -7040,7 +7509,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I335" authorId="0" shapeId="0" xr:uid="{FE5A483C-5BFC-284C-8E03-7A510F23610C}">
+    <comment ref="I335" authorId="0" shapeId="0" xr:uid="{83C103E3-2B87-1B4D-819B-62569C9AC662}">
       <text>
         <r>
           <rPr>
@@ -7065,7 +7534,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I336" authorId="0" shapeId="0" xr:uid="{117466C1-D3B0-B842-BB8D-6A1DE067DB4E}">
+    <comment ref="I336" authorId="0" shapeId="0" xr:uid="{342FFC44-7F44-8449-AB45-309F3FD012D5}">
       <text>
         <r>
           <rPr>
@@ -7090,7 +7559,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I337" authorId="0" shapeId="0" xr:uid="{733ACECB-75CF-ED46-B6DD-2656861B7DF1}">
+    <comment ref="I337" authorId="0" shapeId="0" xr:uid="{6BD47BCB-4D21-BB4D-908D-22D05716A7DD}">
       <text>
         <r>
           <rPr>
@@ -7118,7 +7587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I338" authorId="0" shapeId="0" xr:uid="{EEF61CD4-FC2A-3449-87CA-46B9B79AD797}">
+    <comment ref="I338" authorId="0" shapeId="0" xr:uid="{C0440868-033C-AE48-BB74-9E09CFD0B9CD}">
       <text>
         <r>
           <rPr>
@@ -7143,7 +7612,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I339" authorId="0" shapeId="0" xr:uid="{81951EEE-464E-774F-AF48-AC27EDE827BA}">
+    <comment ref="I339" authorId="0" shapeId="0" xr:uid="{BAEBB993-3BA7-E544-BEC3-D82C899812A3}">
       <text>
         <r>
           <rPr>
@@ -7173,7 +7642,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I340" authorId="0" shapeId="0" xr:uid="{1ADD01AC-0CC9-A24A-B22F-508972CBCBE8}">
+    <comment ref="I340" authorId="0" shapeId="0" xr:uid="{5301F344-328B-9E41-8C69-834947BA6187}">
       <text>
         <r>
           <rPr>
@@ -7198,7 +7667,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I341" authorId="0" shapeId="0" xr:uid="{056B6C62-0336-174D-A391-22D29D31AEBB}">
+    <comment ref="I341" authorId="0" shapeId="0" xr:uid="{EDDCF74B-E886-CA47-A767-8C8B2A0C1D1E}">
       <text>
         <r>
           <rPr>
@@ -7214,7 +7683,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I342" authorId="0" shapeId="0" xr:uid="{2720C40E-E641-FE4D-B45C-4FFAB5A8DA45}">
+    <comment ref="I342" authorId="0" shapeId="0" xr:uid="{84116C8E-ACA0-CB41-B818-54B10364B33F}">
       <text>
         <r>
           <rPr>
@@ -7239,7 +7708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I343" authorId="0" shapeId="0" xr:uid="{38B8E829-37FA-0744-88C6-1DD32B1CBE89}">
+    <comment ref="I343" authorId="0" shapeId="0" xr:uid="{0AC257E4-A9B8-3642-909A-79AB537300B4}">
       <text>
         <r>
           <rPr>
@@ -7268,7 +7737,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I344" authorId="0" shapeId="0" xr:uid="{530F8BDD-45CF-AD44-AA89-850E40C76175}">
+    <comment ref="I344" authorId="0" shapeId="0" xr:uid="{CCF305CA-854F-3E41-81D2-F4AF076675F0}">
       <text>
         <r>
           <rPr>
@@ -7293,7 +7762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I345" authorId="0" shapeId="0" xr:uid="{A76FE656-6006-BD43-BD86-B7BF81C76292}">
+    <comment ref="I345" authorId="0" shapeId="0" xr:uid="{CB158339-1B65-E14A-8B33-AB49E57464B2}">
       <text>
         <r>
           <rPr>
@@ -7309,7 +7778,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I346" authorId="0" shapeId="0" xr:uid="{3BEC6410-7F9A-F84F-A7FC-5237E45A7E9C}">
+    <comment ref="I346" authorId="0" shapeId="0" xr:uid="{DEA81790-021B-6D42-94BC-AF6597609E6A}">
       <text>
         <r>
           <rPr>
@@ -7334,7 +7803,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I347" authorId="0" shapeId="0" xr:uid="{FDCCF8FB-B888-F240-AE19-11CC512A601E}">
+    <comment ref="I347" authorId="0" shapeId="0" xr:uid="{4C82112C-4E67-DE48-AAEF-0A12B14239DA}">
       <text>
         <r>
           <rPr>
@@ -7363,7 +7832,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I348" authorId="0" shapeId="0" xr:uid="{734CF8F2-E448-8E4D-B3D5-0DF79D11F59A}">
+    <comment ref="I348" authorId="0" shapeId="0" xr:uid="{A003DD38-F03E-134D-93FE-6F6BAB92B062}">
       <text>
         <r>
           <rPr>
@@ -7379,7 +7848,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I349" authorId="0" shapeId="0" xr:uid="{B206D54F-4B7C-7C41-975D-D18BE0FD765D}">
+    <comment ref="I349" authorId="0" shapeId="0" xr:uid="{C4D5B421-A0D2-C541-AC40-954DA5AA446E}">
       <text>
         <r>
           <rPr>
@@ -7394,7 +7863,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I350" authorId="0" shapeId="0" xr:uid="{A737BCF9-E0E0-0249-AA99-EFCF6FEB33A4}">
+    <comment ref="I350" authorId="0" shapeId="0" xr:uid="{92F7B174-3072-774E-AB49-68337BAE0AF1}">
       <text>
         <r>
           <rPr>
@@ -7413,7 +7882,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I351" authorId="0" shapeId="0" xr:uid="{DB64DB36-E3C0-6341-AD66-77458D877157}">
+    <comment ref="I351" authorId="0" shapeId="0" xr:uid="{1EACB67C-188C-AF43-8B90-7D5600F086AF}">
       <text>
         <r>
           <rPr>
@@ -7432,7 +7901,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I352" authorId="0" shapeId="0" xr:uid="{EABBE7F8-F25B-DE44-974A-010C2279CB6D}">
+    <comment ref="I352" authorId="0" shapeId="0" xr:uid="{711C7ADD-E15D-844C-B7C5-3827766700DD}">
       <text>
         <r>
           <rPr>
@@ -7453,7 +7922,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I353" authorId="0" shapeId="0" xr:uid="{38343D7F-6272-A64D-BE92-F9AC4FA4D115}">
+    <comment ref="I353" authorId="0" shapeId="0" xr:uid="{7757DD37-070B-4A4C-8E69-0927F1062111}">
       <text>
         <r>
           <rPr>
@@ -7468,7 +7937,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I354" authorId="0" shapeId="0" xr:uid="{13224805-6033-1D4E-93E4-E1624664456E}">
+    <comment ref="I354" authorId="0" shapeId="0" xr:uid="{9DBF20CF-5F5F-8641-B8BA-AB348FB50595}">
       <text>
         <r>
           <rPr>
@@ -7484,7 +7953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I355" authorId="0" shapeId="0" xr:uid="{301F8DB1-EB07-734D-A6EE-DEDF84875BBD}">
+    <comment ref="I355" authorId="0" shapeId="0" xr:uid="{AF275E6D-FE69-0A4C-A169-803A9A53EB8F}">
       <text>
         <r>
           <rPr>
@@ -7501,7 +7970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I356" authorId="0" shapeId="0" xr:uid="{C82F9742-58C2-3942-BD6D-F271663A5B8E}">
+    <comment ref="I356" authorId="0" shapeId="0" xr:uid="{DA04C2D1-4D1E-3E43-BC9B-57F4AD47B0F8}">
       <text>
         <r>
           <rPr>
@@ -7517,7 +7986,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I357" authorId="0" shapeId="0" xr:uid="{6AB9D0AE-F6AE-E846-9266-2972A444B19C}">
+    <comment ref="I357" authorId="0" shapeId="0" xr:uid="{A936ABAF-0E00-7748-8FAF-AD08DC108841}">
       <text>
         <r>
           <rPr>
@@ -7536,7 +8005,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I358" authorId="0" shapeId="0" xr:uid="{23B436C8-20AF-424F-87A6-9177976A4CBF}">
+    <comment ref="I358" authorId="0" shapeId="0" xr:uid="{8D319E23-0024-1A4C-8C37-7F10E1EFE095}">
       <text>
         <r>
           <rPr>
@@ -7553,7 +8022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I359" authorId="0" shapeId="0" xr:uid="{9E42A2B1-7A13-FD4F-8C0B-334B310BD4FD}">
+    <comment ref="I359" authorId="0" shapeId="0" xr:uid="{EBA9D1F4-37B8-B245-8A75-8B9916980020}">
       <text>
         <r>
           <rPr>
@@ -7572,7 +8041,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I360" authorId="0" shapeId="0" xr:uid="{5713824B-7F6B-0140-879D-92599D083845}">
+    <comment ref="I360" authorId="0" shapeId="0" xr:uid="{AA87BCAB-972B-9E43-A467-DCE3E2909D4B}">
       <text>
         <r>
           <rPr>
@@ -7589,7 +8058,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I361" authorId="0" shapeId="0" xr:uid="{0A0E7CC8-4725-EF44-A72B-970D2009271F}">
+    <comment ref="I361" authorId="0" shapeId="0" xr:uid="{3FA5B52D-6C13-6849-AA0F-1AF713554BC7}">
       <text>
         <r>
           <rPr>
@@ -7606,7 +8075,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I362" authorId="0" shapeId="0" xr:uid="{C89C6EDD-2D86-9045-8932-AAA0713300F4}">
+    <comment ref="I362" authorId="0" shapeId="0" xr:uid="{60ABFF7E-7AE7-1C42-B390-92F25B96ADAD}">
       <text>
         <r>
           <rPr>
@@ -7623,7 +8092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I363" authorId="0" shapeId="0" xr:uid="{8EDA3EDA-B022-8544-9278-3F088969A81A}">
+    <comment ref="I363" authorId="0" shapeId="0" xr:uid="{608B9013-2FC4-7D46-A5B1-B3DC1A694E60}">
       <text>
         <r>
           <rPr>
@@ -7648,7 +8117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I364" authorId="0" shapeId="0" xr:uid="{136637DB-9074-8A44-8268-E21F8A4F693A}">
+    <comment ref="I364" authorId="0" shapeId="0" xr:uid="{765DDC7C-3466-B24C-8058-4F12C0311CA9}">
       <text>
         <r>
           <rPr>
@@ -7665,7 +8134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I365" authorId="0" shapeId="0" xr:uid="{1A554AB7-ADCF-5C42-8B0E-E781C85ACA6E}">
+    <comment ref="I365" authorId="0" shapeId="0" xr:uid="{C51B5448-3848-3048-A1B0-A58B918A5ECD}">
       <text>
         <r>
           <rPr>
@@ -7682,7 +8151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I366" authorId="0" shapeId="0" xr:uid="{2B6CCAB8-42C8-DF46-A910-42D9030F731A}">
+    <comment ref="I366" authorId="0" shapeId="0" xr:uid="{40A54A09-D5A9-0141-B7AD-5E28730AC342}">
       <text>
         <r>
           <rPr>
@@ -7699,7 +8168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I367" authorId="0" shapeId="0" xr:uid="{0FBE9D5C-9AE5-184C-94E2-6BFE43E6AF1C}">
+    <comment ref="I367" authorId="0" shapeId="0" xr:uid="{08BE3C54-7485-0F46-A1BE-FCD875F100E8}">
       <text>
         <r>
           <rPr>
@@ -7716,7 +8185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I368" authorId="0" shapeId="0" xr:uid="{BAEF2B00-DC71-A949-8DD3-272520AB516A}">
+    <comment ref="I368" authorId="0" shapeId="0" xr:uid="{A65717E9-9FBB-BC4A-88FA-EA5CC07637A0}">
       <text>
         <r>
           <rPr>
@@ -7733,7 +8202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I369" authorId="0" shapeId="0" xr:uid="{19839672-9461-5C49-9094-BD215D57DF49}">
+    <comment ref="I369" authorId="0" shapeId="0" xr:uid="{1E712110-4950-1144-8376-07F0224DFC47}">
       <text>
         <r>
           <rPr>
@@ -7751,7 +8220,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I370" authorId="0" shapeId="0" xr:uid="{2097085A-E9E8-5C44-9759-1D085D163525}">
+    <comment ref="I370" authorId="0" shapeId="0" xr:uid="{798AF970-F99F-764D-89E2-914696384A35}">
       <text>
         <r>
           <rPr>
@@ -7768,7 +8237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I371" authorId="0" shapeId="0" xr:uid="{1EF65723-F69A-2A46-8633-08A2679C39E0}">
+    <comment ref="I371" authorId="0" shapeId="0" xr:uid="{5414AABD-C922-6A43-ABD1-0663C551E84E}">
       <text>
         <r>
           <rPr>
@@ -7786,7 +8255,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I372" authorId="0" shapeId="0" xr:uid="{D0FAE358-BE7D-2C42-9DB4-307947F43DAD}">
+    <comment ref="I372" authorId="0" shapeId="0" xr:uid="{DD3310F8-C5CB-EB40-9508-1F7513B78FAF}">
       <text>
         <r>
           <rPr>
@@ -7810,7 +8279,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I373" authorId="0" shapeId="0" xr:uid="{20F9F211-C502-2F44-A1BB-2A677835DC0E}">
+    <comment ref="I373" authorId="0" shapeId="0" xr:uid="{AAAD0EC2-D659-AD41-8314-8438A59548DE}">
       <text>
         <r>
           <rPr>
@@ -7829,7 +8298,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I374" authorId="0" shapeId="0" xr:uid="{C886499F-91C9-F649-8B51-485EACB2224A}">
+    <comment ref="I374" authorId="0" shapeId="0" xr:uid="{9735C9B7-AF5B-7C4E-B0C6-644F5EA5D7B5}">
       <text>
         <r>
           <rPr>
@@ -7847,7 +8316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I375" authorId="0" shapeId="0" xr:uid="{1DA3DE9D-B689-B44E-B5FC-440E091BCF4D}">
+    <comment ref="I375" authorId="0" shapeId="0" xr:uid="{2BCC7930-2352-B64B-ADF8-DA58219D9812}">
       <text>
         <r>
           <rPr>
@@ -7864,7 +8333,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I376" authorId="0" shapeId="0" xr:uid="{EC1C939D-7508-B54A-B7CD-AC2774621A6C}">
+    <comment ref="I376" authorId="0" shapeId="0" xr:uid="{A59CBFB1-2DE4-F74A-A672-C61A4C4CDF62}">
       <text>
         <r>
           <rPr>
@@ -7881,7 +8350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I377" authorId="0" shapeId="0" xr:uid="{04A1AC0C-F303-4240-84AB-32D75DC17BE9}">
+    <comment ref="I377" authorId="0" shapeId="0" xr:uid="{4262A1AC-49A3-DE42-A77E-BC673AD36BA3}">
       <text>
         <r>
           <rPr>
@@ -7898,7 +8367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I378" authorId="0" shapeId="0" xr:uid="{3E1CC482-B827-BC41-99A0-3C648B930C74}">
+    <comment ref="I378" authorId="0" shapeId="0" xr:uid="{E77B3836-7E4A-5E45-B43D-FB50D434F761}">
       <text>
         <r>
           <rPr>
@@ -7918,7 +8387,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I379" authorId="0" shapeId="0" xr:uid="{5E66B42A-49B2-F84A-9897-2272D47B27ED}">
+    <comment ref="I379" authorId="0" shapeId="0" xr:uid="{96056272-CEED-0F4D-814D-1940D8BE08CF}">
       <text>
         <r>
           <rPr>
@@ -7935,7 +8404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I380" authorId="0" shapeId="0" xr:uid="{ABAA0F6F-BAB5-724C-91D4-B299E4B85FE9}">
+    <comment ref="I380" authorId="0" shapeId="0" xr:uid="{A3142FA1-C8D0-D548-95FF-8D35F95EA850}">
       <text>
         <r>
           <rPr>
@@ -7952,7 +8421,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I381" authorId="0" shapeId="0" xr:uid="{95FB3961-8F06-DA45-92A0-9EB8BB8732B4}">
+    <comment ref="I381" authorId="0" shapeId="0" xr:uid="{075E7977-C293-1E44-9546-EFC07A264096}">
       <text>
         <r>
           <rPr>
@@ -7969,7 +8438,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I382" authorId="0" shapeId="0" xr:uid="{A0E71907-536D-CB41-9291-7DF4157D2D1B}">
+    <comment ref="I382" authorId="0" shapeId="0" xr:uid="{80DE31CE-E2E8-2D47-87C9-67E425847647}">
       <text>
         <r>
           <rPr>
@@ -7986,7 +8455,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I383" authorId="0" shapeId="0" xr:uid="{2D267ED2-2C0D-5B43-906C-4B95E4E3977B}">
+    <comment ref="I383" authorId="0" shapeId="0" xr:uid="{20175E44-59CD-CC4C-9BD5-4CDC092CE69A}">
       <text>
         <r>
           <rPr>
@@ -8003,7 +8472,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I384" authorId="0" shapeId="0" xr:uid="{D323E15F-D0AD-9541-A3F6-E1C1DDCEDB5B}">
+    <comment ref="I384" authorId="0" shapeId="0" xr:uid="{DC1305D2-2EB0-4E46-B735-8BC9667EE652}">
       <text>
         <r>
           <rPr>
@@ -8020,7 +8489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I385" authorId="0" shapeId="0" xr:uid="{717433A7-5295-534F-8176-E16FE2E587A3}">
+    <comment ref="I385" authorId="0" shapeId="0" xr:uid="{F7307F6F-A234-D64D-AF6E-BF72352AF7A4}">
       <text>
         <r>
           <rPr>
@@ -8053,7 +8522,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I386" authorId="0" shapeId="0" xr:uid="{468B7932-FA5D-1A4C-9BCA-6EDB018CE5DB}">
+    <comment ref="I386" authorId="0" shapeId="0" xr:uid="{D6F312BA-0BF1-1F4C-9DD2-BE67E861C468}">
       <text>
         <r>
           <rPr>
@@ -8068,7 +8537,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I387" authorId="0" shapeId="0" xr:uid="{24660D96-331C-D846-8A3B-4AC3283F596B}">
+    <comment ref="I387" authorId="0" shapeId="0" xr:uid="{B08BCBC0-0EA4-7248-AFD6-68DFB43B143C}">
       <text>
         <r>
           <rPr>
@@ -8088,7 +8557,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I388" authorId="0" shapeId="0" xr:uid="{73FDBA08-5A8E-564E-B431-A4AEBEB3071F}">
+    <comment ref="I388" authorId="0" shapeId="0" xr:uid="{E7AC8AA5-D3B8-B245-9844-693B1312DA69}">
       <text>
         <r>
           <rPr>
@@ -8108,7 +8577,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I389" authorId="0" shapeId="0" xr:uid="{7BBF8B15-C302-D74D-A3B2-E2D9A27B5F79}">
+    <comment ref="I389" authorId="0" shapeId="0" xr:uid="{4C0A373C-15F4-C442-9A5E-9BD6613EBBFB}">
       <text>
         <r>
           <rPr>
@@ -8126,7 +8595,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I390" authorId="0" shapeId="0" xr:uid="{64E4975D-6675-204B-849A-E79155E6C7C2}">
+    <comment ref="I390" authorId="0" shapeId="0" xr:uid="{A8B7F5C6-8B05-AB4D-8CBF-B68EAB259375}">
       <text>
         <r>
           <rPr>
@@ -8144,7 +8613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I391" authorId="0" shapeId="0" xr:uid="{0B35725E-C666-0D42-9FCC-03F64622B7C7}">
+    <comment ref="I391" authorId="0" shapeId="0" xr:uid="{41080D7C-D862-E34E-BD4F-DFB921B28CA1}">
       <text>
         <r>
           <rPr>
@@ -8161,7 +8630,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I392" authorId="0" shapeId="0" xr:uid="{8A057E96-5361-AE4B-8447-8593A94A20BC}">
+    <comment ref="I392" authorId="0" shapeId="0" xr:uid="{AD25281B-B1B3-3147-8EEA-5F43D7B142AA}">
       <text>
         <r>
           <rPr>
@@ -8178,7 +8647,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I393" authorId="0" shapeId="0" xr:uid="{D0314CE5-4B5A-914A-9401-19BE8D4CEB66}">
+    <comment ref="I393" authorId="0" shapeId="0" xr:uid="{98708FDE-AC4E-224C-A834-B50207539FB2}">
       <text>
         <r>
           <rPr>
@@ -8207,7 +8676,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I394" authorId="0" shapeId="0" xr:uid="{7A159D2B-3969-A446-B942-6B016A88F464}">
+    <comment ref="I394" authorId="0" shapeId="0" xr:uid="{DFF783F6-12C5-2241-B380-E6371CE5A69B}">
       <text>
         <r>
           <rPr>
@@ -8229,7 +8698,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I395" authorId="0" shapeId="0" xr:uid="{4A28A853-E196-C543-8D16-9B527E5D4203}">
+    <comment ref="I395" authorId="0" shapeId="0" xr:uid="{31418B1E-01A3-874C-B088-9968E471F1C8}">
       <text>
         <r>
           <rPr>
@@ -8245,7 +8714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I396" authorId="0" shapeId="0" xr:uid="{21D838F4-AFD7-564D-B30C-986595D3C73B}">
+    <comment ref="I396" authorId="0" shapeId="0" xr:uid="{936CDD71-0002-FB47-83F5-BCB605FE37A7}">
       <text>
         <r>
           <rPr>
@@ -8264,7 +8733,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I397" authorId="0" shapeId="0" xr:uid="{41F1B925-DAC0-EA4C-8922-F38354E7A126}">
+    <comment ref="I397" authorId="0" shapeId="0" xr:uid="{A34B35C6-DFF4-634C-8A33-F553C16F950C}">
       <text>
         <r>
           <rPr>
@@ -8286,7 +8755,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I398" authorId="0" shapeId="0" xr:uid="{8BF57DF2-F6C0-5848-A7B4-FB0BE81379F5}">
+    <comment ref="I398" authorId="0" shapeId="0" xr:uid="{FD46E38A-E73E-2C42-B92A-49D7445FAE1C}">
       <text>
         <r>
           <rPr>
@@ -8304,7 +8773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I399" authorId="0" shapeId="0" xr:uid="{C8A11710-DD90-424A-A029-E349E8998D12}">
+    <comment ref="I399" authorId="0" shapeId="0" xr:uid="{A0089F43-F7B1-9E47-B233-C035A6175563}">
       <text>
         <r>
           <rPr>
@@ -8322,7 +8791,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I400" authorId="0" shapeId="0" xr:uid="{34DCBC2A-BA8A-A349-A2B2-ED57314FD7F7}">
+    <comment ref="I400" authorId="0" shapeId="0" xr:uid="{2243D228-4E1E-4B43-AF3C-6AF362F94564}">
       <text>
         <r>
           <rPr>
@@ -8338,7 +8807,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I401" authorId="0" shapeId="0" xr:uid="{9BD75936-AA9F-1C45-B0B6-996A06379E67}">
+    <comment ref="I401" authorId="0" shapeId="0" xr:uid="{BFDFAF3E-AC92-A247-84DA-8EE389CB7ED5}">
       <text>
         <r>
           <rPr>
@@ -8365,7 +8834,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I402" authorId="0" shapeId="0" xr:uid="{43647F36-0D08-8148-9FF6-A44E5657FCE8}">
+    <comment ref="I402" authorId="0" shapeId="0" xr:uid="{F83F968B-B6CB-7B4F-BE93-6BC7191F6E1E}">
       <text>
         <r>
           <rPr>
@@ -8383,7 +8852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I403" authorId="0" shapeId="0" xr:uid="{10C7A71A-A312-9145-BBCA-070F9102A759}">
+    <comment ref="I403" authorId="0" shapeId="0" xr:uid="{E4C3CA7A-6797-9344-AE70-FE525DE8E5AF}">
       <text>
         <r>
           <rPr>
@@ -8401,7 +8870,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I404" authorId="0" shapeId="0" xr:uid="{A93E902A-383D-9041-87E9-12672C747B58}">
+    <comment ref="I404" authorId="0" shapeId="0" xr:uid="{E0D3CFE8-F308-8349-897B-7BEDD0E07C2B}">
       <text>
         <r>
           <rPr>
@@ -8419,7 +8888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I405" authorId="0" shapeId="0" xr:uid="{1756B586-CA92-8B48-867B-876BD4A85D8A}">
+    <comment ref="I405" authorId="0" shapeId="0" xr:uid="{0C0EC7E9-35CD-3A4D-8D3D-38BE261CD06F}">
       <text>
         <r>
           <rPr>
@@ -8442,7 +8911,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I406" authorId="0" shapeId="0" xr:uid="{C89311DE-0A92-044B-9FAC-8E8A3B4B07CA}">
+    <comment ref="I406" authorId="0" shapeId="0" xr:uid="{2411B24C-03EE-354F-96D5-F6FA7BECE581}">
       <text>
         <r>
           <rPr>
@@ -8460,7 +8929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I407" authorId="0" shapeId="0" xr:uid="{D364BC82-E9DB-B349-99E2-16E4DCB56289}">
+    <comment ref="I407" authorId="0" shapeId="0" xr:uid="{23DDCC8A-AB81-7F40-84E2-3582B871D599}">
       <text>
         <r>
           <rPr>
@@ -8483,7 +8952,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I408" authorId="0" shapeId="0" xr:uid="{00766216-F52B-CE40-A4FA-78CC82C5B260}">
+    <comment ref="I408" authorId="0" shapeId="0" xr:uid="{1161E660-EDC0-F94B-8060-898B0ACBF472}">
       <text>
         <r>
           <rPr>
@@ -8501,7 +8970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I409" authorId="0" shapeId="0" xr:uid="{A89A1A7E-B257-F347-A5CE-7D6C77967C9E}">
+    <comment ref="I409" authorId="0" shapeId="0" xr:uid="{A462422B-75CB-AA44-9FE1-48354AE5C065}">
       <text>
         <r>
           <rPr>
@@ -8519,7 +8988,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I410" authorId="0" shapeId="0" xr:uid="{776D93B7-2F91-9047-A491-7E84D5FAC275}">
+    <comment ref="I410" authorId="0" shapeId="0" xr:uid="{AAFA1032-2428-7341-ABFF-34D64A7C613E}">
       <text>
         <r>
           <rPr>
@@ -8538,7 +9007,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I411" authorId="0" shapeId="0" xr:uid="{A517F1B0-08B3-6745-8CCB-8795188E2622}">
+    <comment ref="I411" authorId="0" shapeId="0" xr:uid="{C6CEA4B7-BDDE-B04E-A3FC-DB0D10508912}">
       <text>
         <r>
           <rPr>
@@ -8561,7 +9030,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I412" authorId="0" shapeId="0" xr:uid="{C85952C6-9E17-4547-9E00-F70B635F8553}">
+    <comment ref="I412" authorId="0" shapeId="0" xr:uid="{84A559F9-CE4C-8E47-90F1-A149FC1A0F2A}">
       <text>
         <r>
           <rPr>
@@ -8579,7 +9048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I413" authorId="0" shapeId="0" xr:uid="{2A0EC653-0E90-5649-983E-D6800D96B378}">
+    <comment ref="I413" authorId="0" shapeId="0" xr:uid="{AEEF0577-C01D-1843-9FC2-6492843FBC02}">
       <text>
         <r>
           <rPr>
@@ -8595,7 +9064,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I414" authorId="0" shapeId="0" xr:uid="{998E4AF1-0E26-AD4C-AD4A-24C6CB957648}">
+    <comment ref="I414" authorId="0" shapeId="0" xr:uid="{646566B5-DD21-C443-9D22-FA2D30CA2E82}">
       <text>
         <r>
           <rPr>
@@ -8618,7 +9087,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I415" authorId="0" shapeId="0" xr:uid="{B0CBCFB6-58D2-4E41-BC7B-8342928EB7E5}">
+    <comment ref="I415" authorId="0" shapeId="0" xr:uid="{484B87DF-BD9D-054A-A17B-878E347F9A35}">
       <text>
         <r>
           <rPr>
@@ -8636,7 +9105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I416" authorId="0" shapeId="0" xr:uid="{EACA5EC8-E570-D346-9DDE-E83F68FAFE22}">
+    <comment ref="I416" authorId="0" shapeId="0" xr:uid="{7EA297BC-CDBA-D644-BBD8-DEEA8A7812B9}">
       <text>
         <r>
           <rPr>
@@ -8651,7 +9120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I417" authorId="0" shapeId="0" xr:uid="{2F452EE9-2B8E-8242-97A8-FCE75C87323C}">
+    <comment ref="I417" authorId="0" shapeId="0" xr:uid="{30DDEA18-81D7-8744-8317-9167B5477BC0}">
       <text>
         <r>
           <rPr>
@@ -8674,7 +9143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I418" authorId="0" shapeId="0" xr:uid="{538F56CD-A167-214A-A98D-46D019545974}">
+    <comment ref="I418" authorId="0" shapeId="0" xr:uid="{27E4E252-9C87-3847-9E1C-D6436F26B1F0}">
       <text>
         <r>
           <rPr>
@@ -8693,7 +9162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I419" authorId="0" shapeId="0" xr:uid="{88E12E13-33E8-B84F-AE5C-EA15964DAD5A}">
+    <comment ref="I419" authorId="0" shapeId="0" xr:uid="{FA4D013B-CD5F-A047-9F3F-F7105D332486}">
       <text>
         <r>
           <rPr>
@@ -8716,7 +9185,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I420" authorId="0" shapeId="0" xr:uid="{296F276A-741D-6846-B3B7-CFA6E9CF6CCA}">
+    <comment ref="I420" authorId="0" shapeId="0" xr:uid="{848D3966-520C-B64B-9C4F-919ECDE6F13D}">
       <text>
         <r>
           <rPr>
@@ -8734,7 +9203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I421" authorId="0" shapeId="0" xr:uid="{2C73655C-7AEF-7846-A10D-4D09B60A679D}">
+    <comment ref="I421" authorId="0" shapeId="0" xr:uid="{563E5D21-383D-BC49-A437-7D0F3B361A71}">
       <text>
         <r>
           <rPr>
@@ -8757,7 +9226,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I422" authorId="0" shapeId="0" xr:uid="{C4C1876A-764C-2741-B883-3ED9886FE26F}">
+    <comment ref="I422" authorId="0" shapeId="0" xr:uid="{1C203ACF-A989-6D4C-B0DA-977F26EDD8EC}">
       <text>
         <r>
           <rPr>
@@ -8780,7 +9249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I423" authorId="0" shapeId="0" xr:uid="{DC8250D4-69CB-0A4D-862E-9253D027EE70}">
+    <comment ref="I423" authorId="0" shapeId="0" xr:uid="{9D4E80DB-D5DA-4849-91AB-55D1D4594628}">
       <text>
         <r>
           <rPr>
@@ -8803,7 +9272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I424" authorId="0" shapeId="0" xr:uid="{73DF0ABE-FFA4-AC40-BA90-F5AB0133ED73}">
+    <comment ref="I424" authorId="0" shapeId="0" xr:uid="{C64B070B-4CAB-204A-BA6C-7B9B921B7F32}">
       <text>
         <r>
           <rPr>
@@ -8826,7 +9295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I425" authorId="0" shapeId="0" xr:uid="{29AD2F19-00F2-804B-B6C5-DF0231708E00}">
+    <comment ref="I425" authorId="0" shapeId="0" xr:uid="{6A53F69B-2706-C149-9242-2DDF7A0309C3}">
       <text>
         <r>
           <rPr>
@@ -8844,7 +9313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I426" authorId="0" shapeId="0" xr:uid="{8D2946C7-CA5B-774B-8FA2-42B7F446D6EE}">
+    <comment ref="I426" authorId="0" shapeId="0" xr:uid="{A7BD8B78-25A7-B448-8D2C-79D6AEA7AD52}">
       <text>
         <r>
           <rPr>
@@ -8867,7 +9336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I427" authorId="0" shapeId="0" xr:uid="{A24CC2AB-09DC-1448-9E2B-7C701B22D2A0}">
+    <comment ref="I427" authorId="0" shapeId="0" xr:uid="{54325292-6BD3-274E-AB2D-9DFD7B10F21E}">
       <text>
         <r>
           <rPr>
@@ -8890,7 +9359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I428" authorId="0" shapeId="0" xr:uid="{EE998E17-0A2A-E64A-8CC0-20E63DB46BA1}">
+    <comment ref="I428" authorId="0" shapeId="0" xr:uid="{62E0A72C-45B2-D141-AD4A-1B3751EFF9E3}">
       <text>
         <r>
           <rPr>
@@ -8913,7 +9382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I429" authorId="0" shapeId="0" xr:uid="{98D9199D-1FAC-DB46-A367-1D4F2FFCA888}">
+    <comment ref="I429" authorId="0" shapeId="0" xr:uid="{D35D6D3B-E2CC-D147-8ED4-53E80F57CCA3}">
       <text>
         <r>
           <rPr>
@@ -8936,7 +9405,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I430" authorId="0" shapeId="0" xr:uid="{46F5B791-35B4-7644-8D7D-52331F5D891B}">
+    <comment ref="I430" authorId="0" shapeId="0" xr:uid="{08740773-F496-DC4C-9499-ED09A4548CE1}">
       <text>
         <r>
           <rPr>
@@ -8959,7 +9428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I431" authorId="0" shapeId="0" xr:uid="{3210C534-CC65-A34B-AE20-03F79D826313}">
+    <comment ref="I431" authorId="0" shapeId="0" xr:uid="{FC17D2DF-A994-5A4F-B186-1F2E50D9DB7B}">
       <text>
         <r>
           <rPr>
@@ -8982,7 +9451,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I432" authorId="0" shapeId="0" xr:uid="{AB5D3D03-43EF-0D45-819E-5CD708C83E1F}">
+    <comment ref="I432" authorId="0" shapeId="0" xr:uid="{05B72254-CDEC-B541-8FF1-611235727B04}">
       <text>
         <r>
           <rPr>
@@ -8997,7 +9466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I433" authorId="0" shapeId="0" xr:uid="{0A62F196-743D-F540-87BF-36D16D9FD1AF}">
+    <comment ref="I433" authorId="0" shapeId="0" xr:uid="{69836834-6B45-B04D-9F54-50B10385722F}">
       <text>
         <r>
           <rPr>
@@ -9027,7 +9496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I434" authorId="0" shapeId="0" xr:uid="{5B922EA6-64A6-2140-AC10-AA30BF9C1D32}">
+    <comment ref="I434" authorId="0" shapeId="0" xr:uid="{9FDD260B-9456-DC40-990C-34B650EB4877}">
       <text>
         <r>
           <rPr>
@@ -9056,7 +9525,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I435" authorId="0" shapeId="0" xr:uid="{A42DF485-95DE-7247-923D-D367F9312B30}">
+    <comment ref="I435" authorId="0" shapeId="0" xr:uid="{54CA2472-FE42-0243-B492-36993EA9EC6E}">
       <text>
         <r>
           <rPr>
@@ -9072,7 +9541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I436" authorId="0" shapeId="0" xr:uid="{6337B46B-EBD7-F047-B8C8-1C5547D40291}">
+    <comment ref="I436" authorId="0" shapeId="0" xr:uid="{1197966E-BF9B-AF43-98D3-5F588AB934DF}">
       <text>
         <r>
           <rPr>
@@ -9091,7 +9560,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I437" authorId="0" shapeId="0" xr:uid="{30A99B18-6E80-CA40-A05E-CF9FFCE07136}">
+    <comment ref="I437" authorId="0" shapeId="0" xr:uid="{124399B1-C374-6342-B3C2-CC56437CB190}">
       <text>
         <r>
           <rPr>
@@ -9111,7 +9580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I438" authorId="0" shapeId="0" xr:uid="{2813C8B8-1D2E-3E46-B6DD-B4BE74AAC12E}">
+    <comment ref="I438" authorId="0" shapeId="0" xr:uid="{5836A72F-FEDD-C742-88C0-12D94D9278E0}">
       <text>
         <r>
           <rPr>
@@ -9131,7 +9600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I439" authorId="0" shapeId="0" xr:uid="{B941082B-711C-8346-9348-E7F585113F75}">
+    <comment ref="I439" authorId="0" shapeId="0" xr:uid="{0AF430AF-7D71-B14E-9D46-0B46394943D2}">
       <text>
         <r>
           <rPr>
@@ -9147,7 +9616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I440" authorId="0" shapeId="0" xr:uid="{894E1774-2BAF-994B-90FC-68E3347EBA42}">
+    <comment ref="I440" authorId="0" shapeId="0" xr:uid="{75B17AA7-1BE7-804C-9F8C-5773A35D9EE0}">
       <text>
         <r>
           <rPr>
@@ -9167,7 +9636,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I441" authorId="0" shapeId="0" xr:uid="{14D27DDD-65B0-4449-BF73-E930DCB6EC99}">
+    <comment ref="I441" authorId="0" shapeId="0" xr:uid="{0BF169D8-5125-F342-9D56-6CF2B204391F}">
       <text>
         <r>
           <rPr>
@@ -9186,7 +9655,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I442" authorId="0" shapeId="0" xr:uid="{CCC5D1D2-6572-4C4D-A5CB-D0043993C575}">
+    <comment ref="I442" authorId="0" shapeId="0" xr:uid="{16E93342-DBD1-D148-91A4-40F46F878E9C}">
       <text>
         <r>
           <rPr>
@@ -9206,7 +9675,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I443" authorId="0" shapeId="0" xr:uid="{2A9B2BCB-2067-7E4C-8204-705BDE70160D}">
+    <comment ref="I443" authorId="0" shapeId="0" xr:uid="{B5B1B156-2215-864B-B206-F0C8443D33A6}">
       <text>
         <r>
           <rPr>
@@ -9226,7 +9695,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I444" authorId="0" shapeId="0" xr:uid="{3AFE8FE6-1F9E-D543-BB7E-1B0F07415FA0}">
+    <comment ref="I444" authorId="0" shapeId="0" xr:uid="{7F04DFE1-ECCA-8646-8817-E524C08E555F}">
       <text>
         <r>
           <rPr>
@@ -9245,7 +9714,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I445" authorId="0" shapeId="0" xr:uid="{C9D9BFBE-A510-6744-8993-859702C2B52A}">
+    <comment ref="I445" authorId="0" shapeId="0" xr:uid="{6783FAD5-F85E-A244-8006-1F694F9F4FEF}">
       <text>
         <r>
           <rPr>
@@ -9271,7 +9740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I446" authorId="0" shapeId="0" xr:uid="{619BB8FF-C583-6748-9760-E79D8CC0AE66}">
+    <comment ref="I446" authorId="0" shapeId="0" xr:uid="{1293BE58-6904-8148-A38E-6FF1FC4C8DFB}">
       <text>
         <r>
           <rPr>
@@ -9297,7 +9766,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I447" authorId="0" shapeId="0" xr:uid="{299199B2-9602-114D-B8AB-1E24401A0D75}">
+    <comment ref="I447" authorId="0" shapeId="0" xr:uid="{2A0817E9-9B7B-5F45-BCB5-E04F0B72A49A}">
       <text>
         <r>
           <rPr>
@@ -9323,7 +9792,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I448" authorId="0" shapeId="0" xr:uid="{BFAE48B1-8F39-264A-986B-FC44D0FC24C3}">
+    <comment ref="I448" authorId="0" shapeId="0" xr:uid="{B623CEAF-58E3-6646-B280-E13F343C816C}">
       <text>
         <r>
           <rPr>
@@ -9343,7 +9812,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I449" authorId="0" shapeId="0" xr:uid="{C9335387-7413-E54A-AE5B-B9BE38D39992}">
+    <comment ref="I449" authorId="0" shapeId="0" xr:uid="{7ABE0690-DC6B-1544-A34F-7F50C5CAF6AB}">
       <text>
         <r>
           <rPr>
@@ -9366,7 +9835,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I450" authorId="0" shapeId="0" xr:uid="{2EAE5F3C-C23C-EA4C-983E-B0CFEB20D739}">
+    <comment ref="I450" authorId="0" shapeId="0" xr:uid="{22AEFB97-C203-2742-BA90-AA73D265D018}">
       <text>
         <r>
           <rPr>
@@ -9392,7 +9861,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I451" authorId="0" shapeId="0" xr:uid="{FE5CE08C-6721-9547-862B-FD85B8AD06C0}">
+    <comment ref="I451" authorId="0" shapeId="0" xr:uid="{F2B4FF70-8F56-AE46-9929-2856BD512BC2}">
       <text>
         <r>
           <rPr>
@@ -9412,7 +9881,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I452" authorId="0" shapeId="0" xr:uid="{CB817DC5-5F8A-364A-BF9C-19AB32FF06B3}">
+    <comment ref="I452" authorId="0" shapeId="0" xr:uid="{FCC4067A-7FE1-DC41-B285-5DFB714CD736}">
       <text>
         <r>
           <rPr>
@@ -9438,7 +9907,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I453" authorId="0" shapeId="0" xr:uid="{E276BD8A-73F7-384C-B900-024F66C451CB}">
+    <comment ref="I453" authorId="0" shapeId="0" xr:uid="{FCC8F5A1-7B8E-4B49-B95E-DD8DA4132DD2}">
       <text>
         <r>
           <rPr>
@@ -9464,7 +9933,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I454" authorId="0" shapeId="0" xr:uid="{2578FD3C-5177-264D-822E-CB869E94BBC1}">
+    <comment ref="I454" authorId="0" shapeId="0" xr:uid="{30BC4E63-C2FB-494E-94C3-D70B3E39B763}">
       <text>
         <r>
           <rPr>
@@ -9484,7 +9953,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I455" authorId="0" shapeId="0" xr:uid="{0ACDB1D9-F2C7-1843-B549-2EA7EA4E1130}">
+    <comment ref="I455" authorId="0" shapeId="0" xr:uid="{4661C6BB-4530-1741-ACE2-812F0FE3182E}">
       <text>
         <r>
           <rPr>
@@ -9507,7 +9976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I456" authorId="0" shapeId="0" xr:uid="{A0E98563-CCD9-5341-B5F3-207195D51EFB}">
+    <comment ref="I456" authorId="0" shapeId="0" xr:uid="{F0A5E228-6C48-754F-8EBC-98A483CB1603}">
       <text>
         <r>
           <rPr>
@@ -9530,7 +9999,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I457" authorId="0" shapeId="0" xr:uid="{A0CE94C1-9610-1B4D-99DF-4F0154A902F6}">
+    <comment ref="I457" authorId="0" shapeId="0" xr:uid="{02998FDA-6F79-D444-95C4-5F7768231586}">
       <text>
         <r>
           <rPr>
@@ -9550,7 +10019,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I458" authorId="0" shapeId="0" xr:uid="{FD528293-A7AB-0846-9D5D-61D0FDABF279}">
+    <comment ref="I458" authorId="0" shapeId="0" xr:uid="{42C35B71-FB4F-134F-94B2-E595F7AEB08D}">
       <text>
         <r>
           <rPr>
@@ -9576,7 +10045,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I459" authorId="0" shapeId="0" xr:uid="{864BCC65-0EF5-2B46-BD50-7D10307B8E0D}">
+    <comment ref="I459" authorId="0" shapeId="0" xr:uid="{06B63978-2597-7847-A452-C2AE19635EE0}">
       <text>
         <r>
           <rPr>
@@ -9596,7 +10065,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I460" authorId="0" shapeId="0" xr:uid="{ECD81560-E030-1844-9F08-9E75BFD86D4C}">
+    <comment ref="I460" authorId="0" shapeId="0" xr:uid="{7AEE9B1B-F91B-0A45-AB20-BBEF207E8AD1}">
       <text>
         <r>
           <rPr>
@@ -9616,7 +10085,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I461" authorId="0" shapeId="0" xr:uid="{84214369-C167-4142-BB7A-F6FFFD312D76}">
+    <comment ref="I461" authorId="0" shapeId="0" xr:uid="{03B94CFB-555B-7B48-A4DF-6EFE7C384009}">
       <text>
         <r>
           <rPr>
@@ -9642,7 +10111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I462" authorId="0" shapeId="0" xr:uid="{B1D45EC0-D992-5649-9D7D-D46147B632BA}">
+    <comment ref="I462" authorId="0" shapeId="0" xr:uid="{A31DE32B-9DB7-964C-A282-D6224A412B46}">
       <text>
         <r>
           <rPr>
@@ -9662,7 +10131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I463" authorId="0" shapeId="0" xr:uid="{2FC6AC77-0D23-5744-AEDA-161EE2D9CF37}">
+    <comment ref="I463" authorId="0" shapeId="0" xr:uid="{4C09A3F8-F089-D546-B13D-172CE940B0B4}">
       <text>
         <r>
           <rPr>
@@ -9688,7 +10157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I464" authorId="0" shapeId="0" xr:uid="{87AB9567-C52A-9142-91C5-459729F786A5}">
+    <comment ref="I464" authorId="0" shapeId="0" xr:uid="{617E4821-D62E-8845-8E4C-F58E35D1C623}">
       <text>
         <r>
           <rPr>
@@ -9714,7 +10183,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I465" authorId="0" shapeId="0" xr:uid="{AE90D041-1722-C74C-AB6A-E707555E121B}">
+    <comment ref="I465" authorId="0" shapeId="0" xr:uid="{B8EA4BB0-8241-E949-80E5-6B42749CCB29}">
       <text>
         <r>
           <rPr>
@@ -9734,7 +10203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I466" authorId="0" shapeId="0" xr:uid="{B2C5409B-22D1-104C-AFB0-50095DCB8453}">
+    <comment ref="I466" authorId="0" shapeId="0" xr:uid="{97E45F48-8F5B-034D-8D0A-E6AFB11AA730}">
       <text>
         <r>
           <rPr>
@@ -9754,7 +10223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I467" authorId="0" shapeId="0" xr:uid="{3E573718-B9C0-034B-B4CD-1502A02CFA34}">
+    <comment ref="I467" authorId="0" shapeId="0" xr:uid="{44D3374B-A5BC-B942-BA9C-D3F5662B7B65}">
       <text>
         <r>
           <rPr>
@@ -9780,7 +10249,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I468" authorId="0" shapeId="0" xr:uid="{79878CE0-22E8-7C4C-9519-31CEF8342031}">
+    <comment ref="I468" authorId="0" shapeId="0" xr:uid="{3EAFD67E-551D-E348-8F74-4297032A4183}">
       <text>
         <r>
           <rPr>
@@ -9800,7 +10269,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I469" authorId="0" shapeId="0" xr:uid="{D14D56C1-EB78-D14F-AFC6-8EF446A1F3B3}">
+    <comment ref="I469" authorId="0" shapeId="0" xr:uid="{FE3B643C-4F7F-4442-A95D-3A34F2299896}">
       <text>
         <r>
           <rPr>
@@ -9826,7 +10295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I470" authorId="0" shapeId="0" xr:uid="{ADDAAFC9-7ECC-2A44-8173-3E6C0E547203}">
+    <comment ref="I470" authorId="0" shapeId="0" xr:uid="{D9A11A5C-CED2-604D-8514-3C1CAB7AB1A1}">
       <text>
         <r>
           <rPr>
@@ -9852,7 +10321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I471" authorId="0" shapeId="0" xr:uid="{967ECB51-1958-E442-B18C-527B3DB977E6}">
+    <comment ref="I471" authorId="0" shapeId="0" xr:uid="{56D8C8E9-A5CD-3E44-A72B-596575715FC7}">
       <text>
         <r>
           <rPr>
@@ -9872,7 +10341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I472" authorId="0" shapeId="0" xr:uid="{DDE91073-5551-1B48-866C-FED307968823}">
+    <comment ref="I472" authorId="0" shapeId="0" xr:uid="{14B91D7B-FED7-8948-BDDA-A43AA7D448A9}">
       <text>
         <r>
           <rPr>
@@ -9890,7 +10359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I473" authorId="0" shapeId="0" xr:uid="{B0F44E5D-F716-FD4D-8A12-BE318B90AB99}">
+    <comment ref="I473" authorId="0" shapeId="0" xr:uid="{BB28A221-6B1C-B848-9FBF-0320F342F6D0}">
       <text>
         <r>
           <rPr>
@@ -9919,7 +10388,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I474" authorId="0" shapeId="0" xr:uid="{F1D3ACD0-536F-8B42-B77E-67BB8DA9B7EA}">
+    <comment ref="I474" authorId="0" shapeId="0" xr:uid="{EF723DF2-9B72-364F-8763-00CC173A533D}">
       <text>
         <r>
           <rPr>
@@ -9935,7 +10404,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I475" authorId="0" shapeId="0" xr:uid="{49DE3918-8971-534A-B4F3-002CB05FE4ED}">
+    <comment ref="I475" authorId="0" shapeId="0" xr:uid="{79659AC4-8B3C-4649-89CD-D118F4500366}">
       <text>
         <r>
           <rPr>
@@ -9951,7 +10420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I476" authorId="0" shapeId="0" xr:uid="{6510AB84-B7ED-3848-9984-433159B009A0}">
+    <comment ref="I476" authorId="0" shapeId="0" xr:uid="{F62FE251-29D3-1649-8701-C6D4DBA399D2}">
       <text>
         <r>
           <rPr>
@@ -9971,7 +10440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I477" authorId="0" shapeId="0" xr:uid="{ADD2782A-94C4-8042-905B-514522CED750}">
+    <comment ref="I477" authorId="0" shapeId="0" xr:uid="{F9B55D05-FD9D-C64F-A9D9-2FBAB383E713}">
       <text>
         <r>
           <rPr>
@@ -9997,7 +10466,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I478" authorId="0" shapeId="0" xr:uid="{5EA0B801-7988-7E43-9DFA-52258D082159}">
+    <comment ref="I478" authorId="0" shapeId="0" xr:uid="{A27A8A1A-5D69-D24C-9716-A1EC44CBCA95}">
       <text>
         <r>
           <rPr>
@@ -10013,7 +10482,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I479" authorId="0" shapeId="0" xr:uid="{436D4E0D-6FBE-4547-A1C8-679B1AB08E64}">
+    <comment ref="I479" authorId="0" shapeId="0" xr:uid="{B441DC36-530E-6E40-BA95-4DA5BA9786C7}">
       <text>
         <r>
           <rPr>
@@ -10033,7 +10502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I480" authorId="0" shapeId="0" xr:uid="{C284F07F-9CC2-BC4A-8751-6F50EF017DD4}">
+    <comment ref="I480" authorId="0" shapeId="0" xr:uid="{19A8132B-8ABA-6749-9C9A-671ABA607701}">
       <text>
         <r>
           <rPr>
@@ -10049,7 +10518,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I481" authorId="0" shapeId="0" xr:uid="{DFB2B8D8-EA24-0A42-9F79-693276C25C92}">
+    <comment ref="I481" authorId="0" shapeId="0" xr:uid="{E350095A-F827-2340-B03F-3006A04A8606}">
       <text>
         <r>
           <rPr>
@@ -10075,7 +10544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I482" authorId="0" shapeId="0" xr:uid="{62B25E45-690C-2848-B1C8-3A6EE18ECD52}">
+    <comment ref="I482" authorId="0" shapeId="0" xr:uid="{C94A5B79-6994-0F41-BBD7-FF5EEA16B14D}">
       <text>
         <r>
           <rPr>
@@ -10098,7 +10567,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I483" authorId="0" shapeId="0" xr:uid="{CAE1E9CE-0B1C-664D-8CCE-162A900C2126}">
+    <comment ref="I483" authorId="0" shapeId="0" xr:uid="{CE615F5A-1878-634E-8088-31F67AE9D4AC}">
       <text>
         <r>
           <rPr>
@@ -10118,7 +10587,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I484" authorId="0" shapeId="0" xr:uid="{CDD3BD47-28A8-504C-997D-35208A885A17}">
+    <comment ref="I484" authorId="0" shapeId="0" xr:uid="{0F204373-FC9D-CB4B-9B82-0B4722AF618A}">
       <text>
         <r>
           <rPr>
@@ -10134,7 +10603,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I485" authorId="0" shapeId="0" xr:uid="{6A4DF316-3AD1-7D4B-94A2-3A1C241292E0}">
+    <comment ref="I485" authorId="0" shapeId="0" xr:uid="{2AADFBFF-6064-0847-A1DF-D14ED7BF393B}">
       <text>
         <r>
           <rPr>
@@ -10160,7 +10629,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I486" authorId="0" shapeId="0" xr:uid="{98A0C5AF-74BD-EE48-8EF5-534B8BAE2565}">
+    <comment ref="I486" authorId="0" shapeId="0" xr:uid="{ACEE6D9B-89ED-9544-9BB5-A1333BFCEB19}">
       <text>
         <r>
           <rPr>
@@ -10176,7 +10645,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I487" authorId="0" shapeId="0" xr:uid="{F8C988DA-2AA3-6645-BFBB-92E1C8F6FC46}">
+    <comment ref="I487" authorId="0" shapeId="0" xr:uid="{01657A55-FAED-5B4B-B2F9-E8383080C2BB}">
       <text>
         <r>
           <rPr>
@@ -10196,7 +10665,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I488" authorId="0" shapeId="0" xr:uid="{0AC80292-251B-B84F-9297-C8348555FFFF}">
+    <comment ref="I488" authorId="0" shapeId="0" xr:uid="{2CAA014D-AFDF-AB4A-BA54-71A2E698EB95}">
       <text>
         <r>
           <rPr>
@@ -10216,7 +10685,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I489" authorId="0" shapeId="0" xr:uid="{324014A5-52E0-FB4F-8131-0C059798C5D4}">
+    <comment ref="I489" authorId="0" shapeId="0" xr:uid="{298B5172-563E-E04D-A451-C76A3BBDFBAA}">
       <text>
         <r>
           <rPr>
@@ -10236,7 +10705,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I490" authorId="0" shapeId="0" xr:uid="{CCCD65B7-47F3-EA4B-90DE-6921919D3D40}">
+    <comment ref="I490" authorId="0" shapeId="0" xr:uid="{F130B082-9255-A144-87F2-F11968EC301F}">
       <text>
         <r>
           <rPr>
@@ -10256,7 +10725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I491" authorId="0" shapeId="0" xr:uid="{70DBE1DB-6399-9A47-B717-D19218D3812A}">
+    <comment ref="I491" authorId="0" shapeId="0" xr:uid="{167B26A2-5436-BB4B-94B3-DF34D385AE9D}">
       <text>
         <r>
           <rPr>
@@ -10282,7 +10751,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I492" authorId="0" shapeId="0" xr:uid="{F589B625-A0AB-294B-A2F0-9341C9C2AFDC}">
+    <comment ref="I492" authorId="0" shapeId="0" xr:uid="{CA4EA739-BA9F-0849-8203-C5A53FC58E7E}">
       <text>
         <r>
           <rPr>
@@ -10305,7 +10774,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I493" authorId="0" shapeId="0" xr:uid="{B5D84018-694B-B844-A2C0-7404282B1F60}">
+    <comment ref="I493" authorId="0" shapeId="0" xr:uid="{8629497F-C49B-7A4B-81CF-1D5FCB3D41EB}">
       <text>
         <r>
           <rPr>
@@ -10331,7 +10800,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I494" authorId="0" shapeId="0" xr:uid="{236E1627-7E35-904F-B109-F9B329555298}">
+    <comment ref="I494" authorId="0" shapeId="0" xr:uid="{F7416E82-73D5-1840-821A-17B92D9F54AF}">
       <text>
         <r>
           <rPr>
@@ -10351,7 +10820,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I495" authorId="0" shapeId="0" xr:uid="{9489E60C-3400-B242-816B-A0B9466D4D02}">
+    <comment ref="I495" authorId="0" shapeId="0" xr:uid="{9CFB11AF-336D-3E45-8854-97E16879F24A}">
       <text>
         <r>
           <rPr>
@@ -10371,7 +10840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I496" authorId="0" shapeId="0" xr:uid="{6D3ECEEA-B0C7-BB40-B788-E25D0D3AD56C}">
+    <comment ref="I496" authorId="0" shapeId="0" xr:uid="{1AFD553A-7403-E341-B8AF-4343E901DB74}">
       <text>
         <r>
           <rPr>
@@ -10391,7 +10860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I497" authorId="0" shapeId="0" xr:uid="{7B3CB607-3371-C247-97B6-2B1A21F1BB70}">
+    <comment ref="I497" authorId="0" shapeId="0" xr:uid="{119FC457-21FD-F448-B5AD-5681F400AEDB}">
       <text>
         <r>
           <rPr>
@@ -10411,7 +10880,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I498" authorId="0" shapeId="0" xr:uid="{098E2CD0-D888-964C-A53D-B35441210F93}">
+    <comment ref="I498" authorId="0" shapeId="0" xr:uid="{72FFA2A4-AECE-EE46-800F-2A5CA24DF84A}">
       <text>
         <r>
           <rPr>
@@ -10431,7 +10900,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I499" authorId="0" shapeId="0" xr:uid="{411147A5-DD16-9448-B240-B8F120F57DAD}">
+    <comment ref="I499" authorId="0" shapeId="0" xr:uid="{6AA80E2E-1259-944E-99FD-5B6D2DC52527}">
       <text>
         <r>
           <rPr>
@@ -10452,7 +10921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I500" authorId="0" shapeId="0" xr:uid="{72AFCB57-2A26-B442-B904-70FEB7F4AE61}">
+    <comment ref="I500" authorId="0" shapeId="0" xr:uid="{3FEC541B-1B11-624D-A897-A59F52D2F875}">
       <text>
         <r>
           <rPr>
@@ -10472,7 +10941,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I501" authorId="0" shapeId="0" xr:uid="{BF5153FF-7247-E247-AB4D-89D8A0867884}">
+    <comment ref="I501" authorId="0" shapeId="0" xr:uid="{EAA31664-52C6-4F41-9A0B-724FEEDBBB97}">
       <text>
         <r>
           <rPr>
@@ -10490,7 +10959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I502" authorId="0" shapeId="0" xr:uid="{F78FB359-AB7D-2C4A-9359-9FFD4B87B69F}">
+    <comment ref="I502" authorId="0" shapeId="0" xr:uid="{869AD208-36F2-EA4C-9733-865CDA80B98E}">
       <text>
         <r>
           <rPr>
@@ -10510,7 +10979,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I503" authorId="0" shapeId="0" xr:uid="{020DAF18-CD8B-444F-A4BF-509E4ACF0A09}">
+    <comment ref="I503" authorId="0" shapeId="0" xr:uid="{71E69199-2A16-214C-8359-2C2E22E8D109}">
       <text>
         <r>
           <rPr>
@@ -10525,7 +10994,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I504" authorId="0" shapeId="0" xr:uid="{B84D34FB-7A3D-CD4C-9515-577EA3FAB69C}">
+    <comment ref="I504" authorId="0" shapeId="0" xr:uid="{DE359039-3C3E-6447-9548-4977B48C8E44}">
       <text>
         <r>
           <rPr>
@@ -10545,7 +11014,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I505" authorId="0" shapeId="0" xr:uid="{D56FBA73-54A5-1046-8144-20B2DDC86334}">
+    <comment ref="I505" authorId="0" shapeId="0" xr:uid="{D9CFD0BA-ED06-8D43-957B-BE428D49F675}">
       <text>
         <r>
           <rPr>
@@ -10565,7 +11034,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I506" authorId="0" shapeId="0" xr:uid="{0FB2EEEC-959B-684E-88C2-82C35167BA7A}">
+    <comment ref="I506" authorId="0" shapeId="0" xr:uid="{97E7E0A2-7B7B-5142-B358-BC969FB18203}">
       <text>
         <r>
           <rPr>
@@ -10585,7 +11054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I507" authorId="0" shapeId="0" xr:uid="{8C9646CF-FE60-A844-B3F4-3755DAE8BD03}">
+    <comment ref="I507" authorId="0" shapeId="0" xr:uid="{D45ACC4F-8216-8840-8E08-FE9E222E463E}">
       <text>
         <r>
           <rPr>
@@ -10605,7 +11074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I508" authorId="0" shapeId="0" xr:uid="{64C4C3C1-C2EF-8647-B97B-FB9C2A7AE7E9}">
+    <comment ref="I508" authorId="0" shapeId="0" xr:uid="{1984AA9C-2545-E64F-B178-67C82ED8910D}">
       <text>
         <r>
           <rPr>
@@ -10622,7 +11091,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I509" authorId="0" shapeId="0" xr:uid="{A02A90B8-28A4-874D-BC86-485201AD2254}">
+    <comment ref="I509" authorId="0" shapeId="0" xr:uid="{0EC28B80-1D3C-F544-BA99-2D3FEF97E66D}">
       <text>
         <r>
           <rPr>
@@ -10642,7 +11111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I510" authorId="0" shapeId="0" xr:uid="{E3BEFB90-C74C-7F49-8F58-D4A5A4BB859A}">
+    <comment ref="I510" authorId="0" shapeId="0" xr:uid="{7CA2C2DB-B2A2-F341-9515-C596AD4B1289}">
       <text>
         <r>
           <rPr>
@@ -10662,7 +11131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I511" authorId="0" shapeId="0" xr:uid="{51EAF1FF-4673-4C42-9C54-BC9B2420FB90}">
+    <comment ref="I511" authorId="0" shapeId="0" xr:uid="{28F2D957-57EC-D84A-8F0E-2F06CF48E2E6}">
       <text>
         <r>
           <rPr>
@@ -10680,7 +11149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I512" authorId="0" shapeId="0" xr:uid="{A7B27D7B-B343-C74C-A633-02F27105D298}">
+    <comment ref="I512" authorId="0" shapeId="0" xr:uid="{E7A066F6-99E8-EA42-BFEA-F09BA7847ED3}">
       <text>
         <r>
           <rPr>
@@ -10703,7 +11172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I513" authorId="0" shapeId="0" xr:uid="{689A634F-AF65-2C46-BEEE-019A7B19B2E8}">
+    <comment ref="I513" authorId="0" shapeId="0" xr:uid="{A20BB93E-1B99-5F40-9D85-B9C8A1873690}">
       <text>
         <r>
           <rPr>
@@ -10719,7 +11188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I514" authorId="0" shapeId="0" xr:uid="{99AA8CC2-0DB6-4B4D-A1CA-FDCDB2D9FCCC}">
+    <comment ref="I514" authorId="0" shapeId="0" xr:uid="{80FEB098-52B0-2B4F-8FF4-DA7C7B5D6E2C}">
       <text>
         <r>
           <rPr>
@@ -10745,7 +11214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I515" authorId="0" shapeId="0" xr:uid="{7F404E15-9E87-5848-A6A5-E8F5FB901400}">
+    <comment ref="I515" authorId="0" shapeId="0" xr:uid="{17070183-3737-F04B-9735-44F6B3BF5C91}">
       <text>
         <r>
           <rPr>
@@ -10771,7 +11240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I516" authorId="0" shapeId="0" xr:uid="{57B80F53-1279-CE47-A2CD-C00770007276}">
+    <comment ref="I516" authorId="0" shapeId="0" xr:uid="{8AC5613C-F70F-2B48-B481-C8DD617C7321}">
       <text>
         <r>
           <rPr>
@@ -10787,7 +11256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I517" authorId="0" shapeId="0" xr:uid="{A1B90603-023E-D748-8E69-DBBD10A59039}">
+    <comment ref="I517" authorId="0" shapeId="0" xr:uid="{6430B12C-2732-FC48-9BB8-2AB4B9D6A31B}">
       <text>
         <r>
           <rPr>
@@ -10803,7 +11272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I518" authorId="0" shapeId="0" xr:uid="{1D690C52-2585-B343-B80F-430B1578611E}">
+    <comment ref="I518" authorId="0" shapeId="0" xr:uid="{919F37A7-9BB8-474C-8F22-04B92BEB2DCB}">
       <text>
         <r>
           <rPr>
@@ -10819,7 +11288,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I519" authorId="0" shapeId="0" xr:uid="{E96A3ED8-2FCB-DF4F-9588-B84CE8B59DF5}">
+    <comment ref="I519" authorId="0" shapeId="0" xr:uid="{542E1971-CB38-F146-9450-D76F4015B91B}">
       <text>
         <r>
           <rPr>
@@ -10836,7 +11305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I520" authorId="0" shapeId="0" xr:uid="{E53B38B1-161D-1B44-B4F1-6C9E9FDC38C8}">
+    <comment ref="I520" authorId="0" shapeId="0" xr:uid="{C473664F-06E5-574E-AD95-652E48FC0BC1}">
       <text>
         <r>
           <rPr>
@@ -10853,7 +11322,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I521" authorId="0" shapeId="0" xr:uid="{6254FFD5-ADC1-8148-9F66-EC47DF572774}">
+    <comment ref="I521" authorId="0" shapeId="0" xr:uid="{0F98C644-4D8B-8D44-AE8B-609DA8833F64}">
       <text>
         <r>
           <rPr>
@@ -10872,7 +11341,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I522" authorId="0" shapeId="0" xr:uid="{FC04C695-14E4-6A42-A7CC-8255EDCC463C}">
+    <comment ref="I522" authorId="0" shapeId="0" xr:uid="{FA452D0F-FBCE-5B4F-9062-0EC871D54326}">
       <text>
         <r>
           <rPr>
@@ -10892,7 +11361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I523" authorId="0" shapeId="0" xr:uid="{A01EB12D-FFB1-CF45-8274-2B63F931C1C1}">
+    <comment ref="I523" authorId="0" shapeId="0" xr:uid="{D24404F6-C676-BD46-AC78-0DDF25D05F57}">
       <text>
         <r>
           <rPr>
@@ -10908,7 +11377,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I524" authorId="0" shapeId="0" xr:uid="{40C6D74C-059D-B94E-B45F-8D056171F407}">
+    <comment ref="I524" authorId="0" shapeId="0" xr:uid="{6C06527D-78C6-774C-93AF-BA4062FE8F7A}">
       <text>
         <r>
           <rPr>
@@ -10924,7 +11393,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I525" authorId="0" shapeId="0" xr:uid="{787D2967-D9F1-A646-B80C-BAFD1B0AFA88}">
+    <comment ref="I525" authorId="0" shapeId="0" xr:uid="{1D9792DC-9F34-AC49-9EDD-8027FF699577}">
       <text>
         <r>
           <rPr>
@@ -10941,7 +11410,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I526" authorId="0" shapeId="0" xr:uid="{974D3168-1A66-DB4D-8FEF-2DD2ED09EE43}">
+    <comment ref="I526" authorId="0" shapeId="0" xr:uid="{4F5A1012-A15F-0F4C-B4B0-7FB6D56692ED}">
       <text>
         <r>
           <rPr>
@@ -10957,7 +11426,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I527" authorId="0" shapeId="0" xr:uid="{EB5849AA-F15D-194C-961A-FDFF6F894032}">
+    <comment ref="I527" authorId="0" shapeId="0" xr:uid="{14E6B2A4-EE50-7D4C-B093-B36C869D7CA7}">
       <text>
         <r>
           <rPr>
@@ -10975,7 +11444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I528" authorId="0" shapeId="0" xr:uid="{D3D95AAA-43F4-6749-BF8B-8C112DE5A69D}">
+    <comment ref="I528" authorId="0" shapeId="0" xr:uid="{B15B6D40-A42A-0B4B-81CD-AF4BB05AF9E8}">
       <text>
         <r>
           <rPr>
@@ -10995,7 +11464,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I529" authorId="0" shapeId="0" xr:uid="{FC467F97-AA23-F147-8958-33CF9B2D83D0}">
+    <comment ref="I529" authorId="0" shapeId="0" xr:uid="{B4F6059C-938D-1344-A6FE-B054F45291DE}">
       <text>
         <r>
           <rPr>
@@ -11011,7 +11480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I530" authorId="0" shapeId="0" xr:uid="{6055B82C-8DEB-4E46-8D7A-E44324B704CF}">
+    <comment ref="I530" authorId="0" shapeId="0" xr:uid="{5CF0A315-5164-C346-B871-42EBB49FD26A}">
       <text>
         <r>
           <rPr>
@@ -11027,7 +11496,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I531" authorId="0" shapeId="0" xr:uid="{16E3AE00-9373-B54A-B85D-EAE29BDBD4A5}">
+    <comment ref="I531" authorId="0" shapeId="0" xr:uid="{5E669ACC-3274-6D42-87DA-F8F54B14950C}">
       <text>
         <r>
           <rPr>
@@ -11044,7 +11513,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I532" authorId="0" shapeId="0" xr:uid="{88C2AD6F-0BE3-8643-8349-906A401A8B50}">
+    <comment ref="I532" authorId="0" shapeId="0" xr:uid="{55BA9518-950F-F54D-AC49-9B23B49339AC}">
       <text>
         <r>
           <rPr>
@@ -11060,7 +11529,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I533" authorId="0" shapeId="0" xr:uid="{AA8D76A4-660F-C046-A090-5ADAE66940B7}">
+    <comment ref="I533" authorId="0" shapeId="0" xr:uid="{8E0CEE55-4102-9043-A8A2-3C89E1ABCB55}">
       <text>
         <r>
           <rPr>
@@ -11079,7 +11548,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I534" authorId="0" shapeId="0" xr:uid="{596F24AE-A4EF-3942-AE32-7B5A8E397AAA}">
+    <comment ref="I534" authorId="0" shapeId="0" xr:uid="{BF5A951A-9926-7C42-B211-E1B5A2944E85}">
       <text>
         <r>
           <rPr>
@@ -11096,7 +11565,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I535" authorId="0" shapeId="0" xr:uid="{69F5868F-2287-3F41-B522-B9F91FC7F97C}">
+    <comment ref="I535" authorId="0" shapeId="0" xr:uid="{22465428-7AF3-2644-83A3-2472788015DF}">
       <text>
         <r>
           <rPr>
@@ -11112,7 +11581,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I536" authorId="0" shapeId="0" xr:uid="{549966E1-E568-8E44-A2B6-E78BF9D47F98}">
+    <comment ref="I536" authorId="0" shapeId="0" xr:uid="{9E12CFD0-E79A-6D47-87CA-BE8731836939}">
       <text>
         <r>
           <rPr>
@@ -11128,7 +11597,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I537" authorId="0" shapeId="0" xr:uid="{7D007F42-AD7F-694B-8D82-058691991588}">
+    <comment ref="I537" authorId="0" shapeId="0" xr:uid="{8B513A77-24DF-B74A-8E5E-74031CAA1D5E}">
       <text>
         <r>
           <rPr>
@@ -11144,7 +11613,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I538" authorId="0" shapeId="0" xr:uid="{8BC83525-0C67-4B4E-86AA-708090D49312}">
+    <comment ref="I538" authorId="0" shapeId="0" xr:uid="{A6E9BCE1-54B9-EC42-8D17-AC4E24913C1A}">
       <text>
         <r>
           <rPr>
@@ -11163,7 +11632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I539" authorId="0" shapeId="0" xr:uid="{DFB69407-09D9-0B4F-AF1A-C957BAE2C31A}">
+    <comment ref="I539" authorId="0" shapeId="0" xr:uid="{CAB21728-CAF3-8048-AAE6-8EEA315EDDAC}">
       <text>
         <r>
           <rPr>
@@ -11179,7 +11648,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I540" authorId="0" shapeId="0" xr:uid="{2DDD6CC9-48D5-3F48-BBC5-6B7E8C3885F9}">
+    <comment ref="I540" authorId="0" shapeId="0" xr:uid="{8DFC8F04-3D13-4C47-BB3B-9C454847AA47}">
       <text>
         <r>
           <rPr>
@@ -11194,7 +11663,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I541" authorId="0" shapeId="0" xr:uid="{BC759A02-FE35-154E-B3F2-715962060800}">
+    <comment ref="I541" authorId="0" shapeId="0" xr:uid="{9D9772C7-DFB4-5241-A7AF-15952C4912D8}">
       <text>
         <r>
           <rPr>
@@ -11218,7 +11687,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I542" authorId="0" shapeId="0" xr:uid="{C4D5512F-FA96-174B-9C01-5D3FD2B01049}">
+    <comment ref="I542" authorId="0" shapeId="0" xr:uid="{88ADB71D-5EE8-AD49-9BAA-46651EBC96DB}">
       <text>
         <r>
           <rPr>
@@ -11234,7 +11703,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I543" authorId="0" shapeId="0" xr:uid="{79D5D258-2388-A647-8C43-0B1CCF2B5C8E}">
+    <comment ref="I543" authorId="0" shapeId="0" xr:uid="{E1087B1F-08F3-9649-A64C-96ECAC3C2A63}">
       <text>
         <r>
           <rPr>
@@ -11251,7 +11720,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I544" authorId="0" shapeId="0" xr:uid="{0325FF89-8A43-FA48-B38D-B9E086E4729F}">
+    <comment ref="I544" authorId="0" shapeId="0" xr:uid="{96E7F496-9995-9343-A098-EEDC755F3AC6}">
       <text>
         <r>
           <rPr>
@@ -11267,7 +11736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I545" authorId="0" shapeId="0" xr:uid="{F9C64520-1C86-2143-BAC7-26F20497C055}">
+    <comment ref="I545" authorId="0" shapeId="0" xr:uid="{92770A89-E1CD-344B-95D6-8D6F5F6016C6}">
       <text>
         <r>
           <rPr>
@@ -11283,7 +11752,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I546" authorId="0" shapeId="0" xr:uid="{B7D96F88-8853-8D45-9FCE-C8A49497829D}">
+    <comment ref="I546" authorId="0" shapeId="0" xr:uid="{B5181639-7EA7-4D43-8DD6-1DD0141E79C2}">
       <text>
         <r>
           <rPr>
@@ -11299,7 +11768,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I547" authorId="0" shapeId="0" xr:uid="{2DC3F243-AC8E-9F44-B466-2D736E93FA9D}">
+    <comment ref="I547" authorId="0" shapeId="0" xr:uid="{6FE441D3-991C-934E-906C-9E5722F39772}">
       <text>
         <r>
           <rPr>
@@ -11313,7 +11782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I548" authorId="0" shapeId="0" xr:uid="{61572765-2228-1448-AF49-EAE6DA7CEC66}">
+    <comment ref="I548" authorId="0" shapeId="0" xr:uid="{5C3F5DF4-71CB-FA4E-ABCB-003E2CDECF8A}">
       <text>
         <r>
           <rPr>
@@ -11329,7 +11798,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I549" authorId="0" shapeId="0" xr:uid="{CFCBD535-5226-8B4C-A138-FE160702AC67}">
+    <comment ref="I549" authorId="0" shapeId="0" xr:uid="{52D57E2F-EFDF-9C45-8BD9-5014987C9FF5}">
       <text>
         <r>
           <rPr>
@@ -11344,7 +11813,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I550" authorId="0" shapeId="0" xr:uid="{B0482440-2521-BF40-AAEE-5CFF03FF002B}">
+    <comment ref="I550" authorId="0" shapeId="0" xr:uid="{EDDE1FC4-56E3-E04F-AA42-02D7BFDC9B9B}">
       <text>
         <r>
           <rPr>
@@ -11360,7 +11829,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I551" authorId="0" shapeId="0" xr:uid="{4F97789F-044F-E345-BFE8-705C3749BA4B}">
+    <comment ref="I551" authorId="0" shapeId="0" xr:uid="{16D6C1B0-B665-BE49-B6B6-4A6AC1D5E3DF}">
       <text>
         <r>
           <rPr>
@@ -11376,7 +11845,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I552" authorId="0" shapeId="0" xr:uid="{64646CC3-5188-5F43-AD97-D9F2A432EA75}">
+    <comment ref="I552" authorId="0" shapeId="0" xr:uid="{2BA3EB17-1BA9-D240-B255-53A59CC7FCAA}">
       <text>
         <r>
           <rPr>
@@ -11405,7 +11874,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I553" authorId="0" shapeId="0" xr:uid="{67D9FB8C-88B7-DD4E-ABD3-A106DDC6B962}">
+    <comment ref="I553" authorId="0" shapeId="0" xr:uid="{91A43AFF-A8AA-D143-B03F-766C2B3316DA}">
       <text>
         <r>
           <rPr>
@@ -11420,7 +11889,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I554" authorId="0" shapeId="0" xr:uid="{75955B56-6BD9-B141-A6BB-3D2EBB77B526}">
+    <comment ref="I554" authorId="0" shapeId="0" xr:uid="{B6771242-50FD-9D40-B7B1-5172713995AA}">
       <text>
         <r>
           <rPr>
@@ -11435,7 +11904,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I555" authorId="0" shapeId="0" xr:uid="{20D8F74E-2BA2-9949-857C-914F3B53973B}">
+    <comment ref="I555" authorId="0" shapeId="0" xr:uid="{5DC36B5F-409D-414B-BED1-FD161C27E4FB}">
       <text>
         <r>
           <rPr>
@@ -11452,7 +11921,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I556" authorId="0" shapeId="0" xr:uid="{B44715F8-9628-1D41-B414-4756855EFBEE}">
+    <comment ref="I556" authorId="0" shapeId="0" xr:uid="{B0326141-3483-6B40-8C04-FECBA2E24D2D}">
       <text>
         <r>
           <rPr>
@@ -11471,7 +11940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I557" authorId="0" shapeId="0" xr:uid="{CFC36DAD-5539-4C45-A267-1ED1012F6D6A}">
+    <comment ref="I557" authorId="0" shapeId="0" xr:uid="{A260E885-908D-E044-8B3D-1762C4ED55E4}">
       <text>
         <r>
           <rPr>
@@ -11490,7 +11959,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I558" authorId="0" shapeId="0" xr:uid="{CEE95BA9-42A1-0945-9775-7F3BD25B81B6}">
+    <comment ref="I558" authorId="0" shapeId="0" xr:uid="{9974FF16-6995-CE4F-A8BB-2C3601A6AB84}">
       <text>
         <r>
           <rPr>
@@ -11509,7 +11978,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I559" authorId="0" shapeId="0" xr:uid="{45E264E5-987B-3943-AC0D-050BB42C4B5B}">
+    <comment ref="I559" authorId="0" shapeId="0" xr:uid="{641CD6F9-0EA8-F84C-937F-223CDED4D9F1}">
       <text>
         <r>
           <rPr>
@@ -11528,7 +11997,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I560" authorId="0" shapeId="0" xr:uid="{EC7EB420-4CA1-9041-BA19-90D1E2788428}">
+    <comment ref="I560" authorId="0" shapeId="0" xr:uid="{01C1D908-359E-4846-8D14-6D963EACE22C}">
       <text>
         <r>
           <rPr>
@@ -11547,7 +12016,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I561" authorId="0" shapeId="0" xr:uid="{A8303683-D674-A241-87D6-749E34157F88}">
+    <comment ref="I561" authorId="0" shapeId="0" xr:uid="{14E8AFB3-8D13-8C44-91F0-E35E8F0489B0}">
       <text>
         <r>
           <rPr>
@@ -11562,7 +12031,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I562" authorId="0" shapeId="0" xr:uid="{56D46776-338F-0C42-B9A4-D76463B2098F}">
+    <comment ref="I562" authorId="0" shapeId="0" xr:uid="{506E3704-0A1F-3849-A2D1-9FAF1593D5D6}">
       <text>
         <r>
           <rPr>
@@ -11581,7 +12050,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I563" authorId="0" shapeId="0" xr:uid="{4155170A-60BD-D249-B30F-F8A68A1E720D}">
+    <comment ref="I563" authorId="0" shapeId="0" xr:uid="{4CF57EE9-8A34-8F43-93AE-ADFEF184E37E}">
       <text>
         <r>
           <rPr>
@@ -11598,7 +12067,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I564" authorId="0" shapeId="0" xr:uid="{4EC058AF-85E6-2348-A80A-5577B83ED37C}">
+    <comment ref="I564" authorId="0" shapeId="0" xr:uid="{380C48B7-4A4B-ED4F-83AF-509BD7CF3468}">
       <text>
         <r>
           <rPr>
@@ -11617,7 +12086,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I565" authorId="0" shapeId="0" xr:uid="{A08E8B1A-1CE7-5E4B-9760-6ADB9A3CA815}">
+    <comment ref="I565" authorId="0" shapeId="0" xr:uid="{0C138E32-2B99-174C-A851-D202D2EF49B0}">
       <text>
         <r>
           <rPr>
@@ -11636,7 +12105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I566" authorId="0" shapeId="0" xr:uid="{3B784FAA-60B1-F24C-BE6D-85D58CEC2516}">
+    <comment ref="I566" authorId="0" shapeId="0" xr:uid="{B2B5F8C7-D12E-8646-A148-AF35C142A4CF}">
       <text>
         <r>
           <rPr>
@@ -11654,7 +12123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I567" authorId="0" shapeId="0" xr:uid="{964C78C0-9E1F-AC43-93C7-9F389C39342C}">
+    <comment ref="I567" authorId="0" shapeId="0" xr:uid="{3BBFC966-47BE-E647-8CFD-5515B6B984B3}">
       <text>
         <r>
           <rPr>
@@ -11684,7 +12153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I568" authorId="0" shapeId="0" xr:uid="{5149304E-E1B3-A14A-A777-9D2F212A124D}">
+    <comment ref="I568" authorId="0" shapeId="0" xr:uid="{68F60552-2EBD-7944-AA1D-2E635E38B4AA}">
       <text>
         <r>
           <rPr>
@@ -11703,7 +12172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I569" authorId="0" shapeId="0" xr:uid="{544BE2B9-264E-9049-91E2-DE6281702789}">
+    <comment ref="I569" authorId="0" shapeId="0" xr:uid="{2C24D4C5-F54A-A74A-8524-36FCD0A4E254}">
       <text>
         <r>
           <rPr>
@@ -11722,7 +12191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I570" authorId="0" shapeId="0" xr:uid="{B693FBCA-E866-084E-B402-06A0050D81CD}">
+    <comment ref="I570" authorId="0" shapeId="0" xr:uid="{CED13AD5-198D-BD47-AB4F-95BA1721C576}">
       <text>
         <r>
           <rPr>
@@ -11741,7 +12210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I571" authorId="0" shapeId="0" xr:uid="{E8A75B19-BBD4-2341-BEBF-C723AEB8B468}">
+    <comment ref="I571" authorId="0" shapeId="0" xr:uid="{9D7F9586-DCEC-4F4D-A762-11678B399D91}">
       <text>
         <r>
           <rPr>
@@ -11771,7 +12240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I572" authorId="0" shapeId="0" xr:uid="{582FC572-AA7E-C14F-AEDB-8139FE9BE241}">
+    <comment ref="I572" authorId="0" shapeId="0" xr:uid="{FC95270F-DB3E-D749-B946-CB698F47177B}">
       <text>
         <r>
           <rPr>
@@ -11787,7 +12256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I573" authorId="0" shapeId="0" xr:uid="{A15345F2-5A80-1B42-8725-EAB0BC58D4BB}">
+    <comment ref="I573" authorId="0" shapeId="0" xr:uid="{4E407939-07EF-4B4C-A6BE-4F3DA69F7FF6}">
       <text>
         <r>
           <rPr>
@@ -11806,7 +12275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I574" authorId="0" shapeId="0" xr:uid="{614A5EF4-BE5B-D644-960B-A870A375E4CE}">
+    <comment ref="I574" authorId="0" shapeId="0" xr:uid="{9B41D779-E41D-0649-AB2F-89EC389F2DBC}">
       <text>
         <r>
           <rPr>
@@ -11836,7 +12305,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I575" authorId="0" shapeId="0" xr:uid="{04C929D7-82E0-BD4F-BA12-DC38F50F5DBC}">
+    <comment ref="I575" authorId="0" shapeId="0" xr:uid="{0DEE35E8-344E-4D40-A3AB-6C1CA6605647}">
       <text>
         <r>
           <rPr>
@@ -11855,7 +12324,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I576" authorId="0" shapeId="0" xr:uid="{85110DDD-A7F0-0F43-A95C-9FF2E53DCF49}">
+    <comment ref="I576" authorId="0" shapeId="0" xr:uid="{3D490AB6-C41A-0D4D-A8A5-B9D3D84A12A6}">
       <text>
         <r>
           <rPr>
@@ -11871,7 +12340,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I577" authorId="0" shapeId="0" xr:uid="{3AD950B9-DF7E-D740-B7BE-631E4116595C}">
+    <comment ref="I577" authorId="0" shapeId="0" xr:uid="{B82F0567-4D32-7A4A-9BB8-234EC7270B9B}">
       <text>
         <r>
           <rPr>
@@ -11890,7 +12359,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I578" authorId="0" shapeId="0" xr:uid="{23E009B0-DDA3-B547-95EB-72BDF17D7A77}">
+    <comment ref="I578" authorId="0" shapeId="0" xr:uid="{BD9FCBDC-BA4A-6E48-BCA1-B97D93DB749E}">
       <text>
         <r>
           <rPr>
@@ -11920,7 +12389,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I579" authorId="0" shapeId="0" xr:uid="{F9E86914-A25E-EA46-94C8-D29A75F2EA8A}">
+    <comment ref="I579" authorId="0" shapeId="0" xr:uid="{7D8C950F-DBDA-E44F-95E0-352F363BF8A7}">
       <text>
         <r>
           <rPr>
@@ -11939,7 +12408,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I580" authorId="0" shapeId="0" xr:uid="{588CEC8F-4B09-B442-BF17-F0C2033FCA1D}">
+    <comment ref="I580" authorId="0" shapeId="0" xr:uid="{EFCCD7FE-F6DB-344E-B25A-B1013C302FFD}">
       <text>
         <r>
           <rPr>
@@ -11958,7 +12427,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I581" authorId="0" shapeId="0" xr:uid="{92D26678-2C94-0B41-8294-A4AEC58D57B1}">
+    <comment ref="I581" authorId="0" shapeId="0" xr:uid="{75A5783C-29DB-2441-8DBF-A64913C581BE}">
       <text>
         <r>
           <rPr>
@@ -11977,7 +12446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I582" authorId="0" shapeId="0" xr:uid="{F710BD5C-8383-D248-89A9-DF7C5CB3227C}">
+    <comment ref="I582" authorId="0" shapeId="0" xr:uid="{03E01E8A-7EB8-E440-B9F2-26FD4F262A2D}">
       <text>
         <r>
           <rPr>
@@ -11996,7 +12465,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I583" authorId="0" shapeId="0" xr:uid="{B573777D-301A-DB42-B260-3B81E8E41CCD}">
+    <comment ref="I583" authorId="0" shapeId="0" xr:uid="{C261A713-43B6-1A4A-A87E-CEC87178B772}">
       <text>
         <r>
           <rPr>
@@ -12028,7 +12497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I584" authorId="0" shapeId="0" xr:uid="{483FCAB7-7292-C145-83E2-382EF94287F7}">
+    <comment ref="I584" authorId="0" shapeId="0" xr:uid="{87AA5B9E-1465-7947-ACE1-B7A0A143359C}">
       <text>
         <r>
           <rPr>
@@ -12045,7 +12514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I585" authorId="0" shapeId="0" xr:uid="{DBB0596D-D0FA-1547-91FF-7415DBA7DE3B}">
+    <comment ref="I585" authorId="0" shapeId="0" xr:uid="{F94B5520-E5B2-FE41-8556-768423304B15}">
       <text>
         <r>
           <rPr>
@@ -12075,7 +12544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I586" authorId="0" shapeId="0" xr:uid="{5D4B645F-B02F-634F-9559-FC2DA279DEF0}">
+    <comment ref="I586" authorId="0" shapeId="0" xr:uid="{51DE561F-76B4-BE43-A568-5DE9E2B4D2E1}">
       <text>
         <r>
           <rPr>
@@ -12103,7 +12572,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I587" authorId="0" shapeId="0" xr:uid="{8F423DD5-72E4-BC46-A608-51AA0FD81D28}">
+    <comment ref="I587" authorId="0" shapeId="0" xr:uid="{01DCC7DE-CA4B-DF43-BE7B-EAC2D1E9DCA4}">
       <text>
         <r>
           <rPr>
@@ -12124,7 +12593,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I588" authorId="0" shapeId="0" xr:uid="{54BDBAA8-A978-6043-B5D0-7EB8CBFB160A}">
+    <comment ref="I588" authorId="0" shapeId="0" xr:uid="{CD118740-D788-AC47-8455-82C2F06717E5}">
       <text>
         <r>
           <rPr>
@@ -12152,7 +12621,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I589" authorId="0" shapeId="0" xr:uid="{6FAA8624-BF9E-ED4C-8A8B-2EA1B9D2FDE1}">
+    <comment ref="I589" authorId="0" shapeId="0" xr:uid="{8683D93F-D983-B94D-83BA-08FA58D1C43A}">
       <text>
         <r>
           <rPr>
@@ -12169,7 +12638,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I590" authorId="0" shapeId="0" xr:uid="{11982992-7A26-B046-818D-A73ABD139A65}">
+    <comment ref="I590" authorId="0" shapeId="0" xr:uid="{47C18E52-4CCF-F14E-AFD0-50833C6A4BBE}">
       <text>
         <r>
           <rPr>
@@ -12189,7 +12658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I591" authorId="0" shapeId="0" xr:uid="{09F1D295-41E6-F245-A9FA-392F66939C5A}">
+    <comment ref="I591" authorId="0" shapeId="0" xr:uid="{B7117CA3-0CCE-7A45-8384-34D877D07F1E}">
       <text>
         <r>
           <rPr>
@@ -12211,7 +12680,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I592" authorId="0" shapeId="0" xr:uid="{D950907A-1291-534A-A0A0-5CE49F3C6228}">
+    <comment ref="I592" authorId="0" shapeId="0" xr:uid="{3BE46099-B70F-B547-B84A-C6E0A3B646C7}">
       <text>
         <r>
           <rPr>
@@ -12228,7 +12697,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I593" authorId="0" shapeId="0" xr:uid="{D0B2F944-EA2D-BF4C-BC6C-FEAB2076CE91}">
+    <comment ref="I593" authorId="0" shapeId="0" xr:uid="{6459B0DD-9DBD-4448-A131-611D8189CCE8}">
       <text>
         <r>
           <rPr>
@@ -12244,7 +12713,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I594" authorId="0" shapeId="0" xr:uid="{C0796ABC-DF3F-F245-9880-B28CAC61D9ED}">
+    <comment ref="I594" authorId="0" shapeId="0" xr:uid="{A4E15927-CE2E-844A-9AE1-3F05AC74E65F}">
       <text>
         <r>
           <rPr>
@@ -12267,7 +12736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I595" authorId="0" shapeId="0" xr:uid="{4BDD0728-591C-984A-8D88-EEEE857D6DF9}">
+    <comment ref="I595" authorId="0" shapeId="0" xr:uid="{510F6BC3-DD7D-F246-BC46-3E09091541F0}">
       <text>
         <r>
           <rPr>
@@ -12298,7 +12767,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I596" authorId="0" shapeId="0" xr:uid="{2BC7DA71-E0F7-A243-BB33-14B4404B73E6}">
+    <comment ref="I596" authorId="0" shapeId="0" xr:uid="{BF1FC9FC-857C-5449-9EDC-AF9950BF69E4}">
       <text>
         <r>
           <rPr>
@@ -12339,7 +12808,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I597" authorId="0" shapeId="0" xr:uid="{5F3B4C05-9E49-844D-BD87-93CB51DC0B24}">
+    <comment ref="I597" authorId="0" shapeId="0" xr:uid="{CFCF0C2A-A921-514D-BFDD-B53357631B7F}">
       <text>
         <r>
           <rPr>
@@ -12359,7 +12828,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I598" authorId="0" shapeId="0" xr:uid="{8B81959E-2458-E948-81EC-0A15E88F3E5A}">
+    <comment ref="I598" authorId="0" shapeId="0" xr:uid="{C0AB0F70-CB7F-A84F-9E68-EF84F567FE7F}">
       <text>
         <r>
           <rPr>
@@ -12399,7 +12868,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I599" authorId="0" shapeId="0" xr:uid="{91844711-5E22-B24C-BD1F-F3CBE09C8CEC}">
+    <comment ref="I599" authorId="0" shapeId="0" xr:uid="{3C9A6A36-38FC-4B4B-8031-4FEA50CF2E5C}">
       <text>
         <r>
           <rPr>
@@ -12439,7 +12908,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I600" authorId="0" shapeId="0" xr:uid="{5611B2D4-9A0C-C94D-9F84-B9BB1223FCF1}">
+    <comment ref="I600" authorId="0" shapeId="0" xr:uid="{D0A84D40-F2F5-F94E-80D6-DE53F623B887}">
       <text>
         <r>
           <rPr>
@@ -12466,7 +12935,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I601" authorId="0" shapeId="0" xr:uid="{4869BD07-1BB7-B847-A55C-BC90B63BE054}">
+    <comment ref="I601" authorId="0" shapeId="0" xr:uid="{7F022A6B-121F-C748-88D7-4F84CCB73D57}">
       <text>
         <r>
           <rPr>
@@ -12495,7 +12964,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I602" authorId="0" shapeId="0" xr:uid="{28F1806E-A38E-2048-BF1D-659CDA4F914C}">
+    <comment ref="I602" authorId="0" shapeId="0" xr:uid="{106D2D20-0FAE-E442-A455-3A55FDD35CD9}">
       <text>
         <r>
           <rPr>
@@ -12511,7 +12980,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I603" authorId="0" shapeId="0" xr:uid="{89AC1EB9-BF93-724C-A067-DB9814B6B55B}">
+    <comment ref="I603" authorId="0" shapeId="0" xr:uid="{7B46BF66-51F1-D848-85E4-BF668EF7CDA6}">
       <text>
         <r>
           <rPr>
@@ -12534,7 +13003,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I604" authorId="0" shapeId="0" xr:uid="{F59A6E99-A598-E648-A0D1-E34ED7080D50}">
+    <comment ref="I604" authorId="0" shapeId="0" xr:uid="{CB29A55D-3CEA-9648-B6A9-9683E7FB7258}">
       <text>
         <r>
           <rPr>
@@ -12559,7 +13028,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I605" authorId="0" shapeId="0" xr:uid="{A942D709-3460-0F44-9F87-7D1B71ADBA55}">
+    <comment ref="I605" authorId="0" shapeId="0" xr:uid="{E43177D0-4EC1-1A4A-8C1E-98B2BB5309A4}">
       <text>
         <r>
           <rPr>
@@ -12591,7 +13060,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I606" authorId="0" shapeId="0" xr:uid="{12A877E1-C18F-494E-8A0A-3124E2C0E3F6}">
+    <comment ref="I606" authorId="0" shapeId="0" xr:uid="{7D22B1FD-878D-684A-B0AE-21FD7F127DD5}">
       <text>
         <r>
           <rPr>
@@ -12626,7 +13095,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I607" authorId="0" shapeId="0" xr:uid="{959F9DD7-017D-E546-9E53-06003E5E78E6}">
+    <comment ref="I607" authorId="0" shapeId="0" xr:uid="{E0E74EC3-FEDF-4247-A10D-E356D2D2648B}">
       <text>
         <r>
           <rPr>
@@ -12648,7 +13117,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I608" authorId="0" shapeId="0" xr:uid="{E7863FBA-EF7A-C847-B148-1EED70059509}">
+    <comment ref="I608" authorId="0" shapeId="0" xr:uid="{A7F94435-9574-8543-A84E-DF317FF14B03}">
       <text>
         <r>
           <rPr>
@@ -12678,7 +13147,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I609" authorId="0" shapeId="0" xr:uid="{5EA087F4-2539-3F42-83AB-E41A419A190C}">
+    <comment ref="I609" authorId="0" shapeId="0" xr:uid="{09B0199C-E1E0-774E-9743-F28FF1809C8E}">
       <text>
         <r>
           <rPr>
@@ -12693,7 +13162,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I610" authorId="0" shapeId="0" xr:uid="{FD6B888B-D40B-6C4B-8E9A-7FF1C5EDC6DB}">
+    <comment ref="I610" authorId="0" shapeId="0" xr:uid="{2005BE13-70C0-7345-B368-7BAA38ABE383}">
       <text>
         <r>
           <rPr>
@@ -12721,7 +13190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I611" authorId="0" shapeId="0" xr:uid="{88ADE3FF-BF55-F842-A818-D959171EF174}">
+    <comment ref="I611" authorId="0" shapeId="0" xr:uid="{E87CEC03-B52E-CF4B-8C2D-FA4136D45AA3}">
       <text>
         <r>
           <rPr>
@@ -12743,7 +13212,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I612" authorId="0" shapeId="0" xr:uid="{BD195519-E81D-174C-B864-55DBABA64773}">
+    <comment ref="I612" authorId="0" shapeId="0" xr:uid="{EA6BC470-9D6F-CA4F-AC7D-3C4477EF50C9}">
       <text>
         <r>
           <rPr>
@@ -12784,7 +13253,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I613" authorId="0" shapeId="0" xr:uid="{AB445AA0-12DA-7245-839B-7A3B2CF3A23C}">
+    <comment ref="I613" authorId="0" shapeId="0" xr:uid="{302FEFC6-81A6-924D-B1D7-BAE3FDB505F0}">
       <text>
         <r>
           <rPr>
@@ -12825,7 +13294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I614" authorId="0" shapeId="0" xr:uid="{19119F3B-4C79-5048-B915-C54424CF36A8}">
+    <comment ref="I614" authorId="0" shapeId="0" xr:uid="{C110EE26-445B-7C4D-BBA5-BEC4F9E938E1}">
       <text>
         <r>
           <rPr>
@@ -12857,7 +13326,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I615" authorId="0" shapeId="0" xr:uid="{008BC3EF-31E5-1C40-A214-71A491766AC4}">
+    <comment ref="I615" authorId="0" shapeId="0" xr:uid="{8E7F562B-2A7B-A744-A79B-0847DDA2224F}">
       <text>
         <r>
           <rPr>
@@ -12876,7 +13345,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I616" authorId="0" shapeId="0" xr:uid="{0853CFBC-A81B-424E-BF55-F4BCA6BF4A16}">
+    <comment ref="I616" authorId="0" shapeId="0" xr:uid="{6D8DEB07-4D50-D649-BC43-E950755316A6}">
       <text>
         <r>
           <rPr>
@@ -12892,7 +13361,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I617" authorId="0" shapeId="0" xr:uid="{A30A94F0-83E5-664F-ADE9-1CCBE5B5A480}">
+    <comment ref="I617" authorId="0" shapeId="0" xr:uid="{6A0B3AFC-4D2D-3646-A52C-BD0F7C43C06F}">
       <text>
         <r>
           <rPr>
@@ -12911,7 +13380,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I618" authorId="0" shapeId="0" xr:uid="{5F046606-38B7-C049-B527-B74D6C1BE642}">
+    <comment ref="I618" authorId="0" shapeId="0" xr:uid="{A5BD113F-1849-4A45-859E-96AFE86FB0A7}">
       <text>
         <r>
           <rPr>
@@ -12950,7 +13419,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I619" authorId="0" shapeId="0" xr:uid="{E9E9A7D8-6DF6-AF4C-A9E8-45788ED1E79C}">
+    <comment ref="I619" authorId="0" shapeId="0" xr:uid="{3F2A2431-AED7-0149-873C-8018F5C27B61}">
       <text>
         <r>
           <rPr>
@@ -12977,7 +13446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I620" authorId="0" shapeId="0" xr:uid="{54A4073B-972A-8B49-B6FE-D39CC6C68FF7}">
+    <comment ref="I620" authorId="0" shapeId="0" xr:uid="{91E0CD35-CADE-8F4A-A5D7-359094B00A9D}">
       <text>
         <r>
           <rPr>
@@ -13006,7 +13475,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I621" authorId="0" shapeId="0" xr:uid="{B39D7602-00DC-9E42-AAA2-53BD4FA3B05A}">
+    <comment ref="I621" authorId="0" shapeId="0" xr:uid="{9E9FCE41-9BE0-064F-97E4-5C18A06A74CF}">
       <text>
         <r>
           <rPr>
@@ -13045,7 +13514,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I622" authorId="0" shapeId="0" xr:uid="{2BF22CF5-80F0-B64B-9CAD-45D05FEECADC}">
+    <comment ref="I622" authorId="0" shapeId="0" xr:uid="{5DE78E82-3C77-D641-AF7B-F357F45BC919}">
       <text>
         <r>
           <rPr>
@@ -13072,7 +13541,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I623" authorId="0" shapeId="0" xr:uid="{144CF6EB-2377-BA48-A512-301216B35723}">
+    <comment ref="I623" authorId="0" shapeId="0" xr:uid="{4128E9C8-7080-0A4A-A700-0B346A4C4C5C}">
       <text>
         <r>
           <rPr>
@@ -13099,7 +13568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I624" authorId="0" shapeId="0" xr:uid="{4F862D67-860E-0B42-A0F5-FFF770FE0A7A}">
+    <comment ref="I624" authorId="0" shapeId="0" xr:uid="{CAB7E7D1-1408-0247-AA7E-A65F49241392}">
       <text>
         <r>
           <rPr>
@@ -13140,7 +13609,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I625" authorId="0" shapeId="0" xr:uid="{2039C96A-9DDD-4644-9ABB-F5EC72873B2A}">
+    <comment ref="I625" authorId="0" shapeId="0" xr:uid="{B4A4269B-7DFA-4A41-9470-ED3A21CAC2BF}">
       <text>
         <r>
           <rPr>
@@ -13181,7 +13650,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I626" authorId="0" shapeId="0" xr:uid="{1235D1D2-2AFC-7C46-A6C8-B17D76CF5388}">
+    <comment ref="I626" authorId="0" shapeId="0" xr:uid="{79292B17-3B1A-E54D-BDEB-2A621E33AD6B}">
       <text>
         <r>
           <rPr>
@@ -13204,7 +13673,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I627" authorId="0" shapeId="0" xr:uid="{58F52CE2-7209-1648-8A82-0643A8DDE9FC}">
+    <comment ref="I627" authorId="0" shapeId="0" xr:uid="{DAE6BACA-4D99-F14F-A8C2-CE2F25BB13BE}">
       <text>
         <r>
           <rPr>
@@ -13231,7 +13700,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I628" authorId="0" shapeId="0" xr:uid="{B476D1E8-B1BA-E74A-8FBF-5F118255C001}">
+    <comment ref="I628" authorId="0" shapeId="0" xr:uid="{5FF2DA03-6BCE-B14D-B39B-D595E5681AF4}">
       <text>
         <r>
           <rPr>
@@ -13258,7 +13727,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I629" authorId="0" shapeId="0" xr:uid="{577E1092-42DA-E94D-A8D4-49954BC2C58C}">
+    <comment ref="I629" authorId="0" shapeId="0" xr:uid="{E29536DA-9723-EF45-A641-9851229FE48E}">
       <text>
         <r>
           <rPr>
@@ -13291,7 +13760,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I630" authorId="0" shapeId="0" xr:uid="{61623192-B3E2-A048-A6E4-891EAFE412C2}">
+    <comment ref="I630" authorId="0" shapeId="0" xr:uid="{6C5BD802-0978-464D-83BC-AC45094B2281}">
       <text>
         <r>
           <rPr>
@@ -13310,7 +13779,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I631" authorId="0" shapeId="0" xr:uid="{4C812709-2A9B-6E45-B07F-A9D67533A2B8}">
+    <comment ref="I631" authorId="0" shapeId="0" xr:uid="{54E5034C-AD5D-8B41-AC22-7DA56DC2C16C}">
       <text>
         <r>
           <rPr>
@@ -13346,7 +13815,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I632" authorId="0" shapeId="0" xr:uid="{A3248ACA-0CE5-F242-8A95-01E709F0F36B}">
+    <comment ref="I632" authorId="0" shapeId="0" xr:uid="{4EB02CDD-A007-C14C-AC72-071DA52786E2}">
       <text>
         <r>
           <rPr>
@@ -13387,7 +13856,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I633" authorId="0" shapeId="0" xr:uid="{7ED5F289-2D1D-1F41-8015-B5107B7B696E}">
+    <comment ref="I633" authorId="0" shapeId="0" xr:uid="{A1D75085-DF0E-0542-856D-69FED623A545}">
       <text>
         <r>
           <rPr>
@@ -13419,7 +13888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I634" authorId="0" shapeId="0" xr:uid="{E6FEE2AD-9FD0-8F49-A70F-0BEAAD8ACC17}">
+    <comment ref="I634" authorId="0" shapeId="0" xr:uid="{87024027-D6F8-F246-86F4-EC8B01B0B8B2}">
       <text>
         <r>
           <rPr>
@@ -13460,7 +13929,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I635" authorId="0" shapeId="0" xr:uid="{FDD20C19-B64E-C342-A6A3-87436EB7E9B5}">
+    <comment ref="I635" authorId="0" shapeId="0" xr:uid="{BF8584A3-B836-4444-A0E1-D409DC68FED5}">
       <text>
         <r>
           <rPr>
@@ -13501,7 +13970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I636" authorId="0" shapeId="0" xr:uid="{5D71CAF3-7E70-C94A-BF7C-7C42E67F5553}">
+    <comment ref="I636" authorId="0" shapeId="0" xr:uid="{5D9BDC0D-4068-FA48-9E97-3AD213E7C914}">
       <text>
         <r>
           <rPr>
@@ -13542,7 +14011,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I637" authorId="0" shapeId="0" xr:uid="{02674325-BF17-504A-914F-E54DD224CDC7}">
+    <comment ref="I637" authorId="0" shapeId="0" xr:uid="{57A347ED-0989-7041-8726-D043A1EF97E4}">
       <text>
         <r>
           <rPr>
@@ -13574,7 +14043,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I638" authorId="0" shapeId="0" xr:uid="{9593324F-E48A-F149-B524-7C9554C23D89}">
+    <comment ref="I638" authorId="0" shapeId="0" xr:uid="{BD03C189-5BF4-1C49-B68D-1B41F6F8A91B}">
       <text>
         <r>
           <rPr>
@@ -13600,7 +14069,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I639" authorId="0" shapeId="0" xr:uid="{E5F5F493-40B4-A649-8877-D1266E6C80A6}">
+    <comment ref="I639" authorId="0" shapeId="0" xr:uid="{4A0AC357-6B8C-BF46-89AA-38DABFB93DFE}">
       <text>
         <r>
           <rPr>
@@ -13633,7 +14102,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I640" authorId="0" shapeId="0" xr:uid="{6D641825-301F-914D-B2D7-0E903DB82770}">
+    <comment ref="I640" authorId="0" shapeId="0" xr:uid="{FE8D7F4B-2F27-DD48-A427-26572FA5B414}">
       <text>
         <r>
           <rPr>
@@ -13674,7 +14143,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I641" authorId="0" shapeId="0" xr:uid="{26E57763-01B6-6548-B6BC-626BA1623F7D}">
+    <comment ref="I641" authorId="0" shapeId="0" xr:uid="{CDB2242D-280B-F343-821C-B9E836E6CD89}">
       <text>
         <r>
           <rPr>
@@ -13691,7 +14160,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I642" authorId="0" shapeId="0" xr:uid="{1E68A35F-D047-874F-9BD8-0816BA2F24AE}">
+    <comment ref="I642" authorId="0" shapeId="0" xr:uid="{BE347A0A-7ADC-6B4F-A698-4BE67C391129}">
       <text>
         <r>
           <rPr>
@@ -13721,7 +14190,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I643" authorId="0" shapeId="0" xr:uid="{28B65CDE-4818-8F4B-A492-AB4C813413C3}">
+    <comment ref="I643" authorId="0" shapeId="0" xr:uid="{BADD862D-84C0-CE41-88FC-80FD933A989D}">
       <text>
         <r>
           <rPr>
@@ -13737,7 +14206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I644" authorId="0" shapeId="0" xr:uid="{62BE2980-BB2E-184A-B595-7D3DCBDFBDDA}">
+    <comment ref="I644" authorId="0" shapeId="0" xr:uid="{CB085368-D7EC-6043-A516-F55C71E5BE2B}">
       <text>
         <r>
           <rPr>
@@ -13758,7 +14227,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I645" authorId="0" shapeId="0" xr:uid="{AE1A5379-9F56-AE41-828B-432B65269426}">
+    <comment ref="I645" authorId="0" shapeId="0" xr:uid="{9FE1836B-A11A-144E-8E4F-BDF6E212F86C}">
       <text>
         <r>
           <rPr>
@@ -13775,7 +14244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I646" authorId="0" shapeId="0" xr:uid="{4CAE2D96-A9C6-0D41-92F2-92A6ED8BFF72}">
+    <comment ref="I646" authorId="0" shapeId="0" xr:uid="{FC6B1D02-6BB1-B44C-AEFC-37A81AFED5A2}">
       <text>
         <r>
           <rPr>
@@ -13803,7 +14272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I647" authorId="0" shapeId="0" xr:uid="{856A50F0-9366-0148-B634-66828648FDB8}">
+    <comment ref="I647" authorId="0" shapeId="0" xr:uid="{F72571D5-258B-2241-8137-DB91873B817A}">
       <text>
         <r>
           <rPr>
@@ -13831,7 +14300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I648" authorId="0" shapeId="0" xr:uid="{C50FB258-DEA8-7B4B-991D-3FA3638173E0}">
+    <comment ref="I648" authorId="0" shapeId="0" xr:uid="{3D61CFF4-24F9-A341-ADFB-FE8BC35C0010}">
       <text>
         <r>
           <rPr>
@@ -13848,7 +14317,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I649" authorId="0" shapeId="0" xr:uid="{446DEFF3-9280-5C40-AD67-BAB4FB564157}">
+    <comment ref="I649" authorId="0" shapeId="0" xr:uid="{CA14F611-FEA1-7B4C-9EBE-387219EDA023}">
       <text>
         <r>
           <rPr>
@@ -13863,7 +14332,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I650" authorId="0" shapeId="0" xr:uid="{EF7D03CA-DC59-4B4F-AACB-AE3E534E76FD}">
+    <comment ref="I650" authorId="0" shapeId="0" xr:uid="{8B87AA66-506C-034D-93FD-E456C06AEA43}">
       <text>
         <r>
           <rPr>
@@ -13883,7 +14352,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I651" authorId="0" shapeId="0" xr:uid="{2118021B-6CBA-3B45-A2E5-7BF32CD40B10}">
+    <comment ref="I651" authorId="0" shapeId="0" xr:uid="{33D432F1-18CB-714C-8E4E-8E0396440E17}">
       <text>
         <r>
           <rPr>
@@ -13905,7 +14374,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I652" authorId="0" shapeId="0" xr:uid="{591B245C-8784-0A4B-9667-6FD0E9B15542}">
+    <comment ref="I652" authorId="0" shapeId="0" xr:uid="{B0954C51-F607-7C4F-942E-160CA9116EBE}">
       <text>
         <r>
           <rPr>
@@ -13927,7 +14396,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I653" authorId="0" shapeId="0" xr:uid="{4AB63318-9074-CB45-BC1B-16937DC549B5}">
+    <comment ref="I653" authorId="0" shapeId="0" xr:uid="{048B1699-04E9-E645-B388-1D08B1D5A8F0}">
       <text>
         <r>
           <rPr>
@@ -13943,7 +14412,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I654" authorId="0" shapeId="0" xr:uid="{507E402E-1952-5F4E-B3F0-4FD5B9F99BB3}">
+    <comment ref="I654" authorId="0" shapeId="0" xr:uid="{D0A7E80D-702D-234E-B0FD-B3B864D6B9AA}">
       <text>
         <r>
           <rPr>
@@ -13959,7 +14428,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I655" authorId="0" shapeId="0" xr:uid="{63308EEA-15EA-BB47-A72E-DB816B897DBD}">
+    <comment ref="I655" authorId="0" shapeId="0" xr:uid="{F7095BD8-0154-254A-BDC0-C3A1875F051D}">
       <text>
         <r>
           <rPr>
@@ -13977,7 +14446,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I656" authorId="0" shapeId="0" xr:uid="{4BF5342C-69D2-4C42-B495-A1EFDBB87319}">
+    <comment ref="I656" authorId="0" shapeId="0" xr:uid="{15DC37AC-B19E-4640-8501-C48861E50193}">
       <text>
         <r>
           <rPr>
@@ -13993,7 +14462,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I657" authorId="0" shapeId="0" xr:uid="{23E7CEC8-DC4F-6742-B70C-37343D8324F5}">
+    <comment ref="I657" authorId="0" shapeId="0" xr:uid="{FE835AC1-13E3-8B49-BB1B-28E30CDE1E1B}">
       <text>
         <r>
           <rPr>
@@ -14011,7 +14480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I658" authorId="0" shapeId="0" xr:uid="{B547CBBA-B906-1241-9CC6-4D24AEE8DE9D}">
+    <comment ref="I658" authorId="0" shapeId="0" xr:uid="{17A9C14A-9C73-B440-9EE5-3E591762BE1A}">
       <text>
         <r>
           <rPr>
@@ -14033,7 +14502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I659" authorId="0" shapeId="0" xr:uid="{38717F49-6913-A249-BB3C-0E88ABA21D02}">
+    <comment ref="I659" authorId="0" shapeId="0" xr:uid="{7F58C34B-AA51-7D4D-9E51-D3411572F793}">
       <text>
         <r>
           <rPr>
@@ -14057,7 +14526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I660" authorId="0" shapeId="0" xr:uid="{285DA3A2-6E1B-8543-BECB-3370F9970E5D}">
+    <comment ref="I660" authorId="0" shapeId="0" xr:uid="{4A88272A-88A3-834D-B58D-53A36E3C29D6}">
       <text>
         <r>
           <rPr>
@@ -14075,7 +14544,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I661" authorId="0" shapeId="0" xr:uid="{D65F9CEF-5307-6D43-958F-CDF1C8AD8371}">
+    <comment ref="I661" authorId="0" shapeId="0" xr:uid="{7E8F636F-E335-4D4F-8926-50A8A3DA8660}">
       <text>
         <r>
           <rPr>
@@ -14099,7 +14568,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I662" authorId="0" shapeId="0" xr:uid="{33C3AA62-0C8C-CE4B-89BF-655E39500FA8}">
+    <comment ref="I662" authorId="0" shapeId="0" xr:uid="{36A8F702-BCDC-A244-BFB2-219145F70081}">
       <text>
         <r>
           <rPr>
@@ -14115,7 +14584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I663" authorId="0" shapeId="0" xr:uid="{E2CDBEB9-75B1-D04E-94A3-1597DE0E12F2}">
+    <comment ref="I663" authorId="0" shapeId="0" xr:uid="{D2363FF6-208B-CF45-AEE4-E2E2E5C58489}">
       <text>
         <r>
           <rPr>
@@ -14131,7 +14600,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I664" authorId="0" shapeId="0" xr:uid="{D1A79532-AEFB-0343-BB28-780E7D1AC367}">
+    <comment ref="I664" authorId="0" shapeId="0" xr:uid="{FF00C794-32E5-7947-BBF0-990410C6FBE6}">
       <text>
         <r>
           <rPr>
@@ -14147,7 +14616,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I665" authorId="0" shapeId="0" xr:uid="{CB07D947-DEC0-9F40-9CE4-C2EDA3EEB3E7}">
+    <comment ref="I665" authorId="0" shapeId="0" xr:uid="{F9934021-6BCE-7A4E-9DB6-707537CFF5B9}">
       <text>
         <r>
           <rPr>
@@ -14163,7 +14632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I666" authorId="0" shapeId="0" xr:uid="{4F103677-3D07-104C-BC08-A15AB115C643}">
+    <comment ref="I666" authorId="0" shapeId="0" xr:uid="{43036D95-4553-9F4A-8734-F1E2B02A2895}">
       <text>
         <r>
           <rPr>
@@ -14192,7 +14661,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I667" authorId="0" shapeId="0" xr:uid="{AFA19D09-3987-3243-80AB-E10B0F79AD05}">
+    <comment ref="I667" authorId="0" shapeId="0" xr:uid="{FE9A77DF-E6C2-ED44-802A-06CBA72B179C}">
       <text>
         <r>
           <rPr>
@@ -14209,7 +14678,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I668" authorId="0" shapeId="0" xr:uid="{3888F665-7E13-BC47-B783-51840CE3B6E6}">
+    <comment ref="I668" authorId="0" shapeId="0" xr:uid="{7A2B0559-B5B6-6043-9F18-F4910A6AF6B7}">
       <text>
         <r>
           <rPr>
@@ -14224,7 +14693,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I669" authorId="0" shapeId="0" xr:uid="{6A22C4E1-6A40-FC43-94B5-7FC8D550FEDA}">
+    <comment ref="I669" authorId="0" shapeId="0" xr:uid="{68C2128D-17B3-A44B-BA45-DD5EB7C49668}">
       <text>
         <r>
           <rPr>
@@ -14239,7 +14708,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I670" authorId="0" shapeId="0" xr:uid="{EE498276-7088-EC47-A86D-2250E7631E75}">
+    <comment ref="I670" authorId="0" shapeId="0" xr:uid="{7B141F73-C630-174C-88C8-8668E2556AB4}">
       <text>
         <r>
           <rPr>
@@ -14255,7 +14724,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I671" authorId="0" shapeId="0" xr:uid="{718ADA5E-0B75-5A4C-97CB-6A1AD233AF2D}">
+    <comment ref="I671" authorId="0" shapeId="0" xr:uid="{96477C65-5AF3-9441-BE8B-3E0B05CB822D}">
       <text>
         <r>
           <rPr>
@@ -14284,7 +14753,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I672" authorId="0" shapeId="0" xr:uid="{862B9D91-1B49-0F46-817D-4500F6206E05}">
+    <comment ref="I672" authorId="0" shapeId="0" xr:uid="{2DEB2913-C672-8D47-B402-9FA700C63B3F}">
       <text>
         <r>
           <rPr>
@@ -14313,7 +14782,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I673" authorId="0" shapeId="0" xr:uid="{58736569-F99F-1B4C-BC6D-6850E8E1721D}">
+    <comment ref="I673" authorId="0" shapeId="0" xr:uid="{7C56CDAA-6A93-924D-A468-AEC733E9242C}">
       <text>
         <r>
           <rPr>
@@ -14337,7 +14806,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I674" authorId="0" shapeId="0" xr:uid="{A4F33902-F759-DB43-AAEF-09DCF5BA6C26}">
+    <comment ref="I674" authorId="0" shapeId="0" xr:uid="{822EA397-A32A-D048-A650-7BFB05544F1E}">
       <text>
         <r>
           <rPr>
@@ -14354,7 +14823,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I675" authorId="0" shapeId="0" xr:uid="{DA4B23CA-4346-414E-A27C-F0ECCA384C97}">
+    <comment ref="I675" authorId="0" shapeId="0" xr:uid="{6F644C79-3316-1E42-96F1-076DBCD591BC}">
       <text>
         <r>
           <rPr>
@@ -14383,7 +14852,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I676" authorId="0" shapeId="0" xr:uid="{C9D9DEFF-0333-DC44-8CEB-72FB6581A2C8}">
+    <comment ref="I676" authorId="0" shapeId="0" xr:uid="{9BFBD8FC-69AD-5C46-B3E3-FE9CEFFB3357}">
       <text>
         <r>
           <rPr>
@@ -14419,7 +14888,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I677" authorId="0" shapeId="0" xr:uid="{D518F689-F1D6-9241-AB18-549BAB6D5A36}">
+    <comment ref="I677" authorId="0" shapeId="0" xr:uid="{3E9257B9-B193-834B-8585-F2240BA2075A}">
       <text>
         <r>
           <rPr>
@@ -14454,7 +14923,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I678" authorId="0" shapeId="0" xr:uid="{54A7B9BF-BFAA-CA46-8EF5-0EC39620347D}">
+    <comment ref="I678" authorId="0" shapeId="0" xr:uid="{480FEF23-32D7-9E4A-B379-47E47E27BFC8}">
       <text>
         <r>
           <rPr>
@@ -14469,7 +14938,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I679" authorId="0" shapeId="0" xr:uid="{8709F04C-6D0B-6D49-9306-BDFFF46DEF68}">
+    <comment ref="I679" authorId="0" shapeId="0" xr:uid="{60C0BBD1-35CB-0A42-B37D-EFB8AB5AF2C2}">
       <text>
         <r>
           <rPr>
@@ -14487,7 +14956,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I680" authorId="0" shapeId="0" xr:uid="{4968F299-3652-5246-ADB4-0E4B2E7065BE}">
+    <comment ref="I680" authorId="0" shapeId="0" xr:uid="{01164EA3-2E99-EF4A-97A7-0A56F836E55C}">
       <text>
         <r>
           <rPr>
@@ -14502,7 +14971,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I681" authorId="0" shapeId="0" xr:uid="{ABCA35E7-5D33-2740-A154-6EAE6C58E4C3}">
+    <comment ref="I681" authorId="0" shapeId="0" xr:uid="{57DBA0EF-2D56-3E4A-8B93-8D63E07E27C7}">
       <text>
         <r>
           <rPr>
@@ -14520,7 +14989,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I682" authorId="0" shapeId="0" xr:uid="{33546BDE-CFA8-284F-8A6A-706814BD91EF}">
+    <comment ref="I682" authorId="0" shapeId="0" xr:uid="{44A34836-123F-2B4F-B916-29117C1911D1}">
       <text>
         <r>
           <rPr>
@@ -14537,7 +15006,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I683" authorId="0" shapeId="0" xr:uid="{0DAB8AD6-CA38-E846-AFED-EB42F72C23A6}">
+    <comment ref="I683" authorId="0" shapeId="0" xr:uid="{435B6B09-2E8F-4A4B-B779-25DCD07E41C6}">
       <text>
         <r>
           <rPr>
@@ -14553,7 +15022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I684" authorId="0" shapeId="0" xr:uid="{04118A69-26FF-9E4E-A12A-E67A3ACB02D3}">
+    <comment ref="I684" authorId="0" shapeId="0" xr:uid="{83838896-F709-8F49-B896-26E0088DB0BC}">
       <text>
         <r>
           <rPr>
@@ -14569,7 +15038,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I685" authorId="0" shapeId="0" xr:uid="{DB97F629-41F5-D447-8647-538A306D5BB1}">
+    <comment ref="I685" authorId="0" shapeId="0" xr:uid="{D090C9D3-4AC2-EF4B-80CC-80D01B4C12B3}">
       <text>
         <r>
           <rPr>
@@ -14585,7 +15054,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I686" authorId="0" shapeId="0" xr:uid="{75AE40F9-E7E4-8F4B-B87D-655A4E5A6712}">
+    <comment ref="I686" authorId="0" shapeId="0" xr:uid="{713AF0F5-A75C-D049-BB45-CCFB1CC45E86}">
       <text>
         <r>
           <rPr>
@@ -14605,7 +15074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I687" authorId="0" shapeId="0" xr:uid="{FFB1730D-2ED7-3445-B50F-9CF9F6BCB421}">
+    <comment ref="I687" authorId="0" shapeId="0" xr:uid="{131BC16A-85CC-7E43-AFBC-D1147562A542}">
       <text>
         <r>
           <rPr>
@@ -14623,7 +15092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I688" authorId="0" shapeId="0" xr:uid="{E8E2CCA2-B50D-B84F-B0B5-ABCE163F6B20}">
+    <comment ref="I688" authorId="0" shapeId="0" xr:uid="{46FAD374-6A2B-E141-AF50-96069954AD91}">
       <text>
         <r>
           <rPr>
@@ -14640,7 +15109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I689" authorId="0" shapeId="0" xr:uid="{9C667212-2D3E-2D4E-B7C7-B1C3A42EDF70}">
+    <comment ref="I689" authorId="0" shapeId="0" xr:uid="{4B926E4A-5928-C34B-856F-7EE3539F2CD5}">
       <text>
         <r>
           <rPr>
@@ -14654,7 +15123,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I690" authorId="0" shapeId="0" xr:uid="{90A73F24-91F7-AF40-BCB7-11176F9AA8B8}">
+    <comment ref="I690" authorId="0" shapeId="0" xr:uid="{6F901979-4916-B64E-86AC-AA1590305ADA}">
       <text>
         <r>
           <rPr>
@@ -14672,7 +15141,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I691" authorId="0" shapeId="0" xr:uid="{2E507574-86FF-6746-9243-8ECFB75D173F}">
+    <comment ref="I691" authorId="0" shapeId="0" xr:uid="{38F98212-6880-544B-8DDD-3BEC49A9F593}">
       <text>
         <r>
           <rPr>
@@ -14690,7 +15159,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I692" authorId="0" shapeId="0" xr:uid="{C8B8FBB1-8988-0241-8584-94744A4549F5}">
+    <comment ref="I692" authorId="0" shapeId="0" xr:uid="{F7D313AC-06A4-DC40-9D3D-8D68AC6C1935}">
       <text>
         <r>
           <rPr>
@@ -14708,7 +15177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I693" authorId="0" shapeId="0" xr:uid="{22955D23-74BB-DE4C-8EDE-24EAA1B0B2BC}">
+    <comment ref="I693" authorId="0" shapeId="0" xr:uid="{83008753-FFC4-7340-850B-793366DDA205}">
       <text>
         <r>
           <rPr>
@@ -14728,7 +15197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I694" authorId="0" shapeId="0" xr:uid="{90E1095E-6B67-C54F-8607-5AC0B1CF8E73}">
+    <comment ref="I694" authorId="0" shapeId="0" xr:uid="{68D522CB-64D9-FA44-99EA-C395C29A2A3C}">
       <text>
         <r>
           <rPr>
@@ -14745,7 +15214,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I695" authorId="0" shapeId="0" xr:uid="{A70128C6-8B62-7A44-AA94-EA16D466BCD1}">
+    <comment ref="I695" authorId="0" shapeId="0" xr:uid="{2BDD8BDC-3205-D446-B585-04867AEA3D7B}">
       <text>
         <r>
           <rPr>
@@ -14762,7 +15231,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I696" authorId="0" shapeId="0" xr:uid="{C73C52EF-B83E-D642-B443-B6056F38CD06}">
+    <comment ref="I696" authorId="0" shapeId="0" xr:uid="{13237556-7289-7046-9278-9857FA3E098C}">
       <text>
         <r>
           <rPr>
@@ -14779,27 +15248,413 @@
         </r>
       </text>
     </comment>
-    <comment ref="I697" authorId="0" shapeId="0" xr:uid="{4EEB7915-CD68-7F41-8FF1-F4DA5B7C9778}">
+    <comment ref="I697" authorId="0" shapeId="0" xr:uid="{F260523A-29E4-D54B-8F2E-4F55B2C5A31C}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>엘리자베스 제인 코크런: 주다온
-에라스무스 윌슨: 최민우
-조지 매든: 유성재
-콜드웰&amp;공장부장: 나현진
-도로시&amp;에이프릴: 시민지
-밀라: 임바로미
-루나&amp;소피아: 이준혁(넬)</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>엘리자베스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>제인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>코크런</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>주다온</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>에라스무스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윌슨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최민우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>조지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>매든</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>유성재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>콜드웰</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>&amp;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>공장부장</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>나현진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>도로시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>&amp;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>에이프릴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>시민지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>밀라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임바로미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>루나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>&amp;</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>소피아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이준혁</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>넬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
-    <comment ref="I698" authorId="0" shapeId="0" xr:uid="{A5CA85A2-E85F-A64A-A697-A129156D5BC3}">
+    <comment ref="I698" authorId="0" shapeId="0" xr:uid="{1AE19FF8-E3BF-384C-B602-D03484A3E233}">
       <text>
         <r>
           <rPr>
@@ -14817,7 +15672,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I699" authorId="0" shapeId="0" xr:uid="{C04F750B-CA80-1748-9514-27075E36CAA4}">
+    <comment ref="I699" authorId="0" shapeId="0" xr:uid="{E3639CD1-C6FE-B740-8A26-57B41A7E4847}">
       <text>
         <r>
           <rPr>
@@ -14833,7 +15688,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I700" authorId="0" shapeId="0" xr:uid="{3DF7036F-E23A-5640-9F43-F9BE49CF520B}">
+    <comment ref="I700" authorId="0" shapeId="0" xr:uid="{26DFCFEA-80DC-1746-AF72-E976A0A49664}">
       <text>
         <r>
           <rPr>
@@ -14851,7 +15706,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I701" authorId="0" shapeId="0" xr:uid="{71EA79A9-A729-AE46-B5E7-389D8205C0EF}">
+    <comment ref="I701" authorId="0" shapeId="0" xr:uid="{100BE53B-0368-DA40-9309-ABB21FC0AA51}">
       <text>
         <r>
           <rPr>
@@ -14870,7 +15725,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I702" authorId="0" shapeId="0" xr:uid="{FB1E93BE-8134-7647-9BB1-752900677E82}">
+    <comment ref="I702" authorId="0" shapeId="0" xr:uid="{3CDDFDD5-FF99-5E42-9918-DF2688130892}">
       <text>
         <r>
           <rPr>
@@ -14885,7 +15740,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I703" authorId="0" shapeId="0" xr:uid="{AD6711ED-3399-E64E-BE38-FC96B8428DA3}">
+    <comment ref="I703" authorId="0" shapeId="0" xr:uid="{5E061E9E-73B1-5C48-AC9B-C5A329812178}">
       <text>
         <r>
           <rPr>
@@ -14903,7 +15758,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I704" authorId="0" shapeId="0" xr:uid="{2D1F5144-EECA-6948-9A1B-75DB5784A132}">
+    <comment ref="I704" authorId="0" shapeId="0" xr:uid="{C9846F2F-7CF2-3641-943C-AA983480411A}">
       <text>
         <r>
           <rPr>
@@ -14930,23 +15785,148 @@
         </r>
       </text>
     </comment>
-    <comment ref="I705" authorId="0" shapeId="0" xr:uid="{0880C491-2896-A84D-8FFF-AD2F4449573C}">
+    <comment ref="I705" authorId="0" shapeId="0" xr:uid="{226C413D-80E9-9643-94C3-C39A339D5BC8}">
       <text>
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>지나: 이서영
-빅토르 투르게네프: 조성윤
-이반 투르게네프: 이한솔</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>지나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이서영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>빅토르</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>투르게네프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>조성윤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이반</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>투르게네프</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이한솔</t>
         </r>
       </text>
     </comment>
-    <comment ref="I706" authorId="0" shapeId="0" xr:uid="{5E966385-D55B-B541-ADC1-198E49CF237E}">
+    <comment ref="I706" authorId="0" shapeId="0" xr:uid="{E62118C4-7A57-3541-B270-C9A03718A57C}">
       <text>
         <r>
           <rPr>
@@ -14962,7 +15942,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I707" authorId="0" shapeId="0" xr:uid="{773D5B15-4CB8-AB4A-A06A-8168F64F0FD6}">
+    <comment ref="I707" authorId="0" shapeId="0" xr:uid="{063EBF97-30CD-414A-A073-8A7AE7A9CACF}">
       <text>
         <r>
           <rPr>
@@ -14980,7 +15960,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I708" authorId="0" shapeId="0" xr:uid="{E3E7A612-B68C-7E4C-B195-F1A6437247D8}">
+    <comment ref="I708" authorId="0" shapeId="0" xr:uid="{1CC2BF0A-DADE-5D46-8606-181F75F314A1}">
       <text>
         <r>
           <rPr>
@@ -14996,7 +15976,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I709" authorId="0" shapeId="0" xr:uid="{0582C4A9-5453-864E-9B3E-68150B2436E5}">
+    <comment ref="I709" authorId="0" shapeId="0" xr:uid="{9B3BA6EC-D99D-994A-A289-C50E822AC1B3}">
       <text>
         <r>
           <rPr>
@@ -15013,7 +15993,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I710" authorId="0" shapeId="0" xr:uid="{876831A9-BE99-2E4B-81E0-2B1EADBE3C92}">
+    <comment ref="I710" authorId="0" shapeId="0" xr:uid="{FF867C94-299E-AB4E-9668-8813A9474A4E}">
       <text>
         <r>
           <rPr>
@@ -15029,7 +16009,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I711" authorId="0" shapeId="0" xr:uid="{C04FA653-F8F5-974E-9F67-49112DBDC858}">
+    <comment ref="I711" authorId="0" shapeId="0" xr:uid="{988F4DB7-0AA7-B04A-B7B7-C7C30C619475}">
       <text>
         <r>
           <rPr>
@@ -15047,7 +16027,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I712" authorId="0" shapeId="0" xr:uid="{D837C983-5797-6F43-BB44-1B68AF65B6DD}">
+    <comment ref="I712" authorId="0" shapeId="0" xr:uid="{7000AC98-E40B-5749-BBA8-EB9614148AB2}">
       <text>
         <r>
           <rPr>
@@ -15062,7 +16042,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I713" authorId="0" shapeId="0" xr:uid="{9FC8B51A-5002-0842-B376-318BEA4158B1}">
+    <comment ref="I713" authorId="0" shapeId="0" xr:uid="{B2299574-FADD-1841-B801-3E991DA7CD90}">
       <text>
         <r>
           <rPr>
@@ -15077,7 +16057,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I714" authorId="0" shapeId="0" xr:uid="{5C299703-B7D9-6947-8BEA-447846237C46}">
+    <comment ref="I714" authorId="0" shapeId="0" xr:uid="{B74318DD-F137-B740-AC7D-91048F3894AC}">
       <text>
         <r>
           <rPr>
@@ -15093,7 +16073,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I715" authorId="0" shapeId="0" xr:uid="{4B57D53F-EAD9-1546-844C-8066FB0C1138}">
+    <comment ref="I715" authorId="0" shapeId="0" xr:uid="{24D6778F-A1A4-7B43-BE2E-33C25F57413C}">
       <text>
         <r>
           <rPr>
@@ -15108,6 +16088,1265 @@
 메이: 이서현
 백스: 안창용
 진짜 첼릭: 이정수</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I716" authorId="0" shapeId="0" xr:uid="{A35212BC-71DE-2048-B657-082188C698FF}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>줄리안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마쉬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>양준모</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>도로시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>브록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정영주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>페기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>소여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최유정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>빌리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로러</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>기세중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>메기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>존스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>전수경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>버튼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>베리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>애브너</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>딜런</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김민수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>브</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>팻</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>대닝</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤석원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>앤디</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김성수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>애니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>전성혜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>필리스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김재희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로레인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김채아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>맥</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임정진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>앙상블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박래찬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이소윤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>주현우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이서호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김나영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김봄나리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>오성식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최재석</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>손호재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>강산</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박준병</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이상원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박지원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>엄도하</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>남유진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김다예</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김지호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>유민혜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>강한나래</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최경희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이동주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박비주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>나건주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>신은규</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이여준</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임유연</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최태언</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스윙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김찬후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>노아름</t>
         </r>
       </text>
     </comment>
@@ -15116,7 +17355,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10014" uniqueCount="4084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10028" uniqueCount="4091">
   <si>
     <t>시즌</t>
   </si>
@@ -27368,6 +29607,27 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1ZboVsHaQ123bzslyVH2GA1AJnhno4922/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>CJ, 샘컴퍼니</t>
+  </si>
+  <si>
+    <t>라센 19연</t>
+  </si>
+  <si>
+    <t>브로드웨이 42번가</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 양준모 정영주 최유정 기세중 전수경 김호 김민수(브) 윤석원 김성수 전성혜 김재희 김채아 임정진 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VOboZ2d4pW5aHzd4Fp3pSDxrfqgKzpih/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/223957599229</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.gvjplkoj307x</t>
   </si>
 </sst>
 </file>
@@ -27510,7 +29770,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -27629,12 +29889,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="0.59996337778862885"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -27862,6 +30133,42 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -28776,7 +31083,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R715" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R716" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -29102,11 +31409,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U715"/>
+  <dimension ref="A1:U716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I715" sqref="I715"/>
+    <sheetView tabSelected="1" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A690" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A716" sqref="A716"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -70583,6 +72890,62 @@
         <v>4063</v>
       </c>
     </row>
+    <row r="716" spans="1:21" ht="17" customHeight="1">
+      <c r="A716" s="77">
+        <v>715</v>
+      </c>
+      <c r="B716" s="78">
+        <v>45871</v>
+      </c>
+      <c r="C716" s="79">
+        <v>0.77083333333333337</v>
+      </c>
+      <c r="D716" s="80" t="s">
+        <v>4084</v>
+      </c>
+      <c r="E716" s="80" t="s">
+        <v>4085</v>
+      </c>
+      <c r="F716" s="80" t="s">
+        <v>7</v>
+      </c>
+      <c r="G716" s="81" t="s">
+        <v>4086</v>
+      </c>
+      <c r="H716" s="80" t="s">
+        <v>817</v>
+      </c>
+      <c r="I716" s="82" t="s">
+        <v>4087</v>
+      </c>
+      <c r="J716" s="88">
+        <v>0</v>
+      </c>
+      <c r="K716" s="83" t="s">
+        <v>21</v>
+      </c>
+      <c r="L716" s="84" t="s">
+        <v>4088</v>
+      </c>
+      <c r="M716" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="N716" s="84" t="s">
+        <v>4089</v>
+      </c>
+      <c r="O716" s="84" t="s">
+        <v>4090</v>
+      </c>
+      <c r="P716" s="84" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q716" s="87" t="s">
+        <v>15</v>
+      </c>
+      <c r="R716" s="86" t="s">
+        <v>4064</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD115E54-DADB-7543-AFD8-788718DA01AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065E6854-37BF-1A4A-8101-97C41CBBF6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -15309,16 +15309,231 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>첼릭(아덤): 김도빈
-아덤(하리): 안지환
-메이: 이서현
-백스: 안창용
-진짜 첼릭: 이정수</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>첼릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>아덤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김도빈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>아덤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>하리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안지환</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>메이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이서현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>백스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안창용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>진짜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>첼릭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이정수</t>
         </r>
       </text>
     </comment>
@@ -17089,6 +17304,368 @@
           </rPr>
           <t>사도: 조용휘
 영조: 김찬호</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I720" authorId="0" shapeId="0" xr:uid="{83122CE1-C1F7-604D-9027-D017B24BE514}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>선윤재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김리현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>곤이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤이수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤승우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이도라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>홍산하</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>엄마</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>지은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>금보미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>할머니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>허순미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>심박사</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>심재영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이형훈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤교수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤권호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>송상훈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>친구</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김현기</t>
         </r>
       </text>
     </comment>
@@ -17097,7 +17674,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10070" uniqueCount="4110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10084" uniqueCount="4116">
   <si>
     <t>시즌</t>
   </si>
@@ -29427,6 +30004,24 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/theatergoing/122063</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김리현 윤승우 홍산하 금보미 허순미 이형훈 송상훈 김현기 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RPoyGTd9QkjokgVIgXr9yjIlNh8Kk5TK/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1schUrFTG7ecLrsj5HavMm6GrFSlABdvw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224048422685</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.5w9iu6ttkomf</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/271482</t>
   </si>
 </sst>
 </file>
@@ -29658,7 +30253,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -29819,37 +30414,31 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -30750,7 +31339,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R719" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R720" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -31076,11 +31665,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U719"/>
+  <dimension ref="A1:U720"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L722" sqref="L722"/>
+      <pane ySplit="1" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q719" sqref="Q719"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -72753,32 +73342,88 @@
       <c r="I719" s="59" t="s">
         <v>4104</v>
       </c>
-      <c r="J719" s="64">
+      <c r="J719" s="62">
         <v>0</v>
       </c>
-      <c r="K719" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="L719" s="61" t="s">
+      <c r="K719" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L719" s="60" t="s">
         <v>4105</v>
       </c>
-      <c r="M719" s="62" t="s">
+      <c r="M719" s="61" t="s">
         <v>4106</v>
       </c>
-      <c r="N719" s="61" t="s">
+      <c r="N719" s="60" t="s">
         <v>4107</v>
       </c>
-      <c r="O719" s="61" t="s">
+      <c r="O719" s="60" t="s">
         <v>4108</v>
       </c>
-      <c r="P719" s="61" t="s">
+      <c r="P719" s="60" t="s">
         <v>4109</v>
       </c>
-      <c r="Q719" s="61" t="s">
-        <v>15</v>
-      </c>
-      <c r="R719" s="63" t="s">
+      <c r="Q719" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R719" s="51" t="s">
         <v>4060</v>
+      </c>
+    </row>
+    <row r="720" spans="1:21" ht="17" customHeight="1">
+      <c r="A720" s="54">
+        <v>719</v>
+      </c>
+      <c r="B720" s="55">
+        <v>45950</v>
+      </c>
+      <c r="C720" s="56">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="D720" s="57" t="s">
+        <v>161</v>
+      </c>
+      <c r="E720" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="F720" s="57" t="s">
+        <v>41</v>
+      </c>
+      <c r="G720" s="58" t="s">
+        <v>613</v>
+      </c>
+      <c r="H720" s="57" t="s">
+        <v>816</v>
+      </c>
+      <c r="I720" s="59" t="s">
+        <v>4110</v>
+      </c>
+      <c r="J720" s="62">
+        <v>0</v>
+      </c>
+      <c r="K720" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L720" s="60" t="s">
+        <v>4111</v>
+      </c>
+      <c r="M720" s="61" t="s">
+        <v>4112</v>
+      </c>
+      <c r="N720" s="60" t="s">
+        <v>4113</v>
+      </c>
+      <c r="O720" s="60" t="s">
+        <v>4114</v>
+      </c>
+      <c r="P720" s="60" t="s">
+        <v>4115</v>
+      </c>
+      <c r="Q720" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R720" s="51" t="s">
+        <v>4061</v>
       </c>
     </row>
   </sheetData>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11018"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{065E6854-37BF-1A4A-8101-97C41CBBF6DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F33558-0257-8541-A2DC-047E5344905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -14781,16 +14781,213 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>에스트라공(고고): 신구
-블라디미르(디디): 박근형
-포조: 김학철
-럭키: 조달환
-소년: 이시목</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>에스트라공</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>고고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>신구</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>블라디미르</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>디디</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박근형</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>포조</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김학철</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>럭키</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>조달환</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>소년</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이시목</t>
         </r>
       </text>
     </comment>
@@ -29856,6 +30053,159 @@
     <t>https://drive.google.com/file/d/1fqjbjBlXvyKl7zdrWLQe6N2ke_hRGZZX/view?usp=drive_link</t>
   </si>
   <si>
+    <t>https://drive.google.com/file/d/1GJFlNhV4Ro5X8Y2BoNPVnDbRJQMz1Nny/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1kv7-lc5s37q8fg0DcJwlgzvsLc997deH/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1HUzREEM5UjI8HoVNqC3seArUzXpvwpMo/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/12dob4BM287uO1GXobDIU7NFh99juesGD/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RckLYqTGzbeWDvm6vtN5yxHEbe1dIBMD/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1BWiB2ulY-xplkmJFcPpi-4Yw_nxOsjsp/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1pgO6yA5JzL__g2XYZllM4O7JPH7wT2bm/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GY_s82nEQwC21PjnZjKGC3VKFYFQJHwM/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VqL-MpP10W5X3CtN94tQH5VNxi-2PX_5/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EI65hbKmRuna_5EyBrb1VxP_7ToslWTj/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1T7bdRwgq0Ref6uSLj4e6mf4BTTP3qGY9/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1sFIoJAXuYzNvnAIOHkcog6GyoDXKdnmS/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/15Mvq1zdpOep709Ciry9CdshLwFmjv0JI/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1L-s4TnbOpU5zZXWW23ZBWhEr6qq6E4wL/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/17bs5lUGZMVqkAwR4Tu70jN87JjgZwwkt/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1n9eP6-7Hz3clOm8o-9GEonf2McWxzZLA/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1rQdwUflk--ZLz4vE9oO7SimfFT3GYbyI/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1ZboVsHaQ123bzslyVH2GA1AJnhno4922/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>CJ, 샘컴퍼니</t>
+  </si>
+  <si>
+    <t>라센 19연</t>
+  </si>
+  <si>
+    <t>브로드웨이 42번가</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 양준모 정영주 최유정 기세중 전수경 김호 김민수(브) 윤석원 김성수 전성혜 김재희 김채아 임정진 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1VOboZ2d4pW5aHzd4Fp3pSDxrfqgKzpih/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/223957599229</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.gvjplkoj307x</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 강지혜 장예원 고은영 김찬종 김대호 문경초 장두환 김담현 정지은 전성혜(안) </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 강지혜 장예원 고은영 김찬종 김대호 </t>
+  </si>
+  <si>
+    <t>스트라빈스키</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 성태준(성두섭) 황민수 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1EfE3pV1R_jnreimmYlZlJQW4Hy-VgJbD/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/223987763447</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.tdavwgoz9cav</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/265521</t>
+  </si>
+  <si>
+    <t>웨이스티드</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 문진아 유현석 홍금비(홍서영) 김단이 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1cJDej-dMuVvKz3Ai56cbvssTVuTXEuXH/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224012692021</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.bfy27jao93ah</t>
+  </si>
+  <si>
+    <t>쉐도우</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 조용휘 김찬호 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1g6MQxU8FYyNIjt1rge20BuUGWwBpa4Ua/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1r_PZJPJ4lrQpWbGv1o9QkPIUJ8uuQtLj/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224018503505</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.t556v85kl250</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/theatergoing/122063</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김리현 윤승우 홍산하 금보미 허순미 이형훈 송상훈 김현기 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1RPoyGTd9QkjokgVIgXr9yjIlNh8Kk5TK/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1schUrFTG7ecLrsj5HavMm6GrFSlABdvw/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224048422685</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.5w9iu6ttkomf</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/271482</t>
+  </si>
+  <si>
     <t>평타</t>
   </si>
   <si>
@@ -29869,159 +30219,6 @@
   </si>
   <si>
     <t>극불</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GJFlNhV4Ro5X8Y2BoNPVnDbRJQMz1Nny/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1kv7-lc5s37q8fg0DcJwlgzvsLc997deH/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1HUzREEM5UjI8HoVNqC3seArUzXpvwpMo/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/12dob4BM287uO1GXobDIU7NFh99juesGD/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RckLYqTGzbeWDvm6vtN5yxHEbe1dIBMD/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1BWiB2ulY-xplkmJFcPpi-4Yw_nxOsjsp/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1pgO6yA5JzL__g2XYZllM4O7JPH7wT2bm/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GY_s82nEQwC21PjnZjKGC3VKFYFQJHwM/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VqL-MpP10W5X3CtN94tQH5VNxi-2PX_5/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1EI65hbKmRuna_5EyBrb1VxP_7ToslWTj/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1T7bdRwgq0Ref6uSLj4e6mf4BTTP3qGY9/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1sFIoJAXuYzNvnAIOHkcog6GyoDXKdnmS/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15Mvq1zdpOep709Ciry9CdshLwFmjv0JI/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1L-s4TnbOpU5zZXWW23ZBWhEr6qq6E4wL/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/17bs5lUGZMVqkAwR4Tu70jN87JjgZwwkt/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1n9eP6-7Hz3clOm8o-9GEonf2McWxzZLA/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1rQdwUflk--ZLz4vE9oO7SimfFT3GYbyI/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1ZboVsHaQ123bzslyVH2GA1AJnhno4922/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>CJ, 샘컴퍼니</t>
-  </si>
-  <si>
-    <t>라센 19연</t>
-  </si>
-  <si>
-    <t>브로드웨이 42번가</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 양준모 정영주 최유정 기세중 전수경 김호 김민수(브) 윤석원 김성수 전성혜 김재희 김채아 임정진 </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1VOboZ2d4pW5aHzd4Fp3pSDxrfqgKzpih/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://blog.naver.com/playnmu/223957599229</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.gvjplkoj307x</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 강지혜 장예원 고은영 김찬종 김대호 문경초 장두환 김담현 정지은 전성혜(안) </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 강지혜 장예원 고은영 김찬종 김대호 </t>
-  </si>
-  <si>
-    <t>스트라빈스키</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 성태준(성두섭) 황민수 </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1EfE3pV1R_jnreimmYlZlJQW4Hy-VgJbD/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://blog.naver.com/playnmu/223987763447</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.tdavwgoz9cav</t>
-  </si>
-  <si>
-    <t>https://m.dcinside.com/mini/musicalplay/265521</t>
-  </si>
-  <si>
-    <t>웨이스티드</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 문진아 유현석 홍금비(홍서영) 김단이 </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1cJDej-dMuVvKz3Ai56cbvssTVuTXEuXH/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://blog.naver.com/playnmu/224012692021</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.bfy27jao93ah</t>
-  </si>
-  <si>
-    <t>쉐도우</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조용휘 김찬호 </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1g6MQxU8FYyNIjt1rge20BuUGWwBpa4Ua/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1r_PZJPJ4lrQpWbGv1o9QkPIUJ8uuQtLj/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://blog.naver.com/playnmu/224018503505</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.t556v85kl250</t>
-  </si>
-  <si>
-    <t>https://m.dcinside.com/mini/theatergoing/122063</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 김리현 윤승우 홍산하 금보미 허순미 이형훈 송상훈 김현기 </t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1RPoyGTd9QkjokgVIgXr9yjIlNh8Kk5TK/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1schUrFTG7ecLrsj5HavMm6GrFSlABdvw/view?usp=drive_link</t>
-  </si>
-  <si>
-    <t>https://blog.naver.com/playnmu/224048422685</t>
-  </si>
-  <si>
-    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.5w9iu6ttkomf</t>
-  </si>
-  <si>
-    <t>https://m.dcinside.com/mini/musicalplay/271482</t>
   </si>
 </sst>
 </file>
@@ -31668,8 +31865,8 @@
   <dimension ref="A1:U720"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A689" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q719" sqref="Q719"/>
+      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R720" sqref="R720"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -31805,7 +32002,7 @@
         <v>15</v>
       </c>
       <c r="R2" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S2" s="4"/>
       <c r="U2" s="3"/>
@@ -31863,7 +32060,7 @@
         <v>15</v>
       </c>
       <c r="R3" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S3" s="4"/>
       <c r="U3" s="3"/>
@@ -31921,7 +32118,7 @@
         <v>2967</v>
       </c>
       <c r="R4" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S4" s="4"/>
       <c r="U4" s="3"/>
@@ -31979,7 +32176,7 @@
         <v>15</v>
       </c>
       <c r="R5" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S5" s="4"/>
       <c r="U5" s="3"/>
@@ -32037,7 +32234,7 @@
         <v>15</v>
       </c>
       <c r="R6" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S6" s="4"/>
       <c r="U6" s="3"/>
@@ -32095,7 +32292,7 @@
         <v>2968</v>
       </c>
       <c r="R7" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S7" s="4"/>
       <c r="U7" s="3"/>
@@ -32153,7 +32350,7 @@
         <v>2969</v>
       </c>
       <c r="R8" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S8" s="4"/>
       <c r="U8" s="3"/>
@@ -32211,7 +32408,7 @@
         <v>2970</v>
       </c>
       <c r="R9" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S9" s="4"/>
       <c r="U9" s="3"/>
@@ -32269,7 +32466,7 @@
         <v>2971</v>
       </c>
       <c r="R10" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S10" s="4"/>
       <c r="U10" s="3"/>
@@ -32327,7 +32524,7 @@
         <v>2972</v>
       </c>
       <c r="R11" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S11" s="4"/>
       <c r="U11" s="3"/>
@@ -32385,7 +32582,7 @@
         <v>2973</v>
       </c>
       <c r="R12" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S12" s="4"/>
       <c r="U12" s="3"/>
@@ -32443,7 +32640,7 @@
         <v>2974</v>
       </c>
       <c r="R13" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S13" s="4"/>
       <c r="U13" s="3"/>
@@ -32501,7 +32698,7 @@
         <v>2975</v>
       </c>
       <c r="R14" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S14" s="4"/>
       <c r="U14" s="3"/>
@@ -32559,7 +32756,7 @@
         <v>2976</v>
       </c>
       <c r="R15" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S15" s="4"/>
       <c r="U15" s="3"/>
@@ -32617,7 +32814,7 @@
         <v>2977</v>
       </c>
       <c r="R16" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S16" s="4"/>
       <c r="U16" s="3"/>
@@ -32675,7 +32872,7 @@
         <v>2978</v>
       </c>
       <c r="R17" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S17" s="4"/>
       <c r="U17" s="3"/>
@@ -32733,7 +32930,7 @@
         <v>2979</v>
       </c>
       <c r="R18" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S18" s="4"/>
       <c r="U18" s="3"/>
@@ -32791,7 +32988,7 @@
         <v>2980</v>
       </c>
       <c r="R19" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S19" s="4"/>
       <c r="U19" s="3"/>
@@ -32849,7 +33046,7 @@
         <v>15</v>
       </c>
       <c r="R20" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S20" s="4"/>
       <c r="U20" s="3"/>
@@ -32907,7 +33104,7 @@
         <v>15</v>
       </c>
       <c r="R21" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S21" s="4"/>
       <c r="U21" s="3"/>
@@ -32965,7 +33162,7 @@
         <v>15</v>
       </c>
       <c r="R22" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S22" s="4"/>
       <c r="U22" s="3"/>
@@ -33023,7 +33220,7 @@
         <v>15</v>
       </c>
       <c r="R23" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S23" s="4"/>
       <c r="U23" s="3"/>
@@ -33081,7 +33278,7 @@
         <v>15</v>
       </c>
       <c r="R24" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S24" s="4"/>
       <c r="U24" s="3"/>
@@ -33139,7 +33336,7 @@
         <v>15</v>
       </c>
       <c r="R25" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S25" s="4"/>
       <c r="U25" s="3"/>
@@ -33197,7 +33394,7 @@
         <v>15</v>
       </c>
       <c r="R26" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S26" s="4"/>
       <c r="U26" s="3"/>
@@ -33255,7 +33452,7 @@
         <v>15</v>
       </c>
       <c r="R27" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S27" s="4"/>
       <c r="U27" s="3"/>
@@ -33313,7 +33510,7 @@
         <v>2989</v>
       </c>
       <c r="R28" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S28" s="4"/>
       <c r="U28" s="3"/>
@@ -33371,7 +33568,7 @@
         <v>15</v>
       </c>
       <c r="R29" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S29" s="4"/>
       <c r="U29" s="3"/>
@@ -33429,7 +33626,7 @@
         <v>2991</v>
       </c>
       <c r="R30" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S30" s="4"/>
       <c r="U30" s="3"/>
@@ -33487,7 +33684,7 @@
         <v>2992</v>
       </c>
       <c r="R31" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S31" s="4"/>
       <c r="U31" s="3"/>
@@ -33545,7 +33742,7 @@
         <v>15</v>
       </c>
       <c r="R32" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S32" s="4"/>
       <c r="U32" s="3"/>
@@ -33603,7 +33800,7 @@
         <v>15</v>
       </c>
       <c r="R33" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S33" s="4"/>
       <c r="U33" s="3"/>
@@ -33661,7 +33858,7 @@
         <v>2995</v>
       </c>
       <c r="R34" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S34" s="4"/>
       <c r="U34" s="3"/>
@@ -33719,7 +33916,7 @@
         <v>15</v>
       </c>
       <c r="R35" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S35" s="4"/>
       <c r="U35" s="3"/>
@@ -33777,7 +33974,7 @@
         <v>2997</v>
       </c>
       <c r="R36" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S36" s="4"/>
       <c r="U36" s="3"/>
@@ -33835,7 +34032,7 @@
         <v>15</v>
       </c>
       <c r="R37" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S37" s="4"/>
       <c r="U37" s="3"/>
@@ -33893,7 +34090,7 @@
         <v>2999</v>
       </c>
       <c r="R38" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S38" s="4"/>
       <c r="U38" s="3"/>
@@ -33951,7 +34148,7 @@
         <v>15</v>
       </c>
       <c r="R39" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S39" s="4"/>
       <c r="U39" s="3"/>
@@ -34009,7 +34206,7 @@
         <v>15</v>
       </c>
       <c r="R40" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S40" s="4"/>
       <c r="U40" s="3"/>
@@ -34067,7 +34264,7 @@
         <v>3002</v>
       </c>
       <c r="R41" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S41" s="4"/>
       <c r="U41" s="3"/>
@@ -34125,7 +34322,7 @@
         <v>15</v>
       </c>
       <c r="R42" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S42" s="4"/>
       <c r="U42" s="3"/>
@@ -34183,7 +34380,7 @@
         <v>15</v>
       </c>
       <c r="R43" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S43" s="4"/>
       <c r="U43" s="3"/>
@@ -34241,7 +34438,7 @@
         <v>15</v>
       </c>
       <c r="R44" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S44" s="4"/>
       <c r="U44" s="3"/>
@@ -34299,7 +34496,7 @@
         <v>3006</v>
       </c>
       <c r="R45" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S45" s="4"/>
       <c r="U45" s="3"/>
@@ -34357,7 +34554,7 @@
         <v>3007</v>
       </c>
       <c r="R46" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S46" s="4"/>
       <c r="U46" s="3"/>
@@ -34415,7 +34612,7 @@
         <v>15</v>
       </c>
       <c r="R47" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S47" s="4"/>
       <c r="U47" s="3"/>
@@ -34473,7 +34670,7 @@
         <v>15</v>
       </c>
       <c r="R48" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S48" s="4"/>
       <c r="U48" s="3"/>
@@ -34531,7 +34728,7 @@
         <v>3010</v>
       </c>
       <c r="R49" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S49" s="4"/>
       <c r="U49" s="3"/>
@@ -34589,7 +34786,7 @@
         <v>3011</v>
       </c>
       <c r="R50" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S50" s="4"/>
       <c r="U50" s="3"/>
@@ -34647,7 +34844,7 @@
         <v>15</v>
       </c>
       <c r="R51" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S51" s="4"/>
       <c r="U51" s="3"/>
@@ -34705,7 +34902,7 @@
         <v>15</v>
       </c>
       <c r="R52" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S52" s="4"/>
       <c r="U52" s="3"/>
@@ -34763,7 +34960,7 @@
         <v>15</v>
       </c>
       <c r="R53" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S53" s="4"/>
       <c r="U53" s="3"/>
@@ -34821,7 +35018,7 @@
         <v>15</v>
       </c>
       <c r="R54" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S54" s="4"/>
       <c r="U54" s="3"/>
@@ -34879,7 +35076,7 @@
         <v>15</v>
       </c>
       <c r="R55" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S55" s="4"/>
       <c r="U55" s="3"/>
@@ -34937,7 +35134,7 @@
         <v>15</v>
       </c>
       <c r="R56" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S56" s="4"/>
       <c r="U56" s="3"/>
@@ -34995,7 +35192,7 @@
         <v>3017</v>
       </c>
       <c r="R57" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S57" s="4"/>
       <c r="U57" s="3"/>
@@ -35053,7 +35250,7 @@
         <v>15</v>
       </c>
       <c r="R58" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S58" s="4"/>
       <c r="U58" s="3"/>
@@ -35111,7 +35308,7 @@
         <v>15</v>
       </c>
       <c r="R59" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S59" s="4"/>
       <c r="U59" s="3"/>
@@ -35169,7 +35366,7 @@
         <v>15</v>
       </c>
       <c r="R60" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S60" s="4"/>
       <c r="U60" s="3"/>
@@ -35227,7 +35424,7 @@
         <v>15</v>
       </c>
       <c r="R61" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S61" s="4"/>
       <c r="U61" s="3"/>
@@ -35285,7 +35482,7 @@
         <v>15</v>
       </c>
       <c r="R62" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S62" s="4"/>
       <c r="U62" s="3"/>
@@ -35343,7 +35540,7 @@
         <v>15</v>
       </c>
       <c r="R63" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S63" s="4"/>
       <c r="U63" s="3"/>
@@ -35401,7 +35598,7 @@
         <v>15</v>
       </c>
       <c r="R64" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S64" s="4"/>
       <c r="U64" s="3"/>
@@ -35459,7 +35656,7 @@
         <v>15</v>
       </c>
       <c r="R65" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S65" s="4"/>
       <c r="U65" s="3"/>
@@ -35517,7 +35714,7 @@
         <v>15</v>
       </c>
       <c r="R66" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S66" s="4"/>
       <c r="U66" s="3"/>
@@ -35575,7 +35772,7 @@
         <v>15</v>
       </c>
       <c r="R67" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S67" s="4"/>
       <c r="U67" s="3"/>
@@ -35633,7 +35830,7 @@
         <v>15</v>
       </c>
       <c r="R68" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S68" s="4"/>
       <c r="U68" s="3"/>
@@ -35691,7 +35888,7 @@
         <v>15</v>
       </c>
       <c r="R69" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S69" s="4"/>
       <c r="U69" s="3"/>
@@ -35749,7 +35946,7 @@
         <v>3028</v>
       </c>
       <c r="R70" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S70" s="4"/>
       <c r="U70" s="3"/>
@@ -35807,7 +36004,7 @@
         <v>15</v>
       </c>
       <c r="R71" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S71" s="4"/>
       <c r="U71" s="3"/>
@@ -35865,7 +36062,7 @@
         <v>3030</v>
       </c>
       <c r="R72" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S72" s="4"/>
       <c r="U72" s="3"/>
@@ -35923,7 +36120,7 @@
         <v>15</v>
       </c>
       <c r="R73" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S73" s="4"/>
       <c r="U73" s="3"/>
@@ -35981,7 +36178,7 @@
         <v>15</v>
       </c>
       <c r="R74" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S74" s="4"/>
       <c r="U74" s="3"/>
@@ -36039,7 +36236,7 @@
         <v>15</v>
       </c>
       <c r="R75" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S75" s="4"/>
       <c r="U75" s="3"/>
@@ -36070,7 +36267,7 @@
         <v>816</v>
       </c>
       <c r="I76" s="15" t="s">
-        <v>4090</v>
+        <v>4085</v>
       </c>
       <c r="J76" s="28">
         <v>0</v>
@@ -36097,7 +36294,7 @@
         <v>15</v>
       </c>
       <c r="R76" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S76" s="4"/>
       <c r="U76" s="3"/>
@@ -36155,7 +36352,7 @@
         <v>3035</v>
       </c>
       <c r="R77" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S77" s="4"/>
       <c r="U77" s="3"/>
@@ -36213,7 +36410,7 @@
         <v>15</v>
       </c>
       <c r="R78" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S78" s="4"/>
       <c r="U78" s="3"/>
@@ -36271,7 +36468,7 @@
         <v>15</v>
       </c>
       <c r="R79" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S79" s="4"/>
       <c r="U79" s="3"/>
@@ -36302,7 +36499,7 @@
         <v>817</v>
       </c>
       <c r="I80" s="15" t="s">
-        <v>4091</v>
+        <v>4086</v>
       </c>
       <c r="J80" s="28">
         <v>10000</v>
@@ -36329,7 +36526,7 @@
         <v>15</v>
       </c>
       <c r="R80" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S80" s="4"/>
       <c r="U80" s="3"/>
@@ -36387,7 +36584,7 @@
         <v>3039</v>
       </c>
       <c r="R81" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S81" s="4"/>
       <c r="U81" s="3"/>
@@ -36445,7 +36642,7 @@
         <v>3040</v>
       </c>
       <c r="R82" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S82" s="4"/>
       <c r="U82" s="3"/>
@@ -36503,7 +36700,7 @@
         <v>15</v>
       </c>
       <c r="R83" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S83" s="4"/>
       <c r="U83" s="3"/>
@@ -36561,7 +36758,7 @@
         <v>15</v>
       </c>
       <c r="R84" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S84" s="4"/>
       <c r="U84" s="3"/>
@@ -36619,7 +36816,7 @@
         <v>15</v>
       </c>
       <c r="R85" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S85" s="4"/>
       <c r="U85" s="3"/>
@@ -36677,7 +36874,7 @@
         <v>15</v>
       </c>
       <c r="R86" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S86" s="4"/>
       <c r="U86" s="3"/>
@@ -36735,7 +36932,7 @@
         <v>15</v>
       </c>
       <c r="R87" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S87" s="4"/>
       <c r="U87" s="3"/>
@@ -36793,7 +36990,7 @@
         <v>15</v>
       </c>
       <c r="R88" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S88" s="4"/>
       <c r="U88" s="3"/>
@@ -36851,7 +37048,7 @@
         <v>15</v>
       </c>
       <c r="R89" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S89" s="4"/>
       <c r="U89" s="3"/>
@@ -36909,7 +37106,7 @@
         <v>15</v>
       </c>
       <c r="R90" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S90" s="4"/>
       <c r="U90" s="3"/>
@@ -36967,7 +37164,7 @@
         <v>15</v>
       </c>
       <c r="R91" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S91" s="4"/>
       <c r="U91" s="3"/>
@@ -37025,7 +37222,7 @@
         <v>15</v>
       </c>
       <c r="R92" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S92" s="4"/>
       <c r="U92" s="3"/>
@@ -37083,7 +37280,7 @@
         <v>15</v>
       </c>
       <c r="R93" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S93" s="4"/>
       <c r="U93" s="3"/>
@@ -37141,7 +37338,7 @@
         <v>15</v>
       </c>
       <c r="R94" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S94" s="4"/>
       <c r="U94" s="3"/>
@@ -37199,7 +37396,7 @@
         <v>3051</v>
       </c>
       <c r="R95" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S95" s="4"/>
       <c r="U95" s="3"/>
@@ -37257,7 +37454,7 @@
         <v>15</v>
       </c>
       <c r="R96" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S96" s="4"/>
       <c r="U96" s="3"/>
@@ -37315,7 +37512,7 @@
         <v>15</v>
       </c>
       <c r="R97" s="52" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S97" s="4"/>
       <c r="U97" s="3"/>
@@ -37373,7 +37570,7 @@
         <v>15</v>
       </c>
       <c r="R98" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S98" s="4"/>
       <c r="U98" s="3"/>
@@ -37431,7 +37628,7 @@
         <v>15</v>
       </c>
       <c r="R99" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S99" s="4"/>
       <c r="U99" s="3"/>
@@ -37489,7 +37686,7 @@
         <v>15</v>
       </c>
       <c r="R100" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S100" s="4"/>
       <c r="U100" s="3"/>
@@ -37547,7 +37744,7 @@
         <v>15</v>
       </c>
       <c r="R101" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S101" s="4"/>
       <c r="U101" s="3"/>
@@ -37605,7 +37802,7 @@
         <v>15</v>
       </c>
       <c r="R102" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S102" s="4"/>
       <c r="U102" s="3"/>
@@ -37663,7 +37860,7 @@
         <v>15</v>
       </c>
       <c r="R103" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S103" s="4"/>
       <c r="U103" s="3"/>
@@ -37721,7 +37918,7 @@
         <v>15</v>
       </c>
       <c r="R104" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S104" s="4"/>
       <c r="U104" s="3"/>
@@ -37779,7 +37976,7 @@
         <v>15</v>
       </c>
       <c r="R105" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S105" s="4"/>
       <c r="U105" s="3"/>
@@ -37837,7 +38034,7 @@
         <v>15</v>
       </c>
       <c r="R106" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S106" s="4"/>
       <c r="U106" s="3"/>
@@ -37895,7 +38092,7 @@
         <v>15</v>
       </c>
       <c r="R107" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S107" s="4"/>
       <c r="U107" s="3"/>
@@ -37953,7 +38150,7 @@
         <v>15</v>
       </c>
       <c r="R108" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S108" s="4"/>
       <c r="U108" s="3"/>
@@ -38011,7 +38208,7 @@
         <v>15</v>
       </c>
       <c r="R109" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S109" s="4"/>
       <c r="U109" s="3"/>
@@ -38069,7 +38266,7 @@
         <v>15</v>
       </c>
       <c r="R110" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S110" s="4"/>
       <c r="U110" s="3"/>
@@ -38127,7 +38324,7 @@
         <v>15</v>
       </c>
       <c r="R111" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S111" s="4"/>
       <c r="U111" s="3"/>
@@ -38185,7 +38382,7 @@
         <v>15</v>
       </c>
       <c r="R112" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S112" s="4"/>
       <c r="U112" s="3"/>
@@ -38243,7 +38440,7 @@
         <v>15</v>
       </c>
       <c r="R113" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S113" s="4"/>
       <c r="U113" s="3"/>
@@ -38301,7 +38498,7 @@
         <v>15</v>
       </c>
       <c r="R114" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S114" s="4"/>
       <c r="U114" s="3"/>
@@ -38359,7 +38556,7 @@
         <v>15</v>
       </c>
       <c r="R115" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S115" s="4"/>
       <c r="U115" s="3"/>
@@ -38417,7 +38614,7 @@
         <v>15</v>
       </c>
       <c r="R116" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S116" s="4"/>
       <c r="U116" s="3"/>
@@ -38475,7 +38672,7 @@
         <v>3073</v>
       </c>
       <c r="R117" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S117" s="4"/>
       <c r="U117" s="3"/>
@@ -38533,7 +38730,7 @@
         <v>15</v>
       </c>
       <c r="R118" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S118" s="4"/>
       <c r="U118" s="3"/>
@@ -38591,7 +38788,7 @@
         <v>3075</v>
       </c>
       <c r="R119" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S119" s="4"/>
       <c r="U119" s="3"/>
@@ -38649,7 +38846,7 @@
         <v>15</v>
       </c>
       <c r="R120" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S120" s="4"/>
       <c r="U120" s="3"/>
@@ -38707,7 +38904,7 @@
         <v>15</v>
       </c>
       <c r="R121" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S121" s="4"/>
       <c r="U121" s="3"/>
@@ -38765,7 +38962,7 @@
         <v>15</v>
       </c>
       <c r="R122" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S122" s="4"/>
       <c r="U122" s="3"/>
@@ -38823,7 +39020,7 @@
         <v>15</v>
       </c>
       <c r="R123" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S123" s="4"/>
       <c r="U123" s="3"/>
@@ -38881,7 +39078,7 @@
         <v>15</v>
       </c>
       <c r="R124" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S124" s="4"/>
       <c r="U124" s="3"/>
@@ -38939,7 +39136,7 @@
         <v>15</v>
       </c>
       <c r="R125" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S125" s="4"/>
       <c r="U125" s="3"/>
@@ -38997,7 +39194,7 @@
         <v>3081</v>
       </c>
       <c r="R126" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S126" s="4"/>
       <c r="U126" s="3"/>
@@ -39055,7 +39252,7 @@
         <v>15</v>
       </c>
       <c r="R127" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S127" s="4"/>
       <c r="U127" s="3"/>
@@ -39113,7 +39310,7 @@
         <v>15</v>
       </c>
       <c r="R128" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S128" s="4"/>
       <c r="U128" s="3"/>
@@ -39171,7 +39368,7 @@
         <v>15</v>
       </c>
       <c r="R129" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S129" s="4"/>
       <c r="U129" s="3"/>
@@ -39229,7 +39426,7 @@
         <v>15</v>
       </c>
       <c r="R130" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S130" s="4"/>
       <c r="U130" s="3"/>
@@ -39287,7 +39484,7 @@
         <v>15</v>
       </c>
       <c r="R131" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S131" s="4"/>
       <c r="U131" s="3"/>
@@ -39345,7 +39542,7 @@
         <v>15</v>
       </c>
       <c r="R132" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S132" s="4"/>
       <c r="U132" s="3"/>
@@ -39403,7 +39600,7 @@
         <v>15</v>
       </c>
       <c r="R133" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S133" s="4"/>
       <c r="U133" s="3"/>
@@ -39461,7 +39658,7 @@
         <v>15</v>
       </c>
       <c r="R134" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S134" s="4"/>
       <c r="U134" s="3"/>
@@ -39519,7 +39716,7 @@
         <v>15</v>
       </c>
       <c r="R135" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S135" s="4"/>
       <c r="U135" s="3"/>
@@ -39577,7 +39774,7 @@
         <v>15</v>
       </c>
       <c r="R136" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S136" s="4"/>
       <c r="U136" s="3"/>
@@ -39635,7 +39832,7 @@
         <v>3091</v>
       </c>
       <c r="R137" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S137" s="4"/>
       <c r="U137" s="3"/>
@@ -39693,7 +39890,7 @@
         <v>15</v>
       </c>
       <c r="R138" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S138" s="4"/>
       <c r="U138" s="3"/>
@@ -39751,7 +39948,7 @@
         <v>15</v>
       </c>
       <c r="R139" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S139" s="4"/>
       <c r="U139" s="3"/>
@@ -39809,7 +40006,7 @@
         <v>15</v>
       </c>
       <c r="R140" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S140" s="4"/>
       <c r="U140" s="3"/>
@@ -39867,7 +40064,7 @@
         <v>15</v>
       </c>
       <c r="R141" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S141" s="4"/>
       <c r="U141" s="3"/>
@@ -39925,7 +40122,7 @@
         <v>15</v>
       </c>
       <c r="R142" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S142" s="4"/>
       <c r="U142" s="3"/>
@@ -39983,7 +40180,7 @@
         <v>15</v>
       </c>
       <c r="R143" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S143" s="4"/>
       <c r="U143" s="3"/>
@@ -40041,7 +40238,7 @@
         <v>15</v>
       </c>
       <c r="R144" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S144" s="4"/>
       <c r="U144" s="3"/>
@@ -40099,7 +40296,7 @@
         <v>15</v>
       </c>
       <c r="R145" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S145" s="4"/>
       <c r="U145" s="3"/>
@@ -40157,7 +40354,7 @@
         <v>15</v>
       </c>
       <c r="R146" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S146" s="4"/>
       <c r="U146" s="3"/>
@@ -40215,7 +40412,7 @@
         <v>15</v>
       </c>
       <c r="R147" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S147" s="4"/>
       <c r="U147" s="3"/>
@@ -40273,7 +40470,7 @@
         <v>15</v>
       </c>
       <c r="R148" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S148" s="4"/>
       <c r="U148" s="3"/>
@@ -40331,7 +40528,7 @@
         <v>15</v>
       </c>
       <c r="R149" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S149" s="4"/>
       <c r="U149" s="3"/>
@@ -40389,7 +40586,7 @@
         <v>15</v>
       </c>
       <c r="R150" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S150" s="4"/>
       <c r="U150" s="3"/>
@@ -40447,7 +40644,7 @@
         <v>15</v>
       </c>
       <c r="R151" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S151" s="4"/>
       <c r="U151" s="3"/>
@@ -40505,7 +40702,7 @@
         <v>15</v>
       </c>
       <c r="R152" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S152" s="4"/>
       <c r="U152" s="3"/>
@@ -40563,7 +40760,7 @@
         <v>15</v>
       </c>
       <c r="R153" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S153" s="4"/>
       <c r="U153" s="3"/>
@@ -40621,7 +40818,7 @@
         <v>15</v>
       </c>
       <c r="R154" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S154" s="4"/>
       <c r="U154" s="3"/>
@@ -40679,7 +40876,7 @@
         <v>15</v>
       </c>
       <c r="R155" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S155" s="4"/>
       <c r="U155" s="3"/>
@@ -40737,7 +40934,7 @@
         <v>15</v>
       </c>
       <c r="R156" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S156" s="4"/>
       <c r="U156" s="3"/>
@@ -40795,7 +40992,7 @@
         <v>15</v>
       </c>
       <c r="R157" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S157" s="4"/>
       <c r="U157" s="3"/>
@@ -40853,7 +41050,7 @@
         <v>15</v>
       </c>
       <c r="R158" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S158" s="4"/>
       <c r="U158" s="3"/>
@@ -40911,7 +41108,7 @@
         <v>15</v>
       </c>
       <c r="R159" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S159" s="4"/>
       <c r="U159" s="3"/>
@@ -40969,7 +41166,7 @@
         <v>15</v>
       </c>
       <c r="R160" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S160" s="4"/>
       <c r="U160" s="3"/>
@@ -41027,7 +41224,7 @@
         <v>15</v>
       </c>
       <c r="R161" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S161" s="4"/>
       <c r="U161" s="3"/>
@@ -41085,7 +41282,7 @@
         <v>15</v>
       </c>
       <c r="R162" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S162" s="4"/>
       <c r="U162" s="3"/>
@@ -41143,7 +41340,7 @@
         <v>15</v>
       </c>
       <c r="R163" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S163" s="4"/>
       <c r="U163" s="3"/>
@@ -41201,7 +41398,7 @@
         <v>15</v>
       </c>
       <c r="R164" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S164" s="4"/>
       <c r="U164" s="3"/>
@@ -41259,7 +41456,7 @@
         <v>15</v>
       </c>
       <c r="R165" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S165" s="4"/>
       <c r="U165" s="3"/>
@@ -41317,7 +41514,7 @@
         <v>15</v>
       </c>
       <c r="R166" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S166" s="4"/>
       <c r="U166" s="3"/>
@@ -41375,7 +41572,7 @@
         <v>15</v>
       </c>
       <c r="R167" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S167" s="4"/>
       <c r="U167" s="3"/>
@@ -41433,7 +41630,7 @@
         <v>1540</v>
       </c>
       <c r="R168" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S168" s="4"/>
       <c r="U168" s="3"/>
@@ -41491,7 +41688,7 @@
         <v>15</v>
       </c>
       <c r="R169" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S169" s="4"/>
       <c r="U169" s="3"/>
@@ -41549,7 +41746,7 @@
         <v>15</v>
       </c>
       <c r="R170" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S170" s="4"/>
       <c r="U170" s="3"/>
@@ -41607,7 +41804,7 @@
         <v>15</v>
       </c>
       <c r="R171" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S171" s="4"/>
       <c r="U171" s="3"/>
@@ -41665,7 +41862,7 @@
         <v>15</v>
       </c>
       <c r="R172" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S172" s="4"/>
       <c r="U172" s="3"/>
@@ -41723,7 +41920,7 @@
         <v>15</v>
       </c>
       <c r="R173" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S173" s="4"/>
       <c r="U173" s="3"/>
@@ -41781,7 +41978,7 @@
         <v>15</v>
       </c>
       <c r="R174" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S174" s="4"/>
       <c r="U174" s="3"/>
@@ -41839,7 +42036,7 @@
         <v>2960</v>
       </c>
       <c r="R175" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S175" s="4"/>
       <c r="U175" s="3"/>
@@ -41897,7 +42094,7 @@
         <v>15</v>
       </c>
       <c r="R176" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S176" s="4"/>
       <c r="U176" s="3"/>
@@ -41955,7 +42152,7 @@
         <v>15</v>
       </c>
       <c r="R177" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S177" s="4"/>
       <c r="U177" s="3"/>
@@ -42013,7 +42210,7 @@
         <v>15</v>
       </c>
       <c r="R178" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S178" s="4"/>
       <c r="U178" s="3"/>
@@ -42071,7 +42268,7 @@
         <v>15</v>
       </c>
       <c r="R179" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S179" s="4"/>
       <c r="U179" s="3"/>
@@ -42129,7 +42326,7 @@
         <v>15</v>
       </c>
       <c r="R180" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S180" s="4"/>
       <c r="U180" s="3"/>
@@ -42187,7 +42384,7 @@
         <v>15</v>
       </c>
       <c r="R181" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S181" s="4"/>
       <c r="U181" s="3"/>
@@ -42245,7 +42442,7 @@
         <v>15</v>
       </c>
       <c r="R182" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S182" s="4"/>
       <c r="U182" s="3"/>
@@ -42303,7 +42500,7 @@
         <v>15</v>
       </c>
       <c r="R183" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S183" s="4"/>
       <c r="U183" s="3"/>
@@ -42361,7 +42558,7 @@
         <v>15</v>
       </c>
       <c r="R184" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S184" s="4"/>
       <c r="U184" s="3"/>
@@ -42419,7 +42616,7 @@
         <v>15</v>
       </c>
       <c r="R185" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S185" s="4"/>
       <c r="U185" s="3"/>
@@ -42477,7 +42674,7 @@
         <v>15</v>
       </c>
       <c r="R186" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S186" s="4"/>
       <c r="U186" s="3"/>
@@ -42535,7 +42732,7 @@
         <v>3108</v>
       </c>
       <c r="R187" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S187" s="4"/>
       <c r="U187" s="3"/>
@@ -42593,7 +42790,7 @@
         <v>15</v>
       </c>
       <c r="R188" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S188" s="4"/>
       <c r="U188" s="3"/>
@@ -42651,7 +42848,7 @@
         <v>15</v>
       </c>
       <c r="R189" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S189" s="4"/>
       <c r="U189" s="3"/>
@@ -42709,7 +42906,7 @@
         <v>15</v>
       </c>
       <c r="R190" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S190" s="4"/>
       <c r="U190" s="3"/>
@@ -42767,7 +42964,7 @@
         <v>15</v>
       </c>
       <c r="R191" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S191" s="4"/>
       <c r="U191" s="3"/>
@@ -42825,7 +43022,7 @@
         <v>15</v>
       </c>
       <c r="R192" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S192" s="4"/>
       <c r="U192" s="3"/>
@@ -42883,7 +43080,7 @@
         <v>15</v>
       </c>
       <c r="R193" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S193" s="4"/>
       <c r="U193" s="3"/>
@@ -42941,7 +43138,7 @@
         <v>15</v>
       </c>
       <c r="R194" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S194" s="4"/>
       <c r="U194" s="3"/>
@@ -42999,7 +43196,7 @@
         <v>15</v>
       </c>
       <c r="R195" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S195" s="4"/>
       <c r="U195" s="3"/>
@@ -43057,7 +43254,7 @@
         <v>15</v>
       </c>
       <c r="R196" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S196" s="4"/>
       <c r="U196" s="3"/>
@@ -43115,7 +43312,7 @@
         <v>15</v>
       </c>
       <c r="R197" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S197" s="4"/>
       <c r="U197" s="3"/>
@@ -43173,7 +43370,7 @@
         <v>15</v>
       </c>
       <c r="R198" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S198" s="4"/>
       <c r="U198" s="3"/>
@@ -43231,7 +43428,7 @@
         <v>15</v>
       </c>
       <c r="R199" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S199" s="4"/>
       <c r="U199" s="3"/>
@@ -43289,7 +43486,7 @@
         <v>15</v>
       </c>
       <c r="R200" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S200" s="4"/>
       <c r="U200" s="3"/>
@@ -43347,7 +43544,7 @@
         <v>1628</v>
       </c>
       <c r="R201" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S201" s="4"/>
       <c r="U201" s="3"/>
@@ -43405,7 +43602,7 @@
         <v>15</v>
       </c>
       <c r="R202" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S202" s="4"/>
       <c r="U202" s="3"/>
@@ -43463,7 +43660,7 @@
         <v>15</v>
       </c>
       <c r="R203" s="52" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S203" s="4"/>
       <c r="U203" s="3"/>
@@ -43521,7 +43718,7 @@
         <v>15</v>
       </c>
       <c r="R204" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S204" s="4"/>
       <c r="U204" s="3"/>
@@ -43579,7 +43776,7 @@
         <v>15</v>
       </c>
       <c r="R205" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S205" s="4"/>
       <c r="U205" s="3"/>
@@ -43637,7 +43834,7 @@
         <v>1641</v>
       </c>
       <c r="R206" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S206" s="4"/>
       <c r="U206" s="3"/>
@@ -43695,7 +43892,7 @@
         <v>15</v>
       </c>
       <c r="R207" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S207" s="4"/>
       <c r="U207" s="3"/>
@@ -43753,7 +43950,7 @@
         <v>15</v>
       </c>
       <c r="R208" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S208" s="4"/>
       <c r="U208" s="3"/>
@@ -43811,7 +44008,7 @@
         <v>15</v>
       </c>
       <c r="R209" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S209" s="4"/>
       <c r="U209" s="3"/>
@@ -43869,7 +44066,7 @@
         <v>15</v>
       </c>
       <c r="R210" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S210" s="4"/>
       <c r="U210" s="3"/>
@@ -43927,7 +44124,7 @@
         <v>15</v>
       </c>
       <c r="R211" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S211" s="4"/>
       <c r="U211" s="3"/>
@@ -43985,7 +44182,7 @@
         <v>15</v>
       </c>
       <c r="R212" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S212" s="4"/>
       <c r="U212" s="3"/>
@@ -44043,7 +44240,7 @@
         <v>15</v>
       </c>
       <c r="R213" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S213" s="4"/>
       <c r="U213" s="3"/>
@@ -44101,7 +44298,7 @@
         <v>1662</v>
       </c>
       <c r="R214" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S214" s="4"/>
       <c r="U214" s="3"/>
@@ -44159,7 +44356,7 @@
         <v>15</v>
       </c>
       <c r="R215" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S215" s="4"/>
       <c r="U215" s="3"/>
@@ -44217,7 +44414,7 @@
         <v>15</v>
       </c>
       <c r="R216" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S216" s="4"/>
       <c r="U216" s="3"/>
@@ -44275,7 +44472,7 @@
         <v>15</v>
       </c>
       <c r="R217" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S217" s="4"/>
       <c r="U217" s="3"/>
@@ -44333,7 +44530,7 @@
         <v>15</v>
       </c>
       <c r="R218" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S218" s="4"/>
       <c r="U218" s="3"/>
@@ -44391,7 +44588,7 @@
         <v>15</v>
       </c>
       <c r="R219" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S219" s="4"/>
       <c r="U219" s="3"/>
@@ -44449,7 +44646,7 @@
         <v>15</v>
       </c>
       <c r="R220" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S220" s="4"/>
       <c r="U220" s="3"/>
@@ -44507,7 +44704,7 @@
         <v>15</v>
       </c>
       <c r="R221" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S221" s="4"/>
       <c r="U221" s="3"/>
@@ -44565,7 +44762,7 @@
         <v>15</v>
       </c>
       <c r="R222" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S222" s="4"/>
       <c r="U222" s="3"/>
@@ -44623,7 +44820,7 @@
         <v>15</v>
       </c>
       <c r="R223" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S223" s="4"/>
       <c r="U223" s="3"/>
@@ -44681,7 +44878,7 @@
         <v>15</v>
       </c>
       <c r="R224" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S224" s="4"/>
       <c r="U224" s="3"/>
@@ -44739,7 +44936,7 @@
         <v>15</v>
       </c>
       <c r="R225" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S225" s="4"/>
       <c r="U225" s="3"/>
@@ -44797,7 +44994,7 @@
         <v>15</v>
       </c>
       <c r="R226" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S226" s="4"/>
       <c r="U226" s="3"/>
@@ -44855,7 +45052,7 @@
         <v>15</v>
       </c>
       <c r="R227" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S227" s="4"/>
       <c r="U227" s="3"/>
@@ -44913,7 +45110,7 @@
         <v>15</v>
       </c>
       <c r="R228" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S228" s="4"/>
       <c r="U228" s="3"/>
@@ -44971,7 +45168,7 @@
         <v>15</v>
       </c>
       <c r="R229" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S229" s="4"/>
       <c r="U229" s="3"/>
@@ -45029,7 +45226,7 @@
         <v>15</v>
       </c>
       <c r="R230" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S230" s="4"/>
       <c r="U230" s="3"/>
@@ -45087,7 +45284,7 @@
         <v>15</v>
       </c>
       <c r="R231" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S231" s="4"/>
       <c r="U231" s="3"/>
@@ -45145,7 +45342,7 @@
         <v>15</v>
       </c>
       <c r="R232" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S232" s="4"/>
       <c r="U232" s="3"/>
@@ -45203,7 +45400,7 @@
         <v>15</v>
       </c>
       <c r="R233" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S233" s="4"/>
       <c r="U233" s="3"/>
@@ -45261,7 +45458,7 @@
         <v>15</v>
       </c>
       <c r="R234" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S234" s="4"/>
       <c r="U234" s="3"/>
@@ -45319,7 +45516,7 @@
         <v>15</v>
       </c>
       <c r="R235" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S235" s="4"/>
       <c r="U235" s="3"/>
@@ -45377,7 +45574,7 @@
         <v>15</v>
       </c>
       <c r="R236" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S236" s="4"/>
       <c r="U236" s="3"/>
@@ -45435,7 +45632,7 @@
         <v>15</v>
       </c>
       <c r="R237" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S237" s="4"/>
       <c r="U237" s="3"/>
@@ -45493,7 +45690,7 @@
         <v>15</v>
       </c>
       <c r="R238" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S238" s="4"/>
       <c r="U238" s="3"/>
@@ -45551,7 +45748,7 @@
         <v>15</v>
       </c>
       <c r="R239" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S239" s="4"/>
       <c r="U239" s="3"/>
@@ -45609,7 +45806,7 @@
         <v>15</v>
       </c>
       <c r="R240" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S240" s="4"/>
       <c r="U240" s="3"/>
@@ -45667,7 +45864,7 @@
         <v>15</v>
       </c>
       <c r="R241" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S241" s="4"/>
       <c r="U241" s="3"/>
@@ -45725,7 +45922,7 @@
         <v>15</v>
       </c>
       <c r="R242" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S242" s="4"/>
       <c r="U242" s="3"/>
@@ -45783,7 +45980,7 @@
         <v>15</v>
       </c>
       <c r="R243" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S243" s="4"/>
       <c r="U243" s="3"/>
@@ -45841,7 +46038,7 @@
         <v>15</v>
       </c>
       <c r="R244" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S244" s="4"/>
       <c r="U244" s="3"/>
@@ -45899,7 +46096,7 @@
         <v>15</v>
       </c>
       <c r="R245" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S245" s="4"/>
       <c r="U245" s="3"/>
@@ -45957,7 +46154,7 @@
         <v>15</v>
       </c>
       <c r="R246" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S246" s="4"/>
       <c r="U246" s="3"/>
@@ -46015,7 +46212,7 @@
         <v>15</v>
       </c>
       <c r="R247" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S247" s="4"/>
       <c r="U247" s="3"/>
@@ -46073,7 +46270,7 @@
         <v>15</v>
       </c>
       <c r="R248" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S248" s="4"/>
       <c r="U248" s="3"/>
@@ -46131,7 +46328,7 @@
         <v>15</v>
       </c>
       <c r="R249" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S249" s="4"/>
       <c r="U249" s="3"/>
@@ -46189,7 +46386,7 @@
         <v>15</v>
       </c>
       <c r="R250" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S250" s="4"/>
       <c r="U250" s="3"/>
@@ -46247,7 +46444,7 @@
         <v>15</v>
       </c>
       <c r="R251" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S251" s="4"/>
       <c r="U251" s="3"/>
@@ -46305,7 +46502,7 @@
         <v>15</v>
       </c>
       <c r="R252" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S252" s="4"/>
       <c r="U252" s="3"/>
@@ -46363,7 +46560,7 @@
         <v>15</v>
       </c>
       <c r="R253" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S253" s="4"/>
       <c r="U253" s="3"/>
@@ -46421,7 +46618,7 @@
         <v>1764</v>
       </c>
       <c r="R254" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S254" s="4"/>
       <c r="U254" s="3"/>
@@ -46479,7 +46676,7 @@
         <v>15</v>
       </c>
       <c r="R255" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S255" s="4"/>
       <c r="U255" s="3"/>
@@ -46537,7 +46734,7 @@
         <v>15</v>
       </c>
       <c r="R256" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S256" s="4"/>
       <c r="U256" s="3"/>
@@ -46595,7 +46792,7 @@
         <v>15</v>
       </c>
       <c r="R257" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S257" s="4"/>
       <c r="U257" s="3"/>
@@ -46653,7 +46850,7 @@
         <v>15</v>
       </c>
       <c r="R258" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S258" s="4"/>
       <c r="U258" s="3"/>
@@ -46711,7 +46908,7 @@
         <v>15</v>
       </c>
       <c r="R259" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S259" s="4"/>
       <c r="U259" s="3"/>
@@ -46769,7 +46966,7 @@
         <v>15</v>
       </c>
       <c r="R260" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S260" s="4"/>
       <c r="U260" s="3"/>
@@ -46827,7 +47024,7 @@
         <v>15</v>
       </c>
       <c r="R261" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S261" s="4"/>
       <c r="U261" s="3"/>
@@ -46885,7 +47082,7 @@
         <v>15</v>
       </c>
       <c r="R262" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S262" s="4"/>
       <c r="U262" s="3"/>
@@ -46943,7 +47140,7 @@
         <v>15</v>
       </c>
       <c r="R263" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S263" s="4"/>
       <c r="U263" s="3"/>
@@ -47001,7 +47198,7 @@
         <v>15</v>
       </c>
       <c r="R264" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S264" s="4"/>
       <c r="U264" s="3"/>
@@ -47059,7 +47256,7 @@
         <v>15</v>
       </c>
       <c r="R265" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S265" s="4"/>
       <c r="U265" s="3"/>
@@ -47117,7 +47314,7 @@
         <v>15</v>
       </c>
       <c r="R266" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S266" s="4"/>
       <c r="U266" s="3"/>
@@ -47175,7 +47372,7 @@
         <v>15</v>
       </c>
       <c r="R267" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S267" s="4"/>
       <c r="U267" s="3"/>
@@ -47233,7 +47430,7 @@
         <v>15</v>
       </c>
       <c r="R268" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S268" s="4"/>
       <c r="U268" s="3"/>
@@ -47291,7 +47488,7 @@
         <v>15</v>
       </c>
       <c r="R269" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S269" s="4"/>
       <c r="U269" s="3"/>
@@ -47349,7 +47546,7 @@
         <v>15</v>
       </c>
       <c r="R270" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S270" s="4"/>
       <c r="U270" s="3"/>
@@ -47407,7 +47604,7 @@
         <v>15</v>
       </c>
       <c r="R271" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S271" s="4"/>
       <c r="U271" s="3"/>
@@ -47465,7 +47662,7 @@
         <v>15</v>
       </c>
       <c r="R272" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S272" s="4"/>
       <c r="U272" s="3"/>
@@ -47523,7 +47720,7 @@
         <v>15</v>
       </c>
       <c r="R273" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S273" s="4"/>
       <c r="U273" s="3"/>
@@ -47581,7 +47778,7 @@
         <v>15</v>
       </c>
       <c r="R274" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S274" s="4"/>
       <c r="U274" s="3"/>
@@ -47639,7 +47836,7 @@
         <v>15</v>
       </c>
       <c r="R275" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S275" s="4"/>
       <c r="U275" s="3"/>
@@ -47697,7 +47894,7 @@
         <v>15</v>
       </c>
       <c r="R276" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S276" s="4"/>
       <c r="U276" s="3"/>
@@ -47755,7 +47952,7 @@
         <v>15</v>
       </c>
       <c r="R277" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S277" s="4"/>
       <c r="U277" s="3"/>
@@ -47813,7 +48010,7 @@
         <v>15</v>
       </c>
       <c r="R278" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S278" s="4"/>
       <c r="U278" s="3"/>
@@ -47871,7 +48068,7 @@
         <v>15</v>
       </c>
       <c r="R279" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S279" s="4"/>
       <c r="U279" s="3"/>
@@ -47929,7 +48126,7 @@
         <v>15</v>
       </c>
       <c r="R280" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S280" s="4"/>
       <c r="U280" s="3"/>
@@ -47987,7 +48184,7 @@
         <v>15</v>
       </c>
       <c r="R281" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S281" s="4"/>
       <c r="U281" s="3"/>
@@ -48045,7 +48242,7 @@
         <v>1838</v>
       </c>
       <c r="R282" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S282" s="4"/>
       <c r="U282" s="3"/>
@@ -48103,7 +48300,7 @@
         <v>3128</v>
       </c>
       <c r="R283" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S283" s="4"/>
       <c r="U283" s="3"/>
@@ -48161,7 +48358,7 @@
         <v>15</v>
       </c>
       <c r="R284" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S284" s="4"/>
       <c r="U284" s="3"/>
@@ -48219,7 +48416,7 @@
         <v>1848</v>
       </c>
       <c r="R285" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S285" s="4"/>
       <c r="U285" s="3"/>
@@ -48277,7 +48474,7 @@
         <v>1852</v>
       </c>
       <c r="R286" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S286" s="4"/>
       <c r="U286" s="3"/>
@@ -48335,7 +48532,7 @@
         <v>15</v>
       </c>
       <c r="R287" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S287" s="4"/>
       <c r="U287" s="3"/>
@@ -48393,7 +48590,7 @@
         <v>15</v>
       </c>
       <c r="R288" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S288" s="4"/>
       <c r="U288" s="3"/>
@@ -48451,7 +48648,7 @@
         <v>15</v>
       </c>
       <c r="R289" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S289" s="4"/>
       <c r="U289" s="3"/>
@@ -48509,7 +48706,7 @@
         <v>1864</v>
       </c>
       <c r="R290" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S290" s="4"/>
       <c r="U290" s="3"/>
@@ -48567,7 +48764,7 @@
         <v>15</v>
       </c>
       <c r="R291" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S291" s="4"/>
       <c r="U291" s="3"/>
@@ -48625,7 +48822,7 @@
         <v>15</v>
       </c>
       <c r="R292" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S292" s="4"/>
       <c r="U292" s="3"/>
@@ -48683,7 +48880,7 @@
         <v>1873</v>
       </c>
       <c r="R293" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S293" s="4"/>
       <c r="U293" s="3"/>
@@ -48741,7 +48938,7 @@
         <v>15</v>
       </c>
       <c r="R294" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S294" s="4"/>
       <c r="U294" s="3"/>
@@ -48799,7 +48996,7 @@
         <v>15</v>
       </c>
       <c r="R295" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S295" s="4"/>
       <c r="U295" s="3"/>
@@ -48857,7 +49054,7 @@
         <v>15</v>
       </c>
       <c r="R296" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S296" s="4"/>
       <c r="U296" s="3"/>
@@ -48915,7 +49112,7 @@
         <v>15</v>
       </c>
       <c r="R297" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S297" s="4"/>
       <c r="U297" s="3"/>
@@ -48973,7 +49170,7 @@
         <v>15</v>
       </c>
       <c r="R298" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S298" s="4"/>
       <c r="U298" s="3"/>
@@ -49031,7 +49228,7 @@
         <v>3132</v>
       </c>
       <c r="R299" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S299" s="4"/>
       <c r="U299" s="3"/>
@@ -49089,7 +49286,7 @@
         <v>15</v>
       </c>
       <c r="R300" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S300" s="4"/>
       <c r="U300" s="3"/>
@@ -49147,7 +49344,7 @@
         <v>15</v>
       </c>
       <c r="R301" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S301" s="4"/>
       <c r="U301" s="3"/>
@@ -49205,7 +49402,7 @@
         <v>15</v>
       </c>
       <c r="R302" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S302" s="4"/>
       <c r="U302" s="3"/>
@@ -49263,7 +49460,7 @@
         <v>15</v>
       </c>
       <c r="R303" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S303" s="4"/>
       <c r="U303" s="3"/>
@@ -49321,7 +49518,7 @@
         <v>15</v>
       </c>
       <c r="R304" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S304" s="4"/>
       <c r="U304" s="3"/>
@@ -49379,7 +49576,7 @@
         <v>15</v>
       </c>
       <c r="R305" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S305" s="4"/>
       <c r="U305" s="3"/>
@@ -49437,7 +49634,7 @@
         <v>15</v>
       </c>
       <c r="R306" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S306" s="4"/>
       <c r="U306" s="3"/>
@@ -49495,7 +49692,7 @@
         <v>15</v>
       </c>
       <c r="R307" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S307" s="4"/>
       <c r="U307" s="3"/>
@@ -49553,7 +49750,7 @@
         <v>15</v>
       </c>
       <c r="R308" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S308" s="4"/>
       <c r="U308" s="3"/>
@@ -49611,7 +49808,7 @@
         <v>15</v>
       </c>
       <c r="R309" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S309" s="4"/>
       <c r="U309" s="3"/>
@@ -49669,7 +49866,7 @@
         <v>15</v>
       </c>
       <c r="R310" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S310" s="4"/>
       <c r="U310" s="3"/>
@@ -49727,7 +49924,7 @@
         <v>15</v>
       </c>
       <c r="R311" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S311" s="4"/>
       <c r="U311" s="3"/>
@@ -49785,7 +49982,7 @@
         <v>15</v>
       </c>
       <c r="R312" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S312" s="4"/>
       <c r="U312" s="3"/>
@@ -49843,7 +50040,7 @@
         <v>15</v>
       </c>
       <c r="R313" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S313" s="4"/>
       <c r="U313" s="3"/>
@@ -49901,7 +50098,7 @@
         <v>15</v>
       </c>
       <c r="R314" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S314" s="4"/>
       <c r="U314" s="3"/>
@@ -49959,7 +50156,7 @@
         <v>15</v>
       </c>
       <c r="R315" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S315" s="4"/>
       <c r="U315" s="3"/>
@@ -50017,7 +50214,7 @@
         <v>15</v>
       </c>
       <c r="R316" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S316" s="4"/>
       <c r="U316" s="3"/>
@@ -50075,7 +50272,7 @@
         <v>15</v>
       </c>
       <c r="R317" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S317" s="4"/>
       <c r="U317" s="3"/>
@@ -50133,7 +50330,7 @@
         <v>15</v>
       </c>
       <c r="R318" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S318" s="4"/>
       <c r="U318" s="3"/>
@@ -50191,7 +50388,7 @@
         <v>1941</v>
       </c>
       <c r="R319" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S319" s="4"/>
       <c r="U319" s="3"/>
@@ -50249,7 +50446,7 @@
         <v>15</v>
       </c>
       <c r="R320" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S320" s="4"/>
       <c r="U320" s="3"/>
@@ -50307,7 +50504,7 @@
         <v>15</v>
       </c>
       <c r="R321" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S321" s="4"/>
       <c r="U321" s="3"/>
@@ -50365,7 +50562,7 @@
         <v>15</v>
       </c>
       <c r="R322" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S322" s="4"/>
       <c r="U322" s="3"/>
@@ -50423,7 +50620,7 @@
         <v>15</v>
       </c>
       <c r="R323" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S323" s="4"/>
       <c r="U323" s="3"/>
@@ -50481,7 +50678,7 @@
         <v>15</v>
       </c>
       <c r="R324" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S324" s="4"/>
       <c r="U324" s="3"/>
@@ -50539,7 +50736,7 @@
         <v>15</v>
       </c>
       <c r="R325" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S325" s="4"/>
       <c r="U325" s="3"/>
@@ -50597,7 +50794,7 @@
         <v>15</v>
       </c>
       <c r="R326" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S326" s="4"/>
       <c r="U326" s="3"/>
@@ -50655,7 +50852,7 @@
         <v>1963</v>
       </c>
       <c r="R327" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S327" s="4"/>
       <c r="U327" s="3"/>
@@ -50713,7 +50910,7 @@
         <v>15</v>
       </c>
       <c r="R328" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S328" s="4"/>
       <c r="U328" s="3"/>
@@ -50771,7 +50968,7 @@
         <v>15</v>
       </c>
       <c r="R329" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S329" s="4"/>
       <c r="U329" s="3"/>
@@ -50829,7 +51026,7 @@
         <v>1973</v>
       </c>
       <c r="R330" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S330" s="4"/>
       <c r="U330" s="3"/>
@@ -50887,7 +51084,7 @@
         <v>15</v>
       </c>
       <c r="R331" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S331" s="4"/>
       <c r="U331" s="3"/>
@@ -50945,7 +51142,7 @@
         <v>15</v>
       </c>
       <c r="R332" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S332" s="4"/>
       <c r="U332" s="3"/>
@@ -51003,7 +51200,7 @@
         <v>15</v>
       </c>
       <c r="R333" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S333" s="4"/>
       <c r="U333" s="3"/>
@@ -51061,7 +51258,7 @@
         <v>15</v>
       </c>
       <c r="R334" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S334" s="4"/>
       <c r="U334" s="3"/>
@@ -51119,7 +51316,7 @@
         <v>15</v>
       </c>
       <c r="R335" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S335" s="4"/>
       <c r="U335" s="3"/>
@@ -51177,7 +51374,7 @@
         <v>15</v>
       </c>
       <c r="R336" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S336" s="4"/>
       <c r="U336" s="3"/>
@@ -51235,7 +51432,7 @@
         <v>15</v>
       </c>
       <c r="R337" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S337" s="4"/>
       <c r="U337" s="3"/>
@@ -51293,7 +51490,7 @@
         <v>15</v>
       </c>
       <c r="R338" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S338" s="4"/>
       <c r="U338" s="3"/>
@@ -51351,7 +51548,7 @@
         <v>15</v>
       </c>
       <c r="R339" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S339" s="4"/>
       <c r="U339" s="3"/>
@@ -51409,7 +51606,7 @@
         <v>15</v>
       </c>
       <c r="R340" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S340" s="4"/>
       <c r="U340" s="3"/>
@@ -51467,7 +51664,7 @@
         <v>15</v>
       </c>
       <c r="R341" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S341" s="4"/>
       <c r="U341" s="3"/>
@@ -51525,7 +51722,7 @@
         <v>15</v>
       </c>
       <c r="R342" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S342" s="4"/>
       <c r="U342" s="3"/>
@@ -51583,7 +51780,7 @@
         <v>15</v>
       </c>
       <c r="R343" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S343" s="4"/>
       <c r="U343" s="3"/>
@@ -51641,7 +51838,7 @@
         <v>15</v>
       </c>
       <c r="R344" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S344" s="4"/>
       <c r="U344" s="3"/>
@@ -51699,7 +51896,7 @@
         <v>15</v>
       </c>
       <c r="R345" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S345" s="4"/>
       <c r="U345" s="3"/>
@@ -51757,7 +51954,7 @@
         <v>15</v>
       </c>
       <c r="R346" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S346" s="4"/>
       <c r="U346" s="3"/>
@@ -51815,7 +52012,7 @@
         <v>15</v>
       </c>
       <c r="R347" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S347" s="4"/>
       <c r="U347" s="3"/>
@@ -51873,7 +52070,7 @@
         <v>15</v>
       </c>
       <c r="R348" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S348" s="4"/>
       <c r="U348" s="3"/>
@@ -51931,7 +52128,7 @@
         <v>2019</v>
       </c>
       <c r="R349" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S349" s="4"/>
       <c r="U349" s="3"/>
@@ -51989,7 +52186,7 @@
         <v>15</v>
       </c>
       <c r="R350" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S350" s="4"/>
       <c r="U350" s="3"/>
@@ -52047,7 +52244,7 @@
         <v>15</v>
       </c>
       <c r="R351" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S351" s="4"/>
       <c r="U351" s="3"/>
@@ -52105,7 +52302,7 @@
         <v>15</v>
       </c>
       <c r="R352" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S352" s="4"/>
       <c r="U352" s="3"/>
@@ -52163,7 +52360,7 @@
         <v>15</v>
       </c>
       <c r="R353" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S353" s="4"/>
       <c r="U353" s="3"/>
@@ -52221,7 +52418,7 @@
         <v>15</v>
       </c>
       <c r="R354" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S354" s="4"/>
       <c r="U354" s="3"/>
@@ -52279,7 +52476,7 @@
         <v>15</v>
       </c>
       <c r="R355" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S355" s="4"/>
       <c r="U355" s="3"/>
@@ -52337,7 +52534,7 @@
         <v>15</v>
       </c>
       <c r="R356" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S356" s="4"/>
       <c r="U356" s="3"/>
@@ -52395,7 +52592,7 @@
         <v>15</v>
       </c>
       <c r="R357" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S357" s="4"/>
       <c r="U357" s="3"/>
@@ -52453,7 +52650,7 @@
         <v>15</v>
       </c>
       <c r="R358" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S358" s="4"/>
       <c r="U358" s="3"/>
@@ -52511,7 +52708,7 @@
         <v>15</v>
       </c>
       <c r="R359" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S359" s="4"/>
       <c r="U359" s="3"/>
@@ -52569,7 +52766,7 @@
         <v>15</v>
       </c>
       <c r="R360" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S360" s="4"/>
       <c r="U360" s="3"/>
@@ -52627,7 +52824,7 @@
         <v>15</v>
       </c>
       <c r="R361" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S361" s="4"/>
       <c r="U361" s="3"/>
@@ -52685,7 +52882,7 @@
         <v>15</v>
       </c>
       <c r="R362" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S362" s="4"/>
       <c r="U362" s="3"/>
@@ -52743,7 +52940,7 @@
         <v>15</v>
       </c>
       <c r="R363" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S363" s="4"/>
       <c r="U363" s="3"/>
@@ -52801,7 +52998,7 @@
         <v>15</v>
       </c>
       <c r="R364" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S364" s="4"/>
       <c r="U364" s="3"/>
@@ -52859,7 +53056,7 @@
         <v>15</v>
       </c>
       <c r="R365" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S365" s="4"/>
       <c r="U365" s="3"/>
@@ -52917,7 +53114,7 @@
         <v>15</v>
       </c>
       <c r="R366" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S366" s="4"/>
       <c r="U366" s="3"/>
@@ -52975,7 +53172,7 @@
         <v>15</v>
       </c>
       <c r="R367" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S367" s="4"/>
       <c r="U367" s="3"/>
@@ -53033,7 +53230,7 @@
         <v>15</v>
       </c>
       <c r="R368" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S368" s="4"/>
       <c r="U368" s="3"/>
@@ -53091,7 +53288,7 @@
         <v>15</v>
       </c>
       <c r="R369" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S369" s="4"/>
       <c r="U369" s="3"/>
@@ -53149,7 +53346,7 @@
         <v>15</v>
       </c>
       <c r="R370" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S370" s="4"/>
       <c r="U370" s="3"/>
@@ -53207,7 +53404,7 @@
         <v>15</v>
       </c>
       <c r="R371" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S371" s="4"/>
       <c r="U371" s="3"/>
@@ -53265,7 +53462,7 @@
         <v>15</v>
       </c>
       <c r="R372" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S372" s="4"/>
       <c r="U372" s="3"/>
@@ -53323,7 +53520,7 @@
         <v>15</v>
       </c>
       <c r="R373" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S373" s="4"/>
       <c r="U373" s="3"/>
@@ -53381,7 +53578,7 @@
         <v>15</v>
       </c>
       <c r="R374" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S374" s="4"/>
       <c r="U374" s="3"/>
@@ -53439,7 +53636,7 @@
         <v>15</v>
       </c>
       <c r="R375" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S375" s="4"/>
       <c r="U375" s="3"/>
@@ -53497,7 +53694,7 @@
         <v>15</v>
       </c>
       <c r="R376" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S376" s="4"/>
       <c r="U376" s="3"/>
@@ -53555,7 +53752,7 @@
         <v>15</v>
       </c>
       <c r="R377" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S377" s="4"/>
       <c r="U377" s="3"/>
@@ -53613,7 +53810,7 @@
         <v>3145</v>
       </c>
       <c r="R378" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S378" s="4"/>
       <c r="U378" s="3"/>
@@ -53671,7 +53868,7 @@
         <v>15</v>
       </c>
       <c r="R379" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S379" s="4"/>
       <c r="U379" s="3"/>
@@ -53729,7 +53926,7 @@
         <v>15</v>
       </c>
       <c r="R380" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S380" s="4"/>
       <c r="U380" s="3"/>
@@ -53787,7 +53984,7 @@
         <v>15</v>
       </c>
       <c r="R381" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S381" s="4"/>
       <c r="U381" s="3"/>
@@ -53845,7 +54042,7 @@
         <v>15</v>
       </c>
       <c r="R382" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S382" s="4"/>
       <c r="U382" s="3"/>
@@ -53903,7 +54100,7 @@
         <v>15</v>
       </c>
       <c r="R383" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S383" s="4"/>
       <c r="U383" s="3"/>
@@ -53961,7 +54158,7 @@
         <v>15</v>
       </c>
       <c r="R384" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S384" s="4"/>
       <c r="U384" s="3"/>
@@ -54019,7 +54216,7 @@
         <v>15</v>
       </c>
       <c r="R385" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S385" s="4"/>
       <c r="U385" s="3"/>
@@ -54077,7 +54274,7 @@
         <v>15</v>
       </c>
       <c r="R386" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S386" s="4"/>
       <c r="U386" s="3"/>
@@ -54135,7 +54332,7 @@
         <v>15</v>
       </c>
       <c r="R387" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S387" s="4"/>
       <c r="U387" s="3"/>
@@ -54193,7 +54390,7 @@
         <v>15</v>
       </c>
       <c r="R388" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S388" s="4"/>
       <c r="U388" s="3"/>
@@ -54251,7 +54448,7 @@
         <v>15</v>
       </c>
       <c r="R389" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S389" s="4"/>
       <c r="U389" s="3"/>
@@ -54309,7 +54506,7 @@
         <v>2129</v>
       </c>
       <c r="R390" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S390" s="4"/>
       <c r="U390" s="3"/>
@@ -54367,7 +54564,7 @@
         <v>3189</v>
       </c>
       <c r="R391" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S391" s="4"/>
       <c r="U391" s="3"/>
@@ -54425,7 +54622,7 @@
         <v>15</v>
       </c>
       <c r="R392" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S392" s="4"/>
       <c r="U392" s="3"/>
@@ -54483,7 +54680,7 @@
         <v>2137</v>
       </c>
       <c r="R393" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S393" s="4"/>
       <c r="U393" s="3"/>
@@ -54541,7 +54738,7 @@
         <v>15</v>
       </c>
       <c r="R394" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S394" s="4"/>
       <c r="U394" s="3"/>
@@ -54599,7 +54796,7 @@
         <v>15</v>
       </c>
       <c r="R395" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S395" s="4"/>
       <c r="U395" s="3"/>
@@ -54657,7 +54854,7 @@
         <v>15</v>
       </c>
       <c r="R396" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S396" s="4"/>
       <c r="U396" s="3"/>
@@ -54715,7 +54912,7 @@
         <v>15</v>
       </c>
       <c r="R397" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S397" s="4"/>
       <c r="U397" s="3"/>
@@ -54773,7 +54970,7 @@
         <v>15</v>
       </c>
       <c r="R398" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S398" s="4"/>
       <c r="U398" s="3"/>
@@ -54831,7 +55028,7 @@
         <v>15</v>
       </c>
       <c r="R399" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S399" s="4"/>
       <c r="U399" s="3"/>
@@ -54889,7 +55086,7 @@
         <v>15</v>
       </c>
       <c r="R400" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S400" s="4"/>
       <c r="U400" s="3"/>
@@ -54947,7 +55144,7 @@
         <v>2162</v>
       </c>
       <c r="R401" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S401" s="4"/>
       <c r="U401" s="3"/>
@@ -55005,7 +55202,7 @@
         <v>15</v>
       </c>
       <c r="R402" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S402" s="4"/>
       <c r="U402" s="3"/>
@@ -55063,7 +55260,7 @@
         <v>15</v>
       </c>
       <c r="R403" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S403" s="4"/>
       <c r="U403" s="3"/>
@@ -55121,7 +55318,7 @@
         <v>15</v>
       </c>
       <c r="R404" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S404" s="4"/>
       <c r="U404" s="3"/>
@@ -55179,7 +55376,7 @@
         <v>15</v>
       </c>
       <c r="R405" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S405" s="4"/>
       <c r="U405" s="3"/>
@@ -55237,7 +55434,7 @@
         <v>15</v>
       </c>
       <c r="R406" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S406" s="4"/>
       <c r="U406" s="3"/>
@@ -55295,7 +55492,7 @@
         <v>15</v>
       </c>
       <c r="R407" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S407" s="4"/>
       <c r="U407" s="3"/>
@@ -55353,7 +55550,7 @@
         <v>15</v>
       </c>
       <c r="R408" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S408" s="4"/>
       <c r="U408" s="3"/>
@@ -55411,7 +55608,7 @@
         <v>15</v>
       </c>
       <c r="R409" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S409" s="4"/>
       <c r="U409" s="3"/>
@@ -55469,7 +55666,7 @@
         <v>15</v>
       </c>
       <c r="R410" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S410" s="4"/>
       <c r="U410" s="3"/>
@@ -55527,7 +55724,7 @@
         <v>2193</v>
       </c>
       <c r="R411" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S411" s="4"/>
       <c r="U411" s="3"/>
@@ -55585,7 +55782,7 @@
         <v>15</v>
       </c>
       <c r="R412" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S412" s="4"/>
       <c r="U412" s="3"/>
@@ -55643,7 +55840,7 @@
         <v>15</v>
       </c>
       <c r="R413" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S413" s="4"/>
       <c r="U413" s="3"/>
@@ -55701,7 +55898,7 @@
         <v>2203</v>
       </c>
       <c r="R414" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S414" s="4"/>
       <c r="U414" s="3"/>
@@ -55759,7 +55956,7 @@
         <v>15</v>
       </c>
       <c r="R415" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S415" s="4"/>
       <c r="U415" s="3"/>
@@ -55817,7 +56014,7 @@
         <v>15</v>
       </c>
       <c r="R416" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S416" s="4"/>
       <c r="U416" s="3"/>
@@ -55875,7 +56072,7 @@
         <v>15</v>
       </c>
       <c r="R417" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S417" s="4"/>
       <c r="U417" s="3"/>
@@ -55933,7 +56130,7 @@
         <v>15</v>
       </c>
       <c r="R418" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S418" s="4"/>
       <c r="U418" s="3"/>
@@ -55991,7 +56188,7 @@
         <v>3191</v>
       </c>
       <c r="R419" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S419" s="4"/>
       <c r="U419" s="3"/>
@@ -56049,7 +56246,7 @@
         <v>15</v>
       </c>
       <c r="R420" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S420" s="4"/>
       <c r="U420" s="3"/>
@@ -56107,7 +56304,7 @@
         <v>15</v>
       </c>
       <c r="R421" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S421" s="4"/>
       <c r="U421" s="3"/>
@@ -56165,7 +56362,7 @@
         <v>15</v>
       </c>
       <c r="R422" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S422" s="4"/>
       <c r="U422" s="3"/>
@@ -56223,7 +56420,7 @@
         <v>15</v>
       </c>
       <c r="R423" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S423" s="4"/>
       <c r="U423" s="3"/>
@@ -56281,7 +56478,7 @@
         <v>3194</v>
       </c>
       <c r="R424" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S424" s="4"/>
       <c r="U424" s="3"/>
@@ -56339,7 +56536,7 @@
         <v>15</v>
       </c>
       <c r="R425" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S425" s="4"/>
       <c r="U425" s="3"/>
@@ -56397,7 +56594,7 @@
         <v>2233</v>
       </c>
       <c r="R426" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S426" s="4"/>
       <c r="U426" s="3"/>
@@ -56455,7 +56652,7 @@
         <v>15</v>
       </c>
       <c r="R427" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S427" s="4"/>
       <c r="U427" s="3"/>
@@ -56513,7 +56710,7 @@
         <v>15</v>
       </c>
       <c r="R428" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S428" s="4"/>
       <c r="U428" s="3"/>
@@ -56571,7 +56768,7 @@
         <v>15</v>
       </c>
       <c r="R429" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S429" s="4"/>
       <c r="U429" s="3"/>
@@ -56629,7 +56826,7 @@
         <v>15</v>
       </c>
       <c r="R430" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S430" s="4"/>
       <c r="U430" s="3"/>
@@ -56687,7 +56884,7 @@
         <v>15</v>
       </c>
       <c r="R431" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S431" s="4"/>
       <c r="U431" s="3"/>
@@ -56745,7 +56942,7 @@
         <v>15</v>
       </c>
       <c r="R432" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S432" s="4"/>
       <c r="U432" s="3"/>
@@ -56803,7 +57000,7 @@
         <v>15</v>
       </c>
       <c r="R433" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S433" s="4"/>
       <c r="U433" s="3"/>
@@ -56861,7 +57058,7 @@
         <v>15</v>
       </c>
       <c r="R434" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S434" s="4"/>
       <c r="U434" s="3"/>
@@ -56919,7 +57116,7 @@
         <v>15</v>
       </c>
       <c r="R435" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S435" s="4"/>
       <c r="U435" s="3"/>
@@ -56977,7 +57174,7 @@
         <v>15</v>
       </c>
       <c r="R436" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S436" s="4"/>
       <c r="U436" s="3"/>
@@ -57035,7 +57232,7 @@
         <v>15</v>
       </c>
       <c r="R437" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S437" s="4"/>
       <c r="U437" s="3"/>
@@ -57093,7 +57290,7 @@
         <v>15</v>
       </c>
       <c r="R438" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S438" s="4"/>
       <c r="U438" s="3"/>
@@ -57151,7 +57348,7 @@
         <v>15</v>
       </c>
       <c r="R439" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S439" s="4"/>
       <c r="U439" s="3"/>
@@ -57209,7 +57406,7 @@
         <v>15</v>
       </c>
       <c r="R440" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S440" s="4"/>
       <c r="U440" s="3"/>
@@ -57267,7 +57464,7 @@
         <v>15</v>
       </c>
       <c r="R441" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S441" s="4"/>
       <c r="U441" s="3"/>
@@ -57325,7 +57522,7 @@
         <v>15</v>
       </c>
       <c r="R442" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S442" s="4"/>
       <c r="U442" s="3"/>
@@ -57383,7 +57580,7 @@
         <v>15</v>
       </c>
       <c r="R443" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S443" s="4"/>
       <c r="U443" s="3"/>
@@ -57441,7 +57638,7 @@
         <v>15</v>
       </c>
       <c r="R444" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S444" s="4"/>
       <c r="U444" s="3"/>
@@ -57499,7 +57696,7 @@
         <v>15</v>
       </c>
       <c r="R445" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S445" s="4"/>
       <c r="U445" s="3"/>
@@ -57557,7 +57754,7 @@
         <v>15</v>
       </c>
       <c r="R446" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S446" s="4"/>
       <c r="U446" s="3"/>
@@ -57615,7 +57812,7 @@
         <v>15</v>
       </c>
       <c r="R447" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S447" s="4"/>
       <c r="U447" s="3"/>
@@ -57673,7 +57870,7 @@
         <v>15</v>
       </c>
       <c r="R448" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S448" s="4"/>
       <c r="U448" s="3"/>
@@ -57731,7 +57928,7 @@
         <v>15</v>
       </c>
       <c r="R449" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S449" s="4"/>
       <c r="U449" s="3"/>
@@ -57789,7 +57986,7 @@
         <v>15</v>
       </c>
       <c r="R450" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S450" s="4"/>
       <c r="U450" s="3"/>
@@ -57847,7 +58044,7 @@
         <v>15</v>
       </c>
       <c r="R451" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S451" s="4"/>
       <c r="U451" s="3"/>
@@ -57905,7 +58102,7 @@
         <v>15</v>
       </c>
       <c r="R452" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S452" s="4"/>
       <c r="U452" s="3"/>
@@ -57963,7 +58160,7 @@
         <v>15</v>
       </c>
       <c r="R453" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S453" s="4"/>
       <c r="U453" s="3"/>
@@ -58021,7 +58218,7 @@
         <v>15</v>
       </c>
       <c r="R454" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S454" s="4"/>
       <c r="U454" s="3"/>
@@ -58079,7 +58276,7 @@
         <v>15</v>
       </c>
       <c r="R455" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S455" s="4"/>
       <c r="U455" s="3"/>
@@ -58137,7 +58334,7 @@
         <v>15</v>
       </c>
       <c r="R456" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S456" s="4"/>
       <c r="U456" s="3"/>
@@ -58195,7 +58392,7 @@
         <v>15</v>
       </c>
       <c r="R457" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S457" s="4"/>
       <c r="U457" s="3"/>
@@ -58253,7 +58450,7 @@
         <v>15</v>
       </c>
       <c r="R458" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S458" s="4"/>
       <c r="U458" s="3"/>
@@ -58311,7 +58508,7 @@
         <v>15</v>
       </c>
       <c r="R459" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S459" s="4"/>
       <c r="U459" s="3"/>
@@ -58369,7 +58566,7 @@
         <v>15</v>
       </c>
       <c r="R460" s="53" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S460" s="4"/>
       <c r="U460" s="3"/>
@@ -58427,7 +58624,7 @@
         <v>15</v>
       </c>
       <c r="R461" s="53" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S461" s="4"/>
       <c r="U461" s="3"/>
@@ -58485,7 +58682,7 @@
         <v>15</v>
       </c>
       <c r="R462" s="53" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S462" s="4"/>
       <c r="U462" s="3"/>
@@ -58543,7 +58740,7 @@
         <v>15</v>
       </c>
       <c r="R463" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S463" s="4"/>
       <c r="U463" s="3"/>
@@ -58601,7 +58798,7 @@
         <v>3205</v>
       </c>
       <c r="R464" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S464" s="4"/>
       <c r="U464" s="3"/>
@@ -58659,7 +58856,7 @@
         <v>15</v>
       </c>
       <c r="R465" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S465" s="4"/>
       <c r="U465" s="3"/>
@@ -58717,7 +58914,7 @@
         <v>15</v>
       </c>
       <c r="R466" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S466" s="4"/>
       <c r="U466" s="3"/>
@@ -58775,7 +58972,7 @@
         <v>15</v>
       </c>
       <c r="R467" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S467" s="4"/>
       <c r="U467" s="3"/>
@@ -58833,7 +59030,7 @@
         <v>15</v>
       </c>
       <c r="R468" s="53" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S468" s="4"/>
       <c r="U468" s="3"/>
@@ -58891,7 +59088,7 @@
         <v>2347</v>
       </c>
       <c r="R469" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S469" s="4"/>
       <c r="U469" s="3"/>
@@ -58949,7 +59146,7 @@
         <v>15</v>
       </c>
       <c r="R470" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S470" s="4"/>
       <c r="U470" s="3"/>
@@ -59007,7 +59204,7 @@
         <v>15</v>
       </c>
       <c r="R471" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S471" s="4"/>
       <c r="U471" s="3"/>
@@ -59065,7 +59262,7 @@
         <v>15</v>
       </c>
       <c r="R472" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S472" s="4"/>
       <c r="U472" s="3"/>
@@ -59123,7 +59320,7 @@
         <v>2360</v>
       </c>
       <c r="R473" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S473" s="4"/>
       <c r="U473" s="3"/>
@@ -59181,7 +59378,7 @@
         <v>15</v>
       </c>
       <c r="R474" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S474" s="4"/>
       <c r="U474" s="3"/>
@@ -59239,7 +59436,7 @@
         <v>15</v>
       </c>
       <c r="R475" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S475" s="4"/>
       <c r="U475" s="3"/>
@@ -59297,7 +59494,7 @@
         <v>15</v>
       </c>
       <c r="R476" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S476" s="4"/>
       <c r="U476" s="3"/>
@@ -59355,7 +59552,7 @@
         <v>15</v>
       </c>
       <c r="R477" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S477" s="4"/>
       <c r="U477" s="3"/>
@@ -59413,7 +59610,7 @@
         <v>15</v>
       </c>
       <c r="R478" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S478" s="4"/>
       <c r="U478" s="3"/>
@@ -59471,7 +59668,7 @@
         <v>15</v>
       </c>
       <c r="R479" s="53" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S479" s="4"/>
       <c r="U479" s="3"/>
@@ -59529,7 +59726,7 @@
         <v>15</v>
       </c>
       <c r="R480" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S480" s="4"/>
       <c r="U480" s="3"/>
@@ -59587,7 +59784,7 @@
         <v>15</v>
       </c>
       <c r="R481" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S481" s="4"/>
       <c r="U481" s="3"/>
@@ -59645,7 +59842,7 @@
         <v>15</v>
       </c>
       <c r="R482" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S482" s="4"/>
       <c r="U482" s="3"/>
@@ -59703,7 +59900,7 @@
         <v>15</v>
       </c>
       <c r="R483" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S483" s="4"/>
       <c r="U483" s="3"/>
@@ -59761,7 +59958,7 @@
         <v>15</v>
       </c>
       <c r="R484" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S484" s="4"/>
       <c r="U484" s="3"/>
@@ -59819,7 +60016,7 @@
         <v>15</v>
       </c>
       <c r="R485" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S485" s="4"/>
       <c r="U485" s="3"/>
@@ -59877,7 +60074,7 @@
         <v>15</v>
       </c>
       <c r="R486" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S486" s="4"/>
       <c r="U486" s="3"/>
@@ -59935,7 +60132,7 @@
         <v>15</v>
       </c>
       <c r="R487" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S487" s="4"/>
       <c r="U487" s="3"/>
@@ -59993,7 +60190,7 @@
         <v>15</v>
       </c>
       <c r="R488" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S488" s="4"/>
       <c r="U488" s="3"/>
@@ -60051,7 +60248,7 @@
         <v>15</v>
       </c>
       <c r="R489" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S489" s="4"/>
       <c r="U489" s="3"/>
@@ -60109,7 +60306,7 @@
         <v>15</v>
       </c>
       <c r="R490" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S490" s="4"/>
       <c r="U490" s="3"/>
@@ -60167,7 +60364,7 @@
         <v>15</v>
       </c>
       <c r="R491" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S491" s="4"/>
       <c r="U491" s="3"/>
@@ -60225,7 +60422,7 @@
         <v>15</v>
       </c>
       <c r="R492" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S492" s="4"/>
       <c r="U492" s="3"/>
@@ -60283,7 +60480,7 @@
         <v>15</v>
       </c>
       <c r="R493" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S493" s="4"/>
       <c r="U493" s="3"/>
@@ -60341,7 +60538,7 @@
         <v>15</v>
       </c>
       <c r="R494" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S494" s="4"/>
       <c r="U494" s="3"/>
@@ -60399,7 +60596,7 @@
         <v>15</v>
       </c>
       <c r="R495" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S495" s="4"/>
       <c r="U495" s="3"/>
@@ -60457,7 +60654,7 @@
         <v>15</v>
       </c>
       <c r="R496" s="52" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S496" s="4"/>
       <c r="U496" s="3"/>
@@ -60515,7 +60712,7 @@
         <v>15</v>
       </c>
       <c r="R497" s="52" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S497" s="4"/>
       <c r="U497" s="3"/>
@@ -60573,7 +60770,7 @@
         <v>15</v>
       </c>
       <c r="R498" s="52" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S498" s="4"/>
       <c r="U498" s="3"/>
@@ -60631,7 +60828,7 @@
         <v>15</v>
       </c>
       <c r="R499" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S499" s="4"/>
       <c r="U499" s="3"/>
@@ -60689,7 +60886,7 @@
         <v>15</v>
       </c>
       <c r="R500" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S500" s="4"/>
       <c r="U500" s="3"/>
@@ -60747,7 +60944,7 @@
         <v>15</v>
       </c>
       <c r="R501" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S501" s="4"/>
       <c r="U501" s="3"/>
@@ -60805,7 +61002,7 @@
         <v>15</v>
       </c>
       <c r="R502" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S502" s="4"/>
       <c r="U502" s="3"/>
@@ -60863,7 +61060,7 @@
         <v>15</v>
       </c>
       <c r="R503" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S503" s="4"/>
       <c r="U503" s="3"/>
@@ -60921,7 +61118,7 @@
         <v>15</v>
       </c>
       <c r="R504" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S504" s="4"/>
       <c r="U504" s="3"/>
@@ -60979,7 +61176,7 @@
         <v>15</v>
       </c>
       <c r="R505" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S505" s="4"/>
       <c r="U505" s="3"/>
@@ -61037,7 +61234,7 @@
         <v>15</v>
       </c>
       <c r="R506" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S506" s="4"/>
       <c r="U506" s="3"/>
@@ -61095,7 +61292,7 @@
         <v>15</v>
       </c>
       <c r="R507" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S507" s="4"/>
       <c r="U507" s="3"/>
@@ -61153,7 +61350,7 @@
         <v>15</v>
       </c>
       <c r="R508" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S508" s="4"/>
       <c r="U508" s="3"/>
@@ -61211,7 +61408,7 @@
         <v>15</v>
       </c>
       <c r="R509" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S509" s="4"/>
       <c r="U509" s="3"/>
@@ -61269,7 +61466,7 @@
         <v>15</v>
       </c>
       <c r="R510" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S510" s="4"/>
       <c r="U510" s="3"/>
@@ -61327,7 +61524,7 @@
         <v>15</v>
       </c>
       <c r="R511" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S511" s="4"/>
       <c r="U511" s="3"/>
@@ -61385,7 +61582,7 @@
         <v>2471</v>
       </c>
       <c r="R512" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S512" s="4"/>
       <c r="U512" s="3"/>
@@ -61443,7 +61640,7 @@
         <v>15</v>
       </c>
       <c r="R513" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S513" s="4"/>
       <c r="U513" s="3"/>
@@ -61501,7 +61698,7 @@
         <v>15</v>
       </c>
       <c r="R514" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S514" s="4"/>
       <c r="U514" s="3"/>
@@ -61559,7 +61756,7 @@
         <v>15</v>
       </c>
       <c r="R515" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S515" s="4"/>
       <c r="U515" s="3"/>
@@ -61617,7 +61814,7 @@
         <v>15</v>
       </c>
       <c r="R516" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S516" s="4"/>
       <c r="U516" s="3"/>
@@ -61675,7 +61872,7 @@
         <v>15</v>
       </c>
       <c r="R517" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S517" s="4"/>
       <c r="U517" s="3"/>
@@ -61733,7 +61930,7 @@
         <v>15</v>
       </c>
       <c r="R518" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S518" s="4"/>
       <c r="U518" s="3"/>
@@ -61791,7 +61988,7 @@
         <v>15</v>
       </c>
       <c r="R519" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S519" s="4"/>
       <c r="U519" s="3"/>
@@ -61849,7 +62046,7 @@
         <v>15</v>
       </c>
       <c r="R520" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S520" s="4"/>
       <c r="U520" s="3"/>
@@ -61907,7 +62104,7 @@
         <v>15</v>
       </c>
       <c r="R521" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S521" s="4"/>
       <c r="U521" s="3"/>
@@ -61965,7 +62162,7 @@
         <v>15</v>
       </c>
       <c r="R522" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S522" s="4"/>
       <c r="U522" s="3"/>
@@ -62023,7 +62220,7 @@
         <v>15</v>
       </c>
       <c r="R523" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S523" s="4"/>
       <c r="U523" s="3"/>
@@ -62081,7 +62278,7 @@
         <v>15</v>
       </c>
       <c r="R524" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S524" s="4"/>
       <c r="U524" s="3"/>
@@ -62139,7 +62336,7 @@
         <v>15</v>
       </c>
       <c r="R525" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S525" s="4"/>
       <c r="U525" s="3"/>
@@ -62197,7 +62394,7 @@
         <v>15</v>
       </c>
       <c r="R526" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S526" s="4"/>
       <c r="U526" s="3"/>
@@ -62255,7 +62452,7 @@
         <v>15</v>
       </c>
       <c r="R527" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S527" s="4"/>
       <c r="U527" s="3"/>
@@ -62313,7 +62510,7 @@
         <v>15</v>
       </c>
       <c r="R528" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S528" s="4"/>
       <c r="U528" s="3"/>
@@ -62371,7 +62568,7 @@
         <v>15</v>
       </c>
       <c r="R529" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S529" s="4"/>
       <c r="U529" s="3"/>
@@ -62429,7 +62626,7 @@
         <v>15</v>
       </c>
       <c r="R530" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S530" s="4"/>
       <c r="U530" s="3"/>
@@ -62487,7 +62684,7 @@
         <v>15</v>
       </c>
       <c r="R531" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S531" s="4"/>
       <c r="U531" s="3"/>
@@ -62545,7 +62742,7 @@
         <v>15</v>
       </c>
       <c r="R532" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S532" s="4"/>
       <c r="U532" s="3"/>
@@ -62603,7 +62800,7 @@
         <v>15</v>
       </c>
       <c r="R533" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S533" s="4"/>
       <c r="U533" s="3"/>
@@ -62661,7 +62858,7 @@
         <v>15</v>
       </c>
       <c r="R534" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S534" s="4"/>
       <c r="U534" s="3"/>
@@ -62719,7 +62916,7 @@
         <v>15</v>
       </c>
       <c r="R535" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S535" s="4"/>
       <c r="U535" s="3"/>
@@ -62777,7 +62974,7 @@
         <v>15</v>
       </c>
       <c r="R536" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S536" s="4"/>
       <c r="U536" s="3"/>
@@ -62835,7 +63032,7 @@
         <v>15</v>
       </c>
       <c r="R537" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S537" s="4"/>
       <c r="U537" s="3"/>
@@ -62893,7 +63090,7 @@
         <v>15</v>
       </c>
       <c r="R538" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S538" s="4"/>
       <c r="U538" s="3"/>
@@ -62951,7 +63148,7 @@
         <v>15</v>
       </c>
       <c r="R539" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S539" s="4"/>
       <c r="U539" s="3"/>
@@ -63009,7 +63206,7 @@
         <v>15</v>
       </c>
       <c r="R540" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S540" s="4"/>
       <c r="U540" s="3"/>
@@ -63067,7 +63264,7 @@
         <v>15</v>
       </c>
       <c r="R541" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S541" s="4"/>
       <c r="U541" s="3"/>
@@ -63125,7 +63322,7 @@
         <v>15</v>
       </c>
       <c r="R542" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S542" s="4"/>
       <c r="U542" s="3"/>
@@ -63183,7 +63380,7 @@
         <v>15</v>
       </c>
       <c r="R543" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S543" s="4"/>
       <c r="U543" s="3"/>
@@ -63241,7 +63438,7 @@
         <v>15</v>
       </c>
       <c r="R544" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S544" s="4"/>
       <c r="U544" s="3"/>
@@ -63299,7 +63496,7 @@
         <v>15</v>
       </c>
       <c r="R545" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S545" s="4"/>
       <c r="U545" s="3"/>
@@ -63357,7 +63554,7 @@
         <v>15</v>
       </c>
       <c r="R546" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S546" s="4"/>
       <c r="U546" s="3"/>
@@ -63415,7 +63612,7 @@
         <v>15</v>
       </c>
       <c r="R547" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S547" s="4"/>
       <c r="U547" s="3"/>
@@ -63473,7 +63670,7 @@
         <v>15</v>
       </c>
       <c r="R548" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S548" s="4"/>
       <c r="U548" s="3"/>
@@ -63531,7 +63728,7 @@
         <v>15</v>
       </c>
       <c r="R549" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S549" s="4"/>
       <c r="U549" s="3"/>
@@ -63589,7 +63786,7 @@
         <v>15</v>
       </c>
       <c r="R550" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S550" s="4"/>
       <c r="U550" s="3"/>
@@ -63647,7 +63844,7 @@
         <v>15</v>
       </c>
       <c r="R551" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S551" s="4"/>
       <c r="U551" s="3"/>
@@ -63705,7 +63902,7 @@
         <v>15</v>
       </c>
       <c r="R552" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S552" s="4"/>
       <c r="U552" s="3"/>
@@ -63763,7 +63960,7 @@
         <v>15</v>
       </c>
       <c r="R553" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S553" s="4"/>
       <c r="U553" s="3"/>
@@ -63821,7 +64018,7 @@
         <v>15</v>
       </c>
       <c r="R554" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S554" s="4"/>
       <c r="U554" s="3"/>
@@ -63879,7 +64076,7 @@
         <v>15</v>
       </c>
       <c r="R555" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S555" s="4"/>
       <c r="U555" s="3"/>
@@ -63937,7 +64134,7 @@
         <v>15</v>
       </c>
       <c r="R556" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S556" s="4"/>
       <c r="U556" s="3"/>
@@ -63995,7 +64192,7 @@
         <v>15</v>
       </c>
       <c r="R557" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S557" s="4"/>
       <c r="U557" s="3"/>
@@ -64053,7 +64250,7 @@
         <v>15</v>
       </c>
       <c r="R558" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S558" s="4"/>
       <c r="U558" s="3"/>
@@ -64111,7 +64308,7 @@
         <v>15</v>
       </c>
       <c r="R559" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S559" s="4"/>
       <c r="U559" s="3"/>
@@ -64169,7 +64366,7 @@
         <v>15</v>
       </c>
       <c r="R560" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S560" s="4"/>
       <c r="U560" s="3"/>
@@ -64227,7 +64424,7 @@
         <v>15</v>
       </c>
       <c r="R561" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S561" s="4"/>
       <c r="U561" s="3"/>
@@ -64285,7 +64482,7 @@
         <v>15</v>
       </c>
       <c r="R562" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S562" s="4"/>
       <c r="U562" s="3"/>
@@ -64343,7 +64540,7 @@
         <v>15</v>
       </c>
       <c r="R563" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S563" s="4"/>
       <c r="U563" s="3"/>
@@ -64401,7 +64598,7 @@
         <v>15</v>
       </c>
       <c r="R564" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S564" s="4"/>
       <c r="U564" s="3"/>
@@ -64459,7 +64656,7 @@
         <v>15</v>
       </c>
       <c r="R565" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S565" s="4"/>
       <c r="U565" s="3"/>
@@ -64517,7 +64714,7 @@
         <v>15</v>
       </c>
       <c r="R566" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S566" s="4"/>
       <c r="U566" s="3"/>
@@ -64575,7 +64772,7 @@
         <v>15</v>
       </c>
       <c r="R567" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S567" s="4"/>
       <c r="U567" s="3"/>
@@ -64633,7 +64830,7 @@
         <v>15</v>
       </c>
       <c r="R568" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S568" s="4"/>
       <c r="U568" s="3"/>
@@ -64691,7 +64888,7 @@
         <v>15</v>
       </c>
       <c r="R569" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S569" s="4"/>
       <c r="U569" s="3"/>
@@ -64749,7 +64946,7 @@
         <v>15</v>
       </c>
       <c r="R570" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S570" s="4"/>
       <c r="U570" s="3"/>
@@ -64807,7 +65004,7 @@
         <v>15</v>
       </c>
       <c r="R571" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S571" s="4"/>
       <c r="U571" s="3"/>
@@ -64865,7 +65062,7 @@
         <v>15</v>
       </c>
       <c r="R572" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S572" s="4"/>
       <c r="U572" s="3"/>
@@ -64923,7 +65120,7 @@
         <v>15</v>
       </c>
       <c r="R573" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S573" s="4"/>
       <c r="U573" s="3"/>
@@ -64981,7 +65178,7 @@
         <v>15</v>
       </c>
       <c r="R574" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S574" s="4"/>
       <c r="U574" s="3"/>
@@ -65039,7 +65236,7 @@
         <v>15</v>
       </c>
       <c r="R575" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S575" s="4"/>
       <c r="U575" s="3"/>
@@ -65097,7 +65294,7 @@
         <v>15</v>
       </c>
       <c r="R576" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S576" s="4"/>
       <c r="U576" s="3"/>
@@ -65155,7 +65352,7 @@
         <v>15</v>
       </c>
       <c r="R577" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S577" s="4"/>
       <c r="U577" s="3"/>
@@ -65213,7 +65410,7 @@
         <v>15</v>
       </c>
       <c r="R578" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S578" s="4"/>
       <c r="U578" s="3"/>
@@ -65271,7 +65468,7 @@
         <v>2659</v>
       </c>
       <c r="R579" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S579" s="4"/>
       <c r="U579" s="3"/>
@@ -65329,7 +65526,7 @@
         <v>15</v>
       </c>
       <c r="R580" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S580" s="4"/>
       <c r="U580" s="3"/>
@@ -65387,7 +65584,7 @@
         <v>15</v>
       </c>
       <c r="R581" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S581" s="4"/>
       <c r="U581" s="3"/>
@@ -65445,7 +65642,7 @@
         <v>15</v>
       </c>
       <c r="R582" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S582" s="4"/>
       <c r="U582" s="3"/>
@@ -65503,7 +65700,7 @@
         <v>15</v>
       </c>
       <c r="R583" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S583" s="4"/>
       <c r="U583" s="3"/>
@@ -65561,7 +65758,7 @@
         <v>15</v>
       </c>
       <c r="R584" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S584" s="4"/>
       <c r="U584" s="3"/>
@@ -65619,7 +65816,7 @@
         <v>15</v>
       </c>
       <c r="R585" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S585" s="4"/>
       <c r="U585" s="3"/>
@@ -65677,7 +65874,7 @@
         <v>15</v>
       </c>
       <c r="R586" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S586" s="4"/>
       <c r="U586" s="3"/>
@@ -65735,7 +65932,7 @@
         <v>15</v>
       </c>
       <c r="R587" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S587" s="4"/>
       <c r="U587" s="3"/>
@@ -65793,7 +65990,7 @@
         <v>15</v>
       </c>
       <c r="R588" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S588" s="4"/>
       <c r="U588" s="3"/>
@@ -65836,7 +66033,7 @@
         <v>3956</v>
       </c>
       <c r="M589" s="16" t="s">
-        <v>4082</v>
+        <v>4077</v>
       </c>
       <c r="N589" s="16" t="s">
         <v>2678</v>
@@ -65851,7 +66048,7 @@
         <v>15</v>
       </c>
       <c r="R589" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S589" s="4"/>
       <c r="U589" s="3"/>
@@ -65894,7 +66091,7 @@
         <v>3825</v>
       </c>
       <c r="M590" s="16" t="s">
-        <v>4081</v>
+        <v>4076</v>
       </c>
       <c r="N590" s="16" t="s">
         <v>2681</v>
@@ -65909,7 +66106,7 @@
         <v>15</v>
       </c>
       <c r="R590" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S590" s="4"/>
       <c r="U590" s="3"/>
@@ -65952,7 +66149,7 @@
         <v>3826</v>
       </c>
       <c r="M591" s="16" t="s">
-        <v>4079</v>
+        <v>4074</v>
       </c>
       <c r="N591" s="16" t="s">
         <v>2684</v>
@@ -65967,7 +66164,7 @@
         <v>15</v>
       </c>
       <c r="R591" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S591" s="4"/>
       <c r="U591" s="3"/>
@@ -66010,7 +66207,7 @@
         <v>3827</v>
       </c>
       <c r="M592" s="16" t="s">
-        <v>4078</v>
+        <v>4073</v>
       </c>
       <c r="N592" s="16" t="s">
         <v>2687</v>
@@ -66025,7 +66222,7 @@
         <v>15</v>
       </c>
       <c r="R592" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S592" s="4"/>
       <c r="U592" s="3"/>
@@ -66083,7 +66280,7 @@
         <v>15</v>
       </c>
       <c r="R593" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S593" s="4"/>
       <c r="U593" s="3"/>
@@ -66126,7 +66323,7 @@
         <v>3829</v>
       </c>
       <c r="M594" s="16" t="s">
-        <v>4077</v>
+        <v>4072</v>
       </c>
       <c r="N594" s="16" t="s">
         <v>2691</v>
@@ -66141,7 +66338,7 @@
         <v>15</v>
       </c>
       <c r="R594" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S594" s="4"/>
       <c r="U594" s="3"/>
@@ -66184,7 +66381,7 @@
         <v>3830</v>
       </c>
       <c r="M595" s="16" t="s">
-        <v>4080</v>
+        <v>4075</v>
       </c>
       <c r="N595" s="16" t="s">
         <v>2694</v>
@@ -66199,7 +66396,7 @@
         <v>15</v>
       </c>
       <c r="R595" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S595" s="4"/>
       <c r="U595" s="3"/>
@@ -66257,7 +66454,7 @@
         <v>15</v>
       </c>
       <c r="R596" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S596" s="4"/>
       <c r="U596" s="3"/>
@@ -66315,7 +66512,7 @@
         <v>15</v>
       </c>
       <c r="R597" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S597" s="4"/>
       <c r="U597" s="3"/>
@@ -66373,7 +66570,7 @@
         <v>15</v>
       </c>
       <c r="R598" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S598" s="4"/>
       <c r="U598" s="3"/>
@@ -66431,7 +66628,7 @@
         <v>15</v>
       </c>
       <c r="R599" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S599" s="4"/>
       <c r="U599" s="3"/>
@@ -66489,7 +66686,7 @@
         <v>15</v>
       </c>
       <c r="R600" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S600" s="4"/>
       <c r="U600" s="3"/>
@@ -66547,7 +66744,7 @@
         <v>15</v>
       </c>
       <c r="R601" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S601" s="4"/>
       <c r="U601" s="3"/>
@@ -66605,7 +66802,7 @@
         <v>15</v>
       </c>
       <c r="R602" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S602" s="4"/>
       <c r="U602" s="3"/>
@@ -66663,7 +66860,7 @@
         <v>15</v>
       </c>
       <c r="R603" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S603" s="4"/>
       <c r="U603" s="3"/>
@@ -66721,7 +66918,7 @@
         <v>15</v>
       </c>
       <c r="R604" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S604" s="4"/>
       <c r="U604" s="3"/>
@@ -66779,7 +66976,7 @@
         <v>15</v>
       </c>
       <c r="R605" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S605" s="4"/>
       <c r="U605" s="3"/>
@@ -66837,7 +67034,7 @@
         <v>15</v>
       </c>
       <c r="R606" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S606" s="4"/>
       <c r="U606" s="3"/>
@@ -66895,7 +67092,7 @@
         <v>15</v>
       </c>
       <c r="R607" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S607" s="4"/>
       <c r="U607" s="3"/>
@@ -66953,7 +67150,7 @@
         <v>15</v>
       </c>
       <c r="R608" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S608" s="4"/>
       <c r="U608" s="3"/>
@@ -67011,7 +67208,7 @@
         <v>15</v>
       </c>
       <c r="R609" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S609" s="4"/>
       <c r="U609" s="3"/>
@@ -67069,7 +67266,7 @@
         <v>15</v>
       </c>
       <c r="R610" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S610" s="4"/>
       <c r="U610" s="3"/>
@@ -67127,7 +67324,7 @@
         <v>15</v>
       </c>
       <c r="R611" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S611" s="4"/>
       <c r="U611" s="3"/>
@@ -67185,7 +67382,7 @@
         <v>15</v>
       </c>
       <c r="R612" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S612" s="4"/>
       <c r="U612" s="3"/>
@@ -67243,7 +67440,7 @@
         <v>15</v>
       </c>
       <c r="R613" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S613" s="4"/>
       <c r="U613" s="3"/>
@@ -67301,7 +67498,7 @@
         <v>15</v>
       </c>
       <c r="R614" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S614" s="4"/>
       <c r="U614" s="3"/>
@@ -67359,7 +67556,7 @@
         <v>15</v>
       </c>
       <c r="R615" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S615" s="4"/>
       <c r="U615" s="3"/>
@@ -67417,7 +67614,7 @@
         <v>15</v>
       </c>
       <c r="R616" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S616" s="4"/>
       <c r="U616" s="3"/>
@@ -67475,7 +67672,7 @@
         <v>15</v>
       </c>
       <c r="R617" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S617" s="4"/>
       <c r="U617" s="3"/>
@@ -67533,7 +67730,7 @@
         <v>15</v>
       </c>
       <c r="R618" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S618" s="4"/>
       <c r="U618" s="3"/>
@@ -67591,7 +67788,7 @@
         <v>15</v>
       </c>
       <c r="R619" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S619" s="4"/>
       <c r="U619" s="3"/>
@@ -67649,7 +67846,7 @@
         <v>15</v>
       </c>
       <c r="R620" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S620" s="4"/>
       <c r="U620" s="3"/>
@@ -67707,7 +67904,7 @@
         <v>15</v>
       </c>
       <c r="R621" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S621" s="4"/>
       <c r="U621" s="3"/>
@@ -67765,7 +67962,7 @@
         <v>15</v>
       </c>
       <c r="R622" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S622" s="4"/>
       <c r="U622" s="3"/>
@@ -67823,7 +68020,7 @@
         <v>15</v>
       </c>
       <c r="R623" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S623" s="4"/>
       <c r="U623" s="3"/>
@@ -67881,7 +68078,7 @@
         <v>15</v>
       </c>
       <c r="R624" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S624" s="4"/>
       <c r="U624" s="3"/>
@@ -67939,7 +68136,7 @@
         <v>15</v>
       </c>
       <c r="R625" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S625" s="4"/>
       <c r="U625" s="3"/>
@@ -67997,7 +68194,7 @@
         <v>15</v>
       </c>
       <c r="R626" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S626" s="4"/>
       <c r="U626" s="3"/>
@@ -68055,7 +68252,7 @@
         <v>15</v>
       </c>
       <c r="R627" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S627" s="4"/>
       <c r="U627" s="3"/>
@@ -68113,7 +68310,7 @@
         <v>15</v>
       </c>
       <c r="R628" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S628" s="4"/>
       <c r="U628" s="3"/>
@@ -68171,7 +68368,7 @@
         <v>15</v>
       </c>
       <c r="R629" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S629" s="4"/>
       <c r="U629" s="3"/>
@@ -68229,7 +68426,7 @@
         <v>15</v>
       </c>
       <c r="R630" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S630" s="4"/>
       <c r="U630" s="3"/>
@@ -68287,7 +68484,7 @@
         <v>15</v>
       </c>
       <c r="R631" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S631" s="4"/>
       <c r="U631" s="3"/>
@@ -68345,7 +68542,7 @@
         <v>15</v>
       </c>
       <c r="R632" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S632" s="4"/>
       <c r="U632" s="3"/>
@@ -68403,7 +68600,7 @@
         <v>15</v>
       </c>
       <c r="R633" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S633" s="4"/>
       <c r="U633" s="3"/>
@@ -68461,7 +68658,7 @@
         <v>15</v>
       </c>
       <c r="R634" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S634" s="4"/>
       <c r="U634" s="3"/>
@@ -68519,7 +68716,7 @@
         <v>15</v>
       </c>
       <c r="R635" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S635" s="4"/>
       <c r="U635" s="3"/>
@@ -68577,7 +68774,7 @@
         <v>15</v>
       </c>
       <c r="R636" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S636" s="4"/>
       <c r="U636" s="3"/>
@@ -68635,7 +68832,7 @@
         <v>15</v>
       </c>
       <c r="R637" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S637" s="4"/>
       <c r="U637" s="3"/>
@@ -68693,7 +68890,7 @@
         <v>15</v>
       </c>
       <c r="R638" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S638" s="4"/>
       <c r="U638" s="3"/>
@@ -68751,7 +68948,7 @@
         <v>15</v>
       </c>
       <c r="R639" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S639" s="4"/>
       <c r="U639" s="3"/>
@@ -68809,7 +69006,7 @@
         <v>15</v>
       </c>
       <c r="R640" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S640" s="4"/>
       <c r="U640" s="3"/>
@@ -68867,7 +69064,7 @@
         <v>15</v>
       </c>
       <c r="R641" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S641" s="4"/>
       <c r="U641" s="3"/>
@@ -68925,7 +69122,7 @@
         <v>15</v>
       </c>
       <c r="R642" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S642" s="4"/>
       <c r="U642" s="3"/>
@@ -68983,7 +69180,7 @@
         <v>15</v>
       </c>
       <c r="R643" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S643" s="4"/>
       <c r="U643" s="3"/>
@@ -69041,7 +69238,7 @@
         <v>15</v>
       </c>
       <c r="R644" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S644" s="4"/>
       <c r="U644" s="3"/>
@@ -69099,7 +69296,7 @@
         <v>15</v>
       </c>
       <c r="R645" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S645" s="4"/>
       <c r="U645" s="3"/>
@@ -69157,7 +69354,7 @@
         <v>15</v>
       </c>
       <c r="R646" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S646" s="4"/>
       <c r="U646" s="3"/>
@@ -69215,7 +69412,7 @@
         <v>15</v>
       </c>
       <c r="R647" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S647" s="4"/>
       <c r="U647" s="3"/>
@@ -69273,7 +69470,7 @@
         <v>15</v>
       </c>
       <c r="R648" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S648" s="4"/>
       <c r="U648" s="3"/>
@@ -69331,7 +69528,7 @@
         <v>15</v>
       </c>
       <c r="R649" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S649" s="4"/>
       <c r="U649" s="3"/>
@@ -69389,7 +69586,7 @@
         <v>15</v>
       </c>
       <c r="R650" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S650" s="4"/>
       <c r="U650" s="3"/>
@@ -69447,7 +69644,7 @@
         <v>15</v>
       </c>
       <c r="R651" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S651" s="4"/>
       <c r="U651" s="3"/>
@@ -69505,7 +69702,7 @@
         <v>15</v>
       </c>
       <c r="R652" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S652" s="4"/>
       <c r="U652" s="3"/>
@@ -69563,7 +69760,7 @@
         <v>15</v>
       </c>
       <c r="R653" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S653" s="4"/>
       <c r="U653" s="3"/>
@@ -69621,7 +69818,7 @@
         <v>15</v>
       </c>
       <c r="R654" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S654" s="4"/>
       <c r="U654" s="3"/>
@@ -69679,7 +69876,7 @@
         <v>15</v>
       </c>
       <c r="R655" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S655" s="4"/>
       <c r="U655" s="3"/>
@@ -69737,7 +69934,7 @@
         <v>15</v>
       </c>
       <c r="R656" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S656" s="4"/>
       <c r="U656" s="3"/>
@@ -69795,7 +69992,7 @@
         <v>15</v>
       </c>
       <c r="R657" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S657" s="4"/>
       <c r="U657" s="3"/>
@@ -69853,7 +70050,7 @@
         <v>15</v>
       </c>
       <c r="R658" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S658" s="4"/>
       <c r="U658" s="3"/>
@@ -69911,7 +70108,7 @@
         <v>2834</v>
       </c>
       <c r="R659" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S659" s="4"/>
       <c r="U659" s="3"/>
@@ -69969,7 +70166,7 @@
         <v>15</v>
       </c>
       <c r="R660" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S660" s="4"/>
       <c r="U660" s="3"/>
@@ -70027,7 +70224,7 @@
         <v>15</v>
       </c>
       <c r="R661" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S661" s="4"/>
       <c r="U661" s="3"/>
@@ -70085,7 +70282,7 @@
         <v>15</v>
       </c>
       <c r="R662" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S662" s="4"/>
       <c r="U662" s="3"/>
@@ -70143,7 +70340,7 @@
         <v>15</v>
       </c>
       <c r="R663" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S663" s="4"/>
       <c r="U663" s="3"/>
@@ -70186,7 +70383,7 @@
         <v>3959</v>
       </c>
       <c r="M664" s="16" t="s">
-        <v>4076</v>
+        <v>4071</v>
       </c>
       <c r="N664" s="16" t="s">
         <v>2845</v>
@@ -70201,7 +70398,7 @@
         <v>15</v>
       </c>
       <c r="R664" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S664" s="4"/>
       <c r="U664" s="3"/>
@@ -70259,7 +70456,7 @@
         <v>15</v>
       </c>
       <c r="R665" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S665" s="4"/>
       <c r="U665" s="3"/>
@@ -70317,7 +70514,7 @@
         <v>15</v>
       </c>
       <c r="R666" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S666" s="4"/>
       <c r="U666" s="3"/>
@@ -70360,7 +70557,7 @@
         <v>3899</v>
       </c>
       <c r="M667" s="16" t="s">
-        <v>4075</v>
+        <v>4070</v>
       </c>
       <c r="N667" s="16" t="s">
         <v>2852</v>
@@ -70375,7 +70572,7 @@
         <v>15</v>
       </c>
       <c r="R667" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S667" s="4"/>
       <c r="U667" s="3"/>
@@ -70418,7 +70615,7 @@
         <v>3900</v>
       </c>
       <c r="M668" s="16" t="s">
-        <v>4074</v>
+        <v>4069</v>
       </c>
       <c r="N668" s="16" t="s">
         <v>2855</v>
@@ -70433,7 +70630,7 @@
         <v>15</v>
       </c>
       <c r="R668" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S668" s="4"/>
       <c r="U668" s="3"/>
@@ -70491,7 +70688,7 @@
         <v>15</v>
       </c>
       <c r="R669" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S669" s="4"/>
       <c r="U669" s="3"/>
@@ -70549,7 +70746,7 @@
         <v>15</v>
       </c>
       <c r="R670" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S670" s="4"/>
       <c r="U670" s="3"/>
@@ -70607,7 +70804,7 @@
         <v>2865</v>
       </c>
       <c r="R671" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S671" s="4"/>
       <c r="U671" s="3"/>
@@ -70665,7 +70862,7 @@
         <v>15</v>
       </c>
       <c r="R672" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S672" s="4"/>
       <c r="U672" s="3"/>
@@ -70723,7 +70920,7 @@
         <v>15</v>
       </c>
       <c r="R673" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S673" s="4"/>
       <c r="U673" s="3"/>
@@ -70766,7 +70963,7 @@
         <v>3960</v>
       </c>
       <c r="M674" s="16" t="s">
-        <v>4073</v>
+        <v>4068</v>
       </c>
       <c r="N674" s="16" t="s">
         <v>2871</v>
@@ -70781,7 +70978,7 @@
         <v>15</v>
       </c>
       <c r="R674" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S674" s="4"/>
       <c r="U674" s="3"/>
@@ -70839,7 +71036,7 @@
         <v>15</v>
       </c>
       <c r="R675" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S675" s="4"/>
       <c r="U675" s="3"/>
@@ -70897,7 +71094,7 @@
         <v>15</v>
       </c>
       <c r="R676" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
       <c r="S676" s="4"/>
       <c r="U676" s="3"/>
@@ -70955,7 +71152,7 @@
         <v>15</v>
       </c>
       <c r="R677" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S677" s="4"/>
       <c r="U677" s="3"/>
@@ -71013,7 +71210,7 @@
         <v>15</v>
       </c>
       <c r="R678" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S678" s="4"/>
       <c r="U678" s="3"/>
@@ -71071,7 +71268,7 @@
         <v>15</v>
       </c>
       <c r="R679" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S679" s="4"/>
       <c r="U679" s="3"/>
@@ -71129,7 +71326,7 @@
         <v>15</v>
       </c>
       <c r="R680" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S680" s="4"/>
       <c r="U680" s="3"/>
@@ -71172,7 +71369,7 @@
         <v>3963</v>
       </c>
       <c r="M681" s="16" t="s">
-        <v>4072</v>
+        <v>4067</v>
       </c>
       <c r="N681" s="16" t="s">
         <v>2887</v>
@@ -71187,7 +71384,7 @@
         <v>15</v>
       </c>
       <c r="R681" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S681" s="4"/>
       <c r="U681" s="3"/>
@@ -71245,7 +71442,7 @@
         <v>15</v>
       </c>
       <c r="R682" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S682" s="4"/>
       <c r="U682" s="3"/>
@@ -71288,7 +71485,7 @@
         <v>3965</v>
       </c>
       <c r="M683" s="16" t="s">
-        <v>4071</v>
+        <v>4066</v>
       </c>
       <c r="N683" s="16" t="s">
         <v>2893</v>
@@ -71303,7 +71500,7 @@
         <v>15</v>
       </c>
       <c r="R683" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S683" s="4"/>
       <c r="U683" s="3"/>
@@ -71361,7 +71558,7 @@
         <v>15</v>
       </c>
       <c r="R684" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S684" s="4"/>
       <c r="U684" s="3"/>
@@ -71404,7 +71601,7 @@
         <v>3966</v>
       </c>
       <c r="M685" s="16" t="s">
-        <v>4070</v>
+        <v>4065</v>
       </c>
       <c r="N685" s="16" t="s">
         <v>2899</v>
@@ -71419,7 +71616,7 @@
         <v>15</v>
       </c>
       <c r="R685" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S685" s="4"/>
       <c r="U685" s="3"/>
@@ -71477,7 +71674,7 @@
         <v>15</v>
       </c>
       <c r="R686" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S686" s="4"/>
       <c r="U686" s="3"/>
@@ -71535,7 +71732,7 @@
         <v>15</v>
       </c>
       <c r="R687" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S687" s="4"/>
       <c r="U687" s="3"/>
@@ -71593,7 +71790,7 @@
         <v>15</v>
       </c>
       <c r="R688" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S688" s="4"/>
       <c r="U688" s="3"/>
@@ -71651,7 +71848,7 @@
         <v>15</v>
       </c>
       <c r="R689" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S689" s="4"/>
       <c r="U689" s="3"/>
@@ -71709,7 +71906,7 @@
         <v>15</v>
       </c>
       <c r="R690" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S690" s="4"/>
       <c r="U690" s="3"/>
@@ -71767,7 +71964,7 @@
         <v>15</v>
       </c>
       <c r="R691" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S691" s="4"/>
       <c r="U691" s="3"/>
@@ -71810,7 +72007,7 @@
         <v>3967</v>
       </c>
       <c r="M692" s="16" t="s">
-        <v>4069</v>
+        <v>4064</v>
       </c>
       <c r="N692" s="16" t="s">
         <v>2916</v>
@@ -71825,7 +72022,7 @@
         <v>15</v>
       </c>
       <c r="R692" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S692" s="4"/>
       <c r="U692" s="3"/>
@@ -71868,7 +72065,7 @@
         <v>3968</v>
       </c>
       <c r="M693" s="16" t="s">
-        <v>4068</v>
+        <v>4063</v>
       </c>
       <c r="N693" s="16" t="s">
         <v>2918</v>
@@ -71883,7 +72080,7 @@
         <v>15</v>
       </c>
       <c r="R693" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S693" s="4"/>
       <c r="U693" s="3"/>
@@ -71941,7 +72138,7 @@
         <v>15</v>
       </c>
       <c r="R694" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S694" s="4"/>
       <c r="U694" s="3"/>
@@ -71999,7 +72196,7 @@
         <v>15</v>
       </c>
       <c r="R695" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S695" s="4"/>
       <c r="U695" s="3"/>
@@ -72042,7 +72239,7 @@
         <v>3969</v>
       </c>
       <c r="M696" s="16" t="s">
-        <v>4067</v>
+        <v>4062</v>
       </c>
       <c r="N696" s="16" t="s">
         <v>2924</v>
@@ -72057,7 +72254,7 @@
         <v>15</v>
       </c>
       <c r="R696" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S696" s="4"/>
       <c r="U696" s="3"/>
@@ -72115,7 +72312,7 @@
         <v>15</v>
       </c>
       <c r="R697" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S697" s="4"/>
       <c r="U697" s="3"/>
@@ -72173,7 +72370,7 @@
         <v>15</v>
       </c>
       <c r="R698" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S698" s="4"/>
       <c r="U698" s="3"/>
@@ -72231,7 +72428,7 @@
         <v>15</v>
       </c>
       <c r="R699" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S699" s="4"/>
       <c r="U699" s="3"/>
@@ -72289,7 +72486,7 @@
         <v>15</v>
       </c>
       <c r="R700" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
       <c r="S700" s="4"/>
       <c r="U700" s="3"/>
@@ -72347,7 +72544,7 @@
         <v>15</v>
       </c>
       <c r="R701" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
       <c r="S701" s="4"/>
       <c r="U701" s="3"/>
@@ -72390,7 +72587,7 @@
         <v>3971</v>
       </c>
       <c r="M702" s="16" t="s">
-        <v>4066</v>
+        <v>4061</v>
       </c>
       <c r="N702" s="16" t="s">
         <v>2936</v>
@@ -72405,7 +72602,7 @@
         <v>15</v>
       </c>
       <c r="R702" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S702" s="4"/>
       <c r="U702" s="3"/>
@@ -72463,7 +72660,7 @@
         <v>15</v>
       </c>
       <c r="R703" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S703" s="4"/>
       <c r="U703" s="3"/>
@@ -72521,7 +72718,7 @@
         <v>15</v>
       </c>
       <c r="R704" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S704" s="4"/>
       <c r="U704" s="3"/>
@@ -72579,7 +72776,7 @@
         <v>15</v>
       </c>
       <c r="R705" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
       <c r="S705" s="4"/>
       <c r="U705" s="3"/>
@@ -72637,7 +72834,7 @@
         <v>15</v>
       </c>
       <c r="R706" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
       <c r="S706" s="4"/>
       <c r="U706" s="3"/>
@@ -72695,7 +72892,7 @@
         <v>15</v>
       </c>
       <c r="R707" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="708" spans="1:21" ht="17" customHeight="1">
@@ -72751,7 +72948,7 @@
         <v>15</v>
       </c>
       <c r="R708" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="709" spans="1:21" ht="17" customHeight="1">
@@ -72792,7 +72989,7 @@
         <v>3973</v>
       </c>
       <c r="M709" s="16" t="s">
-        <v>4065</v>
+        <v>4060</v>
       </c>
       <c r="N709" s="16" t="s">
         <v>3944</v>
@@ -72807,7 +73004,7 @@
         <v>15</v>
       </c>
       <c r="R709" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="710" spans="1:21" ht="17" customHeight="1">
@@ -72863,7 +73060,7 @@
         <v>15</v>
       </c>
       <c r="R710" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="711" spans="1:21" ht="17" customHeight="1">
@@ -72919,7 +73116,7 @@
         <v>15</v>
       </c>
       <c r="R711" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="712" spans="1:21" ht="17" customHeight="1">
@@ -72975,7 +73172,7 @@
         <v>15</v>
       </c>
       <c r="R712" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="713" spans="1:21" ht="17" customHeight="1">
@@ -73031,7 +73228,7 @@
         <v>15</v>
       </c>
       <c r="R713" s="51" t="s">
-        <v>4064</v>
+        <v>4115</v>
       </c>
     </row>
     <row r="714" spans="1:21" ht="17" customHeight="1">
@@ -73087,7 +73284,7 @@
         <v>15</v>
       </c>
       <c r="R714" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="715" spans="1:21" ht="17" customHeight="1">
@@ -73143,7 +73340,7 @@
         <v>15</v>
       </c>
       <c r="R715" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="716" spans="1:21" ht="17" customHeight="1">
@@ -73157,22 +73354,22 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="D716" s="39" t="s">
-        <v>4083</v>
+        <v>4078</v>
       </c>
       <c r="E716" s="39" t="s">
-        <v>4084</v>
+        <v>4079</v>
       </c>
       <c r="F716" s="39" t="s">
         <v>7</v>
       </c>
       <c r="G716" s="42" t="s">
-        <v>4085</v>
+        <v>4080</v>
       </c>
       <c r="H716" s="39" t="s">
         <v>816</v>
       </c>
       <c r="I716" s="43" t="s">
-        <v>4086</v>
+        <v>4081</v>
       </c>
       <c r="J716" s="28">
         <v>0</v>
@@ -73181,16 +73378,16 @@
         <v>21</v>
       </c>
       <c r="L716" s="44" t="s">
-        <v>4087</v>
+        <v>4082</v>
       </c>
       <c r="M716" s="16" t="s">
         <v>15</v>
       </c>
       <c r="N716" s="44" t="s">
-        <v>4088</v>
+        <v>4083</v>
       </c>
       <c r="O716" s="44" t="s">
-        <v>4089</v>
+        <v>4084</v>
       </c>
       <c r="P716" s="44" t="s">
         <v>15</v>
@@ -73199,7 +73396,7 @@
         <v>15</v>
       </c>
       <c r="R716" s="51" t="s">
-        <v>4063</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="717" spans="1:21" ht="17" customHeight="1">
@@ -73222,13 +73419,13 @@
         <v>7</v>
       </c>
       <c r="G717" s="42" t="s">
-        <v>4092</v>
+        <v>4087</v>
       </c>
       <c r="H717" s="39" t="s">
         <v>816</v>
       </c>
       <c r="I717" s="43" t="s">
-        <v>4093</v>
+        <v>4088</v>
       </c>
       <c r="J717" s="28">
         <v>14500</v>
@@ -73237,25 +73434,25 @@
         <v>468</v>
       </c>
       <c r="L717" s="44" t="s">
-        <v>4094</v>
+        <v>4089</v>
       </c>
       <c r="M717" s="16" t="s">
         <v>15</v>
       </c>
       <c r="N717" s="44" t="s">
-        <v>4095</v>
+        <v>4090</v>
       </c>
       <c r="O717" s="44" t="s">
-        <v>4096</v>
+        <v>4091</v>
       </c>
       <c r="P717" s="44" t="s">
-        <v>4097</v>
+        <v>4092</v>
       </c>
       <c r="Q717" s="44" t="s">
         <v>15</v>
       </c>
       <c r="R717" s="51" t="s">
-        <v>4062</v>
+        <v>4113</v>
       </c>
     </row>
     <row r="718" spans="1:21" ht="17" customHeight="1">
@@ -73278,13 +73475,13 @@
         <v>7</v>
       </c>
       <c r="G718" s="42" t="s">
-        <v>4098</v>
+        <v>4093</v>
       </c>
       <c r="H718" s="39" t="s">
         <v>816</v>
       </c>
       <c r="I718" s="43" t="s">
-        <v>4099</v>
+        <v>4094</v>
       </c>
       <c r="J718" s="28">
         <v>15000</v>
@@ -73293,16 +73490,16 @@
         <v>453</v>
       </c>
       <c r="L718" s="44" t="s">
-        <v>4100</v>
+        <v>4095</v>
       </c>
       <c r="M718" s="16" t="s">
         <v>15</v>
       </c>
       <c r="N718" s="44" t="s">
-        <v>4101</v>
+        <v>4096</v>
       </c>
       <c r="O718" s="44" t="s">
-        <v>4102</v>
+        <v>4097</v>
       </c>
       <c r="P718" s="44" t="s">
         <v>15</v>
@@ -73311,7 +73508,7 @@
         <v>15</v>
       </c>
       <c r="R718" s="51" t="s">
-        <v>4061</v>
+        <v>4112</v>
       </c>
     </row>
     <row r="719" spans="1:21" ht="17" customHeight="1">
@@ -73334,13 +73531,13 @@
         <v>41</v>
       </c>
       <c r="G719" s="58" t="s">
-        <v>4103</v>
+        <v>4098</v>
       </c>
       <c r="H719" s="57" t="s">
         <v>816</v>
       </c>
       <c r="I719" s="59" t="s">
-        <v>4104</v>
+        <v>4099</v>
       </c>
       <c r="J719" s="62">
         <v>0</v>
@@ -73349,25 +73546,25 @@
         <v>15</v>
       </c>
       <c r="L719" s="60" t="s">
-        <v>4105</v>
+        <v>4100</v>
       </c>
       <c r="M719" s="61" t="s">
-        <v>4106</v>
+        <v>4101</v>
       </c>
       <c r="N719" s="60" t="s">
-        <v>4107</v>
+        <v>4102</v>
       </c>
       <c r="O719" s="60" t="s">
-        <v>4108</v>
+        <v>4103</v>
       </c>
       <c r="P719" s="60" t="s">
-        <v>4109</v>
+        <v>4104</v>
       </c>
       <c r="Q719" s="60" t="s">
         <v>15</v>
       </c>
       <c r="R719" s="51" t="s">
-        <v>4060</v>
+        <v>4111</v>
       </c>
     </row>
     <row r="720" spans="1:21" ht="17" customHeight="1">
@@ -73396,7 +73593,7 @@
         <v>816</v>
       </c>
       <c r="I720" s="59" t="s">
-        <v>4110</v>
+        <v>4105</v>
       </c>
       <c r="J720" s="62">
         <v>0</v>
@@ -73405,25 +73602,25 @@
         <v>15</v>
       </c>
       <c r="L720" s="60" t="s">
-        <v>4111</v>
+        <v>4106</v>
       </c>
       <c r="M720" s="61" t="s">
+        <v>4107</v>
+      </c>
+      <c r="N720" s="60" t="s">
+        <v>4108</v>
+      </c>
+      <c r="O720" s="60" t="s">
+        <v>4109</v>
+      </c>
+      <c r="P720" s="60" t="s">
+        <v>4110</v>
+      </c>
+      <c r="Q720" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R720" s="51" t="s">
         <v>4112</v>
-      </c>
-      <c r="N720" s="60" t="s">
-        <v>4113</v>
-      </c>
-      <c r="O720" s="60" t="s">
-        <v>4114</v>
-      </c>
-      <c r="P720" s="60" t="s">
-        <v>4115</v>
-      </c>
-      <c r="Q720" s="60" t="s">
-        <v>15</v>
-      </c>
-      <c r="R720" s="51" t="s">
-        <v>4061</v>
       </c>
     </row>
   </sheetData>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9F33558-0257-8541-A2DC-047E5344905D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21610EF-7823-1743-926A-ABA43FE855F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -17494,13 +17494,66 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>사도: 조용휘
-영조: 김찬호</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>사도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>조용휘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>영조</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김찬호</t>
         </r>
       </text>
     </comment>
@@ -17863,6 +17916,74 @@
             <family val="2"/>
           </rPr>
           <t>김현기</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I721" authorId="0" shapeId="0" xr:uid="{3EF10A69-1CF1-8846-91ED-4B13825550D2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>제이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최연우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>은기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임준혁</t>
         </r>
       </text>
     </comment>
@@ -17871,7 +17992,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10084" uniqueCount="4116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10098" uniqueCount="4121">
   <si>
     <t>시즌</t>
   </si>
@@ -30219,6 +30340,21 @@
   </si>
   <si>
     <t>극불</t>
+  </si>
+  <si>
+    <t>CD1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 최연우 임준혁 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1xie_6xbNj5n68P74kiknyiQomOI7cBta/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224080307538</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?pli=1&amp;tab=t.0#heading=h.lpkurc4v1d6</t>
   </si>
 </sst>
 </file>
@@ -30450,7 +30586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30636,6 +30772,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31536,7 +31702,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R720" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R721" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -31862,11 +32028,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U720"/>
+  <dimension ref="A1:U721"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A719" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R720" sqref="R720"/>
+      <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M726" sqref="M726"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -73623,6 +73789,62 @@
         <v>4112</v>
       </c>
     </row>
+    <row r="721" spans="1:18" ht="17" customHeight="1">
+      <c r="A721" s="63">
+        <v>720</v>
+      </c>
+      <c r="B721" s="64">
+        <v>45979</v>
+      </c>
+      <c r="C721" s="65">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="D721" s="66" t="s">
+        <v>549</v>
+      </c>
+      <c r="E721" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="F721" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G721" s="67" t="s">
+        <v>550</v>
+      </c>
+      <c r="H721" s="66" t="s">
+        <v>4116</v>
+      </c>
+      <c r="I721" s="68" t="s">
+        <v>4117</v>
+      </c>
+      <c r="J721" s="72">
+        <v>13333.333333333334</v>
+      </c>
+      <c r="K721" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="L721" s="70" t="s">
+        <v>4118</v>
+      </c>
+      <c r="M721" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N721" s="70" t="s">
+        <v>4119</v>
+      </c>
+      <c r="O721" s="70" t="s">
+        <v>4120</v>
+      </c>
+      <c r="P721" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q721" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="R721" s="71" t="s">
+        <v>4114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F21610EF-7823-1743-926A-ABA43FE855F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55DCA0-5546-3A4E-B95F-BA99A391C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -17987,12 +17987,26 @@
         </r>
       </text>
     </comment>
+    <comment ref="I722" authorId="0" shapeId="0" xr:uid="{5DE597ED-3E27-1448-8BA5-448A757A50CE}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>생존자: 송유택</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10098" uniqueCount="4121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10112" uniqueCount="4126">
   <si>
     <t>시즌</t>
   </si>
@@ -30355,6 +30369,21 @@
   </si>
   <si>
     <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?pli=1&amp;tab=t.0#heading=h.lpkurc4v1d6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 송유택 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1zjWx9z1nwRZh3gwfonlqsetwxJbOU-zP/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224109555928</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.xbotykgx7vsr</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/277258</t>
   </si>
 </sst>
 </file>
@@ -30586,7 +30615,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30791,9 +30820,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -31702,7 +31728,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R721" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R722" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -32028,11 +32054,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U721"/>
+  <dimension ref="A1:U722"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M726" sqref="M726"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D730" sqref="D730"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -73790,59 +73816,115 @@
       </c>
     </row>
     <row r="721" spans="1:18" ht="17" customHeight="1">
-      <c r="A721" s="63">
+      <c r="A721" s="54">
         <v>720</v>
       </c>
-      <c r="B721" s="64">
+      <c r="B721" s="55">
         <v>45979</v>
       </c>
-      <c r="C721" s="65">
+      <c r="C721" s="56">
         <v>0.72916666666666663</v>
       </c>
-      <c r="D721" s="66" t="s">
+      <c r="D721" s="57" t="s">
         <v>549</v>
       </c>
-      <c r="E721" s="66" t="s">
+      <c r="E721" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="F721" s="66" t="s">
+      <c r="F721" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G721" s="67" t="s">
+      <c r="G721" s="58" t="s">
         <v>550</v>
       </c>
-      <c r="H721" s="66" t="s">
+      <c r="H721" s="57" t="s">
         <v>4116</v>
       </c>
-      <c r="I721" s="68" t="s">
+      <c r="I721" s="59" t="s">
         <v>4117</v>
       </c>
-      <c r="J721" s="72">
+      <c r="J721" s="62">
         <v>13333.333333333334</v>
       </c>
-      <c r="K721" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="L721" s="70" t="s">
+      <c r="K721" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L721" s="60" t="s">
         <v>4118</v>
       </c>
       <c r="M721" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="N721" s="70" t="s">
+      <c r="N721" s="60" t="s">
         <v>4119</v>
       </c>
-      <c r="O721" s="70" t="s">
+      <c r="O721" s="60" t="s">
         <v>4120</v>
       </c>
-      <c r="P721" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q721" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="R721" s="71" t="s">
+      <c r="P721" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q721" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R721" s="51" t="s">
         <v>4114</v>
+      </c>
+    </row>
+    <row r="722" spans="1:18" ht="17" customHeight="1">
+      <c r="A722" s="63">
+        <v>721</v>
+      </c>
+      <c r="B722" s="64">
+        <v>46005</v>
+      </c>
+      <c r="C722" s="65">
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="D722" s="66" t="s">
+        <v>74</v>
+      </c>
+      <c r="E722" s="66" t="s">
+        <v>64</v>
+      </c>
+      <c r="F722" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G722" s="67" t="s">
+        <v>455</v>
+      </c>
+      <c r="H722" s="66" t="s">
+        <v>816</v>
+      </c>
+      <c r="I722" s="68" t="s">
+        <v>4121</v>
+      </c>
+      <c r="J722" s="71">
+        <v>0</v>
+      </c>
+      <c r="K722" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L722" s="69" t="s">
+        <v>4122</v>
+      </c>
+      <c r="M722" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N722" s="69" t="s">
+        <v>4123</v>
+      </c>
+      <c r="O722" s="69" t="s">
+        <v>4124</v>
+      </c>
+      <c r="P722" s="69" t="s">
+        <v>4125</v>
+      </c>
+      <c r="Q722" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="R722" s="70" t="s">
+        <v>4112</v>
       </c>
     </row>
   </sheetData>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F55DCA0-5546-3A4E-B95F-BA99A391C0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1904F285-3440-0546-8F3D-A26BC122208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -15107,16 +15107,267 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>제이크 스터디: 배수빈
-조이 스터디: 최석진
-로빈 디토나: 전익령
-트와일라 스터디: 김지혜
-라우디 에이커스: 허영손</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>제이크</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스터디</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>배수빈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>조이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스터디</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최석진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로빈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>디토나</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>전익령</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>트와일라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스터디</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김지혜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>라우디</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>에이커스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>허영손</t>
         </r>
       </text>
     </comment>
@@ -17998,6 +18249,831 @@
             <scheme val="minor"/>
           </rPr>
           <t>생존자: 송유택</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I723" authorId="0" shapeId="0" xr:uid="{28303E36-274A-8744-BFE8-EA3D849A0E7E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>달수: 현석준
+호태: 김대곤
+춘섬: 박은미
+이덕: 박세미
+사또 외: 이강혁
+분이 외: 이재희
+산받이: 김솔지</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I724" authorId="0" shapeId="0" xr:uid="{D8EDE226-1BC0-0942-AA57-BB98408B1EC6}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>크리스티안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>홍광호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>사틴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김지우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>지들러</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이상준</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>몬로스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>공작</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이창용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로트렉</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최호중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>산티아고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>심건우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>니니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>전성혜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>베이비돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>유승엽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>아라비아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이정하</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>라쇼콜라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김송이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>앙상블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>차형도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박신별</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최원섭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이준원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이상협</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최영진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이동근</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박정민</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>장이산</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최예슬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>심예진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김유경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스윙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤유경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>노재현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임상희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>홍사무엘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>유민혜</t>
         </r>
       </text>
     </comment>
@@ -18006,7 +19082,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10112" uniqueCount="4126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10140" uniqueCount="4135">
   <si>
     <t>시즌</t>
   </si>
@@ -30384,6 +31460,33 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/musicalplay/277258</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 현석준 김대곤 박은미 박세미 이강혁 이재희 김솔지 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 홍광호 김지우 이상준 이창용 최호중 심건우 전성혜 유승엽 이정하 김송이 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1tc_oGiQUiZQkKYuAfpzNjF3XUEHKM895/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224122157309</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.gnf1i5lpvoge</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.hk1avn27jfdh</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19CoPWqNZN_h-cviDpz4vsHNTJL8N_S34/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224122704924</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/theatergoing/123856</t>
   </si>
 </sst>
 </file>
@@ -30615,7 +31718,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30801,33 +31904,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31728,7 +32804,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R722" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R724" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -32054,11 +33130,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U722"/>
+  <dimension ref="A1:U724"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D730" sqref="D730"/>
+      <selection pane="bottomLeft" activeCell="A724" sqref="A724"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -73872,59 +74948,171 @@
       </c>
     </row>
     <row r="722" spans="1:18" ht="17" customHeight="1">
-      <c r="A722" s="63">
+      <c r="A722" s="54">
         <v>721</v>
       </c>
-      <c r="B722" s="64">
+      <c r="B722" s="55">
         <v>46005</v>
       </c>
-      <c r="C722" s="65">
+      <c r="C722" s="56">
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="D722" s="66" t="s">
+      <c r="D722" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="E722" s="66" t="s">
+      <c r="E722" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="F722" s="66" t="s">
+      <c r="F722" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G722" s="67" t="s">
+      <c r="G722" s="58" t="s">
         <v>455</v>
       </c>
-      <c r="H722" s="66" t="s">
+      <c r="H722" s="57" t="s">
         <v>816</v>
       </c>
-      <c r="I722" s="68" t="s">
+      <c r="I722" s="59" t="s">
         <v>4121</v>
       </c>
-      <c r="J722" s="71">
+      <c r="J722" s="62">
         <v>0</v>
       </c>
       <c r="K722" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="L722" s="69" t="s">
+      <c r="L722" s="60" t="s">
         <v>4122</v>
       </c>
       <c r="M722" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="N722" s="69" t="s">
+      <c r="N722" s="60" t="s">
         <v>4123</v>
       </c>
-      <c r="O722" s="69" t="s">
+      <c r="O722" s="60" t="s">
         <v>4124</v>
       </c>
-      <c r="P722" s="69" t="s">
+      <c r="P722" s="60" t="s">
         <v>4125</v>
       </c>
-      <c r="Q722" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="R722" s="70" t="s">
+      <c r="Q722" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R722" s="51" t="s">
         <v>4112</v>
+      </c>
+    </row>
+    <row r="723" spans="1:18" ht="17" customHeight="1">
+      <c r="A723" s="50">
+        <v>722</v>
+      </c>
+      <c r="B723" s="40">
+        <v>46015</v>
+      </c>
+      <c r="C723" s="41">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D723" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="E723" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="F723" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="G723" s="42" t="s">
+        <v>917</v>
+      </c>
+      <c r="H723" s="39" t="s">
+        <v>816</v>
+      </c>
+      <c r="I723" s="43" t="s">
+        <v>4126</v>
+      </c>
+      <c r="J723" s="28">
+        <v>20000</v>
+      </c>
+      <c r="K723" s="50" t="s">
+        <v>1148</v>
+      </c>
+      <c r="L723" s="44" t="s">
+        <v>4128</v>
+      </c>
+      <c r="M723" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N723" s="44" t="s">
+        <v>4129</v>
+      </c>
+      <c r="O723" s="44" t="s">
+        <v>4130</v>
+      </c>
+      <c r="P723" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q723" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="R723" s="51" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="724" spans="1:18" ht="17" customHeight="1">
+      <c r="A724" s="54">
+        <v>723</v>
+      </c>
+      <c r="B724" s="55">
+        <v>46016</v>
+      </c>
+      <c r="C724" s="56">
+        <v>0.8125</v>
+      </c>
+      <c r="D724" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E724" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="F724" s="57" t="s">
+        <v>7</v>
+      </c>
+      <c r="G724" s="58" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H724" s="57" t="s">
+        <v>816</v>
+      </c>
+      <c r="I724" s="59" t="s">
+        <v>4127</v>
+      </c>
+      <c r="J724" s="62">
+        <v>133000</v>
+      </c>
+      <c r="K724" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="L724" s="60" t="s">
+        <v>4132</v>
+      </c>
+      <c r="M724" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N724" s="60" t="s">
+        <v>4133</v>
+      </c>
+      <c r="O724" s="60" t="s">
+        <v>4131</v>
+      </c>
+      <c r="P724" s="60" t="s">
+        <v>4134</v>
+      </c>
+      <c r="Q724" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R724" s="51" t="s">
+        <v>4114</v>
       </c>
     </row>
   </sheetData>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1904F285-3440-0546-8F3D-A26BC122208C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE21F8-A3DF-E24B-9AAF-B0258E57CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -19077,12 +19077,154 @@
         </r>
       </text>
     </comment>
+    <comment ref="I725" authorId="0" shapeId="0" xr:uid="{94E33B13-48AF-DC4A-A327-487FAE3282A4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마이클</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이재균</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>그린버그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정원조</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>피터슨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10140" uniqueCount="4135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10154" uniqueCount="4140">
   <si>
     <t>시즌</t>
   </si>
@@ -31487,6 +31629,21 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/theatergoing/123856</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이재균 정원조 이현진 </t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/151p6Aup0qZki6hvL_E73D-XKB7jHAqBNW0_aKy_5m9w/edit?tab=t.0#heading=h.jcc350k858ud</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1--uUu-PHdjXa100YnA10ZvfVbEDFBvc6/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224129812406</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/279179</t>
   </si>
 </sst>
 </file>
@@ -32804,7 +32961,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R724" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R725" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -33130,11 +33287,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U724"/>
+  <dimension ref="A1:U725"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A706" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A724" sqref="A724"/>
+      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A725" sqref="A725"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -75115,6 +75272,62 @@
         <v>4114</v>
       </c>
     </row>
+    <row r="725" spans="1:18" ht="17" customHeight="1">
+      <c r="A725" s="54">
+        <v>724</v>
+      </c>
+      <c r="B725" s="55">
+        <v>46022</v>
+      </c>
+      <c r="C725" s="56">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D725" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="E725" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="F725" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G725" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H725" s="57" t="s">
+        <v>816</v>
+      </c>
+      <c r="I725" s="59" t="s">
+        <v>4135</v>
+      </c>
+      <c r="J725" s="62">
+        <v>40000</v>
+      </c>
+      <c r="K725" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="L725" s="60" t="s">
+        <v>4137</v>
+      </c>
+      <c r="M725" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N725" s="60" t="s">
+        <v>4138</v>
+      </c>
+      <c r="O725" s="60" t="s">
+        <v>4136</v>
+      </c>
+      <c r="P725" s="60" t="s">
+        <v>4139</v>
+      </c>
+      <c r="Q725" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R725" s="51" t="s">
+        <v>4114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EE21F8-A3DF-E24B-9AAF-B0258E57CE13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7707C64-8B57-DA4C-A6FB-A53043602928}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -18243,12 +18243,29 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>생존자: 송유택</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>생존자</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>송유택</t>
         </r>
       </text>
     </comment>
@@ -19219,12 +19236,154 @@
         </r>
       </text>
     </comment>
+    <comment ref="I726" authorId="0" shapeId="0" xr:uid="{444F5821-854F-C440-9022-8FB60C1FDC3A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마이클</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>곽동연</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>그린버그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>고영빈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>피터슨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10154" uniqueCount="4140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10168" uniqueCount="4145">
   <si>
     <t>시즌</t>
   </si>
@@ -31644,6 +31803,21 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/musicalplay/279179</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 곽동연 고영빈 이현진 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1U1lqhp8d4ZcWdfHNGyFe1bHAVlycySKQ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224138466814</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.wp5d1o1hvky6</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/279819</t>
   </si>
 </sst>
 </file>
@@ -31875,7 +32049,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -32061,6 +32235,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -32961,7 +33165,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R725" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R726" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -33287,11 +33491,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U725"/>
+  <dimension ref="A1:U726"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A703" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A725" sqref="A725"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N731" sqref="N731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -75328,6 +75532,62 @@
         <v>4114</v>
       </c>
     </row>
+    <row r="726" spans="1:18" ht="17" customHeight="1">
+      <c r="A726" s="63">
+        <v>725</v>
+      </c>
+      <c r="B726" s="64">
+        <v>46029</v>
+      </c>
+      <c r="C726" s="65">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D726" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E726" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F726" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G726" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="H726" s="66" t="s">
+        <v>817</v>
+      </c>
+      <c r="I726" s="68" t="s">
+        <v>4140</v>
+      </c>
+      <c r="J726" s="72">
+        <v>0</v>
+      </c>
+      <c r="K726" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="L726" s="70" t="s">
+        <v>4141</v>
+      </c>
+      <c r="M726" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N726" s="70" t="s">
+        <v>4142</v>
+      </c>
+      <c r="O726" s="70" t="s">
+        <v>4143</v>
+      </c>
+      <c r="P726" s="70" t="s">
+        <v>4144</v>
+      </c>
+      <c r="Q726" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="R726" s="71" t="s">
+        <v>4113</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E9715D-3C4B-E247-8517-BFFA1EC09629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C36E40-3BC8-AB42-96C0-18854F459A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -17718,12 +17718,154 @@
         </r>
       </text>
     </comment>
+    <comment ref="I727" authorId="0" shapeId="0" xr:uid="{2FF5E9E1-F5F4-5040-B8AD-723FA356E5D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마이클</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>곽동연</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>그린버그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박정복</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>피터슨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10168" uniqueCount="4145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10182" uniqueCount="4150">
   <si>
     <t>시즌</t>
   </si>
@@ -30158,6 +30300,21 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/musicalplay/279819</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 곽동연 박정복 이현진 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1K4RoktM4bVLk4PXd6JZX-pu3gBCzn6VP/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224142807785</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.3k4jzacigzst</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/280234</t>
   </si>
 </sst>
 </file>
@@ -30389,7 +30546,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30575,6 +30732,33 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31475,7 +31659,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R726" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R727" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -31801,11 +31985,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U726"/>
+  <dimension ref="A1:U727"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I726" sqref="I726"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I748" sqref="I748"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -73898,6 +74082,62 @@
         <v>4113</v>
       </c>
     </row>
+    <row r="727" spans="1:18" ht="17" customHeight="1">
+      <c r="A727" s="63">
+        <v>726</v>
+      </c>
+      <c r="B727" s="64">
+        <v>46033</v>
+      </c>
+      <c r="C727" s="65">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D727" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E727" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F727" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G727" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="H727" s="66" t="s">
+        <v>818</v>
+      </c>
+      <c r="I727" s="68" t="s">
+        <v>4145</v>
+      </c>
+      <c r="J727" s="71">
+        <v>50500</v>
+      </c>
+      <c r="K727" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="L727" s="69" t="s">
+        <v>4146</v>
+      </c>
+      <c r="M727" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N727" s="69" t="s">
+        <v>4147</v>
+      </c>
+      <c r="O727" s="69" t="s">
+        <v>4148</v>
+      </c>
+      <c r="P727" s="69" t="s">
+        <v>4149</v>
+      </c>
+      <c r="Q727" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="R727" s="70" t="s">
+        <v>4114</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C36E40-3BC8-AB42-96C0-18854F459A36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB7B8CA-C795-CE45-9205-F10D2335B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -17860,12 +17860,152 @@
         </r>
       </text>
     </comment>
+    <comment ref="I728" authorId="0" shapeId="0" xr:uid="{E9E81175-5D13-D548-91F7-B2D76CC9454C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마이클</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>행크</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>클리프트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤석원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>데이</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>잭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>터너</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">): </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정동화</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10182" uniqueCount="4150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10196" uniqueCount="4157">
   <si>
     <t>시즌</t>
   </si>
@@ -30315,6 +30455,27 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/musicalplay/280234</t>
+  </si>
+  <si>
+    <t>캐빈</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 윤석원 정동화 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1WxcUh52yjWh3C0UJtEWcvpMotRifQ7ft/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1LEMm-15jU7vzklYg16K24Bu4meyceGKd/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224144196572</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.68rmi6pfstht</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/280329</t>
   </si>
 </sst>
 </file>
@@ -30546,7 +30707,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30754,9 +30915,6 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -31659,7 +31817,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R727" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R728" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -31985,11 +32143,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U727"/>
+  <dimension ref="A1:U728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I748" sqref="I748"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A714" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E731" sqref="E731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -74083,58 +74241,114 @@
       </c>
     </row>
     <row r="727" spans="1:18" ht="17" customHeight="1">
-      <c r="A727" s="63">
+      <c r="A727" s="54">
         <v>726</v>
       </c>
-      <c r="B727" s="64">
+      <c r="B727" s="55">
         <v>46033</v>
       </c>
-      <c r="C727" s="65">
+      <c r="C727" s="56">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D727" s="66" t="s">
+      <c r="D727" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="E727" s="66" t="s">
+      <c r="E727" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="F727" s="66" t="s">
+      <c r="F727" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G727" s="67" t="s">
+      <c r="G727" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H727" s="66" t="s">
+      <c r="H727" s="57" t="s">
         <v>818</v>
       </c>
-      <c r="I727" s="68" t="s">
+      <c r="I727" s="59" t="s">
         <v>4145</v>
       </c>
-      <c r="J727" s="71">
+      <c r="J727" s="62">
         <v>50500</v>
       </c>
       <c r="K727" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="L727" s="69" t="s">
+      <c r="L727" s="60" t="s">
         <v>4146</v>
       </c>
       <c r="M727" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="N727" s="69" t="s">
+      <c r="N727" s="60" t="s">
         <v>4147</v>
       </c>
-      <c r="O727" s="69" t="s">
+      <c r="O727" s="60" t="s">
         <v>4148</v>
       </c>
-      <c r="P727" s="69" t="s">
+      <c r="P727" s="60" t="s">
         <v>4149</v>
       </c>
-      <c r="Q727" s="69" t="s">
-        <v>15</v>
-      </c>
-      <c r="R727" s="70" t="s">
+      <c r="Q727" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R727" s="51" t="s">
+        <v>4114</v>
+      </c>
+    </row>
+    <row r="728" spans="1:18" ht="17" customHeight="1">
+      <c r="A728" s="63">
+        <v>727</v>
+      </c>
+      <c r="B728" s="64">
+        <v>46034</v>
+      </c>
+      <c r="C728" s="65">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D728" s="66" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E728" s="66" t="s">
+        <v>13</v>
+      </c>
+      <c r="F728" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="G728" s="67" t="s">
+        <v>4150</v>
+      </c>
+      <c r="H728" s="66" t="s">
+        <v>816</v>
+      </c>
+      <c r="I728" s="68" t="s">
+        <v>4151</v>
+      </c>
+      <c r="J728" s="70">
+        <v>0</v>
+      </c>
+      <c r="K728" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L728" s="69" t="s">
+        <v>4152</v>
+      </c>
+      <c r="M728" s="61" t="s">
+        <v>4153</v>
+      </c>
+      <c r="N728" s="69" t="s">
+        <v>4154</v>
+      </c>
+      <c r="O728" s="69" t="s">
+        <v>4155</v>
+      </c>
+      <c r="P728" s="69" t="s">
+        <v>4156</v>
+      </c>
+      <c r="Q728" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="R728" s="51" t="s">
         <v>4114</v>
       </c>
     </row>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB7B8CA-C795-CE45-9205-F10D2335B2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E93ABF9-A242-E840-A276-6FA0FA73054E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="17500" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -17860,7 +17860,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I728" authorId="0" shapeId="0" xr:uid="{E9E81175-5D13-D548-91F7-B2D76CC9454C}">
+    <comment ref="I728" authorId="0" shapeId="0" xr:uid="{2916F912-A26D-3A4B-BEE6-0C7CF11C7E75}">
       <text>
         <r>
           <rPr>
@@ -17878,7 +17878,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (</t>
+          <t xml:space="preserve"> / </t>
         </r>
         <r>
           <rPr>
@@ -17914,7 +17914,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">): </t>
+          <t xml:space="preserve"> : </t>
         </r>
         <r>
           <rPr>
@@ -17951,7 +17951,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve"> (</t>
+          <t xml:space="preserve"> / </t>
         </r>
         <r>
           <rPr>
@@ -17987,7 +17987,7 @@
             <rFont val="Calibri"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">): </t>
+          <t xml:space="preserve"> : </t>
         </r>
         <r>
           <rPr>
@@ -17997,6 +17997,502 @@
             <family val="2"/>
           </rPr>
           <t>정동화</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I729" authorId="0" shapeId="0" xr:uid="{C86D0979-E2B6-AC4E-BAB8-65E007BEB785}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>나레이터</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>외</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김지현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>시몽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>랭브르</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>구급대원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>피에르</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>레볼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>코르델리아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>오울</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마리안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>션</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>토마</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>레미주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>쥘리에트</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>클레르</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>메잔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>비르질리오</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>브레바</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로즈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>아르팡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>교수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>알리스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>아르팡</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">, </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마르뜨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>꺄라르</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>)</t>
         </r>
       </text>
     </comment>
@@ -18005,7 +18501,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10196" uniqueCount="4157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10210" uniqueCount="4163">
   <si>
     <t>시즌</t>
   </si>
@@ -30476,6 +30972,24 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/musicalplay/280329</t>
+  </si>
+  <si>
+    <t>일다, 라이브러리</t>
+  </si>
+  <si>
+    <t>살아있는 자를 수선하기</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김지현 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19sDMXKVUpXtrKg-9xTIBXLv9qPKB89Cp/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224146821908</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.rk0xhdjbenx6</t>
   </si>
 </sst>
 </file>
@@ -30707,7 +31221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30895,28 +31409,34 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31817,7 +32337,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R728" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R729" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -32143,11 +32663,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U728"/>
+  <dimension ref="A1:U729"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A714" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E731" sqref="E731"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A710" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P732" sqref="P732"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -74297,59 +74817,113 @@
       </c>
     </row>
     <row r="728" spans="1:18" ht="17" customHeight="1">
-      <c r="A728" s="63">
+      <c r="A728" s="54">
         <v>727</v>
       </c>
-      <c r="B728" s="64">
+      <c r="B728" s="55">
         <v>46034</v>
       </c>
-      <c r="C728" s="65">
+      <c r="C728" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D728" s="66" t="s">
+      <c r="D728" s="57" t="s">
         <v>1163</v>
       </c>
-      <c r="E728" s="66" t="s">
+      <c r="E728" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F728" s="66" t="s">
+      <c r="F728" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G728" s="67" t="s">
+      <c r="G728" s="58" t="s">
         <v>4150</v>
       </c>
-      <c r="H728" s="66" t="s">
+      <c r="H728" s="57" t="s">
         <v>816</v>
       </c>
-      <c r="I728" s="68" t="s">
+      <c r="I728" s="59" t="s">
         <v>4151</v>
       </c>
-      <c r="J728" s="70">
+      <c r="J728" s="62">
         <v>0</v>
       </c>
       <c r="K728" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="L728" s="69" t="s">
+      <c r="L728" s="60" t="s">
         <v>4152</v>
       </c>
       <c r="M728" s="61" t="s">
         <v>4153</v>
       </c>
-      <c r="N728" s="69" t="s">
+      <c r="N728" s="60" t="s">
         <v>4154</v>
       </c>
-      <c r="O728" s="69" t="s">
+      <c r="O728" s="60" t="s">
         <v>4155</v>
       </c>
-      <c r="P728" s="69" t="s">
+      <c r="P728" s="60" t="s">
         <v>4156</v>
       </c>
-      <c r="Q728" s="69" t="s">
+      <c r="Q728" s="60" t="s">
         <v>15</v>
       </c>
       <c r="R728" s="51" t="s">
         <v>4114</v>
+      </c>
+    </row>
+    <row r="729" spans="1:18" ht="17" customHeight="1">
+      <c r="A729" s="63">
+        <v>728</v>
+      </c>
+      <c r="B729" s="64">
+        <v>46035</v>
+      </c>
+      <c r="C729" s="65">
+        <v>0.8125</v>
+      </c>
+      <c r="D729" s="66" t="s">
+        <v>4157</v>
+      </c>
+      <c r="E729" s="66" t="s">
+        <v>115</v>
+      </c>
+      <c r="F729" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G729" s="67" t="s">
+        <v>4158</v>
+      </c>
+      <c r="H729" s="66" t="s">
+        <v>816</v>
+      </c>
+      <c r="I729" s="68" t="s">
+        <v>4159</v>
+      </c>
+      <c r="J729" s="72"/>
+      <c r="K729" s="69" t="s">
+        <v>242</v>
+      </c>
+      <c r="L729" s="70" t="s">
+        <v>4160</v>
+      </c>
+      <c r="M729" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N729" s="70" t="s">
+        <v>4161</v>
+      </c>
+      <c r="O729" s="70" t="s">
+        <v>4162</v>
+      </c>
+      <c r="P729" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q729" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="R729" s="71" t="s">
+        <v>4113</v>
       </c>
     </row>
   </sheetData>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F4353C4-8E88-1441-9AA7-0FAD0085EAE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A99D3C-ABE4-A247-9313-FCF96A8235D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="600" windowWidth="14400" windowHeight="17400" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -16993,15 +16993,140 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>마이클: 곽동연
-그린버그: 박정복
-피터슨: 이현진
-안소니: 안소니</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마이클</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>곽동연</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>그린버그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박정복</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>피터슨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
         </r>
       </text>
     </comment>
@@ -17053,6 +17178,148 @@
 그린버그: 고영빈
 피터슨: 이혜미
 안소니: 안소니</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I731" authorId="0" shapeId="0" xr:uid="{206E0900-FF2D-3E4B-B775-C31D86BCCF24}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마이클</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>유현석</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>그린버그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>고영빈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>피터슨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>고수희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
         </r>
       </text>
     </comment>
@@ -17061,7 +17328,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10224" uniqueCount="4168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10238" uniqueCount="4173">
   <si>
     <t>시즌</t>
   </si>
@@ -29565,6 +29832,21 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/musicalplay/282054</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 유현석 고영빈 고수희 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1AO_1SoI42Z0stJiqlRat-3_aEtTp7aXJ/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224168017043</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.rlpxwgugkt3</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/282323</t>
   </si>
 </sst>
 </file>
@@ -30912,7 +31194,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R730" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R731" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -31238,11 +31520,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U730"/>
+  <dimension ref="A1:U731"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R730" sqref="R730"/>
+    <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A731" sqref="A731"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -73504,59 +73786,115 @@
       </c>
     </row>
     <row r="730" spans="1:18" ht="17" customHeight="1">
-      <c r="A730" s="63">
+      <c r="A730" s="54">
         <v>729</v>
       </c>
-      <c r="B730" s="64">
+      <c r="B730" s="55">
         <v>46051</v>
       </c>
-      <c r="C730" s="65">
+      <c r="C730" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D730" s="66" t="s">
+      <c r="D730" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="E730" s="66" t="s">
+      <c r="E730" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="F730" s="66" t="s">
+      <c r="F730" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G730" s="67" t="s">
+      <c r="G730" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H730" s="66" t="s">
+      <c r="H730" s="57" t="s">
         <v>819</v>
       </c>
-      <c r="I730" s="68" t="s">
+      <c r="I730" s="59" t="s">
         <v>4163</v>
       </c>
-      <c r="J730" s="72">
+      <c r="J730" s="62">
         <v>0</v>
       </c>
-      <c r="K730" s="69" t="s">
+      <c r="K730" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="L730" s="70" t="s">
+      <c r="L730" s="60" t="s">
         <v>4164</v>
       </c>
       <c r="M730" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="N730" s="70" t="s">
+      <c r="N730" s="60" t="s">
         <v>4165</v>
       </c>
-      <c r="O730" s="70" t="s">
+      <c r="O730" s="60" t="s">
         <v>4166</v>
       </c>
-      <c r="P730" s="70" t="s">
+      <c r="P730" s="60" t="s">
         <v>4167</v>
       </c>
-      <c r="Q730" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="R730" s="71" t="s">
+      <c r="Q730" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R730" s="51" t="s">
         <v>4115</v>
+      </c>
+    </row>
+    <row r="731" spans="1:18" ht="17" customHeight="1">
+      <c r="A731" s="63">
+        <v>730</v>
+      </c>
+      <c r="B731" s="64">
+        <v>46054</v>
+      </c>
+      <c r="C731" s="65">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D731" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E731" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F731" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G731" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="H731" s="66" t="s">
+        <v>820</v>
+      </c>
+      <c r="I731" s="68" t="s">
+        <v>4168</v>
+      </c>
+      <c r="J731" s="72">
+        <v>0</v>
+      </c>
+      <c r="K731" s="69" t="s">
+        <v>232</v>
+      </c>
+      <c r="L731" s="70" t="s">
+        <v>4169</v>
+      </c>
+      <c r="M731" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N731" s="70" t="s">
+        <v>4170</v>
+      </c>
+      <c r="O731" s="70" t="s">
+        <v>4171</v>
+      </c>
+      <c r="P731" s="70" t="s">
+        <v>4172</v>
+      </c>
+      <c r="Q731" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="R731" s="71" t="s">
+        <v>4113</v>
       </c>
     </row>
   </sheetData>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10125"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A99D3C-ABE4-A247-9313-FCF96A8235D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A13ADC3-F4EC-DA43-BEB4-28E5046CA4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="600" windowWidth="14400" windowHeight="17400" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -17323,12 +17323,44 @@
         </r>
       </text>
     </comment>
+    <comment ref="I732" authorId="0" shapeId="0" xr:uid="{ED3A7A93-D74A-6249-978F-97E2C9910227}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>마이클: 박은석(어)
+그린버그: 이석준
+피터슨: 정재은(엘)
+안소니: 안소니</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I733" authorId="0" shapeId="0" xr:uid="{77C0E326-69D5-AD42-96DE-F013D212F774}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color theme="1"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>마이클 (행크 클리프트): 윤석원
+데이 (잭 터너): 정동화</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10238" uniqueCount="4173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10266" uniqueCount="4183">
   <si>
     <t>시즌</t>
   </si>
@@ -29847,6 +29879,36 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/musicalplay/282323</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 박은석(어) 이석준 정재은(엘) </t>
+  </si>
+  <si>
+    <t>이티</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/19QzRQuNSmoRMV1GW591zuBAGRT2Vbf3P/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224175092131</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.bkdjc9afcpl1</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/18fGG9zranngpMa9DJSkE8vMXoQjR3JYn/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1GvUSe6cDh2Eu0QTMWoBLTCb2Xl6Sv4ms/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224175094371</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.6btxu06fy7qa</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/282865</t>
   </si>
 </sst>
 </file>
@@ -30078,7 +30140,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -30266,6 +30328,33 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -30291,6 +30380,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -31194,7 +31286,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R731" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R733" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -31520,11 +31612,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U731"/>
+  <dimension ref="A1:U733"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A711" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A731" sqref="A731"/>
+      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D738" sqref="D738"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -73842,58 +73934,170 @@
       </c>
     </row>
     <row r="731" spans="1:18" ht="17" customHeight="1">
-      <c r="A731" s="63">
+      <c r="A731" s="54">
         <v>730</v>
       </c>
-      <c r="B731" s="64">
+      <c r="B731" s="55">
         <v>46054</v>
       </c>
-      <c r="C731" s="65">
+      <c r="C731" s="56">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D731" s="66" t="s">
+      <c r="D731" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="E731" s="66" t="s">
+      <c r="E731" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="F731" s="66" t="s">
+      <c r="F731" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="G731" s="67" t="s">
+      <c r="G731" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H731" s="66" t="s">
+      <c r="H731" s="57" t="s">
         <v>820</v>
       </c>
-      <c r="I731" s="68" t="s">
+      <c r="I731" s="59" t="s">
         <v>4168</v>
       </c>
-      <c r="J731" s="72">
+      <c r="J731" s="62">
         <v>0</v>
       </c>
-      <c r="K731" s="69" t="s">
+      <c r="K731" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="L731" s="70" t="s">
+      <c r="L731" s="60" t="s">
         <v>4169</v>
       </c>
       <c r="M731" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="N731" s="70" t="s">
+      <c r="N731" s="60" t="s">
         <v>4170</v>
       </c>
-      <c r="O731" s="70" t="s">
+      <c r="O731" s="60" t="s">
         <v>4171</v>
       </c>
-      <c r="P731" s="70" t="s">
+      <c r="P731" s="60" t="s">
         <v>4172</v>
       </c>
-      <c r="Q731" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="R731" s="71" t="s">
+      <c r="Q731" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R731" s="51" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="732" spans="1:18" ht="17" customHeight="1">
+      <c r="A732" s="63">
+        <v>731</v>
+      </c>
+      <c r="B732" s="64">
+        <v>46058</v>
+      </c>
+      <c r="C732" s="65">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D732" s="66" t="s">
+        <v>148</v>
+      </c>
+      <c r="E732" s="66" t="s">
+        <v>138</v>
+      </c>
+      <c r="F732" s="66" t="s">
+        <v>48</v>
+      </c>
+      <c r="G732" s="67" t="s">
+        <v>149</v>
+      </c>
+      <c r="H732" s="66" t="s">
+        <v>821</v>
+      </c>
+      <c r="I732" s="68" t="s">
+        <v>4173</v>
+      </c>
+      <c r="J732" s="81">
+        <v>31000</v>
+      </c>
+      <c r="K732" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="L732" s="70" t="s">
+        <v>4175</v>
+      </c>
+      <c r="M732" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N732" s="70" t="s">
+        <v>4176</v>
+      </c>
+      <c r="O732" s="70" t="s">
+        <v>4177</v>
+      </c>
+      <c r="P732" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q732" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="R732" s="71" t="s">
+        <v>4113</v>
+      </c>
+    </row>
+    <row r="733" spans="1:18" ht="17" customHeight="1">
+      <c r="A733" s="72">
+        <v>732</v>
+      </c>
+      <c r="B733" s="73">
+        <v>46059</v>
+      </c>
+      <c r="C733" s="74">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D733" s="75" t="s">
+        <v>1163</v>
+      </c>
+      <c r="E733" s="75" t="s">
+        <v>13</v>
+      </c>
+      <c r="F733" s="75" t="s">
+        <v>7</v>
+      </c>
+      <c r="G733" s="76" t="s">
+        <v>4150</v>
+      </c>
+      <c r="H733" s="75" t="s">
+        <v>817</v>
+      </c>
+      <c r="I733" s="77" t="s">
+        <v>4151</v>
+      </c>
+      <c r="J733" s="82">
+        <v>0</v>
+      </c>
+      <c r="K733" s="78" t="s">
+        <v>4174</v>
+      </c>
+      <c r="L733" s="79" t="s">
+        <v>4178</v>
+      </c>
+      <c r="M733" s="61" t="s">
+        <v>4179</v>
+      </c>
+      <c r="N733" s="79" t="s">
+        <v>4180</v>
+      </c>
+      <c r="O733" s="79" t="s">
+        <v>4181</v>
+      </c>
+      <c r="P733" s="79" t="s">
+        <v>4182</v>
+      </c>
+      <c r="Q733" s="79" t="s">
+        <v>15</v>
+      </c>
+      <c r="R733" s="80" t="s">
         <v>4113</v>
       </c>
     </row>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A00C676-3D89-8F41-986F-B8A12B403AF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81DF86-2065-FE4E-876C-31B40710DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="600" windowWidth="14400" windowHeight="17400" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -17579,32 +17579,1257 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>줄리안 마쉬: 양준모
-도로시 브록: 정영주
-페기 소여: 최유정
-빌리 로러: 기세중
-메기 존스: 전수경
-버튼 베리: 김호
-애브너 딜런: 김민수(브)
-팻 대닝: 윤석원
-앤디: 김성수
-애니: 전성혜
-필리스: 김재희
-로레인: 김채아
-맥: 임정진
-앙상블:
-박래찬 이소윤 주현우 이서호 김나영 김봄나리 
-오성식 최재석 손호재 이현주 강산 박준병 
-이상원 박지원 이현지 엄도하 남유진 김다예 
-김지호 유민혜 강한나래 최경희 이동주 박비주 
-나건주 신은규 이여준 임유연 최태언
-스윙:
-김찬후 노아름</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>줄리안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마쉬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>양준모</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>도로시</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>브록</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정영주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>페기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>소여</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최유정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>빌리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로러</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>기세중</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>메기</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>존스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>전수경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>버튼</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>베리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>애브너</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>딜런</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김민수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>브</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>팻</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>대닝</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤석원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>앤디</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김성수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>애니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>전성혜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>필리스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김재희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로레인</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김채아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>맥</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임정진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>앙상블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박래찬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이소윤</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>주현우</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이서호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김나영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김봄나리</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>오성식</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최재석</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>손호재</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>강산</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박준병</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이상원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박지원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현지</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>엄도하</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>남유진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김다예</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김지호</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>유민혜</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>강한나래</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최경희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이동주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박비주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>나건주</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>신은규</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이여준</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임유연</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최태언</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스윙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김찬후</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>노아름</t>
         </r>
       </text>
     </comment>
@@ -17651,13 +18876,66 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>사도: 조용휘
-영조: 김찬호</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>사도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>조용휘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>영조</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김찬호</t>
         </r>
       </text>
     </comment>
@@ -17851,15 +19129,140 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>마이클: 김지온
-그린버그: 고영빈
-피터슨: 이혜미
-안소니: 안소니</t>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>마이클</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김지온</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>그린버그</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>고영빈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>피터슨</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이혜미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>안소니</t>
         </r>
       </text>
     </comment>
@@ -18067,6 +19470,953 @@
           </rPr>
           <t>제임스: 문경초
 바이런: 장재웅</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I735" authorId="0" shapeId="0" xr:uid="{090DDBA5-8586-364D-8B7F-3C649C568943}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>크리스티안</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이석훈</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>사틴</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정선아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>지들러</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이정열</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>몬로스</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>공작</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이창용</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>로트렉</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>지현준</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>산티아고</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>서만석</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>니니</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>하유진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>베이비돌</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>유승엽</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>아라비아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이정하</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>라쇼콜라</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>진주영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>앙상블</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>차형도</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이현영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박신별</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최원섭</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이준원</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이상협</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최영진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이동근</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김현정</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박정민</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>장이산</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최예슬</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>심예진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김유경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>최진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>스윙</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>윤유경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>노재현</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임상희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>홍사무엘</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>유민혜</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I736" authorId="0" shapeId="0" xr:uid="{9D0AB662-BFA4-3349-A0CD-A021AD189376}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>명경</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정우연</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>지수</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>임예진</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>환희</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>백예은</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>수영</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>정다예</t>
         </r>
       </text>
     </comment>
@@ -18075,7 +20425,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10280" uniqueCount="4188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10306" uniqueCount="4200">
   <si>
     <t>시즌</t>
   </si>
@@ -30639,6 +32989,42 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/musicalplay/283250</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 이석훈 정선아 이정열 이창용 지현준 서만석 하유진 유승엽 이정하 진주영 </t>
+  </si>
+  <si>
+    <t>A여고 사서의 영광과 비극</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 정우연 임예진 백예은 정다예 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10TNDphF7tEjZqUtznQuWSeJOUXg0Kg2h/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224180602935</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.hct8s61k0vr0</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/theatergoing/124865</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_zFJ6jDLYC-dbFaw7YKIKPJ1YMqKt3FB/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1CfMBq_NN-rjqJ-O697wsxuYfuOuQh25X/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224180605203</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.w9hyguc9gisl</t>
+  </si>
+  <si>
+    <t>https://m.dcinside.com/mini/musicalplay/283455</t>
   </si>
 </sst>
 </file>
@@ -30870,7 +33256,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -31058,6 +33444,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -31086,6 +33475,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -31986,7 +34405,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R734" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R736" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -32312,11 +34731,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U734"/>
+  <dimension ref="A1:U736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A716" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K738" sqref="K738"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L736" sqref="L736"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17" customHeight="1"/>
@@ -74802,60 +77221,168 @@
       </c>
     </row>
     <row r="734" spans="1:18" ht="17" customHeight="1">
-      <c r="A734" s="63">
+      <c r="A734" s="50">
         <v>733</v>
       </c>
-      <c r="B734" s="64">
+      <c r="B734" s="40">
         <v>46062</v>
       </c>
-      <c r="C734" s="65">
+      <c r="C734" s="41">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D734" s="66" t="s">
+      <c r="D734" s="39" t="s">
         <v>4176</v>
       </c>
-      <c r="E734" s="66" t="s">
+      <c r="E734" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="F734" s="66" t="s">
+      <c r="F734" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="G734" s="67" t="s">
+      <c r="G734" s="42" t="s">
         <v>4181</v>
       </c>
-      <c r="H734" s="66" t="s">
+      <c r="H734" s="39" t="s">
         <v>815</v>
       </c>
-      <c r="I734" s="68" t="s">
+      <c r="I734" s="43" t="s">
         <v>4182</v>
       </c>
-      <c r="J734" s="69">
+      <c r="J734" s="63">
         <v>0</v>
       </c>
-      <c r="K734" s="70" t="s">
-        <v>15</v>
-      </c>
-      <c r="L734" s="71" t="s">
+      <c r="K734" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="L734" s="44" t="s">
         <v>4183</v>
       </c>
       <c r="M734" s="16" t="s">
         <v>4184</v>
       </c>
-      <c r="N734" s="71" t="s">
+      <c r="N734" s="44" t="s">
         <v>4185</v>
       </c>
-      <c r="O734" s="71" t="s">
+      <c r="O734" s="44" t="s">
         <v>4186</v>
       </c>
-      <c r="P734" s="71" t="s">
+      <c r="P734" s="44" t="s">
         <v>4187</v>
       </c>
-      <c r="Q734" s="71" t="s">
-        <v>15</v>
-      </c>
-      <c r="R734" s="72" t="s">
+      <c r="Q734" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="R734" s="51" t="s">
         <v>4099</v>
       </c>
+    </row>
+    <row r="735" spans="1:18" ht="17" customHeight="1">
+      <c r="A735" s="64">
+        <v>734</v>
+      </c>
+      <c r="B735" s="65">
+        <v>46064</v>
+      </c>
+      <c r="C735" s="66">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D735" s="67" t="s">
+        <v>70</v>
+      </c>
+      <c r="E735" s="67" t="s">
+        <v>47</v>
+      </c>
+      <c r="F735" s="67" t="s">
+        <v>7</v>
+      </c>
+      <c r="G735" s="68" t="s">
+        <v>1023</v>
+      </c>
+      <c r="H735" s="67" t="s">
+        <v>816</v>
+      </c>
+      <c r="I735" s="69" t="s">
+        <v>4188</v>
+      </c>
+      <c r="J735" s="70">
+        <v>52000</v>
+      </c>
+      <c r="K735" s="71" t="s">
+        <v>11</v>
+      </c>
+      <c r="L735" s="72" t="s">
+        <v>4191</v>
+      </c>
+      <c r="M735" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="N735" s="72" t="s">
+        <v>4192</v>
+      </c>
+      <c r="O735" s="72" t="s">
+        <v>4193</v>
+      </c>
+      <c r="P735" s="72" t="s">
+        <v>4194</v>
+      </c>
+      <c r="Q735" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="R735" s="73"/>
+    </row>
+    <row r="736" spans="1:18" ht="17" customHeight="1">
+      <c r="A736" s="74">
+        <v>735</v>
+      </c>
+      <c r="B736" s="75">
+        <v>46064</v>
+      </c>
+      <c r="C736" s="76">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D736" s="77" t="s">
+        <v>290</v>
+      </c>
+      <c r="E736" s="77" t="s">
+        <v>13</v>
+      </c>
+      <c r="F736" s="77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G736" s="78" t="s">
+        <v>4189</v>
+      </c>
+      <c r="H736" s="77" t="s">
+        <v>815</v>
+      </c>
+      <c r="I736" s="79" t="s">
+        <v>4190</v>
+      </c>
+      <c r="J736" s="80">
+        <v>0</v>
+      </c>
+      <c r="K736" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="L736" s="82" t="s">
+        <v>4195</v>
+      </c>
+      <c r="M736" s="61" t="s">
+        <v>4196</v>
+      </c>
+      <c r="N736" s="82" t="s">
+        <v>4197</v>
+      </c>
+      <c r="O736" s="82" t="s">
+        <v>4198</v>
+      </c>
+      <c r="P736" s="82" t="s">
+        <v>4199</v>
+      </c>
+      <c r="Q736" s="82" t="s">
+        <v>15</v>
+      </c>
+      <c r="R736" s="83"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>

--- a/RawData.xlsx
+++ b/RawData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/js/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E81DF86-2065-FE4E-876C-31B40710DC89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{239BE955-18C7-D74D-9A86-1A748FE424DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="600" windowWidth="14400" windowHeight="17400" xr2:uid="{A9EF6BCE-6681-424E-A755-53C4540C4A5C}"/>
   </bookViews>
@@ -20420,12 +20420,154 @@
         </r>
       </text>
     </comment>
+    <comment ref="I737" authorId="0" shapeId="0" xr:uid="{038B13F4-B97B-2940-9A67-C14308345E72}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>프리다</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>김소향</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>레플레하</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>전수미</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>데스티노</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>이아름솔</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>메모리아</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">: </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+          </rPr>
+          <t>박시인</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10306" uniqueCount="4200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10319" uniqueCount="4205">
   <si>
     <t>시즌</t>
   </si>
@@ -33025,6 +33167,21 @@
   </si>
   <si>
     <t>https://m.dcinside.com/mini/musicalplay/283455</t>
+  </si>
+  <si>
+    <t>프리다</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 김소향 전수미 이아름솔 박시인 </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10SkPNo2cy4_T7PQFXmTtnasAswxu9Ggu/view?usp=drive_link</t>
+  </si>
+  <si>
+    <t>https://blog.naver.com/playnmu/224193007659</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1CSxTzEcx4Fgr6bF_h2g9BxJYFypmYPtv_Gc02-qe1ss/edit?tab=t.0#heading=h.1bu81oay04sf</t>
   </si>
 </sst>
 </file>
@@ -33256,7 +33413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -33447,34 +33604,7 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -34405,7 +34535,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R736" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{4CF1CA70-B8DA-4ADA-9B22-302960093E18}" name="전체" displayName="전체" ref="A1:R737" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q706">
     <sortCondition ref="B200:B706"/>
   </sortState>
@@ -34731,10 +34861,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCCB8FC5-3A29-48CA-894D-6639F6E020DC}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U736"/>
+  <dimension ref="A1:U737"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A718" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="92" zoomScaleNormal="205" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A717" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="L736" sqref="L736"/>
     </sheetView>
   </sheetViews>
@@ -77277,112 +77407,166 @@
       </c>
     </row>
     <row r="735" spans="1:18" ht="17" customHeight="1">
-      <c r="A735" s="64">
+      <c r="A735" s="50">
         <v>734</v>
       </c>
-      <c r="B735" s="65">
+      <c r="B735" s="40">
         <v>46064</v>
       </c>
-      <c r="C735" s="66">
+      <c r="C735" s="41">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D735" s="67" t="s">
+      <c r="D735" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="E735" s="67" t="s">
+      <c r="E735" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="F735" s="67" t="s">
+      <c r="F735" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="G735" s="68" t="s">
+      <c r="G735" s="42" t="s">
         <v>1023</v>
       </c>
-      <c r="H735" s="67" t="s">
+      <c r="H735" s="39" t="s">
         <v>816</v>
       </c>
-      <c r="I735" s="69" t="s">
+      <c r="I735" s="43" t="s">
         <v>4188</v>
       </c>
-      <c r="J735" s="70">
+      <c r="J735" s="63">
         <v>52000</v>
       </c>
-      <c r="K735" s="71" t="s">
+      <c r="K735" s="50" t="s">
         <v>11</v>
       </c>
-      <c r="L735" s="72" t="s">
+      <c r="L735" s="44" t="s">
         <v>4191</v>
       </c>
       <c r="M735" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="N735" s="72" t="s">
+      <c r="N735" s="44" t="s">
         <v>4192</v>
       </c>
-      <c r="O735" s="72" t="s">
+      <c r="O735" s="44" t="s">
         <v>4193</v>
       </c>
-      <c r="P735" s="72" t="s">
+      <c r="P735" s="44" t="s">
         <v>4194</v>
       </c>
-      <c r="Q735" s="72" t="s">
-        <v>15</v>
-      </c>
-      <c r="R735" s="73"/>
+      <c r="Q735" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="R735" s="51"/>
     </row>
     <row r="736" spans="1:18" ht="17" customHeight="1">
-      <c r="A736" s="74">
+      <c r="A736" s="54">
         <v>735</v>
       </c>
-      <c r="B736" s="75">
+      <c r="B736" s="55">
         <v>46064</v>
       </c>
-      <c r="C736" s="76">
+      <c r="C736" s="56">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D736" s="77" t="s">
+      <c r="D736" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="E736" s="77" t="s">
+      <c r="E736" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="F736" s="77" t="s">
+      <c r="F736" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="G736" s="78" t="s">
+      <c r="G736" s="58" t="s">
         <v>4189</v>
       </c>
-      <c r="H736" s="77" t="s">
+      <c r="H736" s="57" t="s">
         <v>815</v>
       </c>
-      <c r="I736" s="79" t="s">
+      <c r="I736" s="59" t="s">
         <v>4190</v>
       </c>
-      <c r="J736" s="80">
+      <c r="J736" s="64">
         <v>0</v>
       </c>
-      <c r="K736" s="81" t="s">
-        <v>15</v>
-      </c>
-      <c r="L736" s="82" t="s">
+      <c r="K736" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="L736" s="60" t="s">
         <v>4195</v>
       </c>
       <c r="M736" s="61" t="s">
         <v>4196</v>
       </c>
-      <c r="N736" s="82" t="s">
+      <c r="N736" s="60" t="s">
         <v>4197</v>
       </c>
-      <c r="O736" s="82" t="s">
+      <c r="O736" s="60" t="s">
         <v>4198</v>
       </c>
-      <c r="P736" s="82" t="s">
+      <c r="P736" s="60" t="s">
         <v>4199</v>
       </c>
-      <c r="Q736" s="82" t="s">
-        <v>15</v>
-      </c>
-      <c r="R736" s="83"/>
+      <c r="Q736" s="60" t="s">
+        <v>15</v>
+      </c>
+      <c r="R736" s="51"/>
+    </row>
+    <row r="737" spans="1:18" ht="17" customHeight="1">
+      <c r="A737" s="65">
+        <v>736</v>
+      </c>
+      <c r="B737" s="66">
+        <v>46074</v>
+      </c>
+      <c r="C737" s="67">
+        <v>0.625</v>
+      </c>
+      <c r="D737" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="E737" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="F737" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="G737" s="69" t="s">
+        <v>4200</v>
+      </c>
+      <c r="H737" s="68" t="s">
+        <v>815</v>
+      </c>
+      <c r="I737" s="70" t="s">
+        <v>4201</v>
+      </c>
+      <c r="J737" s="71">
+        <v>0</v>
+      </c>
+      <c r="K737" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="L737" s="73" t="s">
+        <v>4202</v>
+      </c>
+      <c r="M737" s="61" t="s">
+        <v>15</v>
+      </c>
+      <c r="N737" s="73" t="s">
+        <v>4203</v>
+      </c>
+      <c r="O737" s="73" t="s">
+        <v>4204</v>
+      </c>
+      <c r="P737" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q737" s="73" t="s">
+        <v>15</v>
+      </c>
+      <c r="R737" s="74"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
